--- a/Prefered_PARX_model_forecast/Resultater_PAR/theta_sqr_est_T_2para_PAR.xlsx
+++ b/Prefered_PARX_model_forecast/Resultater_PAR/theta_sqr_est_T_2para_PAR.xlsx
@@ -28,7 +28,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -40,16 +40,28 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -62,4826 +74,4826 @@
   <dimension ref="A1:D344"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="true"/>
+    <col min="1" max="1" width="15.7109375" customWidth="true"/>
     <col min="2" max="2" width="12.7109375" customWidth="true"/>
-    <col min="3" max="3" width="12.7109375" customWidth="true"/>
-    <col min="4" max="4" width="12.7109375" customWidth="true"/>
+    <col min="3" max="3" width="13.42578125" customWidth="true"/>
+    <col min="4" max="4" width="11.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1">
-        <v>0.53362743201358809</v>
+        <v>0.46580108997479863</v>
       </c>
       <c r="B1">
-        <v>0.71125802350043199</v>
+        <v>0.71372384393725441</v>
       </c>
       <c r="C1">
-        <v>0.67050309752552051</v>
+        <v>-0.66760042565401245</v>
       </c>
       <c r="D1">
-        <v>0.13893583957207578</v>
+        <v>1.3065081926356501</v>
       </c>
     </row>
     <row r="2">
       <c r="A2">
-        <v>0.56531714174372705</v>
+        <v>0.51871137234355258</v>
       </c>
       <c r="B2">
-        <v>0.7129410237994539</v>
+        <v>0.71532555320213564</v>
       </c>
       <c r="C2">
-        <v>0.66760287004265395</v>
+        <v>0.66472085252811286</v>
       </c>
       <c r="D2">
-        <v>0.13610969890963048</v>
+        <v>1.155184165256089</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>0.54754512333212024</v>
+        <v>0.49691126950613906</v>
       </c>
       <c r="B3">
-        <v>0.70944618224135048</v>
+        <v>0.71169475738463461</v>
       </c>
       <c r="C3">
-        <v>0.67196548740416961</v>
+        <v>0.66927638983957605</v>
       </c>
       <c r="D3">
-        <v>0.1396443187522397</v>
+        <v>1.1774747734034539</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>0.54784689785362839</v>
+        <v>0.49886629159532886</v>
       </c>
       <c r="B4">
-        <v>0.70996023584493484</v>
+        <v>0.71187308985565767</v>
       </c>
       <c r="C4">
-        <v>0.67140290958842397</v>
+        <v>0.6691632076119437</v>
       </c>
       <c r="D4">
-        <v>0.1430664905266209</v>
+        <v>1.1291029261915768</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>0.53830372356815648</v>
+        <v>0.49232706121265007</v>
       </c>
       <c r="B5">
-        <v>0.7095804461130073</v>
+        <v>0.71146290560886616</v>
       </c>
       <c r="C5">
-        <v>0.67208648070686761</v>
+        <v>0.66989299588390061</v>
       </c>
       <c r="D5">
-        <v>0.14485707599004022</v>
+        <v>1.0825588632159615</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>0.56792134529742655</v>
+        <v>0.52766456206412549</v>
       </c>
       <c r="B6">
-        <v>0.71065974553358768</v>
+        <v>0.71206560129656249</v>
       </c>
       <c r="C6">
-        <v>0.67003739023292175</v>
+        <v>0.66839685464401222</v>
       </c>
       <c r="D6">
-        <v>0.14212620374575036</v>
+        <v>1.0390449709619758</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>0.57169048631840447</v>
+        <v>0.53252997442253824</v>
       </c>
       <c r="B7">
-        <v>0.71187313044327805</v>
+        <v>0.71335207216927232</v>
       </c>
       <c r="C7">
-        <v>0.6686095238113996</v>
+        <v>0.66687297145937185</v>
       </c>
       <c r="D7">
-        <v>0.1435528434889925</v>
+        <v>1.0333615591545589</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>0.56044459380118283</v>
+        <v>0.51696652915342878</v>
       </c>
       <c r="B8">
-        <v>0.70976955356421079</v>
+        <v>0.71137263522044347</v>
       </c>
       <c r="C8">
-        <v>0.6711381107887423</v>
+        <v>0.66926434176159177</v>
       </c>
       <c r="D8">
-        <v>0.14366138559175548</v>
+        <v>1.0789235296563526</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>0.5609629709393672</v>
+        <v>0.51809864044247211</v>
       </c>
       <c r="B9">
-        <v>0.71022059313186459</v>
+        <v>0.71184159111321343</v>
       </c>
       <c r="C9">
-        <v>0.67063326478854823</v>
+        <v>0.66872966749357399</v>
       </c>
       <c r="D9">
-        <v>0.14775470812839836</v>
+        <v>1.077963006300958</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>0.5495950843875046</v>
+        <v>0.50365842901310542</v>
       </c>
       <c r="B10">
-        <v>0.70966843819335534</v>
+        <v>0.71119994968492539</v>
       </c>
       <c r="C10">
-        <v>0.67142863372349959</v>
+        <v>0.66963254282379647</v>
       </c>
       <c r="D10">
-        <v>0.14484988504060053</v>
+        <v>1.1006328166358179</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>0.57174438352415802</v>
+        <v>0.48639890422697962</v>
       </c>
       <c r="B11">
-        <v>0.70796946856604681</v>
+        <v>0.71163079527160045</v>
       </c>
       <c r="C11">
-        <v>0.67285027381485563</v>
+        <v>0.66862250853643546</v>
       </c>
       <c r="D11">
-        <v>0.14354721238193463</v>
+        <v>1.4891362301045528</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>0.57051736496489736</v>
+        <v>0.48525843369384991</v>
       </c>
       <c r="B12">
-        <v>0.70787972361130702</v>
+        <v>0.71118355012012158</v>
       </c>
       <c r="C12">
-        <v>0.67297413859896715</v>
+        <v>0.6691692075040242</v>
       </c>
       <c r="D12">
-        <v>0.14676280871190253</v>
+        <v>1.4742793509709737</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>0.57967447134411165</v>
+        <v>0.49499137740197896</v>
       </c>
       <c r="B13">
-        <v>0.70986744300098881</v>
+        <v>0.71294937879390552</v>
       </c>
       <c r="C13">
-        <v>0.67067977557264569</v>
+        <v>0.66711981855116209</v>
       </c>
       <c r="D13">
-        <v>0.14431701570240285</v>
+        <v>1.4784585193994211</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>0.56584874021965947</v>
+        <v>0.48191963341665545</v>
       </c>
       <c r="B14">
-        <v>0.70650481602602422</v>
+        <v>0.70951398603430826</v>
       </c>
       <c r="C14">
-        <v>0.6744611591591968</v>
+        <v>0.6710206110303516</v>
       </c>
       <c r="D14">
-        <v>0.14692364250327983</v>
+        <v>1.4506732590751414</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>0.56756847371036501</v>
+        <v>0.48443346866903292</v>
       </c>
       <c r="B15">
-        <v>0.70675896150617334</v>
+        <v>0.70970658261596375</v>
       </c>
       <c r="C15">
-        <v>0.67418263912784426</v>
+        <v>0.6708128117899077</v>
       </c>
       <c r="D15">
-        <v>0.14864174090008375</v>
+        <v>1.4478893291521675</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>0.56041238370469393</v>
+        <v>0.47309841667819374</v>
       </c>
       <c r="B16">
-        <v>0.70654688113207786</v>
+        <v>0.70961147295948157</v>
       </c>
       <c r="C16">
-        <v>0.6744433284504161</v>
+        <v>0.67092964716811554</v>
       </c>
       <c r="D16">
-        <v>0.15070728959828805</v>
+        <v>1.4759933065888453</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>0.55301325196305506</v>
+        <v>0.4593748063123147</v>
       </c>
       <c r="B17">
-        <v>0.70773528026411903</v>
+        <v>0.71083363920972242</v>
       </c>
       <c r="C17">
-        <v>0.67318223514951669</v>
+        <v>0.66959809609171184</v>
       </c>
       <c r="D17">
-        <v>0.15642112340003198</v>
+        <v>1.518577048676913</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>0.5576661457193568</v>
+        <v>0.45824449366370867</v>
       </c>
       <c r="B18">
-        <v>0.70730832220131057</v>
+        <v>0.71117620956091321</v>
       </c>
       <c r="C18">
-        <v>0.67357326106517679</v>
+        <v>0.66917942144545106</v>
       </c>
       <c r="D18">
-        <v>0.15786948641869555</v>
+        <v>1.5425883630194006</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>0.5538003478853224</v>
+        <v>0.45984915721221398</v>
       </c>
       <c r="B19">
-        <v>0.70731908428046508</v>
+        <v>0.71100062972524369</v>
       </c>
       <c r="C19">
-        <v>0.67365234439985089</v>
+        <v>0.66950101256738614</v>
       </c>
       <c r="D19">
-        <v>0.15766444138909907</v>
+        <v>1.4824391509899724</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>0.5513520360393227</v>
+        <v>0.45861745417689881</v>
       </c>
       <c r="B20">
-        <v>0.70756443257948287</v>
+        <v>0.71132509846392344</v>
       </c>
       <c r="C20">
-        <v>0.67344533094532877</v>
+        <v>0.66920534920475372</v>
       </c>
       <c r="D20">
-        <v>0.15940964818582259</v>
+        <v>1.4657229855936074</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>0.55573753758745148</v>
+        <v>0.46406508713585259</v>
       </c>
       <c r="B21">
-        <v>0.7081526165951193</v>
+        <v>0.71177951647766846</v>
       </c>
       <c r="C21">
-        <v>0.67269723570124429</v>
+        <v>0.66860627265609152</v>
       </c>
       <c r="D21">
-        <v>0.15961132345083065</v>
+        <v>1.4639474558919683</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>0.56960969982037168</v>
+        <v>0.48566865284175542</v>
       </c>
       <c r="B22">
-        <v>0.71032512230322054</v>
+        <v>0.71385869994194084</v>
       </c>
       <c r="C22">
-        <v>0.66997254798094907</v>
+        <v>0.66595487068277714</v>
       </c>
       <c r="D22">
-        <v>0.15922932891357741</v>
+        <v>1.4299387520178906</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>0.55284264875058564</v>
+        <v>0.46031038459591478</v>
       </c>
       <c r="B23">
-        <v>0.70635580211026294</v>
+        <v>0.70995343976587377</v>
       </c>
       <c r="C23">
-        <v>0.67465084090582228</v>
+        <v>0.67060813169429667</v>
       </c>
       <c r="D23">
-        <v>0.16202363519428556</v>
+        <v>1.4734976617208575</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>0.55957273646390759</v>
+        <v>0.47380787840591787</v>
       </c>
       <c r="B24">
-        <v>0.70624968850022563</v>
+        <v>0.70974184941668383</v>
       </c>
       <c r="C24">
-        <v>0.67466573448013312</v>
+        <v>0.6707330302084904</v>
       </c>
       <c r="D24">
-        <v>0.1619565991211793</v>
+        <v>1.4392069590131242</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>0.57809686594505616</v>
+        <v>0.466078398522906</v>
       </c>
       <c r="B25">
-        <v>0.70939250677062349</v>
+        <v>0.71335513571534437</v>
       </c>
       <c r="C25">
-        <v>0.67087990906720529</v>
+        <v>0.66635740527684806</v>
       </c>
       <c r="D25">
-        <v>0.15994399143144708</v>
+        <v>1.6326533665612457</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>0.55346087244809972</v>
+        <v>0.45916175811884552</v>
       </c>
       <c r="B26">
-        <v>0.70161928545605867</v>
+        <v>0.70528563441810066</v>
       </c>
       <c r="C26">
-        <v>0.67964792145696928</v>
+        <v>0.67557425905365842</v>
       </c>
       <c r="D26">
-        <v>0.16888035392377435</v>
+        <v>1.465326465611646</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>0.56029342072348143</v>
+        <v>0.459359006643072</v>
       </c>
       <c r="B27">
-        <v>0.6995067761193472</v>
+        <v>0.70285818058149996</v>
       </c>
       <c r="C27">
-        <v>0.68193959297812745</v>
+        <v>0.67829401996358429</v>
       </c>
       <c r="D27">
-        <v>0.17090841560821354</v>
+        <v>1.5077171597929651</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>0.56926315077722167</v>
+        <v>0.47041701698429478</v>
       </c>
       <c r="B28">
-        <v>0.70122408860398511</v>
+        <v>0.7043426171993723</v>
       </c>
       <c r="C28">
-        <v>0.67999164871747908</v>
+        <v>0.67660605255289108</v>
       </c>
       <c r="D28">
-        <v>0.16912410245391404</v>
+        <v>1.5038741197689167</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>0.56534700896964063</v>
+        <v>0.46503839704186378</v>
       </c>
       <c r="B29">
-        <v>0.70034777984733809</v>
+        <v>0.70361327254048389</v>
       </c>
       <c r="C29">
-        <v>0.68095851048763267</v>
+        <v>0.67741431162684407</v>
       </c>
       <c r="D29">
-        <v>0.17119058181447164</v>
+        <v>1.5122609429015892</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>0.55761405997354763</v>
+        <v>0.45132519193335385</v>
       </c>
       <c r="B30">
-        <v>0.69958281574484882</v>
+        <v>0.70296757574840041</v>
       </c>
       <c r="C30">
-        <v>0.68174486488205166</v>
+        <v>0.67806832867170364</v>
       </c>
       <c r="D30">
-        <v>0.17701718872601369</v>
+        <v>1.5454147074254503</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>0.55704609705254859</v>
+        <v>0.45074563069340667</v>
       </c>
       <c r="B31">
-        <v>0.70007661762385109</v>
+        <v>0.7033794267169331</v>
       </c>
       <c r="C31">
-        <v>0.68120152550123747</v>
+        <v>0.67760970495668493</v>
       </c>
       <c r="D31">
-        <v>0.17724494937926505</v>
+        <v>1.5492606492767544</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>0.55287773511526084</v>
+        <v>0.46349418115748825</v>
       </c>
       <c r="B32">
-        <v>0.70049440619581804</v>
+        <v>0.7030344127301027</v>
       </c>
       <c r="C32">
-        <v>0.68077654139213484</v>
+        <v>0.67806988878208929</v>
       </c>
       <c r="D32">
-        <v>0.1801147995791206</v>
+        <v>1.3998523067216313</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>0.55029929439325165</v>
+        <v>0.46451223894227206</v>
       </c>
       <c r="B33">
-        <v>0.7010342088383259</v>
+        <v>0.70372655561642949</v>
       </c>
       <c r="C33">
-        <v>0.6802291775245205</v>
+        <v>0.67734107599657489</v>
       </c>
       <c r="D33">
-        <v>0.18223083439563614</v>
+        <v>1.3663294836818838</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>0.57128148644874277</v>
+        <v>0.48353304769940009</v>
       </c>
       <c r="B34">
-        <v>0.70071716262100903</v>
+        <v>0.70249107589947801</v>
       </c>
       <c r="C34">
-        <v>0.68014422910478389</v>
+        <v>0.67836651687786853</v>
       </c>
       <c r="D34">
-        <v>0.18226675747568361</v>
+        <v>1.3906285346485272</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>0.54836603100929104</v>
+        <v>0.45274314464625781</v>
       </c>
       <c r="B35">
-        <v>0.69375527458584929</v>
+        <v>0.69580133382148235</v>
       </c>
       <c r="C35">
-        <v>0.68792566094687135</v>
+        <v>0.68587642247850023</v>
       </c>
       <c r="D35">
-        <v>0.18690131880648347</v>
+        <v>1.4197169210176728</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>0.55030223931407707</v>
+        <v>0.45739188508585121</v>
       </c>
       <c r="B36">
-        <v>0.69368643666213048</v>
+        <v>0.69554693841770932</v>
       </c>
       <c r="C36">
-        <v>0.68798099182574113</v>
+        <v>0.68612950725565636</v>
       </c>
       <c r="D36">
-        <v>0.18995168302561369</v>
+        <v>1.4069210055804073</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>0.53786912477439652</v>
+        <v>0.43378234488479644</v>
       </c>
       <c r="B37">
-        <v>0.69349327776600955</v>
+        <v>0.69532178277502243</v>
       </c>
       <c r="C37">
-        <v>0.68840460792772618</v>
+        <v>0.68658853286888877</v>
       </c>
       <c r="D37">
-        <v>0.19361312109969331</v>
+        <v>1.4669476524496765</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>0.54022649505047171</v>
+        <v>0.44102284519111762</v>
       </c>
       <c r="B38">
-        <v>0.69335493279903848</v>
+        <v>0.69496845302698707</v>
       </c>
       <c r="C38">
-        <v>0.6884943157687673</v>
+        <v>0.68687437364684412</v>
       </c>
       <c r="D38">
-        <v>0.19879112143654262</v>
+        <v>1.4470351143182256</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>0.55915488412145598</v>
+        <v>0.42265674272285103</v>
       </c>
       <c r="B39">
-        <v>0.69416108807346444</v>
+        <v>0.6963083679161608</v>
       </c>
       <c r="C39">
-        <v>0.68706944003063319</v>
+        <v>0.68511421612616452</v>
       </c>
       <c r="D39">
-        <v>0.19706434105250953</v>
+        <v>1.650177136715457</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>0.53940442871417227</v>
+        <v>0.41643410374105672</v>
       </c>
       <c r="B40">
-        <v>0.68942817729199291</v>
+        <v>0.69222642540045121</v>
       </c>
       <c r="C40">
-        <v>0.69250602589545163</v>
+        <v>0.68980565969404051</v>
       </c>
       <c r="D40">
-        <v>0.20239927889264059</v>
+        <v>1.545928089701367</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>0.54962856103157054</v>
+        <v>0.42207785296202716</v>
       </c>
       <c r="B41">
-        <v>0.68868567622195709</v>
+        <v>0.69085796053096937</v>
       </c>
       <c r="C41">
-        <v>0.69302333491477619</v>
+        <v>0.6910900213035639</v>
       </c>
       <c r="D41">
-        <v>0.2001935117105279</v>
+        <v>1.5727339826202047</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>0.54945463913513892</v>
+        <v>0.42229136791248412</v>
       </c>
       <c r="B42">
-        <v>0.68886146375295543</v>
+        <v>0.69110405743161962</v>
       </c>
       <c r="C42">
-        <v>0.69284899355390761</v>
+        <v>0.69083123215159081</v>
       </c>
       <c r="D42">
-        <v>0.20620851761559181</v>
+        <v>1.5730160346455488</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>0.56740791655680411</v>
+        <v>0.44640029570054129</v>
       </c>
       <c r="B43">
-        <v>0.69161534877166275</v>
+        <v>0.6937463903179597</v>
       </c>
       <c r="C43">
-        <v>0.68960212019593059</v>
+        <v>0.6877005293291949</v>
       </c>
       <c r="D43">
-        <v>0.20189244943129783</v>
+        <v>1.5661342010133263</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>0.59168465522626201</v>
+        <v>0.48409315464690184</v>
       </c>
       <c r="B44">
-        <v>0.6997691064113265</v>
+        <v>0.70231883275729023</v>
       </c>
       <c r="C44">
-        <v>0.68061114445360604</v>
+        <v>0.67817189460219351</v>
       </c>
       <c r="D44">
-        <v>0.20026589606962641</v>
+        <v>1.5277720006369493</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>0.5914513205149089</v>
+        <v>0.4841324707921269</v>
       </c>
       <c r="B45">
-        <v>0.69969724354432894</v>
+        <v>0.70238080843871264</v>
       </c>
       <c r="C45">
-        <v>0.68068621213585212</v>
+        <v>0.67810237802951168</v>
       </c>
       <c r="D45">
-        <v>0.2034140866503327</v>
+        <v>1.5279317680817046</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>0.58775080360730558</v>
+        <v>0.49881844461475244</v>
       </c>
       <c r="B46">
-        <v>0.69824846135438468</v>
+        <v>0.699748845186692</v>
       </c>
       <c r="C46">
-        <v>0.68209525311632468</v>
+        <v>0.68073453765138148</v>
       </c>
       <c r="D46">
-        <v>0.20695531003600437</v>
+        <v>1.3711674748641185</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>0.58584973789307404</v>
+        <v>0.50443778175028253</v>
       </c>
       <c r="B47">
-        <v>0.69814706080811417</v>
+        <v>0.6999249897889811</v>
       </c>
       <c r="C47">
-        <v>0.68197554168615948</v>
+        <v>0.68022840332741086</v>
       </c>
       <c r="D47">
-        <v>0.20988084318110795</v>
+        <v>1.314358350135306</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>0.59098550275078787</v>
+        <v>0.50066589674946615</v>
       </c>
       <c r="B48">
-        <v>0.69684583160729296</v>
+        <v>0.69756137568993337</v>
       </c>
       <c r="C48">
-        <v>0.68412235179692704</v>
+        <v>0.68363251888221543</v>
       </c>
       <c r="D48">
-        <v>0.21550063430511723</v>
+        <v>1.3678753033854973</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>0.59918650369115334</v>
+        <v>0.50451257423077633</v>
       </c>
       <c r="B49">
-        <v>0.70079567767758544</v>
+        <v>0.70101448997593996</v>
       </c>
       <c r="C49">
-        <v>0.68017249400152791</v>
+        <v>0.68022596691969706</v>
       </c>
       <c r="D49">
-        <v>0.21591662994576144</v>
+        <v>1.4025199694988502</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>0.59782786424519119</v>
+        <v>0.50299297885884631</v>
       </c>
       <c r="B50">
-        <v>0.70001101402235455</v>
+        <v>0.70027907096817377</v>
       </c>
       <c r="C50">
-        <v>0.68093757835521851</v>
+        <v>0.68093589553753564</v>
       </c>
       <c r="D50">
-        <v>0.22052941876943266</v>
+        <v>1.4025906515585969</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>0.602105761697183</v>
+        <v>0.51099619596549983</v>
       </c>
       <c r="B51">
-        <v>0.70230608117766768</v>
+        <v>0.70250817087483197</v>
       </c>
       <c r="C51">
-        <v>0.67928846270665777</v>
+        <v>0.67939030366893616</v>
       </c>
       <c r="D51">
-        <v>0.22412438119263603</v>
+        <v>1.3795706191495403</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>0.59771713575487162</v>
+        <v>0.50367336492781334</v>
       </c>
       <c r="B52">
-        <v>0.69908770391714836</v>
+        <v>0.69930729670495939</v>
       </c>
       <c r="C52">
-        <v>0.68226165422065665</v>
+        <v>0.68236862662250752</v>
       </c>
       <c r="D52">
-        <v>0.22630559571386974</v>
+        <v>1.395250678374556</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>0.59764216147545335</v>
+        <v>0.50171326230167912</v>
       </c>
       <c r="B53">
-        <v>0.69908540996003465</v>
+        <v>0.69931598970326536</v>
       </c>
       <c r="C53">
-        <v>0.6825053474052567</v>
+        <v>0.68244984379777507</v>
       </c>
       <c r="D53">
-        <v>0.22440052991560666</v>
+        <v>1.4094296378755373</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>0.59807463893612711</v>
+        <v>0.49965656432210798</v>
       </c>
       <c r="B54">
-        <v>0.69944858842510405</v>
+        <v>0.69946975385611498</v>
       </c>
       <c r="C54">
-        <v>0.68242629727037907</v>
+        <v>0.68255454054695686</v>
       </c>
       <c r="D54">
-        <v>0.22534523807230802</v>
+        <v>1.4250526229902776</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>0.60116662183757263</v>
+        <v>0.49918102402624615</v>
       </c>
       <c r="B55">
-        <v>0.70214164151678859</v>
+        <v>0.70151121278152662</v>
       </c>
       <c r="C55">
-        <v>0.68084353269174502</v>
+        <v>0.68171469823215269</v>
       </c>
       <c r="D55">
-        <v>0.22874223825297629</v>
+        <v>1.4449783599119002</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>0.59754739376792643</v>
+        <v>0.4940904542717417</v>
       </c>
       <c r="B56">
-        <v>0.69885942171307125</v>
+        <v>0.69834133412176336</v>
       </c>
       <c r="C56">
-        <v>0.68387792211646947</v>
+        <v>0.68462799472441072</v>
       </c>
       <c r="D56">
-        <v>0.23162590054904009</v>
+        <v>1.4512744868992078</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>0.59760453549891568</v>
+        <v>0.49394514237938925</v>
       </c>
       <c r="B57">
-        <v>0.69877204279081406</v>
+        <v>0.69827329109527314</v>
       </c>
       <c r="C57">
-        <v>0.68387645810743125</v>
+        <v>0.68463277850424009</v>
       </c>
       <c r="D57">
-        <v>0.23596712295397224</v>
+        <v>1.452580464049698</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>0.59455788792512665</v>
+        <v>0.49731947350505412</v>
       </c>
       <c r="B58">
-        <v>0.69895530966711794</v>
+        <v>0.69856749291305242</v>
       </c>
       <c r="C58">
-        <v>0.68564486134938352</v>
+        <v>0.68632460995218403</v>
       </c>
       <c r="D58">
-        <v>0.23947993611593799</v>
+        <v>1.4035558227544294</v>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>0.59460876840549304</v>
+        <v>0.4977398280581008</v>
       </c>
       <c r="B59">
-        <v>0.69907958088429378</v>
+        <v>0.69882524958954839</v>
       </c>
       <c r="C59">
-        <v>0.68556077759176937</v>
+        <v>0.68611833281047274</v>
       </c>
       <c r="D59">
-        <v>0.24421899698164512</v>
+        <v>1.4021032391351715</v>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>0.59448028270810815</v>
+        <v>0.49336836380562454</v>
       </c>
       <c r="B60">
-        <v>0.69999485573812925</v>
+        <v>0.69941845317566143</v>
       </c>
       <c r="C60">
-        <v>0.68505023550846222</v>
+        <v>0.68580076566803305</v>
       </c>
       <c r="D60">
-        <v>0.24415108555328879</v>
+        <v>1.4323486095321951</v>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>0.59476062162811349</v>
+        <v>0.50123392454936733</v>
       </c>
       <c r="B61">
-        <v>0.6978802334639409</v>
+        <v>0.69746558057025365</v>
       </c>
       <c r="C61">
-        <v>0.68633091041373473</v>
+        <v>0.68684148428498015</v>
       </c>
       <c r="D61">
-        <v>0.24650720102120816</v>
+        <v>1.3819962751864208</v>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>0.5871229052035547</v>
+        <v>0.48829361539300481</v>
       </c>
       <c r="B62">
-        <v>0.69592755549864016</v>
+        <v>0.69495537436319976</v>
       </c>
       <c r="C62">
-        <v>0.69015742269496072</v>
+        <v>0.69126816021483062</v>
       </c>
       <c r="D62">
-        <v>0.2535988065676531</v>
+        <v>1.4019568758232444</v>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>0.58722808130943349</v>
+        <v>0.48932920809927805</v>
       </c>
       <c r="B63">
-        <v>0.6986462328868005</v>
+        <v>0.69756666161524739</v>
       </c>
       <c r="C63">
-        <v>0.68836395301110487</v>
+        <v>0.68961993273593414</v>
       </c>
       <c r="D63">
-        <v>0.25251026032606122</v>
+        <v>1.3936319052150221</v>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>0.58637690765745254</v>
+        <v>0.48660766769208663</v>
       </c>
       <c r="B64">
-        <v>0.6959096515137877</v>
+        <v>0.69486776426235242</v>
       </c>
       <c r="C64">
-        <v>0.69051922341045602</v>
+        <v>0.69175196584453114</v>
       </c>
       <c r="D64">
-        <v>0.2563983611563358</v>
+        <v>1.4050496738432838</v>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>0.59209878216510581</v>
+        <v>0.48953918040997074</v>
       </c>
       <c r="B65">
-        <v>0.69581172845386863</v>
+        <v>0.69471229007652524</v>
       </c>
       <c r="C65">
-        <v>0.68898547763398521</v>
+        <v>0.69031280377265336</v>
       </c>
       <c r="D65">
-        <v>0.26003556446506476</v>
+        <v>1.4308567825388459</v>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>0.58619878643451506</v>
+        <v>0.48435473400764728</v>
       </c>
       <c r="B66">
-        <v>0.69337110084397235</v>
+        <v>0.69214852155354101</v>
       </c>
       <c r="C66">
-        <v>0.69244683209424385</v>
+        <v>0.69394199214383234</v>
       </c>
       <c r="D66">
-        <v>0.2641510147240495</v>
+        <v>1.4147646747821692</v>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>0.5838045887314266</v>
+        <v>0.47327573010356383</v>
       </c>
       <c r="B67">
-        <v>0.69328007616806309</v>
+        <v>0.69198545037572123</v>
       </c>
       <c r="C67">
-        <v>0.69332989721277083</v>
+        <v>0.6946928009391613</v>
       </c>
       <c r="D67">
-        <v>0.27036939825911488</v>
+        <v>1.47417183054447</v>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>0.58425305289155038</v>
+        <v>0.47867919727847374</v>
       </c>
       <c r="B68">
-        <v>0.69177504203804929</v>
+        <v>0.69070801535748116</v>
       </c>
       <c r="C68">
-        <v>0.69411871405580827</v>
+        <v>0.6951953410849433</v>
       </c>
       <c r="D68">
-        <v>0.27039683503416184</v>
+        <v>1.4456341613676549</v>
       </c>
     </row>
     <row r="69">
       <c r="A69">
-        <v>0.58079428742232819</v>
+        <v>0.47334655707090156</v>
       </c>
       <c r="B69">
-        <v>0.69087508628773531</v>
+        <v>0.68954448122251688</v>
       </c>
       <c r="C69">
-        <v>0.6958703607922363</v>
+        <v>0.69722692761424843</v>
       </c>
       <c r="D69">
-        <v>0.27366542182903464</v>
+        <v>1.4495605096695441</v>
       </c>
     </row>
     <row r="70">
       <c r="A70">
-        <v>0.57962149375442373</v>
+        <v>0.47328441450259018</v>
       </c>
       <c r="B70">
-        <v>0.69198915036718778</v>
+        <v>0.69056304019768555</v>
       </c>
       <c r="C70">
-        <v>0.69562336780558431</v>
+        <v>0.69711493650557466</v>
       </c>
       <c r="D70">
-        <v>0.27786317612955957</v>
+        <v>1.4384509566676824</v>
       </c>
     </row>
     <row r="71">
       <c r="A71">
-        <v>0.57936395514364691</v>
+        <v>0.47260109404911493</v>
       </c>
       <c r="B71">
-        <v>0.69143212116474473</v>
+        <v>0.69007283535840402</v>
       </c>
       <c r="C71">
-        <v>0.69606235350195989</v>
+        <v>0.69750886014623625</v>
       </c>
       <c r="D71">
-        <v>0.27902648258932988</v>
+        <v>1.4408804822589147</v>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>0.58221947657525319</v>
+        <v>0.47128342597088957</v>
       </c>
       <c r="B72">
-        <v>0.68993523707738613</v>
+        <v>0.68844544167029675</v>
       </c>
       <c r="C72">
-        <v>0.69619104173545276</v>
+        <v>0.697800354153989</v>
       </c>
       <c r="D72">
-        <v>0.28701607398960716</v>
+        <v>1.4701575719536466</v>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>0.5735161183784836</v>
+        <v>0.46483826981224535</v>
       </c>
       <c r="B73">
-        <v>0.68619336402890996</v>
+        <v>0.68465167666706872</v>
       </c>
       <c r="C73">
-        <v>0.70141384459956568</v>
+        <v>0.70310801278164947</v>
       </c>
       <c r="D73">
-        <v>0.2861844820643078</v>
+        <v>1.4404880475919897</v>
       </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>0.57135777195250848</v>
+        <v>0.42274881248598645</v>
       </c>
       <c r="B74">
-        <v>0.68896180635048254</v>
+        <v>0.68662573383476277</v>
       </c>
       <c r="C74">
-        <v>0.70056958949464099</v>
+        <v>0.70260837594064462</v>
       </c>
       <c r="D74">
-        <v>0.29164095749643576</v>
+        <v>1.6770642789240324</v>
       </c>
     </row>
     <row r="75">
       <c r="A75">
-        <v>0.56449492263362355</v>
+        <v>0.43235291244389401</v>
       </c>
       <c r="B75">
-        <v>0.67853070816861716</v>
+        <v>0.67693723834723452</v>
       </c>
       <c r="C75">
-        <v>0.70945088597380046</v>
+        <v>0.71069883282792123</v>
       </c>
       <c r="D75">
-        <v>0.29833084631016177</v>
+        <v>1.5805074802429062</v>
       </c>
     </row>
     <row r="76">
       <c r="A76">
-        <v>0.56501088035691616</v>
+        <v>0.43383495068358513</v>
       </c>
       <c r="B76">
-        <v>0.67868017563702765</v>
+        <v>0.67723619719279071</v>
       </c>
       <c r="C76">
-        <v>0.70920590377537995</v>
+        <v>0.71026590827387681</v>
       </c>
       <c r="D76">
-        <v>0.30150199402405586</v>
+        <v>1.5783881015705443</v>
       </c>
     </row>
     <row r="77">
       <c r="A77">
-        <v>0.57101858706658004</v>
+        <v>0.44197096177694872</v>
       </c>
       <c r="B77">
-        <v>0.68041547013679415</v>
+        <v>0.67949663384383985</v>
       </c>
       <c r="C77">
-        <v>0.70617732021732715</v>
+        <v>0.70667627455120918</v>
       </c>
       <c r="D77">
-        <v>0.30604167612246352</v>
+        <v>1.5832228806651738</v>
       </c>
     </row>
     <row r="78">
       <c r="A78">
-        <v>0.56725832227766393</v>
+        <v>0.43783521018504634</v>
       </c>
       <c r="B78">
-        <v>0.6783143372685525</v>
+        <v>0.67707563492508394</v>
       </c>
       <c r="C78">
-        <v>0.70882020894326581</v>
+        <v>0.70969594975922945</v>
       </c>
       <c r="D78">
-        <v>0.30018910323672254</v>
+        <v>1.5742891123676719</v>
       </c>
     </row>
     <row r="79">
       <c r="A79">
-        <v>0.56669293808696564</v>
+        <v>0.43822103153391739</v>
       </c>
       <c r="B79">
-        <v>0.67813416686328232</v>
+        <v>0.67686308140066109</v>
       </c>
       <c r="C79">
-        <v>0.7092337702846172</v>
+        <v>0.71018493715975173</v>
       </c>
       <c r="D79">
-        <v>0.30635366677706571</v>
+        <v>1.5668233701013905</v>
       </c>
     </row>
     <row r="80">
       <c r="A80">
-        <v>0.56668075186496947</v>
+        <v>0.43839733820339372</v>
       </c>
       <c r="B80">
-        <v>0.67812289966253581</v>
+        <v>0.6768870169562653</v>
       </c>
       <c r="C80">
-        <v>0.70924377275744721</v>
+        <v>0.7101946187599486</v>
       </c>
       <c r="D80">
-        <v>0.3120076271273558</v>
+        <v>1.5656997088510247</v>
       </c>
     </row>
     <row r="81">
       <c r="A81">
-        <v>0.56596085948177444</v>
+        <v>0.40954842707340522</v>
       </c>
       <c r="B81">
-        <v>0.6788821052005205</v>
+        <v>0.67756073754459201</v>
       </c>
       <c r="C81">
-        <v>0.70990001966813066</v>
+        <v>0.71053954133672426</v>
       </c>
       <c r="D81">
-        <v>0.3173020075334208</v>
+        <v>1.723212606576308</v>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>0.56627216393654534</v>
+        <v>0.40933674264528624</v>
       </c>
       <c r="B82">
-        <v>0.67924701657059972</v>
+        <v>0.67762606325902819</v>
       </c>
       <c r="C82">
-        <v>0.70960495886458641</v>
+        <v>0.71050251336484138</v>
       </c>
       <c r="D82">
-        <v>0.32144755405945563</v>
+        <v>1.724453086149794</v>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>0.56665651417269158</v>
+        <v>0.40920401332451994</v>
       </c>
       <c r="B83">
-        <v>0.68067249928045381</v>
+        <v>0.67885898936993661</v>
       </c>
       <c r="C83">
-        <v>0.70866615047153458</v>
+        <v>0.70976738841319098</v>
       </c>
       <c r="D83">
-        <v>0.32349427819634979</v>
+        <v>1.7258395513065725</v>
       </c>
     </row>
     <row r="84">
       <c r="A84">
-        <v>0.5666042142694907</v>
+        <v>0.40956782111338885</v>
       </c>
       <c r="B84">
-        <v>0.68108922055755772</v>
+        <v>0.67933048127851881</v>
       </c>
       <c r="C84">
-        <v>0.70842053540445726</v>
+        <v>0.70949751450405041</v>
       </c>
       <c r="D84">
-        <v>0.32999077057365911</v>
+        <v>1.7234464829834968</v>
       </c>
     </row>
     <row r="85">
       <c r="A85">
-        <v>0.56627941180001673</v>
+        <v>0.40973007585429022</v>
       </c>
       <c r="B85">
-        <v>0.68126488639527116</v>
+        <v>0.67959399011598176</v>
       </c>
       <c r="C85">
-        <v>0.70839530196264366</v>
+        <v>0.70942805584877733</v>
       </c>
       <c r="D85">
-        <v>0.3386609005652827</v>
+        <v>1.720069033119151</v>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>0.56772031916186072</v>
+        <v>0.40838616424403096</v>
       </c>
       <c r="B86">
-        <v>0.68007387138039632</v>
+        <v>0.67833697613607025</v>
       </c>
       <c r="C86">
-        <v>0.70881429331111989</v>
+        <v>0.70994070044661339</v>
       </c>
       <c r="D86">
-        <v>0.34432043567376891</v>
+        <v>1.735152109417849</v>
       </c>
     </row>
     <row r="87">
       <c r="A87">
-        <v>0.56161840779636774</v>
+        <v>0.39982252858385947</v>
       </c>
       <c r="B87">
-        <v>0.67848409215253347</v>
+        <v>0.67685563596900744</v>
       </c>
       <c r="C87">
-        <v>0.71156716337860915</v>
+        <v>0.71255923832134027</v>
       </c>
       <c r="D87">
-        <v>0.34561655380794942</v>
+        <v>1.7369865053986724</v>
       </c>
     </row>
     <row r="88">
       <c r="A88">
-        <v>0.56079154053098312</v>
+        <v>0.38901791481720488</v>
       </c>
       <c r="B88">
-        <v>0.67983973273865861</v>
+        <v>0.67751236460761555</v>
       </c>
       <c r="C88">
-        <v>0.71089792999049028</v>
+        <v>0.71223575598452993</v>
       </c>
       <c r="D88">
-        <v>0.34905579559626077</v>
+        <v>1.7866553329768298</v>
       </c>
     </row>
     <row r="89">
       <c r="A89">
-        <v>0.56076851949100026</v>
+        <v>0.39431453000616734</v>
       </c>
       <c r="B89">
-        <v>0.67843603543393938</v>
+        <v>0.67622691856452244</v>
       </c>
       <c r="C89">
-        <v>0.71187331887772554</v>
+        <v>0.71302600717104103</v>
       </c>
       <c r="D89">
-        <v>0.37591052329594987</v>
+        <v>1.7641712202836008</v>
       </c>
     </row>
     <row r="90">
       <c r="A90">
-        <v>0.5577767322658056</v>
+        <v>0.3854123804859243</v>
       </c>
       <c r="B90">
-        <v>0.67851201957443619</v>
+        <v>0.67578466285284455</v>
       </c>
       <c r="C90">
-        <v>0.71255346610119474</v>
+        <v>0.7141233220529597</v>
       </c>
       <c r="D90">
-        <v>0.37784589442534577</v>
+        <v>1.7838295621182887</v>
       </c>
     </row>
     <row r="91">
       <c r="A91">
-        <v>0.55870141936382134</v>
+        <v>0.38962529075132352</v>
       </c>
       <c r="B91">
-        <v>0.67722271240563825</v>
+        <v>0.67474766718695278</v>
       </c>
       <c r="C91">
-        <v>0.71324145405678119</v>
+        <v>0.7145282881947923</v>
       </c>
       <c r="D91">
-        <v>0.36128476376892749</v>
+        <v>1.7733107346792991</v>
       </c>
     </row>
     <row r="92">
       <c r="A92">
-        <v>0.55292220410596238</v>
+        <v>0.37914833971566941</v>
       </c>
       <c r="B92">
-        <v>0.67649062536643023</v>
+        <v>0.67350876690374373</v>
       </c>
       <c r="C92">
-        <v>0.71513689315683671</v>
+        <v>0.71692242214031654</v>
       </c>
       <c r="D92">
-        <v>0.36144034314285867</v>
+        <v>1.7783746293650529</v>
       </c>
     </row>
     <row r="93">
       <c r="A93">
-        <v>0.55288681484654179</v>
+        <v>0.37882625871073128</v>
       </c>
       <c r="B93">
-        <v>0.676058120815488</v>
+        <v>0.67314113466555314</v>
       </c>
       <c r="C93">
-        <v>0.71545075549474635</v>
+        <v>0.71719431571860826</v>
       </c>
       <c r="D93">
-        <v>0.36346954822606603</v>
+        <v>1.7793874828078302</v>
       </c>
     </row>
     <row r="94">
       <c r="A94">
-        <v>0.55020354979465413</v>
+        <v>0.37190277036934172</v>
       </c>
       <c r="B94">
-        <v>0.6765632762436814</v>
+        <v>0.67349131901867409</v>
       </c>
       <c r="C94">
-        <v>0.71569224477957349</v>
+        <v>0.71748980014966746</v>
       </c>
       <c r="D94">
-        <v>0.36697556401666687</v>
+        <v>1.7947321944057908</v>
       </c>
     </row>
     <row r="95">
       <c r="A95">
-        <v>0.54770782861488443</v>
+        <v>0.35270232066516982</v>
       </c>
       <c r="B95">
-        <v>0.67879981317738158</v>
+        <v>0.67472400301689506</v>
       </c>
       <c r="C95">
-        <v>0.71460650978854878</v>
+        <v>0.71697460689182479</v>
       </c>
       <c r="D95">
-        <v>0.37746887860164546</v>
+        <v>1.8660227036964501</v>
       </c>
     </row>
     <row r="96">
       <c r="A96">
-        <v>0.54675606678212585</v>
+        <v>0.33802310852753092</v>
       </c>
       <c r="B96">
-        <v>0.68218521274454302</v>
+        <v>0.67653114381542967</v>
       </c>
       <c r="C96">
-        <v>0.71226434185611964</v>
+        <v>0.71586890617304588</v>
       </c>
       <c r="D96">
-        <v>0.37976830242799053</v>
+        <v>1.9172880130778325</v>
       </c>
     </row>
     <row r="97">
       <c r="A97">
-        <v>0.54647148380917665</v>
+        <v>0.33823670047857968</v>
       </c>
       <c r="B97">
-        <v>0.68165989397773341</v>
+        <v>0.67584179595249827</v>
       </c>
       <c r="C97">
-        <v>0.71272017424400502</v>
+        <v>0.71642413991889875</v>
       </c>
       <c r="D97">
-        <v>0.38613637637435483</v>
+        <v>1.9152612499028476</v>
       </c>
     </row>
     <row r="98">
       <c r="A98">
-        <v>0.54205185136280631</v>
+        <v>0.32981712083198517</v>
       </c>
       <c r="B98">
-        <v>0.68304782905278083</v>
+        <v>0.67670735084361477</v>
       </c>
       <c r="C98">
-        <v>0.7124315183125518</v>
+        <v>0.71668141909092542</v>
       </c>
       <c r="D98">
-        <v>0.38808481680253576</v>
+        <v>1.9154543396800927</v>
       </c>
     </row>
     <row r="99">
       <c r="A99">
-        <v>0.54155622520174285</v>
+        <v>0.32884707146290154</v>
       </c>
       <c r="B99">
-        <v>0.68285867924023935</v>
+        <v>0.67659990646584722</v>
       </c>
       <c r="C99">
-        <v>0.71266449342673965</v>
+        <v>0.71688190780521865</v>
       </c>
       <c r="D99">
-        <v>0.40345834979239614</v>
+        <v>1.914858475358687</v>
       </c>
     </row>
     <row r="100">
       <c r="A100">
-        <v>0.535890744911521</v>
+        <v>0.32336302655969629</v>
       </c>
       <c r="B100">
-        <v>0.683938801843196</v>
+        <v>0.67782988191715954</v>
       </c>
       <c r="C100">
-        <v>0.71276456160152302</v>
+        <v>0.71694269212450557</v>
       </c>
       <c r="D100">
-        <v>0.40824684965883073</v>
+        <v>1.898818502349344</v>
       </c>
     </row>
     <row r="101">
       <c r="A101">
-        <v>0.53424353576358175</v>
+        <v>0.32198948362912183</v>
       </c>
       <c r="B101">
-        <v>0.68441901234605385</v>
+        <v>0.67854225951878344</v>
       </c>
       <c r="C101">
-        <v>0.71265067537851445</v>
+        <v>0.716679310471382</v>
       </c>
       <c r="D101">
-        <v>0.41008133467895352</v>
+        <v>1.893146827931683</v>
       </c>
     </row>
     <row r="102">
       <c r="A102">
-        <v>0.53129266845203815</v>
+        <v>0.31514034566642368</v>
       </c>
       <c r="B102">
-        <v>0.68495709103294733</v>
+        <v>0.67855308012260684</v>
       </c>
       <c r="C102">
-        <v>0.71268978870119915</v>
+        <v>0.71691492343334584</v>
       </c>
       <c r="D102">
-        <v>0.41416327291439969</v>
+        <v>1.9087259267941052</v>
       </c>
     </row>
     <row r="103">
       <c r="A103">
-        <v>0.52842646329974075</v>
+        <v>0.3083369344552106</v>
       </c>
       <c r="B103">
-        <v>0.68537374973589982</v>
+        <v>0.67850499842421463</v>
       </c>
       <c r="C103">
-        <v>0.71280169880384547</v>
+        <v>0.71730024504794221</v>
       </c>
       <c r="D103">
-        <v>0.4254546601157565</v>
+        <v>1.9193616953727195</v>
       </c>
     </row>
     <row r="104">
       <c r="A104">
-        <v>0.51833572630737645</v>
+        <v>0.28642570332584916</v>
       </c>
       <c r="B104">
-        <v>0.68762573468228094</v>
+        <v>0.67988607667439405</v>
       </c>
       <c r="C104">
-        <v>0.71252311361261378</v>
+        <v>0.71783643251735185</v>
       </c>
       <c r="D104">
-        <v>0.44372377734129875</v>
+        <v>1.9301495270126168</v>
       </c>
     </row>
     <row r="105">
       <c r="A105">
-        <v>0.51644759691150899</v>
+        <v>0.28365174001553234</v>
       </c>
       <c r="B105">
-        <v>0.6886068665079963</v>
+        <v>0.68093551183174539</v>
       </c>
       <c r="C105">
-        <v>0.71200087493740727</v>
+        <v>0.71731357941375484</v>
       </c>
       <c r="D105">
-        <v>0.45070004097636013</v>
+        <v>1.9268078272983855</v>
       </c>
     </row>
     <row r="106">
       <c r="A106">
-        <v>0.52442555450324579</v>
+        <v>0.28991556026879994</v>
       </c>
       <c r="B106">
-        <v>0.68447618899543428</v>
+        <v>0.67666756748077717</v>
       </c>
       <c r="C106">
-        <v>0.71421727733923746</v>
+        <v>0.7196439733465182</v>
       </c>
       <c r="D106">
-        <v>0.48175299141282057</v>
+        <v>1.9489914642575821</v>
       </c>
     </row>
     <row r="107">
       <c r="A107">
-        <v>0.53790643055373566</v>
+        <v>0.30765408503997493</v>
       </c>
       <c r="B107">
-        <v>0.68656953429205092</v>
+        <v>0.67856313732767903</v>
       </c>
       <c r="C107">
-        <v>0.71051279520664212</v>
+        <v>0.71623588242445302</v>
       </c>
       <c r="D107">
-        <v>0.48281992611593172</v>
+        <v>1.9649691330702224</v>
       </c>
     </row>
     <row r="108">
       <c r="A108">
-        <v>0.52738276864655242</v>
+        <v>0.2908463546192237</v>
       </c>
       <c r="B108">
-        <v>0.68352747426662375</v>
+        <v>0.67527556715338832</v>
       </c>
       <c r="C108">
-        <v>0.71457974629406296</v>
+        <v>0.72057390542155053</v>
       </c>
       <c r="D108">
-        <v>0.50332904021633729</v>
+        <v>1.953736472114652</v>
       </c>
     </row>
     <row r="109">
       <c r="A109">
-        <v>0.50537092350142587</v>
+        <v>0.20168244191930726</v>
       </c>
       <c r="B109">
-        <v>0.68188051563419916</v>
+        <v>0.67283396575457743</v>
       </c>
       <c r="C109">
-        <v>0.71920555862080582</v>
+        <v>0.72480223977396552</v>
       </c>
       <c r="D109">
-        <v>0.53650723412931778</v>
+        <v>2.1065299345952164</v>
       </c>
     </row>
     <row r="110">
       <c r="A110">
-        <v>0.50661744927391739</v>
+        <v>0.21348823770505759</v>
       </c>
       <c r="B110">
-        <v>0.67781547196423264</v>
+        <v>0.66891886052056404</v>
       </c>
       <c r="C110">
-        <v>0.72226583571444203</v>
+        <v>0.72764371752160062</v>
       </c>
       <c r="D110">
-        <v>0.53586347768913445</v>
+        <v>2.0875331361911273</v>
       </c>
     </row>
     <row r="111">
       <c r="A111">
-        <v>0.49837824241985296</v>
+        <v>0.1897811215697397</v>
       </c>
       <c r="B111">
-        <v>0.67778290968665744</v>
+        <v>0.66823180618247124</v>
       </c>
       <c r="C111">
-        <v>0.7234436880661268</v>
+        <v>0.72940002071474552</v>
       </c>
       <c r="D111">
-        <v>0.53199887012149649</v>
+        <v>2.0917954035493143</v>
       </c>
     </row>
     <row r="112">
       <c r="A112">
-        <v>0.5042765742936528</v>
+        <v>0.19997771109503082</v>
       </c>
       <c r="B112">
-        <v>0.67523223983346647</v>
+        <v>0.66592032572679782</v>
       </c>
       <c r="C112">
-        <v>0.72465751320628746</v>
+        <v>0.73036888158725777</v>
       </c>
       <c r="D112">
-        <v>0.53465768183852913</v>
+        <v>2.1017763851665774</v>
       </c>
     </row>
     <row r="113">
       <c r="A113">
-        <v>0.50362417944820748</v>
+        <v>0.19684000177920036</v>
       </c>
       <c r="B113">
-        <v>0.67487028995227216</v>
+        <v>0.66542038929546155</v>
       </c>
       <c r="C113">
-        <v>0.72503393672362959</v>
+        <v>0.73094019096436313</v>
       </c>
       <c r="D113">
-        <v>0.54518572182700176</v>
+        <v>2.1012214288872428</v>
       </c>
     </row>
     <row r="114">
       <c r="A114">
-        <v>0.50796866567640253</v>
+        <v>0.20255179259031941</v>
       </c>
       <c r="B114">
-        <v>0.67496018519705192</v>
+        <v>0.66538621265520415</v>
       </c>
       <c r="C114">
-        <v>0.72434759252373204</v>
+        <v>0.73044273922848013</v>
       </c>
       <c r="D114">
-        <v>0.55120315120819985</v>
+        <v>2.1086885146162069</v>
       </c>
     </row>
     <row r="115">
       <c r="A115">
-        <v>0.51224666549014453</v>
+        <v>0.20792726920999247</v>
       </c>
       <c r="B115">
-        <v>0.6754342818564556</v>
+        <v>0.66564783405442207</v>
       </c>
       <c r="C115">
-        <v>0.72335237949048925</v>
+        <v>0.7297345574115901</v>
       </c>
       <c r="D115">
-        <v>0.54366364092114039</v>
+        <v>2.1156571525507895</v>
       </c>
     </row>
     <row r="116">
       <c r="A116">
-        <v>0.49187591203189035</v>
+        <v>0.093403266863728185</v>
       </c>
       <c r="B116">
-        <v>0.67122433100651302</v>
+        <v>0.66165134290062388</v>
       </c>
       <c r="C116">
-        <v>0.72960510560091585</v>
+        <v>0.73464133400282206</v>
       </c>
       <c r="D116">
-        <v>0.55580885015265802</v>
+        <v>2.2288128552966988</v>
       </c>
     </row>
     <row r="117">
       <c r="A117">
-        <v>0.48308184079862543</v>
+        <v>1.675362662979443e-06</v>
       </c>
       <c r="B117">
-        <v>0.67790180545520295</v>
+        <v>0.66657879303344425</v>
       </c>
       <c r="C117">
-        <v>0.7256137893971506</v>
+        <v>0.7314638581292725</v>
       </c>
       <c r="D117">
-        <v>0.56253566615477457</v>
+        <v>2.2878287477867154</v>
       </c>
     </row>
     <row r="118">
       <c r="A118">
-        <v>0.48231074631052939</v>
+        <v>1.6939548671972586e-06</v>
       </c>
       <c r="B118">
-        <v>0.67452557405825075</v>
+        <v>0.66336459817220661</v>
       </c>
       <c r="C118">
-        <v>0.72838808727540494</v>
+        <v>0.73401110982974571</v>
       </c>
       <c r="D118">
-        <v>0.56501449660670666</v>
+        <v>2.2857555214734537</v>
       </c>
     </row>
     <row r="119">
       <c r="A119">
-        <v>0.48541887488977986</v>
+        <v>1.7058892979096214e-06</v>
       </c>
       <c r="B119">
-        <v>0.67281389975427974</v>
+        <v>0.66168170703699847</v>
       </c>
       <c r="C119">
-        <v>0.72934442927445642</v>
+        <v>0.73499317935369635</v>
       </c>
       <c r="D119">
-        <v>0.58157024716222294</v>
+        <v>2.2924971645435162</v>
       </c>
     </row>
     <row r="120">
       <c r="A120">
-        <v>0.48767058839227528</v>
+        <v>1.7551629388729445e-06</v>
       </c>
       <c r="B120">
-        <v>0.6725367446642182</v>
+        <v>0.66127138674806629</v>
       </c>
       <c r="C120">
-        <v>0.72927235416245595</v>
+        <v>0.73513688228380958</v>
       </c>
       <c r="D120">
-        <v>0.58345883080679284</v>
+        <v>2.2967021895767199</v>
       </c>
     </row>
     <row r="121">
       <c r="A121">
-        <v>0.49908423812220531</v>
+        <v>1.7883525700665194e-06</v>
       </c>
       <c r="B121">
-        <v>0.67338122101945364</v>
+        <v>0.66130764360109451</v>
       </c>
       <c r="C121">
-        <v>0.72710103513060442</v>
+        <v>0.73395857023346578</v>
       </c>
       <c r="D121">
-        <v>0.58008622974884261</v>
+        <v>2.3229283533824181</v>
       </c>
     </row>
     <row r="122">
       <c r="A122">
-        <v>0.49486675722088108</v>
+        <v>1.8154909824135648e-06</v>
       </c>
       <c r="B122">
-        <v>0.67205238581434257</v>
+        <v>0.66021942142548218</v>
       </c>
       <c r="C122">
-        <v>0.72871882618239492</v>
+        <v>0.73523845364241502</v>
       </c>
       <c r="D122">
-        <v>0.59633628134216488</v>
+        <v>2.3164822940702203</v>
       </c>
     </row>
     <row r="123">
       <c r="A123">
-        <v>0.48417982501907963</v>
+        <v>1.8395868729402118e-06</v>
       </c>
       <c r="B123">
-        <v>0.67031389714704193</v>
+        <v>0.65974182194865172</v>
       </c>
       <c r="C123">
-        <v>0.73152819047836848</v>
+        <v>0.73599283073712074</v>
       </c>
       <c r="D123">
-        <v>0.60751477743596505</v>
+        <v>2.3353828768868601</v>
       </c>
     </row>
     <row r="124">
       <c r="A124">
-        <v>0.48563045401286625</v>
+        <v>1.8733007768700877e-06</v>
       </c>
       <c r="B124">
-        <v>0.66940869707011996</v>
+        <v>0.65841030719951865</v>
       </c>
       <c r="C124">
-        <v>0.73203853664456575</v>
+        <v>0.73692857087656916</v>
       </c>
       <c r="D124">
-        <v>0.6098227406734934</v>
+        <v>2.324764256625973</v>
       </c>
     </row>
     <row r="125">
       <c r="A125">
-        <v>0.47974139801462207</v>
+        <v>1.9183088601799397e-06</v>
       </c>
       <c r="B125">
-        <v>0.66903467210242262</v>
+        <v>0.65797343807800002</v>
       </c>
       <c r="C125">
-        <v>0.73311076389352237</v>
+        <v>0.7378039765334129</v>
       </c>
       <c r="D125">
-        <v>0.62468245910414288</v>
+        <v>2.3223949732800002</v>
       </c>
     </row>
     <row r="126">
       <c r="A126">
-        <v>0.47638912474332684</v>
+        <v>1.9558413258473445e-06</v>
       </c>
       <c r="B126">
-        <v>0.66943643385759688</v>
+        <v>0.65838677740326801</v>
       </c>
       <c r="C126">
-        <v>0.73323446700886419</v>
+        <v>0.7379014649392972</v>
       </c>
       <c r="D126">
-        <v>0.63781775263854346</v>
+        <v>2.3156301544356062</v>
       </c>
     </row>
     <row r="127">
       <c r="A127">
-        <v>0.48388112930235183</v>
+        <v>1.9497610481172595e-06</v>
       </c>
       <c r="B127">
-        <v>0.66630569408812579</v>
+        <v>0.65514777911120547</v>
       </c>
       <c r="C127">
-        <v>0.73470650716369534</v>
+        <v>0.73948272268975446</v>
       </c>
       <c r="D127">
-        <v>0.62033759766308683</v>
+        <v>2.3391784284928825</v>
       </c>
     </row>
     <row r="128">
       <c r="A128">
-        <v>0.49207748073664448</v>
+        <v>1.9999694159472175e-06</v>
       </c>
       <c r="B128">
-        <v>0.66817635733319514</v>
+        <v>0.65632394953412165</v>
       </c>
       <c r="C128">
-        <v>0.73216067193457213</v>
+        <v>0.73778234947304511</v>
       </c>
       <c r="D128">
-        <v>0.63478342881616645</v>
+        <v>2.356032638731798</v>
       </c>
     </row>
     <row r="129">
       <c r="A129">
-        <v>0.49209326321653885</v>
+        <v>2.0518294401520996e-06</v>
       </c>
       <c r="B129">
-        <v>0.66803921636319707</v>
+        <v>0.65598552214874484</v>
       </c>
       <c r="C129">
-        <v>0.73226374819363427</v>
+        <v>0.73812067799931347</v>
       </c>
       <c r="D129">
-        <v>0.64795766602298777</v>
+        <v>2.354835157869088</v>
       </c>
     </row>
     <row r="130">
       <c r="A130">
-        <v>0.47997734984345031</v>
+        <v>2.046782078986973e-06</v>
       </c>
       <c r="B130">
-        <v>0.66513877992949011</v>
+        <v>0.65521358762478876</v>
       </c>
       <c r="C130">
-        <v>0.73619504963606608</v>
+        <v>0.73890826261466147</v>
       </c>
       <c r="D130">
-        <v>0.67143173898221842</v>
+        <v>2.3900044950856052</v>
       </c>
     </row>
     <row r="131">
       <c r="A131">
-        <v>0.47481580849001659</v>
+        <v>2.0876735657845525e-06</v>
       </c>
       <c r="B131">
-        <v>0.6670623903091879</v>
+        <v>0.65658997662866592</v>
       </c>
       <c r="C131">
-        <v>0.73544047672453339</v>
+        <v>0.73812602265864846</v>
       </c>
       <c r="D131">
-        <v>0.67411692930584144</v>
+        <v>2.4084383996724865</v>
       </c>
     </row>
     <row r="132">
       <c r="A132">
-        <v>0.47261608135869748</v>
+        <v>2.1368895321449489e-06</v>
       </c>
       <c r="B132">
-        <v>0.67072452935075677</v>
+        <v>0.65953720137507066</v>
       </c>
       <c r="C132">
-        <v>0.73290425545184601</v>
+        <v>0.73608764986743203</v>
       </c>
       <c r="D132">
-        <v>0.66539631982819003</v>
+        <v>2.4148544651422839</v>
       </c>
     </row>
     <row r="133">
       <c r="A133">
-        <v>0.47133443079633036</v>
+        <v>2.1591310725298956e-06</v>
       </c>
       <c r="B133">
-        <v>0.67288178346900263</v>
+        <v>0.66146226072921221</v>
       </c>
       <c r="C133">
-        <v>0.73137698292754283</v>
+        <v>0.73473145078115087</v>
       </c>
       <c r="D133">
-        <v>0.66576892658896258</v>
+        <v>2.4161275143600482</v>
       </c>
     </row>
     <row r="134">
       <c r="A134">
-        <v>0.46948687699214803</v>
+        <v>2.2141848200782641e-06</v>
       </c>
       <c r="B134">
-        <v>0.67400736693161334</v>
+        <v>0.66282560050770334</v>
       </c>
       <c r="C134">
-        <v>0.73071335183949615</v>
+        <v>0.73392131468228428</v>
       </c>
       <c r="D134">
-        <v>0.67638296135076881</v>
+        <v>2.4108315845707589</v>
       </c>
     </row>
     <row r="135">
       <c r="A135">
-        <v>0.4630449310554795</v>
+        <v>2.2369566957685533e-06</v>
       </c>
       <c r="B135">
-        <v>0.677073279129082</v>
+        <v>0.6666703939835259</v>
       </c>
       <c r="C135">
-        <v>0.72904181760093356</v>
+        <v>0.73173705426100799</v>
       </c>
       <c r="D135">
-        <v>0.68306914936657415</v>
+        <v>2.3871993934221338</v>
       </c>
     </row>
     <row r="136">
       <c r="A136">
-        <v>0.45965063055679356</v>
+        <v>2.2802811085937875e-06</v>
       </c>
       <c r="B136">
-        <v>0.68049787395339123</v>
+        <v>0.67079812152227281</v>
       </c>
       <c r="C136">
-        <v>0.7266769696813471</v>
+        <v>0.72873949506720614</v>
       </c>
       <c r="D136">
-        <v>0.68596629990778224</v>
+        <v>2.3829345831454267</v>
       </c>
     </row>
     <row r="137">
       <c r="A137">
-        <v>0.45061994133760569</v>
+        <v>2.2056183425709057e-06</v>
       </c>
       <c r="B137">
-        <v>0.68920706118896358</v>
+        <v>0.67939189068721917</v>
       </c>
       <c r="C137">
-        <v>0.72057135532610483</v>
+        <v>0.72107615672527481</v>
       </c>
       <c r="D137">
-        <v>0.69403377969129476</v>
+        <v>2.4719141293183373</v>
       </c>
     </row>
     <row r="138">
       <c r="A138">
-        <v>0.45016623067364681</v>
+        <v>2.2103057712219376e-06</v>
       </c>
       <c r="B138">
-        <v>0.68142154327778492</v>
+        <v>0.67016858970395399</v>
       </c>
       <c r="C138">
-        <v>0.72702495337184669</v>
+        <v>0.72914804573055392</v>
       </c>
       <c r="D138">
-        <v>0.67303945954585032</v>
+        <v>2.4225519921627119</v>
       </c>
     </row>
     <row r="139">
       <c r="A139">
-        <v>0.4437396676370271</v>
+        <v>2.2384110816897604e-06</v>
       </c>
       <c r="B139">
-        <v>0.68137294786251856</v>
+        <v>0.66993203480611918</v>
       </c>
       <c r="C139">
-        <v>0.72774163847568851</v>
+        <v>0.72976341635548203</v>
       </c>
       <c r="D139">
-        <v>0.67974346373051531</v>
+        <v>2.4223489003088479</v>
       </c>
     </row>
     <row r="140">
       <c r="A140">
-        <v>0.42311168681177025</v>
+        <v>2.2720903016271348e-06</v>
       </c>
       <c r="B140">
-        <v>0.68424246893877561</v>
+        <v>0.67280686016487012</v>
       </c>
       <c r="C140">
-        <v>0.72750141565090098</v>
+        <v>0.72935925442340932</v>
       </c>
       <c r="D140">
-        <v>0.70672730483498702</v>
+        <v>2.3908643296306287</v>
       </c>
     </row>
     <row r="141">
       <c r="A141">
-        <v>0.41955302606506173</v>
+        <v>2.2879658623693542e-06</v>
       </c>
       <c r="B141">
-        <v>0.68717367417967523</v>
+        <v>0.67665345605865279</v>
       </c>
       <c r="C141">
-        <v>0.72543050459241154</v>
+        <v>0.72668747400288902</v>
       </c>
       <c r="D141">
-        <v>0.71582980115705541</v>
+        <v>2.3760282523243701</v>
       </c>
     </row>
     <row r="142">
       <c r="A142">
-        <v>0.42086034826602647</v>
+        <v>2.3016504336373991e-06</v>
       </c>
       <c r="B142">
-        <v>0.68508111975397168</v>
+        <v>0.67507642325534722</v>
       </c>
       <c r="C142">
-        <v>0.72703220177387695</v>
+        <v>0.72791640912039546</v>
       </c>
       <c r="D142">
-        <v>0.71547413391822579</v>
+        <v>2.3798880676420184</v>
       </c>
     </row>
     <row r="143">
       <c r="A143">
-        <v>0.40756367674659688</v>
+        <v>2.3329121248119654e-06</v>
       </c>
       <c r="B143">
-        <v>0.68564346804377863</v>
+        <v>0.6771196175766292</v>
       </c>
       <c r="C143">
-        <v>0.72782207662087917</v>
+        <v>0.72749677431014526</v>
       </c>
       <c r="D143">
-        <v>0.7341273981318579</v>
+        <v>2.3457629935626874</v>
       </c>
     </row>
     <row r="144">
       <c r="A144">
-        <v>0.38748453610469097</v>
+        <v>2.2912513100127501e-06</v>
       </c>
       <c r="B144">
-        <v>0.69060401052644205</v>
+        <v>0.68355502456751349</v>
       </c>
       <c r="C144">
-        <v>0.72552423718077352</v>
+        <v>0.72204150035599701</v>
       </c>
       <c r="D144">
-        <v>0.76480432791664543</v>
+        <v>2.422187505251328</v>
       </c>
     </row>
     <row r="145">
       <c r="A145">
-        <v>0.37513331487028273</v>
+        <v>2.2460894877392362e-06</v>
       </c>
       <c r="B145">
-        <v>0.70186609720007176</v>
+        <v>0.69380976678625117</v>
       </c>
       <c r="C145">
-        <v>0.71709808201667713</v>
+        <v>0.71335982964290523</v>
       </c>
       <c r="D145">
-        <v>0.78965285521583661</v>
+        <v>2.4810441144104551</v>
       </c>
     </row>
     <row r="146">
       <c r="A146">
-        <v>0.37178066370722695</v>
+        <v>2.2332612731122944e-06</v>
       </c>
       <c r="B146">
-        <v>0.7055675570466674</v>
+        <v>0.69714620279107731</v>
       </c>
       <c r="C146">
-        <v>0.71420255120298159</v>
+        <v>0.71068976885659674</v>
       </c>
       <c r="D146">
-        <v>0.7973603367177744</v>
+        <v>2.4848248399161323</v>
       </c>
     </row>
     <row r="147">
       <c r="A147">
-        <v>0.36556632490869784</v>
+        <v>2.2348517229170245e-06</v>
       </c>
       <c r="B147">
-        <v>0.70736096359791167</v>
+        <v>0.69940917025891181</v>
       </c>
       <c r="C147">
-        <v>0.71316468981723724</v>
+        <v>0.70922280368411539</v>
       </c>
       <c r="D147">
-        <v>0.8155466444196855</v>
+        <v>2.478397423221721</v>
       </c>
     </row>
     <row r="148">
       <c r="A148">
-        <v>0.36058866013370472</v>
+        <v>2.2528916287799545e-06</v>
       </c>
       <c r="B148">
-        <v>0.70750758902168642</v>
+        <v>0.70042373503427158</v>
       </c>
       <c r="C148">
-        <v>0.71343671871166192</v>
+        <v>0.70887324879043001</v>
       </c>
       <c r="D148">
-        <v>0.82251833007195596</v>
+        <v>2.4663088408580904</v>
       </c>
     </row>
     <row r="149">
       <c r="A149">
-        <v>0.35511364546319935</v>
+        <v>2.2801388712806776e-06</v>
       </c>
       <c r="B149">
-        <v>0.70722913343961347</v>
+        <v>0.70112102714288138</v>
       </c>
       <c r="C149">
-        <v>0.71410860301329016</v>
+        <v>0.70890528984520151</v>
       </c>
       <c r="D149">
-        <v>0.81724879569318354</v>
+        <v>2.4499382116978712</v>
       </c>
     </row>
     <row r="150">
       <c r="A150">
-        <v>0.37289074120701327</v>
+        <v>2.3759284784060767e-06</v>
       </c>
       <c r="B150">
-        <v>0.70454097108768021</v>
+        <v>0.69706226612459476</v>
       </c>
       <c r="C150">
-        <v>0.71499424462454397</v>
+        <v>0.71137609256552392</v>
       </c>
       <c r="D150">
-        <v>0.79113155874600782</v>
+        <v>2.4744315326838362</v>
       </c>
     </row>
     <row r="151">
       <c r="A151">
-        <v>0.31771294505467967</v>
+        <v>2.3763972017057895e-06</v>
       </c>
       <c r="B151">
-        <v>0.69833209943807595</v>
+        <v>0.69633934552964405</v>
       </c>
       <c r="C151">
-        <v>0.72450492656431686</v>
+        <v>0.71286272406315931</v>
       </c>
       <c r="D151">
-        <v>0.84221063035129395</v>
+        <v>2.5609545178346349</v>
       </c>
     </row>
     <row r="152">
       <c r="A152">
-        <v>0.32671726700838499</v>
+        <v>2.3715242316186026e-06</v>
       </c>
       <c r="B152">
-        <v>0.69447021321405611</v>
+        <v>0.69187381511807122</v>
       </c>
       <c r="C152">
-        <v>0.72712331542986719</v>
+        <v>0.7162836519222352</v>
       </c>
       <c r="D152">
-        <v>0.83713198137685219</v>
+        <v>2.5528379043802247</v>
       </c>
     </row>
     <row r="153">
       <c r="A153">
-        <v>0.33086721242211481</v>
+        <v>2.3619722598769678e-06</v>
       </c>
       <c r="B153">
-        <v>0.69372148481998885</v>
+        <v>0.69101791416001745</v>
       </c>
       <c r="C153">
-        <v>0.72745006506574672</v>
+        <v>0.71688759447605621</v>
       </c>
       <c r="D153">
-        <v>0.84559619370611583</v>
+        <v>2.555437113150143</v>
       </c>
     </row>
     <row r="154">
       <c r="A154">
-        <v>0.36379349124827087</v>
+        <v>2.3836818856348834e-06</v>
       </c>
       <c r="B154">
-        <v>0.69461615735335558</v>
+        <v>0.69062768710529454</v>
       </c>
       <c r="C154">
-        <v>0.72421660394442222</v>
+        <v>0.71505274818340447</v>
       </c>
       <c r="D154">
-        <v>0.81843147561640905</v>
+        <v>2.605469729852314</v>
       </c>
     </row>
     <row r="155">
       <c r="A155">
-        <v>0.32506365204794896</v>
+        <v>2.5081083812446438e-06</v>
       </c>
       <c r="B155">
-        <v>0.68718288803766125</v>
+        <v>0.68374553192330234</v>
       </c>
       <c r="C155">
-        <v>0.73332006023821172</v>
+        <v>0.7241773117118635</v>
       </c>
       <c r="D155">
-        <v>0.87230025026384861</v>
+        <v>2.5295100429326807</v>
       </c>
     </row>
     <row r="156">
       <c r="A156">
-        <v>0.33326653247801663</v>
+        <v>2.4224073743135802e-06</v>
       </c>
       <c r="B156">
-        <v>0.68615635626386329</v>
+        <v>0.6816752050620678</v>
       </c>
       <c r="C156">
-        <v>0.73358357115640715</v>
+        <v>0.72555984343590341</v>
       </c>
       <c r="D156">
-        <v>0.84935587290416592</v>
+        <v>2.5283884580515616</v>
       </c>
     </row>
     <row r="157">
       <c r="A157">
-        <v>0.34472535389394821</v>
+        <v>2.4744645050353434e-06</v>
       </c>
       <c r="B157">
-        <v>0.68621525497047631</v>
+        <v>0.68094391575755009</v>
       </c>
       <c r="C157">
-        <v>0.73269561631150903</v>
+        <v>0.72557855990704723</v>
       </c>
       <c r="D157">
-        <v>0.8327208426726338</v>
+        <v>2.5382406328229221</v>
       </c>
     </row>
     <row r="158">
       <c r="A158">
-        <v>0.2749952853551883</v>
+        <v>2.4463922140184271e-06</v>
       </c>
       <c r="B158">
-        <v>0.67832106380707513</v>
+        <v>0.67923550917948106</v>
       </c>
       <c r="C158">
-        <v>0.74380410391265739</v>
+        <v>0.72825178935880763</v>
       </c>
       <c r="D158">
-        <v>0.9648020744597019</v>
+        <v>2.6511765322395253</v>
       </c>
     </row>
     <row r="159">
       <c r="A159">
-        <v>0.2872517063630507</v>
+        <v>2.3537986158868342e-06</v>
       </c>
       <c r="B159">
-        <v>0.66994188888311945</v>
+        <v>0.6691001875112188</v>
       </c>
       <c r="C159">
-        <v>0.74980977614306887</v>
+        <v>0.73647634898099201</v>
       </c>
       <c r="D159">
-        <v>0.96868386913295745</v>
+        <v>2.6106302616709662</v>
       </c>
     </row>
     <row r="160">
       <c r="A160">
-        <v>0.31851951134990719</v>
+        <v>2.4116180721075141e-06</v>
       </c>
       <c r="B160">
-        <v>0.67030964018813166</v>
+        <v>0.66902057387560987</v>
       </c>
       <c r="C160">
-        <v>0.74753083104545581</v>
+        <v>0.73507420851713068</v>
       </c>
       <c r="D160">
-        <v>0.93489708793355986</v>
+        <v>2.5966581418469623</v>
       </c>
     </row>
     <row r="161">
       <c r="A161">
-        <v>0.34920577189603041</v>
+        <v>2.4401174060643537e-06</v>
       </c>
       <c r="B161">
-        <v>0.67560195662027245</v>
+        <v>0.67402159511819837</v>
       </c>
       <c r="C161">
-        <v>0.74110859591362743</v>
+        <v>0.72898902824163314</v>
       </c>
       <c r="D161">
-        <v>0.96624341833271232</v>
+        <v>2.6278735640299731</v>
       </c>
     </row>
     <row r="162">
       <c r="A162">
-        <v>0.33158878060434921</v>
+        <v>2.453305227562232e-06</v>
       </c>
       <c r="B162">
-        <v>0.67117285388324788</v>
+        <v>0.66849593025981924</v>
       </c>
       <c r="C162">
-        <v>0.74594504608494028</v>
+        <v>0.73524059244340279</v>
       </c>
       <c r="D162">
-        <v>0.95968950282782761</v>
+        <v>2.5914895029227116</v>
       </c>
     </row>
     <row r="163">
       <c r="A163">
-        <v>0.33482493405314795</v>
+        <v>2.5568794270375871e-06</v>
       </c>
       <c r="B163">
-        <v>0.67097774234638718</v>
+        <v>0.66786339567119268</v>
       </c>
       <c r="C163">
-        <v>0.74586889017595159</v>
+        <v>0.73558822872488827</v>
       </c>
       <c r="D163">
-        <v>0.97371378096791517</v>
+        <v>2.5751486846888936</v>
       </c>
     </row>
     <row r="164">
       <c r="A164">
-        <v>0.35484981300467677</v>
+        <v>2.6180633489601004e-06</v>
       </c>
       <c r="B164">
-        <v>0.6722965656763733</v>
+        <v>0.66877687843608724</v>
       </c>
       <c r="C164">
-        <v>0.74334641126690881</v>
+        <v>0.73361149351251398</v>
       </c>
       <c r="D164">
-        <v>0.9649377434311186</v>
+        <v>2.582301275977628</v>
       </c>
     </row>
     <row r="165">
       <c r="A165">
-        <v>0.32785701855992649</v>
+        <v>2.4291981091469206e-06</v>
       </c>
       <c r="B165">
-        <v>0.66663159804985184</v>
+        <v>0.66567225332428426</v>
       </c>
       <c r="C165">
-        <v>0.74982643726427756</v>
+        <v>0.73666124164686519</v>
       </c>
       <c r="D165">
-        <v>1.0161051619943682</v>
+        <v>2.6204452379723513</v>
       </c>
     </row>
     <row r="166">
       <c r="A166">
-        <v>0.34935694492584446</v>
+        <v>2.492968492041307e-06</v>
       </c>
       <c r="B166">
-        <v>0.66473552763136445</v>
+        <v>0.66402451854062394</v>
       </c>
       <c r="C166">
-        <v>0.74979817368789936</v>
+        <v>0.73674293008531855</v>
       </c>
       <c r="D166">
-        <v>0.96300889145296109</v>
+        <v>2.6116810903102721</v>
       </c>
     </row>
     <row r="167">
       <c r="A167">
-        <v>0.34814914909846884</v>
+        <v>2.5679038293730014e-06</v>
       </c>
       <c r="B167">
-        <v>0.66416163237717718</v>
+        <v>0.6629007166820492</v>
       </c>
       <c r="C167">
-        <v>0.75033744755803022</v>
+        <v>0.73790860997044683</v>
       </c>
       <c r="D167">
-        <v>0.99212876390403815</v>
+        <v>2.6072215329329285</v>
       </c>
     </row>
     <row r="168">
       <c r="A168">
-        <v>0.33948708173172448</v>
+        <v>2.6053851530717762e-06</v>
       </c>
       <c r="B168">
-        <v>0.66261865484753601</v>
+        <v>0.66090418814042451</v>
       </c>
       <c r="C168">
-        <v>0.75218224650735865</v>
+        <v>0.74051793968397017</v>
       </c>
       <c r="D168">
-        <v>1.0041406797477361</v>
+        <v>2.5820164558962064</v>
       </c>
     </row>
     <row r="169">
       <c r="A169">
-        <v>0.34856499547075848</v>
+        <v>2.6018639180505503e-06</v>
       </c>
       <c r="B169">
-        <v>0.66218452183620746</v>
+        <v>0.66013627067548064</v>
       </c>
       <c r="C169">
-        <v>0.75186052948618531</v>
+        <v>0.74052197796589114</v>
       </c>
       <c r="D169">
-        <v>0.98691283719842304</v>
+        <v>2.6023825621558339</v>
       </c>
     </row>
     <row r="170">
       <c r="A170">
-        <v>0.35772667465669394</v>
+        <v>2.6554476926870841e-06</v>
       </c>
       <c r="B170">
-        <v>0.66301865551933092</v>
+        <v>0.66017801965851541</v>
       </c>
       <c r="C170">
-        <v>0.75051337065845181</v>
+        <v>0.73996323752930149</v>
       </c>
       <c r="D170">
-        <v>0.98266644539755821</v>
+        <v>2.619836957967717</v>
       </c>
     </row>
     <row r="171">
       <c r="A171">
-        <v>0.36762376391373391</v>
+        <v>2.7041546380266488e-06</v>
       </c>
       <c r="B171">
-        <v>0.66446397673705881</v>
+        <v>0.66049371461066375</v>
       </c>
       <c r="C171">
-        <v>0.74860129801912989</v>
+        <v>0.73914502160809148</v>
       </c>
       <c r="D171">
-        <v>0.95624593796137303</v>
+        <v>2.6385856008296003</v>
       </c>
     </row>
     <row r="172">
       <c r="A172">
-        <v>0.36120733027119167</v>
+        <v>2.7548865834435367e-06</v>
       </c>
       <c r="B172">
-        <v>0.66287194673011451</v>
+        <v>0.65985446496186118</v>
       </c>
       <c r="C172">
-        <v>0.75035869021006785</v>
+        <v>0.73979058742827586</v>
       </c>
       <c r="D172">
-        <v>0.98100463620709744</v>
+        <v>2.6425916362250192</v>
       </c>
     </row>
     <row r="173">
       <c r="A173">
-        <v>0.37310074163721818</v>
+        <v>2.8215768021366659e-06</v>
       </c>
       <c r="B173">
-        <v>0.66337894845363454</v>
+        <v>0.65960548894742899</v>
       </c>
       <c r="C173">
-        <v>0.74901551324787508</v>
+        <v>0.73920800384282537</v>
       </c>
       <c r="D173">
-        <v>0.96468473334690397</v>
+        <v>2.6487369000994176</v>
       </c>
     </row>
     <row r="174">
       <c r="A174">
-        <v>0.37519771067402852</v>
+        <v>2.8477999064280773e-06</v>
       </c>
       <c r="B174">
-        <v>0.66360512877161293</v>
+        <v>0.65939493347545908</v>
       </c>
       <c r="C174">
-        <v>0.74866339659626058</v>
+        <v>0.73934422811762524</v>
       </c>
       <c r="D174">
-        <v>0.98505508341059589</v>
+        <v>2.6497334613405514</v>
       </c>
     </row>
     <row r="175">
       <c r="A175">
-        <v>0.38735983843940536</v>
+        <v>2.8835180590228046e-06</v>
       </c>
       <c r="B175">
-        <v>0.66544553640567927</v>
+        <v>0.66020404295690127</v>
       </c>
       <c r="C175">
-        <v>0.74618840084388016</v>
+        <v>0.73819704799067432</v>
       </c>
       <c r="D175">
-        <v>0.95182120780905199</v>
+        <v>2.6184451487125315</v>
       </c>
     </row>
     <row r="176">
       <c r="A176">
-        <v>0.38715658695132182</v>
+        <v>2.9645863532301426e-06</v>
       </c>
       <c r="B176">
-        <v>0.66521442845526457</v>
+        <v>0.65998683499881139</v>
       </c>
       <c r="C176">
-        <v>0.74638627163439408</v>
+        <v>0.73837057375164517</v>
       </c>
       <c r="D176">
-        <v>0.96059856976479374</v>
+        <v>2.6184379344885844</v>
       </c>
     </row>
     <row r="177">
       <c r="A177">
-        <v>0.39861358400559521</v>
+        <v>2.9914272762520255e-06</v>
       </c>
       <c r="B177">
-        <v>0.66708563042657709</v>
+        <v>0.66170598027058358</v>
       </c>
       <c r="C177">
-        <v>0.74388852896912239</v>
+        <v>0.73597174867186799</v>
       </c>
       <c r="D177">
-        <v>0.97145106098454592</v>
+        <v>2.639458094421852</v>
       </c>
     </row>
     <row r="178">
       <c r="A178">
-        <v>0.4054424970028121</v>
+        <v>3.0873003939928125e-06</v>
       </c>
       <c r="B178">
-        <v>0.66893849702897179</v>
+        <v>0.66293216793487508</v>
       </c>
       <c r="C178">
-        <v>0.74178392902286006</v>
+        <v>0.73446921605692261</v>
       </c>
       <c r="D178">
-        <v>0.97487841150282484</v>
+        <v>2.6523493564187222</v>
       </c>
     </row>
     <row r="179">
       <c r="A179">
-        <v>0.37857990545267206</v>
+        <v>3.0707726736973518e-06</v>
       </c>
       <c r="B179">
-        <v>0.66104707697031617</v>
+        <v>0.65900762331542762</v>
       </c>
       <c r="C179">
-        <v>0.75044866738948057</v>
+        <v>0.73810026724903255</v>
       </c>
       <c r="D179">
-        <v>1.0166944269315301</v>
+        <v>2.7278598253129194</v>
       </c>
     </row>
     <row r="180">
       <c r="A180">
-        <v>0.37798087474357706</v>
+        <v>3.1325455075008159e-06</v>
       </c>
       <c r="B180">
-        <v>0.66105888199689167</v>
+        <v>0.65817550523620749</v>
       </c>
       <c r="C180">
-        <v>0.75048895463324738</v>
+        <v>0.73880955443622842</v>
       </c>
       <c r="D180">
-        <v>1.0385814372197344</v>
+        <v>2.7225145021991204</v>
       </c>
     </row>
     <row r="181">
       <c r="A181">
-        <v>0.38780144974335817</v>
+        <v>3.2352793473174992e-06</v>
       </c>
       <c r="B181">
-        <v>0.6570618104858289</v>
+        <v>0.65501550585240809</v>
       </c>
       <c r="C181">
-        <v>0.75275162451648603</v>
+        <v>0.74045629853226025</v>
       </c>
       <c r="D181">
-        <v>1.0613493653664756</v>
+        <v>2.7219862907394674</v>
       </c>
     </row>
     <row r="182">
       <c r="A182">
-        <v>0.38654667376005802</v>
+        <v>3.3058734327154821e-06</v>
       </c>
       <c r="B182">
-        <v>0.65655708846205385</v>
+        <v>0.65472536310893859</v>
       </c>
       <c r="C182">
-        <v>0.75325154752629631</v>
+        <v>0.74071825468985253</v>
       </c>
       <c r="D182">
-        <v>1.0815046542146709</v>
+        <v>2.7217952142303972</v>
       </c>
     </row>
     <row r="183">
       <c r="A183">
-        <v>0.38998793212067284</v>
+        <v>3.316067476433523e-06</v>
       </c>
       <c r="B183">
-        <v>0.65706777697238161</v>
+        <v>0.65522915875566923</v>
       </c>
       <c r="C183">
-        <v>0.7525448487991695</v>
+        <v>0.74002556262856301</v>
       </c>
       <c r="D183">
-        <v>1.0933866008473703</v>
+        <v>2.7269315338007534</v>
       </c>
     </row>
     <row r="184">
       <c r="A184">
-        <v>0.40290184652637973</v>
+        <v>3.5368501578665841e-06</v>
       </c>
       <c r="B184">
-        <v>0.65960965097282065</v>
+        <v>0.65779220682432638</v>
       </c>
       <c r="C184">
-        <v>0.74936711379478216</v>
+        <v>0.73658826739301098</v>
       </c>
       <c r="D184">
-        <v>1.085290647971628</v>
+        <v>2.76201134833682</v>
       </c>
     </row>
     <row r="185">
       <c r="A185">
-        <v>0.41234366321894877</v>
+        <v>3.5799493789860281e-06</v>
       </c>
       <c r="B185">
-        <v>0.66322521645486976</v>
+        <v>0.66055275507313471</v>
       </c>
       <c r="C185">
-        <v>0.74561507590885601</v>
+        <v>0.73351009985012317</v>
       </c>
       <c r="D185">
-        <v>1.0945716897300581</v>
+        <v>2.7842702961798311</v>
       </c>
     </row>
     <row r="186">
       <c r="A186">
-        <v>0.40818948827384949</v>
+        <v>3.6344741435266402e-06</v>
       </c>
       <c r="B186">
-        <v>0.66145956999334454</v>
+        <v>0.66102072970360726</v>
       </c>
       <c r="C186">
-        <v>0.74741634685016844</v>
+        <v>0.73319550938558775</v>
       </c>
       <c r="D186">
-        <v>1.10674543179839</v>
+        <v>2.765157520935515</v>
       </c>
     </row>
     <row r="187">
       <c r="A187">
-        <v>0.41649412506832106</v>
+        <v>3.6742435252510984e-06</v>
       </c>
       <c r="B187">
-        <v>0.66322190467962017</v>
+        <v>0.66364071392844826</v>
       </c>
       <c r="C187">
-        <v>0.74515230332719495</v>
+        <v>0.73052942649322961</v>
       </c>
       <c r="D187">
-        <v>1.1034724445236921</v>
+        <v>2.7324855704611295</v>
       </c>
     </row>
     <row r="188">
       <c r="A188">
-        <v>0.41807252706372428</v>
+        <v>3.7345153976919813e-06</v>
       </c>
       <c r="B188">
-        <v>0.66382254846497868</v>
+        <v>0.66452934903937633</v>
       </c>
       <c r="C188">
-        <v>0.7445082799604994</v>
+        <v>0.72960267639319487</v>
       </c>
       <c r="D188">
-        <v>1.1259484533792614</v>
+        <v>2.7339576765703688</v>
       </c>
     </row>
     <row r="189">
       <c r="A189">
-        <v>0.42191657451918924</v>
+        <v>3.822307789862853e-06</v>
       </c>
       <c r="B189">
-        <v>0.66508724800463659</v>
+        <v>0.66632353109581033</v>
       </c>
       <c r="C189">
-        <v>0.7430717985971127</v>
+        <v>0.72791664116915689</v>
       </c>
       <c r="D189">
-        <v>1.1557059150059934</v>
+        <v>2.7072437313484379</v>
       </c>
     </row>
     <row r="190">
       <c r="A190">
-        <v>0.42534262399982603</v>
+        <v>3.8760514806188442e-06</v>
       </c>
       <c r="B190">
-        <v>0.66634100550620645</v>
+        <v>0.66819156927963097</v>
       </c>
       <c r="C190">
-        <v>0.74167308387547703</v>
+        <v>0.72594332623039048</v>
       </c>
       <c r="D190">
-        <v>1.1662782223404413</v>
+        <v>2.7069195346585793</v>
       </c>
     </row>
     <row r="191">
       <c r="A191">
-        <v>0.43553445377549677</v>
+        <v>3.9019513225934452e-06</v>
       </c>
       <c r="B191">
-        <v>0.67038620394795123</v>
+        <v>0.67335213782298009</v>
       </c>
       <c r="C191">
-        <v>0.73717207155175668</v>
+        <v>0.72012826004194075</v>
       </c>
       <c r="D191">
-        <v>1.182198804177371</v>
+        <v>2.7316037482364357</v>
       </c>
     </row>
     <row r="192">
       <c r="A192">
-        <v>0.43575760302509348</v>
+        <v>4.0378629834627654e-06</v>
       </c>
       <c r="B192">
-        <v>0.67051368147726975</v>
+        <v>0.67257912128729369</v>
       </c>
       <c r="C192">
-        <v>0.73704148889151844</v>
+        <v>0.72094733042150638</v>
       </c>
       <c r="D192">
-        <v>1.1890469203388907</v>
+        <v>2.7279982357141845</v>
       </c>
     </row>
     <row r="193">
       <c r="A193">
-        <v>0.43318468335142407</v>
+        <v>4.1239740415872378e-06</v>
       </c>
       <c r="B193">
-        <v>0.66911380208819382</v>
+        <v>0.67280888454159116</v>
       </c>
       <c r="C193">
-        <v>0.73852826324469356</v>
+        <v>0.72104182726252941</v>
       </c>
       <c r="D193">
-        <v>1.1986988332232715</v>
+        <v>2.6934734092960309</v>
       </c>
     </row>
     <row r="194">
       <c r="A194">
-        <v>0.43446823526963224</v>
+        <v>4.1759659972930782e-06</v>
       </c>
       <c r="B194">
-        <v>0.66933051591756854</v>
+        <v>0.67387916271077297</v>
       </c>
       <c r="C194">
-        <v>0.7380918822336906</v>
+        <v>0.7201285907581092</v>
       </c>
       <c r="D194">
-        <v>1.2260278313432571</v>
+        <v>2.658825483804069</v>
       </c>
     </row>
     <row r="195">
       <c r="A195">
-        <v>0.43653825510528677</v>
+        <v>4.23469813494286e-06</v>
       </c>
       <c r="B195">
-        <v>0.67028149968463646</v>
+        <v>0.67601356257598511</v>
       </c>
       <c r="C195">
-        <v>0.73696080169686162</v>
+        <v>0.71788570889353687</v>
       </c>
       <c r="D195">
-        <v>1.2186970333288212</v>
+        <v>2.6549043229384464</v>
       </c>
     </row>
     <row r="196">
       <c r="A196">
-        <v>0.43787253383331831</v>
+        <v>4.3068663071540982e-06</v>
       </c>
       <c r="B196">
-        <v>0.67109346720041096</v>
+        <v>0.67759417132317656</v>
       </c>
       <c r="C196">
-        <v>0.73607373216138616</v>
+        <v>0.71692304713513466</v>
       </c>
       <c r="D196">
-        <v>1.2277451766641967</v>
+        <v>2.5875511396618345</v>
       </c>
     </row>
     <row r="197">
       <c r="A197">
-        <v>0.43667034683382255</v>
+        <v>4.4124088978278738e-06</v>
       </c>
       <c r="B197">
-        <v>0.67028968111994036</v>
+        <v>0.67704337134895076</v>
       </c>
       <c r="C197">
-        <v>0.7369622074928921</v>
+        <v>0.71745091323893939</v>
       </c>
       <c r="D197">
-        <v>1.2406030719085746</v>
+        <v>2.5916991295142537</v>
       </c>
     </row>
     <row r="198">
       <c r="A198">
-        <v>0.43734667890375967</v>
+        <v>4.4425431471993062e-06</v>
       </c>
       <c r="B198">
-        <v>0.67029936873245766</v>
+        <v>0.67877652471899508</v>
       </c>
       <c r="C198">
-        <v>0.73651073128683509</v>
+        <v>0.71536783797648373</v>
       </c>
       <c r="D198">
-        <v>1.2648265288967313</v>
+        <v>2.5876818249930715</v>
       </c>
     </row>
     <row r="199">
       <c r="A199">
-        <v>0.43713622368685467</v>
+        <v>4.4910474618049625e-06</v>
       </c>
       <c r="B199">
-        <v>0.67011917585878455</v>
+        <v>0.67819974422074669</v>
       </c>
       <c r="C199">
-        <v>0.73669879742235267</v>
+        <v>0.71599245555298185</v>
       </c>
       <c r="D199">
-        <v>1.2606037872489151</v>
+        <v>2.5854016459636311</v>
       </c>
     </row>
     <row r="200">
       <c r="A200">
-        <v>0.43654589328651255</v>
+        <v>4.5808751862493945e-06</v>
       </c>
       <c r="B200">
-        <v>0.6694438689358444</v>
+        <v>0.67793660335352746</v>
       </c>
       <c r="C200">
-        <v>0.73747616571888641</v>
+        <v>0.71672148081074094</v>
       </c>
       <c r="D200">
-        <v>1.280778634889352</v>
+        <v>2.5378498606241995</v>
       </c>
     </row>
     <row r="201">
       <c r="A201">
-        <v>0.43723832837039167</v>
+        <v>4.5451907673005919e-06</v>
       </c>
       <c r="B201">
-        <v>0.66980422495816039</v>
+        <v>0.67773327349794044</v>
       </c>
       <c r="C201">
-        <v>0.73735949758111785</v>
+        <v>0.71683108816610486</v>
       </c>
       <c r="D201">
-        <v>1.2924005390781703</v>
+        <v>2.5518995806926013</v>
       </c>
     </row>
     <row r="202">
       <c r="A202">
-        <v>0.43732836324839663</v>
+        <v>4.6488161745485714e-06</v>
       </c>
       <c r="B202">
-        <v>0.66987822731950697</v>
+        <v>0.67757730065683908</v>
       </c>
       <c r="C202">
-        <v>0.73730345356846227</v>
+        <v>0.71700342222283975</v>
       </c>
       <c r="D202">
-        <v>1.3106738097036115</v>
+        <v>2.5434430976838192</v>
       </c>
     </row>
     <row r="203">
       <c r="A203">
-        <v>0.43587280150945379</v>
+        <v>4.456552208501159e-06</v>
       </c>
       <c r="B203">
-        <v>0.66854313506954921</v>
+        <v>0.6758889409550386</v>
       </c>
       <c r="C203">
-        <v>0.73819391986399385</v>
+        <v>0.71966012359500797</v>
       </c>
       <c r="D203">
-        <v>1.3155385850841372</v>
+        <v>2.4175084361262948</v>
       </c>
     </row>
     <row r="204">
       <c r="A204">
-        <v>0.43719149293556098</v>
+        <v>4.5346248450126174e-06</v>
       </c>
       <c r="B204">
-        <v>0.66982716158883804</v>
+        <v>0.67908393587700011</v>
       </c>
       <c r="C204">
-        <v>0.73678590595491333</v>
+        <v>0.71665546602726959</v>
       </c>
       <c r="D204">
-        <v>1.3434970121242436</v>
+        <v>2.3913270883985738</v>
       </c>
     </row>
     <row r="205">
       <c r="A205">
-        <v>0.43574377008971354</v>
+        <v>4.6433343608717623e-06</v>
       </c>
       <c r="B205">
-        <v>0.66813013620086792</v>
+        <v>0.67650663584514525</v>
       </c>
       <c r="C205">
-        <v>0.73853998174245672</v>
+        <v>0.71927783924339461</v>
       </c>
       <c r="D205">
-        <v>1.3561964270007478</v>
+        <v>2.3916837736716312</v>
       </c>
     </row>
     <row r="206">
       <c r="A206">
-        <v>0.43493801488725731</v>
+        <v>4.7815366720163841e-06</v>
       </c>
       <c r="B206">
-        <v>0.66799751828022103</v>
+        <v>0.67717022845461083</v>
       </c>
       <c r="C206">
-        <v>0.73844910788901108</v>
+        <v>0.71836075906145047</v>
       </c>
       <c r="D206">
-        <v>1.398524684362255</v>
+        <v>2.3957063824053275</v>
       </c>
     </row>
     <row r="207">
       <c r="A207">
-        <v>0.43499418303524162</v>
+        <v>4.8670288834632923e-06</v>
       </c>
       <c r="B207">
-        <v>0.66810323407306038</v>
+        <v>0.67691421913657157</v>
       </c>
       <c r="C207">
-        <v>0.73833926291883056</v>
+        <v>0.71950519465158458</v>
       </c>
       <c r="D207">
-        <v>1.4095667301653483</v>
+        <v>2.3042509401347915</v>
       </c>
     </row>
     <row r="208">
       <c r="A208">
-        <v>0.43468992344799351</v>
+        <v>4.9162095298873227e-06</v>
       </c>
       <c r="B208">
-        <v>0.66864439985286295</v>
+        <v>0.67850637214120191</v>
       </c>
       <c r="C208">
-        <v>0.73768361848929143</v>
+        <v>0.71828680170152404</v>
       </c>
       <c r="D208">
-        <v>1.4101628100356756</v>
+        <v>2.2583196617440913</v>
       </c>
     </row>
     <row r="209">
       <c r="A209">
-        <v>0.43473032343084583</v>
+        <v>5.021109197042728e-06</v>
       </c>
       <c r="B209">
-        <v>0.66875741240918729</v>
+        <v>0.67915207411270251</v>
       </c>
       <c r="C209">
-        <v>0.73757004293220485</v>
+        <v>0.71766479865923527</v>
       </c>
       <c r="D209">
-        <v>1.4458831881929761</v>
+        <v>2.2546895971980967</v>
       </c>
     </row>
     <row r="210">
       <c r="A210">
-        <v>0.43585463816588815</v>
+        <v>5.0124942200716722e-06</v>
       </c>
       <c r="B210">
-        <v>0.66792730577561688</v>
+        <v>0.67909830597744292</v>
       </c>
       <c r="C210">
-        <v>0.73854336785714447</v>
+        <v>0.71748868894924289</v>
       </c>
       <c r="D210">
-        <v>1.4513258813816785</v>
+        <v>2.2796458957500141</v>
       </c>
     </row>
     <row r="211">
       <c r="A211">
-        <v>0.43765377228506464</v>
+        <v>5.1539722089833461e-06</v>
       </c>
       <c r="B211">
-        <v>0.66870953005376155</v>
+        <v>0.67920793822418302</v>
       </c>
       <c r="C211">
-        <v>0.73793449417555046</v>
+        <v>0.71735418419764596</v>
       </c>
       <c r="D211">
-        <v>1.4554743904650402</v>
+        <v>2.2872227708409634</v>
       </c>
     </row>
     <row r="212">
       <c r="A212">
-        <v>0.43612605677655791</v>
+        <v>5.1655413350359867e-06</v>
       </c>
       <c r="B212">
-        <v>0.66791851260384227</v>
+        <v>0.67891770716714228</v>
       </c>
       <c r="C212">
-        <v>0.73856318788226971</v>
+        <v>0.71754532651986969</v>
       </c>
       <c r="D212">
-        <v>1.4477637320845156</v>
+        <v>2.2821638728796927</v>
       </c>
     </row>
     <row r="213">
       <c r="A213">
-        <v>0.43479656168538761</v>
+        <v>5.2258199318125413e-06</v>
       </c>
       <c r="B213">
-        <v>0.66770555937160014</v>
+        <v>0.67954620122822074</v>
       </c>
       <c r="C213">
-        <v>0.73858324254315466</v>
+        <v>0.7166879865935577</v>
       </c>
       <c r="D213">
-        <v>1.4673589730939542</v>
+        <v>2.2862749143328909</v>
       </c>
     </row>
     <row r="214">
       <c r="A214">
-        <v>0.43499736455974658</v>
+        <v>5.4236384699705123e-06</v>
       </c>
       <c r="B214">
-        <v>0.66703072291488885</v>
+        <v>0.67911676665677523</v>
       </c>
       <c r="C214">
-        <v>0.73932536323521725</v>
+        <v>0.71760580774420046</v>
       </c>
       <c r="D214">
-        <v>1.4671443530676171</v>
+        <v>2.2370932386720401</v>
       </c>
     </row>
     <row r="215">
       <c r="A215">
-        <v>0.43472388312192622</v>
+        <v>5.5017820248586818e-06</v>
       </c>
       <c r="B215">
-        <v>0.66699027449524451</v>
+        <v>0.67931371020249898</v>
       </c>
       <c r="C215">
-        <v>0.73933461458970795</v>
+        <v>0.71761562141090884</v>
       </c>
       <c r="D215">
-        <v>1.5063391062285687</v>
+        <v>2.2096121877363215</v>
       </c>
     </row>
     <row r="216">
       <c r="A216">
-        <v>0.43627003260712222</v>
+        <v>5.4645400534661556e-06</v>
       </c>
       <c r="B216">
-        <v>0.66714019422228232</v>
+        <v>0.67849610859743925</v>
       </c>
       <c r="C216">
-        <v>0.73936845152031849</v>
+        <v>0.71842590793375716</v>
       </c>
       <c r="D216">
-        <v>1.5403103058138892</v>
+        <v>2.220017410365946</v>
       </c>
     </row>
     <row r="217">
       <c r="A217">
-        <v>0.43833423275791905</v>
+        <v>5.5025328360937254e-06</v>
       </c>
       <c r="B217">
-        <v>0.66817601278401384</v>
+        <v>0.67838119568771227</v>
       </c>
       <c r="C217">
-        <v>0.7385570569176152</v>
+        <v>0.71857530251435997</v>
       </c>
       <c r="D217">
-        <v>1.5621017628395146</v>
+        <v>2.2155277299885685</v>
       </c>
     </row>
     <row r="218">
       <c r="A218">
-        <v>0.43680049997212028</v>
+        <v>5.5062899970616616e-06</v>
       </c>
       <c r="B218">
-        <v>0.66723894391252359</v>
+        <v>0.67776416760592006</v>
       </c>
       <c r="C218">
-        <v>0.73931040697323147</v>
+        <v>0.71923652738035027</v>
       </c>
       <c r="D218">
-        <v>1.564671888349944</v>
+        <v>2.1930761499181726</v>
       </c>
     </row>
     <row r="219">
       <c r="A219">
-        <v>0.43659819177258208</v>
+        <v>5.6593734575485488e-06</v>
       </c>
       <c r="B219">
-        <v>0.66719113844164712</v>
+        <v>0.67801086508773678</v>
       </c>
       <c r="C219">
-        <v>0.73931849219830248</v>
+        <v>0.71895680318081767</v>
       </c>
       <c r="D219">
-        <v>1.571188675656616</v>
+        <v>2.1917203398233016</v>
       </c>
     </row>
     <row r="220">
       <c r="A220">
-        <v>0.43597052936202157</v>
+        <v>5.8740314705037195e-06</v>
       </c>
       <c r="B220">
-        <v>0.66716739142680992</v>
+        <v>0.67864078858556087</v>
       </c>
       <c r="C220">
-        <v>0.7391993540486097</v>
+        <v>0.71816078048330101</v>
       </c>
       <c r="D220">
-        <v>1.5709152621389979</v>
+        <v>2.194837257813635</v>
       </c>
     </row>
     <row r="221">
       <c r="A221">
-        <v>0.43599440567938952</v>
+        <v>5.8367605627735728e-06</v>
       </c>
       <c r="B221">
-        <v>0.66720951972640141</v>
+        <v>0.67784514718820699</v>
       </c>
       <c r="C221">
-        <v>0.73915763136936175</v>
+        <v>0.7197316471027404</v>
       </c>
       <c r="D221">
-        <v>1.6060121321153811</v>
+        <v>2.112753188010335</v>
       </c>
     </row>
     <row r="222">
       <c r="A222">
-        <v>0.43721222796814418</v>
+        <v>5.7991948069251145e-06</v>
       </c>
       <c r="B222">
-        <v>0.6666478502486981</v>
+        <v>0.67683924566491749</v>
       </c>
       <c r="C222">
-        <v>0.73995737247326177</v>
+        <v>0.72045222940948106</v>
       </c>
       <c r="D222">
-        <v>1.6174977541239139</v>
+        <v>2.1483850477331101</v>
       </c>
     </row>
     <row r="223">
       <c r="A223">
-        <v>0.43641848224460467</v>
+        <v>5.9416852001854357e-06</v>
       </c>
       <c r="B223">
-        <v>0.66616910115116346</v>
+        <v>0.67652693986265855</v>
       </c>
       <c r="C223">
-        <v>0.74034166751431929</v>
+        <v>0.72072101428900726</v>
       </c>
       <c r="D223">
-        <v>1.6412015123679038</v>
+        <v>2.1417959602177552</v>
       </c>
     </row>
     <row r="224">
       <c r="A224">
-        <v>0.43638460311536165</v>
+        <v>6.0195065030399182e-06</v>
       </c>
       <c r="B224">
-        <v>0.66616135470966675</v>
+        <v>0.67591460735462372</v>
       </c>
       <c r="C224">
-        <v>0.74034303744190877</v>
+        <v>0.72158389203857687</v>
       </c>
       <c r="D224">
-        <v>1.6931339970348849</v>
+        <v>2.1070566899342218</v>
       </c>
     </row>
     <row r="225">
       <c r="A225">
-        <v>0.43549853655526549</v>
+        <v>6.1275436324548153e-06</v>
       </c>
       <c r="B225">
-        <v>0.66584826338603675</v>
+        <v>0.67634586683318254</v>
       </c>
       <c r="C225">
-        <v>0.74048349600399999</v>
+        <v>0.72119975893091837</v>
       </c>
       <c r="D225">
-        <v>1.7109073978101881</v>
+        <v>2.0873564594510623</v>
       </c>
     </row>
     <row r="226">
       <c r="A226">
-        <v>0.43580163795894855</v>
+        <v>6.4711168098882361e-06</v>
       </c>
       <c r="B226">
-        <v>0.6647682148847549</v>
+        <v>0.67357070283791387</v>
       </c>
       <c r="C226">
-        <v>0.74180203550976076</v>
+        <v>0.72412356395228861</v>
       </c>
       <c r="D226">
-        <v>1.680396931495362</v>
+        <v>2.0907106193729978</v>
       </c>
     </row>
     <row r="227">
       <c r="A227">
-        <v>0.43274190182116828</v>
+        <v>6.4285615806280255e-06</v>
       </c>
       <c r="B227">
-        <v>0.6626791486567013</v>
+        <v>0.67182443966621364</v>
       </c>
       <c r="C227">
-        <v>0.74346196233020112</v>
+        <v>0.72562663199089839</v>
       </c>
       <c r="D227">
-        <v>1.6785952224565599</v>
+        <v>2.0758144398156517</v>
       </c>
     </row>
     <row r="228">
       <c r="A228">
-        <v>0.43266538348055961</v>
+        <v>6.5453336150349929e-06</v>
       </c>
       <c r="B228">
-        <v>0.66296820340190443</v>
+        <v>0.67095157825124674</v>
       </c>
       <c r="C228">
-        <v>0.74308583454597754</v>
+        <v>0.72730724760045662</v>
       </c>
       <c r="D228">
-        <v>1.7158931054708078</v>
+        <v>1.9814415118783444</v>
       </c>
     </row>
     <row r="229">
       <c r="A229">
-        <v>0.43258040882948023</v>
+        <v>6.8173137431373569e-06</v>
       </c>
       <c r="B229">
-        <v>0.66210983496443543</v>
+        <v>0.67017494804364364</v>
       </c>
       <c r="C229">
-        <v>0.74404182755517767</v>
+        <v>0.72794199743752108</v>
       </c>
       <c r="D229">
-        <v>1.7241196241690417</v>
+        <v>1.9974659549849672</v>
       </c>
     </row>
     <row r="230">
       <c r="A230">
-        <v>0.43282994645639405</v>
+        <v>6.9538828081672703e-06</v>
       </c>
       <c r="B230">
-        <v>0.66222829300743868</v>
+        <v>0.67018723489433463</v>
       </c>
       <c r="C230">
-        <v>0.74396164026834566</v>
+        <v>0.72793041564971228</v>
       </c>
       <c r="D230">
-        <v>1.7348600590551391</v>
+        <v>1.9974330446986346</v>
       </c>
     </row>
     <row r="231">
       <c r="A231">
-        <v>0.43278806373505962</v>
+        <v>7.0591779910402912e-06</v>
       </c>
       <c r="B231">
-        <v>0.66221664567941563</v>
+        <v>0.66972032791701064</v>
       </c>
       <c r="C231">
-        <v>0.74396549259411193</v>
+        <v>0.72854788034694562</v>
       </c>
       <c r="D231">
-        <v>1.7943782168694082</v>
+        <v>1.9723682221423493</v>
       </c>
     </row>
     <row r="232">
       <c r="A232">
-        <v>0.43093757939697314</v>
+        <v>7.1883538894551493e-06</v>
       </c>
       <c r="B232">
-        <v>0.66155822721084256</v>
+        <v>0.67017965365574672</v>
       </c>
       <c r="C232">
-        <v>0.74425666907124999</v>
+        <v>0.72811200198077286</v>
       </c>
       <c r="D232">
-        <v>1.8427158367065557</v>
+        <v>1.9414745023788536</v>
       </c>
     </row>
     <row r="233">
       <c r="A233">
-        <v>0.43000473635601422</v>
+        <v>7.3690685010618777e-06</v>
       </c>
       <c r="B233">
-        <v>0.65970872968353733</v>
+        <v>0.66750063825856298</v>
       </c>
       <c r="C233">
-        <v>0.74610872994780619</v>
+        <v>0.73079066568568474</v>
       </c>
       <c r="D233">
-        <v>1.8413693706379679</v>
+        <v>1.9402705674970702</v>
       </c>
     </row>
     <row r="234">
       <c r="A234">
-        <v>0.42971247752736708</v>
+        <v>7.4575449463709263e-06</v>
       </c>
       <c r="B234">
-        <v>0.65965542389527609</v>
+        <v>0.66754536992734359</v>
       </c>
       <c r="C234">
-        <v>0.74612024284231282</v>
+        <v>0.73070745249589475</v>
       </c>
       <c r="D234">
-        <v>1.8741994526649375</v>
+        <v>1.939799875027286</v>
       </c>
     </row>
     <row r="235">
       <c r="A235">
-        <v>0.4295972175068935</v>
+        <v>7.5798824729377908e-06</v>
       </c>
       <c r="B235">
-        <v>0.65967291065050548</v>
+        <v>0.66655079063385081</v>
       </c>
       <c r="C235">
-        <v>0.74608496528445878</v>
+        <v>0.73214615493713819</v>
       </c>
       <c r="D235">
-        <v>1.9097466777087415</v>
+        <v>1.8816435930148452</v>
       </c>
     </row>
     <row r="236">
       <c r="A236">
-        <v>0.43104769515423069</v>
+        <v>7.6024309839326592e-06</v>
       </c>
       <c r="B236">
-        <v>0.65966378565481465</v>
+        <v>0.66619297917828701</v>
       </c>
       <c r="C236">
-        <v>0.74630269957683149</v>
+        <v>0.73233641337449273</v>
       </c>
       <c r="D236">
-        <v>1.9350222606942034</v>
+        <v>1.9068952361058753</v>
       </c>
     </row>
     <row r="237">
       <c r="A237">
-        <v>0.43056390814442075</v>
+        <v>7.7225963077183845e-06</v>
       </c>
       <c r="B237">
-        <v>0.65939159882321841</v>
+        <v>0.66597987724299335</v>
       </c>
       <c r="C237">
-        <v>0.74651263482195329</v>
+        <v>0.73250900332936586</v>
       </c>
       <c r="D237">
-        <v>1.9671546639276083</v>
+        <v>1.9029345960045669</v>
       </c>
     </row>
     <row r="238">
       <c r="A238">
-        <v>0.43003423161304366</v>
+        <v>8.0039560733897751e-06</v>
       </c>
       <c r="B238">
-        <v>0.65916939582272371</v>
+        <v>0.66551890029494776</v>
       </c>
       <c r="C238">
-        <v>0.74664892076298617</v>
+        <v>0.73307657636387247</v>
       </c>
       <c r="D238">
-        <v>1.9742533476159616</v>
+        <v>1.8783384347722505</v>
       </c>
     </row>
     <row r="239">
       <c r="A239">
-        <v>0.42898923722197291</v>
+        <v>8.1106737328590025e-06</v>
       </c>
       <c r="B239">
-        <v>0.65912521164612092</v>
+        <v>0.66625120825532402</v>
       </c>
       <c r="C239">
-        <v>0.74647337626353094</v>
+        <v>0.73232347294431011</v>
       </c>
       <c r="D239">
-        <v>2.0609403433320823</v>
+        <v>1.8627946059165659</v>
       </c>
     </row>
     <row r="240">
       <c r="A240">
-        <v>0.42914889170510978</v>
+        <v>8.3171448481516126e-06</v>
       </c>
       <c r="B240">
-        <v>0.65960750465913498</v>
+        <v>0.66696319480254007</v>
       </c>
       <c r="C240">
-        <v>0.74598685004821585</v>
+        <v>0.73160071848507791</v>
       </c>
       <c r="D240">
-        <v>2.1133775769812644</v>
+        <v>1.8637284291631713</v>
       </c>
     </row>
     <row r="241">
       <c r="A241">
-        <v>0.42949041084033912</v>
+        <v>8.6859348664938534e-06</v>
       </c>
       <c r="B241">
-        <v>0.65831508038234132</v>
+        <v>0.66529038663987528</v>
       </c>
       <c r="C241">
-        <v>0.74733604462658043</v>
+        <v>0.73334371859499048</v>
       </c>
       <c r="D241">
-        <v>2.1328454117775975</v>
+        <v>1.8641341399927616</v>
       </c>
     </row>
     <row r="242">
       <c r="A242">
-        <v>0.43418789340940267</v>
+        <v>8.9983722425575069e-06</v>
       </c>
       <c r="B242">
-        <v>0.66010773953720103</v>
+        <v>0.66751317865904114</v>
       </c>
       <c r="C242">
-        <v>0.74605554588197442</v>
+        <v>0.73063220917966509</v>
       </c>
       <c r="D242">
-        <v>2.1519488492423022</v>
+        <v>1.9377981708201519</v>
       </c>
     </row>
     <row r="243">
       <c r="A243">
-        <v>0.43031336957064881</v>
+        <v>9.3640680030687663e-06</v>
       </c>
       <c r="B243">
-        <v>0.65733881558330332</v>
+        <v>0.66458553908606566</v>
       </c>
       <c r="C243">
-        <v>0.74835035341618872</v>
+        <v>0.73349312657522914</v>
       </c>
       <c r="D243">
-        <v>2.1794911457441626</v>
+        <v>1.8990491823442244</v>
       </c>
     </row>
     <row r="244">
       <c r="A244">
-        <v>0.4303250797508581</v>
+        <v>9.6843919726853234e-06</v>
       </c>
       <c r="B244">
-        <v>0.65735121995453749</v>
+        <v>0.66464581859910754</v>
       </c>
       <c r="C244">
-        <v>0.74833942367324213</v>
+        <v>0.733425848773128</v>
       </c>
       <c r="D244">
-        <v>2.2070376169772983</v>
+        <v>1.8982203122061925</v>
       </c>
     </row>
     <row r="245">
       <c r="A245">
-        <v>0.43167960394791771</v>
+        <v>9.8230805848874405e-06</v>
       </c>
       <c r="B245">
-        <v>0.65777112738995758</v>
+        <v>0.66475123593561669</v>
       </c>
       <c r="C245">
-        <v>0.74820979288040745</v>
+        <v>0.73326901691436874</v>
       </c>
       <c r="D245">
-        <v>2.2244872369076836</v>
+        <v>1.9203318270560614</v>
       </c>
     </row>
     <row r="246">
       <c r="A246">
-        <v>0.4314960679011981</v>
+        <v>1.0179667410286269e-05</v>
       </c>
       <c r="B246">
-        <v>0.65763323110862837</v>
+        <v>0.66455722281555685</v>
       </c>
       <c r="C246">
-        <v>0.74831725998206966</v>
+        <v>0.73342512395746984</v>
       </c>
       <c r="D246">
-        <v>2.2961977738496335</v>
+        <v>1.9190136883615005</v>
       </c>
     </row>
     <row r="247">
       <c r="A247">
-        <v>0.43201657412034888</v>
+        <v>1.0421322266636124e-05</v>
       </c>
       <c r="B247">
-        <v>0.65802864953344686</v>
+        <v>0.66473958177842163</v>
       </c>
       <c r="C247">
-        <v>0.74804677666898378</v>
+        <v>0.73336820510912093</v>
       </c>
       <c r="D247">
-        <v>2.3143900648513336</v>
+        <v>1.9182490749729282</v>
       </c>
     </row>
     <row r="248">
       <c r="A248">
-        <v>0.43176119058297413</v>
+        <v>1.0644023263696537e-05</v>
       </c>
       <c r="B248">
-        <v>0.65780345251500083</v>
+        <v>0.66460441648652613</v>
       </c>
       <c r="C248">
-        <v>0.74820537489987227</v>
+        <v>0.73344795116956463</v>
       </c>
       <c r="D248">
-        <v>2.3639792570526499</v>
+        <v>1.9185276898710844</v>
       </c>
     </row>
     <row r="249">
       <c r="A249">
-        <v>0.43262358953017876</v>
+        <v>1.1057424686929662e-05</v>
       </c>
       <c r="B249">
-        <v>0.65865476098041631</v>
+        <v>0.66620018635060618</v>
       </c>
       <c r="C249">
-        <v>0.74784121498170819</v>
+        <v>0.73145045366453765</v>
       </c>
       <c r="D249">
-        <v>2.3772199484445542</v>
+        <v>1.9773827730365501</v>
       </c>
     </row>
     <row r="250">
       <c r="A250">
-        <v>0.43120447682694385</v>
+        <v>1.1732082068885764e-05</v>
       </c>
       <c r="B250">
-        <v>0.65714498027341262</v>
+        <v>0.66403344980364687</v>
       </c>
       <c r="C250">
-        <v>0.74904574558133641</v>
+        <v>0.7336233262104972</v>
       </c>
       <c r="D250">
-        <v>2.4171229080127281</v>
+        <v>1.9423197623918909</v>
       </c>
     </row>
     <row r="251">
       <c r="A251">
-        <v>0.43130361859166066</v>
+        <v>1.2061290044086905e-05</v>
       </c>
       <c r="B251">
-        <v>0.65758084480021772</v>
+        <v>0.66392118656502574</v>
       </c>
       <c r="C251">
-        <v>0.7488126800511572</v>
+        <v>0.73377820864594734</v>
       </c>
       <c r="D251">
-        <v>2.4665435883793618</v>
+        <v>1.94750290074687</v>
       </c>
     </row>
     <row r="252">
       <c r="A252">
-        <v>0.43084246778063878</v>
+        <v>1.2311736434001909e-05</v>
       </c>
       <c r="B252">
-        <v>0.65668747697744179</v>
+        <v>0.66356626550016151</v>
       </c>
       <c r="C252">
-        <v>0.74943761964229938</v>
+        <v>0.73392318998987016</v>
       </c>
       <c r="D252">
-        <v>2.5105196609904272</v>
+        <v>1.9468665808813808</v>
       </c>
     </row>
     <row r="253">
       <c r="A253">
-        <v>0.43145679035174617</v>
+        <v>1.2719739129515915e-05</v>
       </c>
       <c r="B253">
-        <v>0.6567575960432579</v>
+        <v>0.66405249485451867</v>
       </c>
       <c r="C253">
-        <v>0.7492036589390596</v>
+        <v>0.73325709803752193</v>
       </c>
       <c r="D253">
-        <v>2.5612123777502371</v>
+        <v>1.9519312240794442</v>
       </c>
     </row>
     <row r="254">
       <c r="A254">
-        <v>0.43227969479877515</v>
+        <v>1.3099928362821482e-05</v>
       </c>
       <c r="B254">
-        <v>0.65723003406137348</v>
+        <v>0.66459852851385692</v>
       </c>
       <c r="C254">
-        <v>0.7486614234096397</v>
+        <v>0.73265947988233771</v>
       </c>
       <c r="D254">
-        <v>2.6104378789454605</v>
+        <v>1.9490623084238248</v>
       </c>
     </row>
     <row r="255">
       <c r="A255">
-        <v>0.43308565909061941</v>
+        <v>1.365953758404001e-05</v>
       </c>
       <c r="B255">
-        <v>0.65780810995884786</v>
+        <v>0.66489290134008738</v>
       </c>
       <c r="C255">
-        <v>0.74803019341184684</v>
+        <v>0.73263795677897003</v>
       </c>
       <c r="D255">
-        <v>2.7231663979973044</v>
+        <v>1.9139664600954829</v>
       </c>
     </row>
     <row r="256">
       <c r="A256">
-        <v>0.43413637781668635</v>
+        <v>1.4344668689328556e-05</v>
       </c>
       <c r="B256">
-        <v>0.6587328430585373</v>
+        <v>0.66611774702897586</v>
       </c>
       <c r="C256">
-        <v>0.74704333798027955</v>
+        <v>0.73166375408047801</v>
       </c>
       <c r="D256">
-        <v>2.7190875593048247</v>
+        <v>1.885064648625189</v>
       </c>
     </row>
     <row r="257">
       <c r="A257">
-        <v>0.43131327540733222</v>
+        <v>1.4803441402798822e-05</v>
       </c>
       <c r="B257">
-        <v>0.6556047385961693</v>
+        <v>0.6644787819092226</v>
       </c>
       <c r="C257">
-        <v>0.75021990777636849</v>
+        <v>0.73275981162403669</v>
       </c>
       <c r="D257">
-        <v>2.8083003988144113</v>
+        <v>1.9354029939144031</v>
       </c>
     </row>
     <row r="258">
       <c r="A258">
-        <v>0.4306245924850044</v>
+        <v>1.5322672275031854e-05</v>
       </c>
       <c r="B258">
-        <v>0.65503896729054034</v>
+        <v>0.66396175937748347</v>
       </c>
       <c r="C258">
-        <v>0.75064228343059003</v>
+        <v>0.73323036756210791</v>
       </c>
       <c r="D258">
-        <v>2.8257333505315545</v>
+        <v>1.9248070869035057</v>
       </c>
     </row>
     <row r="259">
       <c r="A259">
-        <v>0.4306831261513917</v>
+        <v>1.5770851558930744e-05</v>
       </c>
       <c r="B259">
-        <v>0.65508426016514165</v>
+        <v>0.66394973318576467</v>
       </c>
       <c r="C259">
-        <v>0.75062357406113089</v>
+        <v>0.73324749669263833</v>
       </c>
       <c r="D259">
-        <v>2.8851710397176777</v>
+        <v>1.9215924973073459</v>
       </c>
     </row>
     <row r="260">
       <c r="A260">
-        <v>0.43048867511051753</v>
+        <v>1.6316318769121326e-05</v>
       </c>
       <c r="B260">
-        <v>0.65492390335732575</v>
+        <v>0.66405573088007597</v>
       </c>
       <c r="C260">
-        <v>0.75069057291030172</v>
+        <v>0.73307863145506247</v>
       </c>
       <c r="D260">
-        <v>2.9287961130855864</v>
+        <v>1.9195872795169859</v>
       </c>
     </row>
     <row r="261">
       <c r="A261">
-        <v>0.43051066544411942</v>
+        <v>1.6810246588701481e-05</v>
       </c>
       <c r="B261">
-        <v>0.65498338378811294</v>
+        <v>0.66437086307057969</v>
       </c>
       <c r="C261">
-        <v>0.75055122407918051</v>
+        <v>0.73268118743202948</v>
       </c>
       <c r="D261">
-        <v>2.9411350492779045</v>
+        <v>1.92135183587956</v>
       </c>
     </row>
     <row r="262">
       <c r="A262">
-        <v>0.4307195352559039</v>
+        <v>1.7254894244347691e-05</v>
       </c>
       <c r="B262">
-        <v>0.65530515691696345</v>
+        <v>0.66487924191414394</v>
       </c>
       <c r="C262">
-        <v>0.75015045738019392</v>
+        <v>0.73206131383630346</v>
       </c>
       <c r="D262">
-        <v>3.0325295041923712</v>
+        <v>1.924588605542066</v>
       </c>
     </row>
     <row r="263">
       <c r="A263">
-        <v>0.43058516935601754</v>
+        <v>1.8057300904131195e-05</v>
       </c>
       <c r="B263">
-        <v>0.65507318752993793</v>
+        <v>0.66478291384430821</v>
       </c>
       <c r="C263">
-        <v>0.75040406674921312</v>
+        <v>0.73230034168611713</v>
       </c>
       <c r="D263">
-        <v>3.0739919087117524</v>
+        <v>1.9079564303118726</v>
       </c>
     </row>
     <row r="264">
       <c r="A264">
-        <v>0.43081103794246323</v>
+        <v>1.8801667395961035e-05</v>
       </c>
       <c r="B264">
-        <v>0.65501375699899755</v>
+        <v>0.66470736070226155</v>
       </c>
       <c r="C264">
-        <v>0.75054758547788003</v>
+        <v>0.73235889628656814</v>
       </c>
       <c r="D264">
-        <v>3.1366927984101727</v>
+        <v>1.9120510538178621</v>
       </c>
     </row>
     <row r="265">
       <c r="A265">
-        <v>0.43074493552206083</v>
+        <v>1.941277178809121e-05</v>
       </c>
       <c r="B265">
-        <v>0.65498408985848133</v>
+        <v>0.66471210700587147</v>
       </c>
       <c r="C265">
-        <v>0.75056261668264845</v>
+        <v>0.73233487319598511</v>
       </c>
       <c r="D265">
-        <v>3.1750476942260848</v>
+        <v>1.9112938825848715</v>
       </c>
     </row>
     <row r="266">
       <c r="A266">
-        <v>0.4311284027684299</v>
+        <v>1.9959588711500688e-05</v>
       </c>
       <c r="B266">
-        <v>0.65514180065246963</v>
+        <v>0.66477182947708802</v>
       </c>
       <c r="C266">
-        <v>0.7505016633535857</v>
+        <v>0.73227502520619248</v>
       </c>
       <c r="D266">
-        <v>3.2570337234670856</v>
+        <v>1.9145315182411708</v>
       </c>
     </row>
     <row r="267">
       <c r="A267">
-        <v>0.43045874712568388</v>
+        <v>2.0566461565495534e-05</v>
       </c>
       <c r="B267">
-        <v>0.65472302290045836</v>
+        <v>0.66457612155661761</v>
       </c>
       <c r="C267">
-        <v>0.75077206178422062</v>
+        <v>0.73236224232153513</v>
       </c>
       <c r="D267">
-        <v>3.2931511219230609</v>
+        <v>1.9117577456141985</v>
       </c>
     </row>
     <row r="268">
       <c r="A268">
-        <v>0.43057611124460216</v>
+        <v>2.2118911990382441e-05</v>
       </c>
       <c r="B268">
-        <v>0.65468029411365425</v>
+        <v>0.66429988164104548</v>
       </c>
       <c r="C268">
-        <v>0.75088097296978429</v>
+        <v>0.73273073002448408</v>
       </c>
       <c r="D268">
-        <v>3.3365975506247505</v>
+        <v>1.9098084766379817</v>
       </c>
     </row>
     <row r="269">
       <c r="A269">
-        <v>0.43129563931072973</v>
+        <v>2.2722365562670633e-05</v>
       </c>
       <c r="B269">
-        <v>0.65505106493538734</v>
+        <v>0.66460233351179221</v>
       </c>
       <c r="C269">
-        <v>0.75069794426641412</v>
+        <v>0.73256639734837536</v>
       </c>
       <c r="D269">
-        <v>3.3969415789077733</v>
+        <v>1.9130850297188398</v>
       </c>
     </row>
     <row r="270">
       <c r="A270">
-        <v>0.43282953686826203</v>
+        <v>2.2924337011940764e-05</v>
       </c>
       <c r="B270">
-        <v>0.65626322509071611</v>
+        <v>0.66528776933319944</v>
       </c>
       <c r="C270">
-        <v>0.74980928957400539</v>
+        <v>0.73181107996114081</v>
       </c>
       <c r="D270">
-        <v>3.3521304763896254</v>
+        <v>1.9277563068991665</v>
       </c>
     </row>
     <row r="271">
       <c r="A271">
-        <v>0.43265242413048532</v>
+        <v>2.333156886087142e-05</v>
       </c>
       <c r="B271">
-        <v>0.65609243289090657</v>
+        <v>0.66478039038014858</v>
       </c>
       <c r="C271">
-        <v>0.74994302138424485</v>
+        <v>0.73228300778965616</v>
       </c>
       <c r="D271">
-        <v>3.3876834675828222</v>
+        <v>1.9214149467014039</v>
       </c>
     </row>
     <row r="272">
       <c r="A272">
-        <v>0.4321936717923448</v>
+        <v>2.4055980586935069e-05</v>
       </c>
       <c r="B272">
-        <v>0.65551344733897454</v>
+        <v>0.6645724262097269</v>
       </c>
       <c r="C272">
-        <v>0.75033924480669101</v>
+        <v>0.7323616919616649</v>
       </c>
       <c r="D272">
-        <v>3.3671877981443235</v>
+        <v>1.9191455276303921</v>
       </c>
     </row>
     <row r="273">
       <c r="A273">
-        <v>0.43237983181881889</v>
+        <v>2.4999388748360358e-05</v>
       </c>
       <c r="B273">
-        <v>0.65552542342435394</v>
+        <v>0.66430776614051679</v>
       </c>
       <c r="C273">
-        <v>0.75021634698889972</v>
+        <v>0.73278428859488098</v>
       </c>
       <c r="D273">
-        <v>3.4637090380634294</v>
+        <v>1.8912236860430269</v>
       </c>
     </row>
     <row r="274">
       <c r="A274">
-        <v>0.43302636109869297</v>
+        <v>2.6117513522749288e-05</v>
       </c>
       <c r="B274">
-        <v>0.65598291319536051</v>
+        <v>0.66532199374706158</v>
       </c>
       <c r="C274">
-        <v>0.74965621323294962</v>
+        <v>0.73177608260647597</v>
       </c>
       <c r="D274">
-        <v>3.4587577022517646</v>
+        <v>1.8834934926610072</v>
       </c>
     </row>
     <row r="275">
       <c r="A275">
-        <v>0.43300091558297454</v>
+        <v>2.6610741090503788e-05</v>
       </c>
       <c r="B275">
-        <v>0.6559601001696691</v>
+        <v>0.6652864164695812</v>
       </c>
       <c r="C275">
-        <v>0.74968192404937328</v>
+        <v>0.73181452729961549</v>
       </c>
       <c r="D275">
-        <v>3.5605762521124209</v>
+        <v>1.8834323521299829</v>
       </c>
     </row>
     <row r="276">
       <c r="A276">
-        <v>0.433628405414408</v>
+        <v>2.7539997384975372e-05</v>
       </c>
       <c r="B276">
-        <v>0.65695223415189341</v>
+        <v>0.66648000176263444</v>
       </c>
       <c r="C276">
-        <v>0.74847451499136508</v>
+        <v>0.73054072339138609</v>
       </c>
       <c r="D276">
-        <v>3.628279376144234</v>
+        <v>1.8699016123948038</v>
       </c>
     </row>
     <row r="277">
       <c r="A277">
-        <v>0.43292873516012642</v>
+        <v>2.8498408288057887e-05</v>
       </c>
       <c r="B277">
-        <v>0.65606967085483014</v>
+        <v>0.66686761646118287</v>
       </c>
       <c r="C277">
-        <v>0.74932118789098445</v>
+        <v>0.73027393198519619</v>
       </c>
       <c r="D277">
-        <v>3.7483557044746281</v>
+        <v>1.8604147199806671</v>
       </c>
     </row>
     <row r="278">
       <c r="A278">
-        <v>0.43307012504767572</v>
+        <v>2.9233957986371663e-05</v>
       </c>
       <c r="B278">
-        <v>0.65423162883017105</v>
+        <v>0.66483397524806476</v>
       </c>
       <c r="C278">
-        <v>0.75126362656437462</v>
+        <v>0.73207207436504973</v>
       </c>
       <c r="D278">
-        <v>3.7706457800045836</v>
+        <v>1.8867165651592748</v>
       </c>
     </row>
     <row r="279">
       <c r="A279">
-        <v>0.43363594816446116</v>
+        <v>3.0073365220396425e-05</v>
       </c>
       <c r="B279">
-        <v>0.65459709273963096</v>
+        <v>0.66488522700711683</v>
       </c>
       <c r="C279">
-        <v>0.75097468514107057</v>
+        <v>0.73202610293751569</v>
       </c>
       <c r="D279">
-        <v>3.8029471097588377</v>
+        <v>1.8871921250668011</v>
       </c>
     </row>
     <row r="280">
       <c r="A280">
-        <v>0.43542081647053971</v>
+        <v>3.0612128907967536e-05</v>
       </c>
       <c r="B280">
-        <v>0.65577769393670815</v>
+        <v>0.66537480920028358</v>
       </c>
       <c r="C280">
-        <v>0.75008624970518567</v>
+        <v>0.73147406410706939</v>
       </c>
       <c r="D280">
-        <v>3.8918031754991302</v>
+        <v>1.8988977795858659</v>
       </c>
     </row>
     <row r="281">
       <c r="A281">
-        <v>0.43229089886901839</v>
+        <v>3.1673985301340984e-05</v>
       </c>
       <c r="B281">
-        <v>0.65320296028277669</v>
+        <v>0.66340965522762629</v>
       </c>
       <c r="C281">
-        <v>0.75210172644747775</v>
+        <v>0.73329326955771468</v>
       </c>
       <c r="D281">
-        <v>3.8942491481485764</v>
+        <v>1.8717702833524958</v>
       </c>
     </row>
     <row r="282">
       <c r="A282">
-        <v>0.43254033254768531</v>
+        <v>3.2672589025473079e-05</v>
       </c>
       <c r="B282">
-        <v>0.65356444469538821</v>
+        <v>0.66431213306361592</v>
       </c>
       <c r="C282">
-        <v>0.75168610836159733</v>
+        <v>0.73235520925196007</v>
       </c>
       <c r="D282">
-        <v>4.0253577701889984</v>
+        <v>1.8721180198367979</v>
       </c>
     </row>
     <row r="283">
       <c r="A283">
-        <v>0.43259033129274682</v>
+        <v>3.4013114325632553e-05</v>
       </c>
       <c r="B283">
-        <v>0.65364209679083696</v>
+        <v>0.66462109668900782</v>
       </c>
       <c r="C283">
-        <v>0.7516063444685539</v>
+        <v>0.73207788461102141</v>
       </c>
       <c r="D283">
-        <v>4.1078967857481459</v>
+        <v>1.8678835265054885</v>
       </c>
     </row>
     <row r="284">
       <c r="A284">
-        <v>0.43260086543836967</v>
+        <v>3.5366975851770992e-05</v>
       </c>
       <c r="B284">
-        <v>0.65367519559532972</v>
+        <v>0.66452177868910922</v>
       </c>
       <c r="C284">
-        <v>0.75157172245398141</v>
+        <v>0.73239808704985665</v>
       </c>
       <c r="D284">
-        <v>4.1967833564959403</v>
+        <v>1.8435872349672986</v>
       </c>
     </row>
     <row r="285">
       <c r="A285">
-        <v>0.43254261631523516</v>
+        <v>3.4913357770841391e-05</v>
       </c>
       <c r="B285">
-        <v>0.65372577733837511</v>
+        <v>0.66481630997538599</v>
       </c>
       <c r="C285">
-        <v>0.75150497170727326</v>
+        <v>0.73214186122384084</v>
       </c>
       <c r="D285">
-        <v>4.297784776101917</v>
+        <v>1.8376421993489513</v>
       </c>
     </row>
     <row r="286">
       <c r="A286">
-        <v>0.43218189723304123</v>
+        <v>3.5928594391546161e-05</v>
       </c>
       <c r="B286">
-        <v>0.65387045755295348</v>
+        <v>0.66514334260956953</v>
       </c>
       <c r="C286">
-        <v>0.7512874117849957</v>
+        <v>0.73194682447286918</v>
       </c>
       <c r="D286">
-        <v>4.3699829943688799</v>
+        <v>1.8189248350456526</v>
       </c>
     </row>
     <row r="287">
       <c r="A287">
-        <v>0.43225434545873292</v>
+        <v>3.7658861970158049e-05</v>
       </c>
       <c r="B287">
-        <v>0.65375786843139161</v>
+        <v>0.66523435664299835</v>
       </c>
       <c r="C287">
-        <v>0.75141435286142744</v>
+        <v>0.73204624478420555</v>
       </c>
       <c r="D287">
-        <v>4.4891163828239531</v>
+        <v>1.8004627039057084</v>
       </c>
     </row>
     <row r="288">
       <c r="A288">
-        <v>0.43387635516030826</v>
+        <v>3.8568348347833476e-05</v>
       </c>
       <c r="B288">
-        <v>0.65359841724860646</v>
+        <v>0.66438053474298264</v>
       </c>
       <c r="C288">
-        <v>0.75177508835041695</v>
+        <v>0.73275169734848999</v>
       </c>
       <c r="D288">
-        <v>4.5886195558696388</v>
+        <v>1.8205358372030691</v>
       </c>
     </row>
     <row r="289">
       <c r="A289">
-        <v>0.4353765458337342</v>
+        <v>3.928944896667125e-05</v>
       </c>
       <c r="B289">
-        <v>0.65451414095878002</v>
+        <v>0.66478874149597222</v>
       </c>
       <c r="C289">
-        <v>0.75105125072294454</v>
+        <v>0.73242410593719187</v>
       </c>
       <c r="D289">
-        <v>4.58783484176372</v>
+        <v>1.823720979797341</v>
       </c>
     </row>
     <row r="290">
       <c r="A290">
-        <v>0.43399215592060908</v>
+        <v>4.025224943504605e-05</v>
       </c>
       <c r="B290">
-        <v>0.65356604839549881</v>
+        <v>0.66369888589694437</v>
       </c>
       <c r="C290">
-        <v>0.75179148004104035</v>
+        <v>0.73343763410826091</v>
       </c>
       <c r="D290">
-        <v>4.6434606336475728</v>
+        <v>1.8109130679934196</v>
       </c>
     </row>
     <row r="291">
       <c r="A291">
-        <v>0.43575348761609833</v>
+        <v>4.2562828499207773e-05</v>
       </c>
       <c r="B291">
-        <v>0.65420235915261882</v>
+        <v>0.66488858685375374</v>
       </c>
       <c r="C291">
-        <v>0.75158518776433436</v>
+        <v>0.73180894283139741</v>
       </c>
       <c r="D291">
-        <v>4.7330305315453893</v>
+        <v>1.8662899073362418</v>
       </c>
     </row>
     <row r="292">
       <c r="A292">
-        <v>0.43130570783962796</v>
+        <v>4.4839984964098817e-05</v>
       </c>
       <c r="B292">
-        <v>0.65029205352076658</v>
+        <v>0.66140644109562152</v>
       </c>
       <c r="C292">
-        <v>0.75472928811032647</v>
+        <v>0.73508504399457864</v>
       </c>
       <c r="D292">
-        <v>4.8295521524742533</v>
+        <v>1.8306460617720759</v>
       </c>
     </row>
     <row r="293">
       <c r="A293">
-        <v>0.43098562710300492</v>
+        <v>4.6463231393443447e-05</v>
       </c>
       <c r="B293">
-        <v>0.6499170329840267</v>
+        <v>0.66108743882535626</v>
       </c>
       <c r="C293">
-        <v>0.75520479328337742</v>
+        <v>0.73532670059474081</v>
       </c>
       <c r="D293">
-        <v>4.8937028200171104</v>
+        <v>1.8394992433574346</v>
       </c>
     </row>
     <row r="294">
       <c r="A294">
-        <v>0.43126899129305812</v>
+        <v>4.7842640400070281e-05</v>
       </c>
       <c r="B294">
-        <v>0.65016009345707881</v>
+        <v>0.66108812971767605</v>
       </c>
       <c r="C294">
-        <v>0.75505463001899042</v>
+        <v>0.73534652837270242</v>
       </c>
       <c r="D294">
-        <v>4.9718017671053198</v>
+        <v>1.8409958598486289</v>
       </c>
     </row>
     <row r="295">
       <c r="A295">
-        <v>0.43216921862221014</v>
+        <v>4.9295374254651224e-05</v>
       </c>
       <c r="B295">
-        <v>0.65105836138849182</v>
+        <v>0.66127233545089115</v>
       </c>
       <c r="C295">
-        <v>0.75446523067557314</v>
+        <v>0.73541049982327444</v>
       </c>
       <c r="D295">
-        <v>5.0565554138404094</v>
+        <v>1.8403755475174388</v>
       </c>
     </row>
     <row r="296">
       <c r="A296">
-        <v>0.431073077185606</v>
+        <v>5.1181954764374932e-05</v>
       </c>
       <c r="B296">
-        <v>0.64982162485899619</v>
+        <v>0.66042511418324878</v>
       </c>
       <c r="C296">
-        <v>0.7554030039049453</v>
+        <v>0.73599764617725993</v>
       </c>
       <c r="D296">
-        <v>5.0940964799299113</v>
+        <v>1.8420877159317497</v>
       </c>
     </row>
     <row r="297">
       <c r="A297">
-        <v>0.43115924526222293</v>
+        <v>5.2736306150455916e-05</v>
       </c>
       <c r="B297">
-        <v>0.64973488322194073</v>
+        <v>0.66010914291278378</v>
       </c>
       <c r="C297">
-        <v>0.75539334628000931</v>
+        <v>0.73628955739259982</v>
       </c>
       <c r="D297">
-        <v>5.2106542336753208</v>
+        <v>1.8323745865702437</v>
       </c>
     </row>
     <row r="298">
       <c r="A298">
-        <v>0.43185437971438789</v>
+        <v>5.5298836905326193e-05</v>
       </c>
       <c r="B298">
-        <v>0.65005803367947479</v>
+        <v>0.65974716011808088</v>
       </c>
       <c r="C298">
-        <v>0.75491474368214406</v>
+        <v>0.73692710660945604</v>
       </c>
       <c r="D298">
-        <v>5.3183209209122779</v>
+        <v>1.7914956259497512</v>
       </c>
     </row>
     <row r="299">
       <c r="A299">
-        <v>0.43262477307634573</v>
+        <v>5.7406856975894618e-05</v>
       </c>
       <c r="B299">
-        <v>0.65072832367552724</v>
+        <v>0.6608992606141042</v>
       </c>
       <c r="C299">
-        <v>0.75423592083105673</v>
+        <v>0.73583998722715871</v>
       </c>
       <c r="D299">
-        <v>5.4147142961442318</v>
+        <v>1.7863849183835612</v>
       </c>
     </row>
     <row r="300">
       <c r="A300">
-        <v>0.43144133819789177</v>
+        <v>6.0708018675796494e-05</v>
       </c>
       <c r="B300">
-        <v>0.64942187739664825</v>
+        <v>0.65899883733400166</v>
       </c>
       <c r="C300">
-        <v>0.75555744533418812</v>
+        <v>0.73776608090365092</v>
       </c>
       <c r="D300">
-        <v>5.4282883659082861</v>
+        <v>1.7841309087887249</v>
       </c>
     </row>
     <row r="301">
       <c r="A301">
-        <v>0.43058476253216432</v>
+        <v>6.3949109875987182e-05</v>
       </c>
       <c r="B301">
-        <v>0.64889152303021413</v>
+        <v>0.65752604465624054</v>
       </c>
       <c r="C301">
-        <v>0.75582757655045474</v>
+        <v>0.73940980288543368</v>
       </c>
       <c r="D301">
-        <v>5.6838350341630184</v>
+        <v>1.7414586108442065</v>
       </c>
     </row>
     <row r="302">
       <c r="A302">
-        <v>0.42982794891861603</v>
+        <v>7.0051772229163872e-05</v>
       </c>
       <c r="B302">
-        <v>0.64768409948774219</v>
+        <v>0.65609151575951907</v>
       </c>
       <c r="C302">
-        <v>0.75708252536631437</v>
+        <v>0.74075354715238628</v>
       </c>
       <c r="D302">
-        <v>5.7699891377113071</v>
+        <v>1.7501261495824578</v>
       </c>
     </row>
     <row r="303">
       <c r="A303">
-        <v>0.428553354657915</v>
+        <v>7.179081362374401e-05</v>
       </c>
       <c r="B303">
-        <v>0.64684925226657297</v>
+        <v>0.65568508766634892</v>
       </c>
       <c r="C303">
-        <v>0.75764005148039137</v>
+        <v>0.74094933589539513</v>
       </c>
       <c r="D303">
-        <v>5.7022493804944432</v>
+        <v>1.7477787559815141</v>
       </c>
     </row>
     <row r="304">
       <c r="A304">
-        <v>0.42858755911410418</v>
+        <v>7.500893062048322e-05</v>
       </c>
       <c r="B304">
-        <v>0.64694714903718986</v>
+        <v>0.65587566417823395</v>
       </c>
       <c r="C304">
-        <v>0.75753259724984834</v>
+        <v>0.74077969791979492</v>
       </c>
       <c r="D304">
-        <v>5.8599452999476132</v>
+        <v>1.7437535690453041</v>
       </c>
     </row>
     <row r="305">
       <c r="A305">
-        <v>0.42849918648878926</v>
+        <v>7.8401688425067004e-05</v>
       </c>
       <c r="B305">
-        <v>0.64720231560706676</v>
+        <v>0.65616785876243466</v>
       </c>
       <c r="C305">
-        <v>0.7572239695457299</v>
+        <v>0.74054388536523807</v>
       </c>
       <c r="D305">
-        <v>5.9698549298540016</v>
+        <v>1.7326928021708787</v>
       </c>
     </row>
     <row r="306">
       <c r="A306">
-        <v>0.42850709155368827</v>
+        <v>8.0770615486675177e-05</v>
       </c>
       <c r="B306">
-        <v>0.64677501312195196</v>
+        <v>0.65607532455137085</v>
       </c>
       <c r="C306">
-        <v>0.75767544972781187</v>
+        <v>0.74059743642584153</v>
       </c>
       <c r="D306">
-        <v>5.985260498852357</v>
+        <v>1.7369477743468762</v>
       </c>
     </row>
     <row r="307">
       <c r="A307">
-        <v>0.42858894930386454</v>
+        <v>8.3683818798957162e-05</v>
       </c>
       <c r="B307">
-        <v>0.64680040867712929</v>
+        <v>0.65609571459254035</v>
       </c>
       <c r="C307">
-        <v>0.75766299230681255</v>
+        <v>0.74057587284127835</v>
       </c>
       <c r="D307">
-        <v>6.131939730885458</v>
+        <v>1.7364567683443104</v>
       </c>
     </row>
     <row r="308">
       <c r="A308">
-        <v>0.42990508791629323</v>
+        <v>8.5610358586547271e-05</v>
       </c>
       <c r="B308">
-        <v>0.64711046375995374</v>
+        <v>0.65654845337700096</v>
       </c>
       <c r="C308">
-        <v>0.7575587059608303</v>
+        <v>0.7399816796204628</v>
       </c>
       <c r="D308">
-        <v>6.1105323880006335</v>
+        <v>1.755341078261333</v>
       </c>
     </row>
     <row r="309">
       <c r="A309">
-        <v>0.4302500120803765</v>
+        <v>8.8830455813842388e-05</v>
       </c>
       <c r="B309">
-        <v>0.64733800085943671</v>
+        <v>0.65644704059248249</v>
       </c>
       <c r="C309">
-        <v>0.75738623162922492</v>
+        <v>0.74007964942566784</v>
       </c>
       <c r="D309">
-        <v>6.2127460225200695</v>
+        <v>1.7534626970474592</v>
       </c>
     </row>
     <row r="310">
       <c r="A310">
-        <v>0.4292006602802062</v>
+        <v>9.1263107453586485e-05</v>
       </c>
       <c r="B310">
-        <v>0.64663182660772844</v>
+        <v>0.65618726341193567</v>
       </c>
       <c r="C310">
-        <v>0.75788884644905863</v>
+        <v>0.74022070994912537</v>
       </c>
       <c r="D310">
-        <v>6.3559722101239853</v>
+        <v>1.7498313855159944</v>
       </c>
     </row>
     <row r="311">
       <c r="A311">
-        <v>0.42883181419172223</v>
+        <v>9.525595881854627e-05</v>
       </c>
       <c r="B311">
-        <v>0.64674489061122398</v>
+        <v>0.65626161076465894</v>
       </c>
       <c r="C311">
-        <v>0.75761369377321364</v>
+        <v>0.74030031580520839</v>
       </c>
       <c r="D311">
-        <v>6.4791290374247659</v>
+        <v>1.7229380088957424</v>
       </c>
     </row>
     <row r="312">
       <c r="A312">
-        <v>0.42791216815125999</v>
+        <v>9.6496142884363554e-05</v>
       </c>
       <c r="B312">
-        <v>0.64490362013306235</v>
+        <v>0.65527637608448719</v>
       </c>
       <c r="C312">
-        <v>0.75942393853219925</v>
+        <v>0.74097370914350913</v>
       </c>
       <c r="D312">
-        <v>6.4910713437544061</v>
+        <v>1.7476182088785865</v>
       </c>
     </row>
     <row r="313">
       <c r="A313">
-        <v>0.42751293859642953</v>
+        <v>9.9061008041486103e-05</v>
       </c>
       <c r="B313">
-        <v>0.64468831658518644</v>
+        <v>0.65510184137827443</v>
       </c>
       <c r="C313">
-        <v>0.75957001954392034</v>
+        <v>0.74112233040795461</v>
       </c>
       <c r="D313">
-        <v>6.6060767146727848</v>
+        <v>1.7427133029804034</v>
       </c>
     </row>
     <row r="314">
       <c r="A314">
-        <v>0.426858349314855</v>
+        <v>0.00010310513490688531</v>
       </c>
       <c r="B314">
-        <v>0.64449217339129794</v>
+        <v>0.65517669776559961</v>
       </c>
       <c r="C314">
-        <v>0.75962745571812562</v>
+        <v>0.74101766609396336</v>
       </c>
       <c r="D314">
-        <v>6.6883164046610624</v>
+        <v>1.7347905832540182</v>
       </c>
     </row>
     <row r="315">
       <c r="A315">
-        <v>0.42687730670515334</v>
+        <v>0.0001078137188240666</v>
       </c>
       <c r="B315">
-        <v>0.6444791591562643</v>
+        <v>0.65508781350773271</v>
       </c>
       <c r="C315">
-        <v>0.75964567556783114</v>
+        <v>0.7413109756160956</v>
       </c>
       <c r="D315">
-        <v>6.7605421353043242</v>
+        <v>1.7140269932115155</v>
       </c>
     </row>
     <row r="316">
       <c r="A316">
-        <v>0.42644147888038697</v>
+        <v>0.00011076085542913127</v>
       </c>
       <c r="B316">
-        <v>0.64464287730439229</v>
+        <v>0.65566510254292254</v>
       </c>
       <c r="C316">
-        <v>0.75940393479430335</v>
+        <v>0.74085802830138503</v>
       </c>
       <c r="D316">
-        <v>6.872525455538824</v>
+        <v>1.6990617614645047</v>
       </c>
     </row>
     <row r="317">
       <c r="A317">
-        <v>0.42623518863469995</v>
+        <v>0.00011415859377139342</v>
       </c>
       <c r="B317">
-        <v>0.64568018135040783</v>
+        <v>0.65768850296460557</v>
       </c>
       <c r="C317">
-        <v>0.758344828051144</v>
+        <v>0.73888543230633608</v>
       </c>
       <c r="D317">
-        <v>6.9204292134780019</v>
+        <v>1.6967074466898677</v>
       </c>
     </row>
     <row r="318">
       <c r="A318">
-        <v>0.42669285319085865</v>
+        <v>0.00011634592213512958</v>
       </c>
       <c r="B318">
-        <v>0.64765166271465358</v>
+        <v>0.65975071458670187</v>
       </c>
       <c r="C318">
-        <v>0.7565069411610198</v>
+        <v>0.73727767764046503</v>
       </c>
       <c r="D318">
-        <v>7.0318857157466841</v>
+        <v>1.6667050723781218</v>
       </c>
     </row>
     <row r="319">
       <c r="A319">
-        <v>0.42644143206522506</v>
+        <v>0.0001206338403399512</v>
       </c>
       <c r="B319">
-        <v>0.64466094182581579</v>
+        <v>0.65803245689309597</v>
       </c>
       <c r="C319">
-        <v>0.75923532581913156</v>
+        <v>0.73863850673860454</v>
       </c>
       <c r="D319">
-        <v>6.9509663696255863</v>
+        <v>1.6871901221176508</v>
       </c>
     </row>
     <row r="320">
       <c r="A320">
-        <v>0.42384499300750189</v>
+        <v>0.00012605704959158843</v>
       </c>
       <c r="B320">
-        <v>0.64448210888079427</v>
+        <v>0.65823216405955165</v>
       </c>
       <c r="C320">
-        <v>0.75927955375446632</v>
+        <v>0.73846589638857707</v>
       </c>
       <c r="D320">
-        <v>7.1910167893458112</v>
+        <v>1.6741271995426563</v>
       </c>
     </row>
     <row r="321">
       <c r="A321">
-        <v>0.42627495297197449</v>
+        <v>0.00013970526175667193</v>
       </c>
       <c r="B321">
-        <v>0.6426868312678895</v>
+        <v>0.65560858623823326</v>
       </c>
       <c r="C321">
-        <v>0.7609772211315845</v>
+        <v>0.74098892877398859</v>
       </c>
       <c r="D321">
-        <v>7.1761421708250914</v>
+        <v>1.6769231344232705</v>
       </c>
     </row>
     <row r="322">
       <c r="A322">
-        <v>0.42384250640735277</v>
+        <v>0.00014560735945229385</v>
       </c>
       <c r="B322">
-        <v>0.64189635789536936</v>
+        <v>0.65327227664473231</v>
       </c>
       <c r="C322">
-        <v>0.76158507957159327</v>
+        <v>0.74357020840551202</v>
       </c>
       <c r="D322">
-        <v>7.4470795489307875</v>
+        <v>1.6287749513451839</v>
       </c>
     </row>
     <row r="323">
       <c r="A323">
-        <v>0.42127334394335758</v>
+        <v>0.00015039615848748056</v>
       </c>
       <c r="B323">
-        <v>0.64195418464679044</v>
+        <v>0.65370100483382054</v>
       </c>
       <c r="C323">
-        <v>0.76142645404497422</v>
+        <v>0.74331748810238774</v>
       </c>
       <c r="D323">
-        <v>7.6873525400738538</v>
+        <v>1.6064136788504517</v>
       </c>
     </row>
     <row r="324">
       <c r="A324">
-        <v>0.41981460515444546</v>
+        <v>0.00015800913879299215</v>
       </c>
       <c r="B324">
-        <v>0.643293733363975</v>
+        <v>0.65585536931899469</v>
       </c>
       <c r="C324">
-        <v>0.76018900362374731</v>
+        <v>0.74129436610806732</v>
       </c>
       <c r="D324">
-        <v>7.8681796994204047</v>
+        <v>1.6044249396268948</v>
       </c>
     </row>
     <row r="325">
       <c r="A325">
-        <v>0.42079613538294447</v>
+        <v>0.00016417387928465782</v>
       </c>
       <c r="B325">
-        <v>0.64206535286117783</v>
+        <v>0.65530495634303598</v>
       </c>
       <c r="C325">
-        <v>0.76128894848723372</v>
+        <v>0.74172268971330557</v>
       </c>
       <c r="D325">
-        <v>8.004360424023762</v>
+        <v>1.611773929138244</v>
       </c>
     </row>
     <row r="326">
       <c r="A326">
-        <v>0.42196282659610573</v>
+        <v>0.28158229017567299</v>
       </c>
       <c r="B326">
-        <v>0.642001756818118</v>
+        <v>0.65687904176235368</v>
       </c>
       <c r="C326">
-        <v>0.76136660679190815</v>
+        <v>0.73917757785521077</v>
       </c>
       <c r="D326">
-        <v>8.0249685165366813</v>
+        <v>1.5804889941321743</v>
       </c>
     </row>
     <row r="327">
       <c r="A327">
-        <v>0.41874387587668882</v>
+        <v>0.27899078435500535</v>
       </c>
       <c r="B327">
-        <v>0.641758990284373</v>
+        <v>0.65685422900292156</v>
       </c>
       <c r="C327">
-        <v>0.7615194238193973</v>
+        <v>0.73922385265094093</v>
       </c>
       <c r="D327">
-        <v>8.1483179300875026</v>
+        <v>1.5716002527225539</v>
       </c>
     </row>
     <row r="328">
       <c r="A328">
-        <v>0.4160864594270996</v>
+        <v>0.27620331559748207</v>
       </c>
       <c r="B328">
-        <v>0.64241648808440943</v>
+        <v>0.65794103467529796</v>
       </c>
       <c r="C328">
-        <v>0.76090765644963065</v>
+        <v>0.73818392393709487</v>
       </c>
       <c r="D328">
-        <v>8.5245508068035907</v>
+        <v>1.5706594169247134</v>
       </c>
     </row>
     <row r="329">
       <c r="A329">
-        <v>0.41335462973614856</v>
+        <v>0.27732892138706028</v>
       </c>
       <c r="B329">
-        <v>0.64371535410916669</v>
+        <v>0.65890096950819754</v>
       </c>
       <c r="C329">
-        <v>0.75975465272285891</v>
+        <v>0.73758992055313022</v>
       </c>
       <c r="D329">
-        <v>8.7085214901953307</v>
+        <v>1.5413423433004727</v>
       </c>
     </row>
     <row r="330">
       <c r="A330">
-        <v>0.41332547197673519</v>
+        <v>0.27710724826716182</v>
       </c>
       <c r="B330">
-        <v>0.64379744887197021</v>
+        <v>0.65920327290323555</v>
       </c>
       <c r="C330">
-        <v>0.75968462715782592</v>
+        <v>0.73732040681658706</v>
       </c>
       <c r="D330">
-        <v>8.970061566724322</v>
+        <v>1.5405577030533852</v>
       </c>
     </row>
     <row r="331">
       <c r="A331">
-        <v>0.41502772502586716</v>
+        <v>0.27927281092634637</v>
       </c>
       <c r="B331">
-        <v>0.64349851412701953</v>
+        <v>0.65880073466163802</v>
       </c>
       <c r="C331">
-        <v>0.75994631863086359</v>
+        <v>0.73769661605099091</v>
       </c>
       <c r="D331">
-        <v>8.8994773116372912</v>
+        <v>1.5404262208448563</v>
       </c>
     </row>
     <row r="332">
       <c r="A332">
-        <v>0.41403436290505069</v>
+        <v>0.27813308603829129</v>
       </c>
       <c r="B332">
-        <v>0.64354575910304224</v>
+        <v>0.65850954060444966</v>
       </c>
       <c r="C332">
-        <v>0.75990504276922644</v>
+        <v>0.73810545262530558</v>
       </c>
       <c r="D332">
-        <v>9.0898792188723654</v>
+        <v>1.5270871934711705</v>
       </c>
     </row>
     <row r="333">
       <c r="A333">
-        <v>0.40912160077938103</v>
+        <v>0.27384170355965809</v>
       </c>
       <c r="B333">
-        <v>0.6436755617686043</v>
+        <v>0.65854754891846867</v>
       </c>
       <c r="C333">
-        <v>0.75978955205968335</v>
+        <v>0.73824287222191787</v>
       </c>
       <c r="D333">
-        <v>9.2734695862845129</v>
+        <v>1.5102190285599901</v>
       </c>
     </row>
     <row r="334">
       <c r="A334">
-        <v>0.40938609944555132</v>
+        <v>0.27389898845734922</v>
       </c>
       <c r="B334">
-        <v>0.64368086078301379</v>
+        <v>0.65859476329682154</v>
       </c>
       <c r="C334">
-        <v>0.75978569035490717</v>
+        <v>0.73819999966394689</v>
       </c>
       <c r="D334">
-        <v>9.4901277433962967</v>
+        <v>1.5103118758428351</v>
       </c>
     </row>
     <row r="335">
       <c r="A335">
-        <v>0.4068973041954595</v>
+        <v>0.27045220887024751</v>
       </c>
       <c r="B335">
-        <v>0.64388002155103807</v>
+        <v>0.65885268952986176</v>
       </c>
       <c r="C335">
-        <v>0.75962155680235788</v>
+        <v>0.73799723619538171</v>
       </c>
       <c r="D335">
-        <v>9.700006995275249</v>
+        <v>1.5078043992666526</v>
       </c>
     </row>
     <row r="336">
       <c r="A336">
-        <v>0.40660044152273989</v>
+        <v>0.27196810672432631</v>
       </c>
       <c r="B336">
-        <v>0.6439546397684337</v>
+        <v>0.65825250079272435</v>
       </c>
       <c r="C336">
-        <v>0.75955976088259636</v>
+        <v>0.73894139520261437</v>
       </c>
       <c r="D336">
-        <v>9.7617412730953816</v>
+        <v>1.4725576743338382</v>
       </c>
     </row>
     <row r="337">
       <c r="A337">
-        <v>0.406288675971201</v>
+        <v>0.27108028149352875</v>
       </c>
       <c r="B337">
-        <v>0.64401213656039613</v>
+        <v>0.65834347056878628</v>
       </c>
       <c r="C337">
-        <v>0.75951287145514346</v>
+        <v>0.73896145826551041</v>
       </c>
       <c r="D337">
-        <v>9.8869249497929967</v>
+        <v>1.4635631184138223</v>
       </c>
     </row>
     <row r="338">
       <c r="A338">
-        <v>0.40286158087046103</v>
+        <v>0.26713597418512058</v>
       </c>
       <c r="B338">
-        <v>0.64408095732494774</v>
+        <v>0.65865481999145259</v>
       </c>
       <c r="C338">
-        <v>0.75946984355689073</v>
+        <v>0.738753827558156</v>
       </c>
       <c r="D338">
-        <v>10.122712986586684</v>
+        <v>1.4575358426362661</v>
       </c>
     </row>
     <row r="339">
       <c r="A339">
-        <v>0.3972361349607364</v>
+        <v>0.26213742620414249</v>
       </c>
       <c r="B339">
-        <v>0.64445873418583255</v>
+        <v>0.65901665092918615</v>
       </c>
       <c r="C339">
-        <v>0.75917733270865706</v>
+        <v>0.73865112488699425</v>
       </c>
       <c r="D339">
-        <v>10.405370055077851</v>
+        <v>1.4389894888172119</v>
       </c>
     </row>
     <row r="340">
       <c r="A340">
-        <v>0.39126998119806455</v>
+        <v>0.25856910023818386</v>
       </c>
       <c r="B340">
-        <v>0.64529939018440052</v>
+        <v>0.65961911019452835</v>
       </c>
       <c r="C340">
-        <v>0.75850025292683454</v>
+        <v>0.73847081826641114</v>
       </c>
       <c r="D340">
-        <v>10.505660451750185</v>
+        <v>1.4087429235462472</v>
       </c>
     </row>
     <row r="341">
       <c r="A341">
-        <v>0.38665963668381248</v>
+        <v>0.25302727855565743</v>
       </c>
       <c r="B341">
-        <v>0.64608981112156094</v>
+        <v>0.66071318224179842</v>
       </c>
       <c r="C341">
-        <v>0.75786430967308727</v>
+        <v>0.73759406176543663</v>
       </c>
       <c r="D341">
-        <v>10.602168743327551</v>
+        <v>1.4018597831651136</v>
       </c>
     </row>
     <row r="342">
       <c r="A342">
-        <v>0.39811325979410472</v>
+        <v>0.25809182444299805</v>
       </c>
       <c r="B342">
-        <v>0.64468072797568787</v>
+        <v>0.66024810661215927</v>
       </c>
       <c r="C342">
-        <v>0.75895600454182355</v>
+        <v>0.73770934380870412</v>
       </c>
       <c r="D342">
-        <v>10.514297182939639</v>
+        <v>1.4246372864957277</v>
       </c>
     </row>
     <row r="343">
       <c r="A343">
-        <v>0.41122721131347068</v>
+        <v>0.25706783574458447</v>
       </c>
       <c r="B343">
-        <v>0.64548157825373509</v>
+        <v>0.66105373137342571</v>
       </c>
       <c r="C343">
-        <v>0.75815401628930157</v>
+        <v>0.73670340291054148</v>
       </c>
       <c r="D343">
-        <v>10.497323222074289</v>
+        <v>1.4484219518101225</v>
       </c>
     </row>
     <row r="344">
       <c r="A344">
-        <v>0.4067728713382216</v>
+        <v>0.25389159775283893</v>
       </c>
       <c r="B344">
-        <v>0.64476625763221618</v>
+        <v>0.65983381748709891</v>
       </c>
       <c r="C344">
-        <v>0.75879870239754887</v>
+        <v>0.73812810466429768</v>
       </c>
       <c r="D344">
-        <v>10.685309262710238</v>
+        <v>1.4211334088951237</v>
       </c>
     </row>
   </sheetData>

--- a/Prefered_PARX_model_forecast/Resultater_PAR/theta_sqr_est_T_2para_PAR.xlsx
+++ b/Prefered_PARX_model_forecast/Resultater_PAR/theta_sqr_est_T_2para_PAR.xlsx
@@ -28,7 +28,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -46,11 +46,15 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -62,6 +66,10 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -74,4826 +82,4826 @@
   <dimension ref="A1:D344"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="true"/>
+    <col min="1" max="1" width="12.7109375" customWidth="true"/>
     <col min="2" max="2" width="12.7109375" customWidth="true"/>
-    <col min="3" max="3" width="13.42578125" customWidth="true"/>
-    <col min="4" max="4" width="11.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="4" max="4" width="13.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1">
-        <v>0.46580108997479863</v>
+        <v>0.53362743357970599</v>
       </c>
       <c r="B1">
-        <v>0.71372384393725441</v>
+        <v>0.71125802421249218</v>
       </c>
       <c r="C1">
-        <v>-0.66760042565401245</v>
+        <v>0.67050309656794127</v>
       </c>
       <c r="D1">
-        <v>1.3065081926356501</v>
+        <v>0.043935368460097102</v>
       </c>
     </row>
     <row r="2">
       <c r="A2">
-        <v>0.51871137234355258</v>
+        <v>0.56531693475040912</v>
       </c>
       <c r="B2">
-        <v>0.71532555320213564</v>
+        <v>0.71294103229815997</v>
       </c>
       <c r="C2">
-        <v>0.66472085252811286</v>
+        <v>0.66760287522703399</v>
       </c>
       <c r="D2">
-        <v>1.155184165256089</v>
+        <v>0.043041667500014841</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>0.49691126950613906</v>
+        <v>0.54754485989280588</v>
       </c>
       <c r="B3">
-        <v>0.71169475738463461</v>
+        <v>0.70944620802464775</v>
       </c>
       <c r="C3">
-        <v>0.66927638983957605</v>
+        <v>0.67196547857969979</v>
       </c>
       <c r="D3">
-        <v>1.1774747734034539</v>
+        <v>0.04416353232110156</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>0.49886629159532886</v>
+        <v>0.54784674706712366</v>
       </c>
       <c r="B4">
-        <v>0.71187308985565767</v>
+        <v>0.70996017848333515</v>
       </c>
       <c r="C4">
-        <v>0.6691632076119437</v>
+        <v>0.67140296754734707</v>
       </c>
       <c r="D4">
-        <v>1.1291029261915768</v>
+        <v>0.045311367441656772</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>0.49232706121265007</v>
+        <v>0.53830374905943357</v>
       </c>
       <c r="B5">
-        <v>0.71146290560886616</v>
+        <v>0.70958041158939589</v>
       </c>
       <c r="C5">
-        <v>0.66989299588390061</v>
+        <v>0.6720865225929129</v>
       </c>
       <c r="D5">
-        <v>1.0825588632159615</v>
+        <v>0.045876933105993778</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>0.52766456206412549</v>
+        <v>0.5679213716453767</v>
       </c>
       <c r="B6">
-        <v>0.71206560129656249</v>
+        <v>0.71065974193784165</v>
       </c>
       <c r="C6">
-        <v>0.66839685464401222</v>
+        <v>0.67003740604305506</v>
       </c>
       <c r="D6">
-        <v>1.0390449709619758</v>
+        <v>0.04501223922144628</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>0.53252997442253824</v>
+        <v>0.57169049794430682</v>
       </c>
       <c r="B7">
-        <v>0.71335207216927232</v>
+        <v>0.71187315264992168</v>
       </c>
       <c r="C7">
-        <v>0.66687297145937185</v>
+        <v>0.66860950655119256</v>
       </c>
       <c r="D7">
-        <v>1.0333615591545589</v>
+        <v>0.045466083912026133</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>0.51696652915342878</v>
+        <v>0.56044450611240615</v>
       </c>
       <c r="B8">
-        <v>0.71137263522044347</v>
+        <v>0.70976960632551944</v>
       </c>
       <c r="C8">
-        <v>0.66926434176159177</v>
+        <v>0.6711380554035612</v>
       </c>
       <c r="D8">
-        <v>1.0789235296563526</v>
+        <v>0.045500610002659037</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>0.51809864044247211</v>
+        <v>0.56096298086172347</v>
       </c>
       <c r="B9">
-        <v>0.71184159111321343</v>
+        <v>0.71022060270072296</v>
       </c>
       <c r="C9">
-        <v>0.66872966749357399</v>
+        <v>0.67063327392112615</v>
       </c>
       <c r="D9">
-        <v>1.077963006300958</v>
+        <v>0.046796973037892695</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>0.50365842901310542</v>
+        <v>0.54959480715173359</v>
       </c>
       <c r="B10">
-        <v>0.71119994968492539</v>
+        <v>0.7096683797463007</v>
       </c>
       <c r="C10">
-        <v>0.66963254282379647</v>
+        <v>0.67142871480592858</v>
       </c>
       <c r="D10">
-        <v>1.1006328166358179</v>
+        <v>0.045887541231007425</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>0.48639890422697962</v>
+        <v>0.57174421819398236</v>
       </c>
       <c r="B11">
-        <v>0.71163079527160045</v>
+        <v>0.70796939659048841</v>
       </c>
       <c r="C11">
-        <v>0.66862250853643546</v>
+        <v>0.67285036102122897</v>
       </c>
       <c r="D11">
-        <v>1.4891362301045528</v>
+        <v>0.045474144180657712</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>0.48525843369384991</v>
+        <v>0.57051754292732015</v>
       </c>
       <c r="B12">
-        <v>0.71118355012012158</v>
+        <v>0.70787973863792208</v>
       </c>
       <c r="C12">
-        <v>0.6691692075040242</v>
+        <v>0.6729741095545283</v>
       </c>
       <c r="D12">
-        <v>1.4742793509709737</v>
+        <v>0.046558140056256858</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>0.49499137740197896</v>
+        <v>0.57967444309000116</v>
       </c>
       <c r="B13">
-        <v>0.71294937879390552</v>
+        <v>0.70986748095867147</v>
       </c>
       <c r="C13">
-        <v>0.66711981855116209</v>
+        <v>0.67067973196154584</v>
       </c>
       <c r="D13">
-        <v>1.4784585193994211</v>
+        <v>0.045780955044222651</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>0.48191963341665545</v>
+        <v>0.56584864727938755</v>
       </c>
       <c r="B14">
-        <v>0.70951398603430826</v>
+        <v>0.70650479487596318</v>
       </c>
       <c r="C14">
-        <v>0.6710206110303516</v>
+        <v>0.67446118853091419</v>
       </c>
       <c r="D14">
-        <v>1.4506732590751414</v>
+        <v>0.04660787219514842</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>0.48443346866903292</v>
+        <v>0.56756857166451402</v>
       </c>
       <c r="B15">
-        <v>0.70970658261596375</v>
+        <v>0.70675899250769691</v>
       </c>
       <c r="C15">
-        <v>0.6708128117899077</v>
+        <v>0.67418262805195206</v>
       </c>
       <c r="D15">
-        <v>1.4478893291521675</v>
+        <v>0.047143379127441029</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>0.47309841667819374</v>
+        <v>0.5604124936525593</v>
       </c>
       <c r="B16">
-        <v>0.70961147295948157</v>
+        <v>0.70654690064715253</v>
       </c>
       <c r="C16">
-        <v>0.67092964716811554</v>
+        <v>0.67444332471739443</v>
       </c>
       <c r="D16">
-        <v>1.4759933065888453</v>
+        <v>0.047795820752604044</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>0.4593748063123147</v>
+        <v>0.55301324838265309</v>
       </c>
       <c r="B17">
-        <v>0.71083363920972242</v>
+        <v>0.70773522910785736</v>
       </c>
       <c r="C17">
-        <v>0.66959809609171184</v>
+        <v>0.67318227518246077</v>
       </c>
       <c r="D17">
-        <v>1.518577048676913</v>
+        <v>0.049608303030319545</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>0.45824449366370867</v>
+        <v>0.55766600993596804</v>
       </c>
       <c r="B18">
-        <v>0.71117620956091321</v>
+        <v>0.70730827585922773</v>
       </c>
       <c r="C18">
-        <v>0.66917942144545106</v>
+        <v>0.67357332711120965</v>
       </c>
       <c r="D18">
-        <v>1.5425883630194006</v>
+        <v>0.050054117591543615</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>0.45984915721221398</v>
+        <v>0.55380028158474603</v>
       </c>
       <c r="B19">
-        <v>0.71100062972524369</v>
+        <v>0.70731908252406228</v>
       </c>
       <c r="C19">
-        <v>0.66950101256738614</v>
+        <v>0.6736523455164859</v>
       </c>
       <c r="D19">
-        <v>1.4824391509899724</v>
+        <v>0.049988438473191274</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>0.45861745417689881</v>
+        <v>0.55135203589465331</v>
       </c>
       <c r="B20">
-        <v>0.71132509846392344</v>
+        <v>0.70756452309814322</v>
       </c>
       <c r="C20">
-        <v>0.66920534920475372</v>
+        <v>0.67344525576329395</v>
       </c>
       <c r="D20">
-        <v>1.4657229855936074</v>
+        <v>0.050540852776185079</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>0.46406508713585259</v>
+        <v>0.55573757881039088</v>
       </c>
       <c r="B21">
-        <v>0.71177951647766846</v>
+        <v>0.70815255976937364</v>
       </c>
       <c r="C21">
-        <v>0.66860627265609152</v>
+        <v>0.67269730682164242</v>
       </c>
       <c r="D21">
-        <v>1.4639474558919683</v>
+        <v>0.050597350415705761</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>0.48566865284175542</v>
+        <v>0.56960963131698406</v>
       </c>
       <c r="B22">
-        <v>0.71385869994194084</v>
+        <v>0.71032515596163881</v>
       </c>
       <c r="C22">
-        <v>0.66595487068277714</v>
+        <v>0.66997251356626641</v>
       </c>
       <c r="D22">
-        <v>1.4299387520178906</v>
+        <v>0.050475221515689866</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>0.46031038459591478</v>
+        <v>0.55284246924959746</v>
       </c>
       <c r="B23">
-        <v>0.70995343976587377</v>
+        <v>0.70635573738391833</v>
       </c>
       <c r="C23">
-        <v>0.67060813169429667</v>
+        <v>0.67465093126409048</v>
       </c>
       <c r="D23">
-        <v>1.4734976617208575</v>
+        <v>0.051360979501530193</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>0.47380787840591787</v>
+        <v>0.55957287838592196</v>
       </c>
       <c r="B24">
-        <v>0.70974184941668383</v>
+        <v>0.70624976243200321</v>
       </c>
       <c r="C24">
-        <v>0.6707330302084904</v>
+        <v>0.67466566239691916</v>
       </c>
       <c r="D24">
-        <v>1.4392069590131242</v>
+        <v>0.05133653882036697</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>0.466078398522906</v>
+        <v>0.57809687236271856</v>
       </c>
       <c r="B25">
-        <v>0.71335513571534437</v>
+        <v>0.70939257467795547</v>
       </c>
       <c r="C25">
-        <v>0.66635740527684806</v>
+        <v>0.67087984593313044</v>
       </c>
       <c r="D25">
-        <v>1.6326533665612457</v>
+        <v>0.050697211075764116</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>0.45916175811884552</v>
+        <v>0.55346058048571756</v>
       </c>
       <c r="B26">
-        <v>0.70528563441810066</v>
+        <v>0.70161921073439393</v>
       </c>
       <c r="C26">
-        <v>0.67557425905365842</v>
+        <v>0.67964800972330774</v>
       </c>
       <c r="D26">
-        <v>1.465326465611646</v>
+        <v>0.053529300978956584</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>0.459359006643072</v>
+        <v>0.56029338140998208</v>
       </c>
       <c r="B27">
-        <v>0.70285818058149996</v>
+        <v>0.69950683551689363</v>
       </c>
       <c r="C27">
-        <v>0.67829401996358429</v>
+        <v>0.68193952213930231</v>
       </c>
       <c r="D27">
-        <v>1.5077171597929651</v>
+        <v>0.054174055027663072</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>0.47041701698429478</v>
+        <v>0.56926308145971471</v>
       </c>
       <c r="B28">
-        <v>0.7043426171993723</v>
+        <v>0.70122407748560867</v>
       </c>
       <c r="C28">
-        <v>0.67660605255289108</v>
+        <v>0.67999166799772959</v>
       </c>
       <c r="D28">
-        <v>1.5038741197689167</v>
+        <v>0.053608308464068617</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>0.46503839704186378</v>
+        <v>0.56534708870717842</v>
       </c>
       <c r="B29">
-        <v>0.70361327254048389</v>
+        <v>0.7003478303953441</v>
       </c>
       <c r="C29">
-        <v>0.67741431162684407</v>
+        <v>0.68095844132388184</v>
       </c>
       <c r="D29">
-        <v>1.5122609429015892</v>
+        <v>0.054265369861345253</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>0.45132519193335385</v>
+        <v>0.55761416762955007</v>
       </c>
       <c r="B30">
-        <v>0.70296757574840041</v>
+        <v>0.69958281948426593</v>
       </c>
       <c r="C30">
-        <v>0.67806832867170364</v>
+        <v>0.68174485141985608</v>
       </c>
       <c r="D30">
-        <v>1.5454147074254503</v>
+        <v>0.056030088611139117</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>0.45074563069340667</v>
+        <v>0.55704624339622089</v>
       </c>
       <c r="B31">
-        <v>0.7033794267169331</v>
+        <v>0.70007660763375568</v>
       </c>
       <c r="C31">
-        <v>0.67760970495668493</v>
+        <v>0.68120153315929144</v>
       </c>
       <c r="D31">
-        <v>1.5492606492767544</v>
+        <v>0.056103631720184108</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>0.46349418115748825</v>
+        <v>0.55287753979360676</v>
       </c>
       <c r="B32">
-        <v>0.7030344127301027</v>
+        <v>0.70049437545054305</v>
       </c>
       <c r="C32">
-        <v>0.67806988878208929</v>
+        <v>0.6807765876949522</v>
       </c>
       <c r="D32">
-        <v>1.3998523067216313</v>
+        <v>0.05701170929465519</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>0.46451223894227206</v>
+        <v>0.55029932175567742</v>
       </c>
       <c r="B33">
-        <v>0.70372655561642949</v>
+        <v>0.70103423632615147</v>
       </c>
       <c r="C33">
-        <v>0.67734107599657489</v>
+        <v>0.68022914279993762</v>
       </c>
       <c r="D33">
-        <v>1.3663294836818838</v>
+        <v>0.057681490329621235</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>0.48353304769940009</v>
+        <v>0.57128153322239217</v>
       </c>
       <c r="B34">
-        <v>0.70249107589947801</v>
+        <v>0.70071712877232284</v>
       </c>
       <c r="C34">
-        <v>0.67836651687786853</v>
+        <v>0.68014423798553381</v>
       </c>
       <c r="D34">
-        <v>1.3906285346485272</v>
+        <v>0.057693553704508044</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>0.45274314464625781</v>
+        <v>0.54836617134316978</v>
       </c>
       <c r="B35">
-        <v>0.69580133382148235</v>
+        <v>0.69375529785314916</v>
       </c>
       <c r="C35">
-        <v>0.68587642247850023</v>
+        <v>0.68792562248832434</v>
       </c>
       <c r="D35">
-        <v>1.4197169210176728</v>
+        <v>0.059160809145162856</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>0.45739188508585121</v>
+        <v>0.55030188389822299</v>
       </c>
       <c r="B36">
-        <v>0.69554693841770932</v>
+        <v>0.69368638135665173</v>
       </c>
       <c r="C36">
-        <v>0.68612950725565636</v>
+        <v>0.68798106901276412</v>
       </c>
       <c r="D36">
-        <v>1.4069210055804073</v>
+        <v>0.060127525077603598</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>0.43378234488479644</v>
+        <v>0.5378691616294462</v>
       </c>
       <c r="B37">
-        <v>0.69532178277502243</v>
+        <v>0.69349335788684585</v>
       </c>
       <c r="C37">
-        <v>0.68658853286888877</v>
+        <v>0.68840453354647102</v>
       </c>
       <c r="D37">
-        <v>1.4669476524496765</v>
+        <v>0.061285563412285193</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>0.44102284519111762</v>
+        <v>0.5402267137833503</v>
       </c>
       <c r="B38">
-        <v>0.69496845302698707</v>
+        <v>0.69335489015927321</v>
       </c>
       <c r="C38">
-        <v>0.68687437364684412</v>
+        <v>0.68849435942458015</v>
       </c>
       <c r="D38">
-        <v>1.4470351143182256</v>
+        <v>0.062918233985526192</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>0.42265674272285103</v>
+        <v>0.55915483859755821</v>
       </c>
       <c r="B39">
-        <v>0.6963083679161608</v>
+        <v>0.69416110525024255</v>
       </c>
       <c r="C39">
-        <v>0.68511421612616452</v>
+        <v>0.68706942471550725</v>
       </c>
       <c r="D39">
-        <v>1.650177136715457</v>
+        <v>0.062371829050373757</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>0.41643410374105672</v>
+        <v>0.53940458852748274</v>
       </c>
       <c r="B40">
-        <v>0.69222642540045121</v>
+        <v>0.68942822245208291</v>
       </c>
       <c r="C40">
-        <v>0.68980565969404051</v>
+        <v>0.69250595754341804</v>
       </c>
       <c r="D40">
-        <v>1.545928089701367</v>
+        <v>0.064060320853234279</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>0.42207785296202716</v>
+        <v>0.54962864245054233</v>
       </c>
       <c r="B41">
-        <v>0.69085796053096937</v>
+        <v>0.68868562541546408</v>
       </c>
       <c r="C41">
-        <v>0.6910900213035639</v>
+        <v>0.6930233726021533</v>
       </c>
       <c r="D41">
-        <v>1.5727339826202047</v>
+        <v>0.063350973026477186</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>0.42229136791248412</v>
+        <v>0.54945465999207188</v>
       </c>
       <c r="B42">
-        <v>0.69110405743161962</v>
+        <v>0.68886142805656547</v>
       </c>
       <c r="C42">
-        <v>0.69083123215159081</v>
+        <v>0.69284902771894541</v>
       </c>
       <c r="D42">
-        <v>1.5730160346455488</v>
+        <v>0.065255274740054769</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>0.44640029570054129</v>
+        <v>0.56740773869132666</v>
       </c>
       <c r="B43">
-        <v>0.6937463903179597</v>
+        <v>0.69161535704711163</v>
       </c>
       <c r="C43">
-        <v>0.6877005293291949</v>
+        <v>0.68960214285484156</v>
       </c>
       <c r="D43">
-        <v>1.5661342010133263</v>
+        <v>0.063889483483221599</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>0.48409315464690184</v>
+        <v>0.59168466211939652</v>
       </c>
       <c r="B44">
-        <v>0.70231883275729023</v>
+        <v>0.69976918289647816</v>
       </c>
       <c r="C44">
-        <v>0.67817189460219351</v>
+        <v>0.68061105950684642</v>
       </c>
       <c r="D44">
-        <v>1.5277720006369493</v>
+        <v>0.063370985038340488</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>0.4841324707921269</v>
+        <v>0.59145133628456592</v>
       </c>
       <c r="B45">
-        <v>0.70238080843871264</v>
+        <v>0.69969728503733664</v>
       </c>
       <c r="C45">
-        <v>0.67810237802951168</v>
+        <v>0.68068617042459123</v>
       </c>
       <c r="D45">
-        <v>1.5279317680817046</v>
+        <v>0.064377776932715666</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>0.49881844461475244</v>
+        <v>0.58775077976963064</v>
       </c>
       <c r="B46">
-        <v>0.699748845186692</v>
+        <v>0.69824847536568679</v>
       </c>
       <c r="C46">
-        <v>0.68073453765138148</v>
+        <v>0.6820952493724971</v>
       </c>
       <c r="D46">
-        <v>1.3711674748641185</v>
+        <v>0.065495915587575809</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>0.50443778175028253</v>
+        <v>0.58584982831319943</v>
       </c>
       <c r="B47">
-        <v>0.6999249897889811</v>
+        <v>0.69814710845517647</v>
       </c>
       <c r="C47">
-        <v>0.68022840332741086</v>
+        <v>0.68197548063173441</v>
       </c>
       <c r="D47">
-        <v>1.314358350135306</v>
+        <v>0.066422026461774669</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>0.50066589674946615</v>
+        <v>0.59098527690064317</v>
       </c>
       <c r="B48">
-        <v>0.69756137568993337</v>
+        <v>0.69684580764912096</v>
       </c>
       <c r="C48">
-        <v>0.68363251888221543</v>
+        <v>0.68412239264205943</v>
       </c>
       <c r="D48">
-        <v>1.3678753033854973</v>
+        <v>0.068200520541986248</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>0.50451257423077633</v>
+        <v>0.59918666118652575</v>
       </c>
       <c r="B49">
-        <v>0.70101448997593996</v>
+        <v>0.70079568178300722</v>
       </c>
       <c r="C49">
-        <v>0.68022596691969706</v>
+        <v>0.68017247456872187</v>
       </c>
       <c r="D49">
-        <v>1.4025199694988502</v>
+        <v>0.068331916570097198</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>0.50299297885884631</v>
+        <v>0.59782793261497069</v>
       </c>
       <c r="B50">
-        <v>0.70027907096817377</v>
+        <v>0.70001099101492392</v>
       </c>
       <c r="C50">
-        <v>0.68093589553753564</v>
+        <v>0.68093758178568564</v>
       </c>
       <c r="D50">
-        <v>1.4025906515585969</v>
+        <v>0.069791931766134005</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>0.51099619596549983</v>
+        <v>0.60210558917909451</v>
       </c>
       <c r="B51">
-        <v>0.70250817087483197</v>
+        <v>0.70230601503547008</v>
       </c>
       <c r="C51">
-        <v>0.67939030366893616</v>
+        <v>0.67928854368444958</v>
       </c>
       <c r="D51">
-        <v>1.3795706191495403</v>
+        <v>0.070923335969836146</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>0.50367336492781334</v>
+        <v>0.59771734041109315</v>
       </c>
       <c r="B52">
-        <v>0.69930729670495939</v>
+        <v>0.69908765215447644</v>
       </c>
       <c r="C52">
-        <v>0.68236862662250752</v>
+        <v>0.68226170002539976</v>
       </c>
       <c r="D52">
-        <v>1.395250678374556</v>
+        <v>0.071613454103441804</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>0.50171326230167912</v>
+        <v>0.59764200418980207</v>
       </c>
       <c r="B53">
-        <v>0.69931598970326536</v>
+        <v>0.69908534799626465</v>
       </c>
       <c r="C53">
-        <v>0.68244984379777507</v>
+        <v>0.68250541699321676</v>
       </c>
       <c r="D53">
-        <v>1.4094296378755373</v>
+        <v>0.07110561172245447</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>0.49965656432210798</v>
+        <v>0.59807455820476141</v>
       </c>
       <c r="B54">
-        <v>0.69946975385611498</v>
+        <v>0.69944858065133819</v>
       </c>
       <c r="C54">
-        <v>0.68255454054695686</v>
+        <v>0.6824263082207509</v>
       </c>
       <c r="D54">
-        <v>1.4250526229902776</v>
+        <v>0.071373833186741648</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>0.49918102402624615</v>
+        <v>0.60116657849724175</v>
       </c>
       <c r="B55">
-        <v>0.70151121278152662</v>
+        <v>0.70214163400458351</v>
       </c>
       <c r="C55">
-        <v>0.68171469823215269</v>
+        <v>0.68084357066113577</v>
       </c>
       <c r="D55">
-        <v>1.4449783599119002</v>
+        <v>0.072449978736147044</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>0.4940904542717417</v>
+        <v>0.5975473789788821</v>
       </c>
       <c r="B56">
-        <v>0.69834133412176336</v>
+        <v>0.69885942842070403</v>
       </c>
       <c r="C56">
-        <v>0.68462799472441072</v>
+        <v>0.68387790000699811</v>
       </c>
       <c r="D56">
-        <v>1.4512744868992078</v>
+        <v>0.073361996446132477</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>0.49394514237938925</v>
+        <v>0.59760431435261918</v>
       </c>
       <c r="B57">
-        <v>0.69827329109527314</v>
+        <v>0.69877196266279429</v>
       </c>
       <c r="C57">
-        <v>0.68463277850424009</v>
+        <v>0.68387655415776094</v>
       </c>
       <c r="D57">
-        <v>1.452580464049698</v>
+        <v>0.074734823657137961</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>0.49731947350505412</v>
+        <v>0.59455801588267509</v>
       </c>
       <c r="B58">
-        <v>0.69856749291305242</v>
+        <v>0.69895542339150207</v>
       </c>
       <c r="C58">
-        <v>0.68632460995218403</v>
+        <v>0.68564473173195661</v>
       </c>
       <c r="D58">
-        <v>1.4035558227544294</v>
+        <v>0.075846893855195538</v>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>0.4977398280581008</v>
+        <v>0.59460892710454838</v>
       </c>
       <c r="B59">
-        <v>0.69882524958954839</v>
+        <v>0.6990796466072049</v>
       </c>
       <c r="C59">
-        <v>0.68611833281047274</v>
+        <v>0.68556069670407216</v>
       </c>
       <c r="D59">
-        <v>1.4021032391351715</v>
+        <v>0.077349793944907791</v>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>0.49336836380562454</v>
+        <v>0.59448001627306168</v>
       </c>
       <c r="B60">
-        <v>0.69941845317566143</v>
+        <v>0.6999948004673926</v>
       </c>
       <c r="C60">
-        <v>0.68580076566803305</v>
+        <v>0.68505032070049554</v>
       </c>
       <c r="D60">
-        <v>1.4323486095321951</v>
+        <v>0.077328080258831727</v>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>0.50123392454936733</v>
+        <v>0.59476050067086939</v>
       </c>
       <c r="B61">
-        <v>0.69746558057025365</v>
+        <v>0.69788021465105876</v>
       </c>
       <c r="C61">
-        <v>0.68684148428498015</v>
+        <v>0.68633095133934408</v>
       </c>
       <c r="D61">
-        <v>1.3819962751864208</v>
+        <v>0.078074137452793624</v>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>0.48829361539300481</v>
+        <v>0.58712278613060032</v>
       </c>
       <c r="B62">
-        <v>0.69495537436319976</v>
+        <v>0.69592755198055578</v>
       </c>
       <c r="C62">
-        <v>0.69126816021483062</v>
+        <v>0.69015743934569929</v>
       </c>
       <c r="D62">
-        <v>1.4019568758232444</v>
+        <v>0.080320366805169227</v>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>0.48932920809927805</v>
+        <v>0.58722801365641186</v>
       </c>
       <c r="B63">
-        <v>0.69756666161524739</v>
+        <v>0.69864617520243444</v>
       </c>
       <c r="C63">
-        <v>0.68961993273593414</v>
+        <v>0.68836399726950415</v>
       </c>
       <c r="D63">
-        <v>1.3936319052150221</v>
+        <v>0.079979525011191627</v>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>0.48660766769208663</v>
+        <v>0.58637685182379184</v>
       </c>
       <c r="B64">
-        <v>0.69486776426235242</v>
+        <v>0.69590966991692338</v>
       </c>
       <c r="C64">
-        <v>0.69175196584453114</v>
+        <v>0.69051921337331079</v>
       </c>
       <c r="D64">
-        <v>1.4050496738432838</v>
+        <v>0.081213582803075765</v>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>0.48953918040997074</v>
+        <v>0.59209864402087353</v>
       </c>
       <c r="B65">
-        <v>0.69471229007652524</v>
+        <v>0.69581171224703287</v>
       </c>
       <c r="C65">
-        <v>0.69031280377265336</v>
+        <v>0.68898551625831983</v>
       </c>
       <c r="D65">
-        <v>1.4308567825388459</v>
+        <v>0.082370390712251829</v>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>0.48435473400764728</v>
+        <v>0.58619859258465823</v>
       </c>
       <c r="B66">
-        <v>0.69214852155354101</v>
+        <v>0.69337101269105639</v>
       </c>
       <c r="C66">
-        <v>0.69394199214383234</v>
+        <v>0.69244692784018114</v>
       </c>
       <c r="D66">
-        <v>1.4147646747821692</v>
+        <v>0.083673996546950749</v>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>0.47327573010356383</v>
+        <v>0.58380464573956958</v>
       </c>
       <c r="B67">
-        <v>0.69198545037572123</v>
+        <v>0.69327998445971528</v>
       </c>
       <c r="C67">
-        <v>0.6946928009391613</v>
+        <v>0.69332996324685836</v>
       </c>
       <c r="D67">
-        <v>1.47417183054447</v>
+        <v>0.085654263599134639</v>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>0.47867919727847374</v>
+        <v>0.58425294607044909</v>
       </c>
       <c r="B68">
-        <v>0.69070801535748116</v>
+        <v>0.69177502541204572</v>
       </c>
       <c r="C68">
-        <v>0.6951953410849433</v>
+        <v>0.69411873138191682</v>
       </c>
       <c r="D68">
-        <v>1.4456341613676549</v>
+        <v>0.085668365330465818</v>
       </c>
     </row>
     <row r="69">
       <c r="A69">
-        <v>0.47334655707090156</v>
+        <v>0.58079432039661361</v>
       </c>
       <c r="B69">
-        <v>0.68954448122251688</v>
+        <v>0.69087511575380112</v>
       </c>
       <c r="C69">
-        <v>0.69722692761424843</v>
+        <v>0.69587031559656465</v>
       </c>
       <c r="D69">
-        <v>1.4495605096695441</v>
+        <v>0.086703126028522537</v>
       </c>
     </row>
     <row r="70">
       <c r="A70">
-        <v>0.47328441450259018</v>
+        <v>0.57962138883146341</v>
       </c>
       <c r="B70">
-        <v>0.69056304019768555</v>
+        <v>0.69198920252582174</v>
       </c>
       <c r="C70">
-        <v>0.69711493650557466</v>
+        <v>0.69562333861682446</v>
       </c>
       <c r="D70">
-        <v>1.4384509566676824</v>
+        <v>0.088027437616781071</v>
       </c>
     </row>
     <row r="71">
       <c r="A71">
-        <v>0.47260109404911493</v>
+        <v>0.5793637939270585</v>
       </c>
       <c r="B71">
-        <v>0.69007283535840402</v>
+        <v>0.69143206669592661</v>
       </c>
       <c r="C71">
-        <v>0.69750886014623625</v>
+        <v>0.69606244651266891</v>
       </c>
       <c r="D71">
-        <v>1.4408804822589147</v>
+        <v>0.088410965059412594</v>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>0.47128342597088957</v>
+        <v>0.58221957917157008</v>
       </c>
       <c r="B72">
-        <v>0.68844544167029675</v>
+        <v>0.68993522200301838</v>
       </c>
       <c r="C72">
-        <v>0.697800354153989</v>
+        <v>0.69619105986402141</v>
       </c>
       <c r="D72">
-        <v>1.4701575719536466</v>
+        <v>0.090944061707267529</v>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>0.46483826981224535</v>
+        <v>0.57351610742789039</v>
       </c>
       <c r="B73">
-        <v>0.68465167666706872</v>
+        <v>0.68619330489646035</v>
       </c>
       <c r="C73">
-        <v>0.70310801278164947</v>
+        <v>0.70141387942360423</v>
       </c>
       <c r="D73">
-        <v>1.4404880475919897</v>
+        <v>0.090678873890380929</v>
       </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>0.42274881248598645</v>
+        <v>0.5713575899664739</v>
       </c>
       <c r="B74">
-        <v>0.68662573383476277</v>
+        <v>0.6889617611756409</v>
       </c>
       <c r="C74">
-        <v>0.70260837594064462</v>
+        <v>0.70056964168232305</v>
       </c>
       <c r="D74">
-        <v>1.6770642789240324</v>
+        <v>0.092410026211364696</v>
       </c>
     </row>
     <row r="75">
       <c r="A75">
-        <v>0.43235291244389401</v>
+        <v>0.56449523045855798</v>
       </c>
       <c r="B75">
-        <v>0.67693723834723452</v>
+        <v>0.67853072107065249</v>
       </c>
       <c r="C75">
-        <v>0.71069883282792123</v>
+        <v>0.70945083978759527</v>
       </c>
       <c r="D75">
-        <v>1.5805074802429062</v>
+        <v>0.094515756461156009</v>
       </c>
     </row>
     <row r="76">
       <c r="A76">
-        <v>0.43383495068358513</v>
+        <v>0.56501066963121727</v>
       </c>
       <c r="B76">
-        <v>0.67723619719279071</v>
+        <v>0.6786801468131366</v>
       </c>
       <c r="C76">
-        <v>0.71026590827387681</v>
+        <v>0.7092059374711529</v>
       </c>
       <c r="D76">
-        <v>1.5783881015705443</v>
+        <v>0.095503163072340538</v>
       </c>
     </row>
     <row r="77">
       <c r="A77">
-        <v>0.44197096177694872</v>
+        <v>0.57101869504841818</v>
       </c>
       <c r="B77">
-        <v>0.67949663384383985</v>
+        <v>0.68041541794040628</v>
       </c>
       <c r="C77">
-        <v>0.70667627455120918</v>
+        <v>0.70617735760724676</v>
       </c>
       <c r="D77">
-        <v>1.5832228806651738</v>
+        <v>0.096942035390890496</v>
       </c>
     </row>
     <row r="78">
       <c r="A78">
-        <v>0.43783521018504634</v>
+        <v>0.56725834410690079</v>
       </c>
       <c r="B78">
-        <v>0.67707563492508394</v>
+        <v>0.67831426624138091</v>
       </c>
       <c r="C78">
-        <v>0.70969594975922945</v>
+        <v>0.70882026964433953</v>
       </c>
       <c r="D78">
-        <v>1.5742891123676719</v>
+        <v>0.095088507901145841</v>
       </c>
     </row>
     <row r="79">
       <c r="A79">
-        <v>0.43822103153391739</v>
+        <v>0.56669290313515486</v>
       </c>
       <c r="B79">
-        <v>0.67686308140066109</v>
+        <v>0.67813410924590534</v>
       </c>
       <c r="C79">
-        <v>0.71018493715975173</v>
+        <v>0.70923382141182234</v>
       </c>
       <c r="D79">
-        <v>1.5668233701013905</v>
+        <v>0.097039955685372353</v>
       </c>
     </row>
     <row r="80">
       <c r="A80">
-        <v>0.43839733820339372</v>
+        <v>0.56668072218275767</v>
       </c>
       <c r="B80">
-        <v>0.6768870169562653</v>
+        <v>0.67812285937842209</v>
       </c>
       <c r="C80">
-        <v>0.7101946187599486</v>
+        <v>0.70924383629239329</v>
       </c>
       <c r="D80">
-        <v>1.5656997088510247</v>
+        <v>0.098994954896895249</v>
       </c>
     </row>
     <row r="81">
       <c r="A81">
-        <v>0.40954842707340522</v>
+        <v>0.56596079601068716</v>
       </c>
       <c r="B81">
-        <v>0.67756073754459201</v>
+        <v>0.67888211867371495</v>
       </c>
       <c r="C81">
-        <v>0.71053954133672426</v>
+        <v>0.70990001665466185</v>
       </c>
       <c r="D81">
-        <v>1.723212606576308</v>
+        <v>0.10068302977362481</v>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>0.40933674264528624</v>
+        <v>0.56627209595699801</v>
       </c>
       <c r="B82">
-        <v>0.67762606325902819</v>
+        <v>0.67924701401342014</v>
       </c>
       <c r="C82">
-        <v>0.71050251336484138</v>
+        <v>0.70960497210146734</v>
       </c>
       <c r="D82">
-        <v>1.724453086149794</v>
+        <v>0.10198557187345121</v>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>0.40920401332451994</v>
+        <v>0.566656390935105</v>
       </c>
       <c r="B83">
-        <v>0.67885898936993661</v>
+        <v>0.68067246274084214</v>
       </c>
       <c r="C83">
-        <v>0.70976738841319098</v>
+        <v>0.70866620162092042</v>
       </c>
       <c r="D83">
-        <v>1.7258395513065725</v>
+        <v>0.1026352197739049</v>
       </c>
     </row>
     <row r="84">
       <c r="A84">
-        <v>0.40956782111338885</v>
+        <v>0.566604395327993</v>
       </c>
       <c r="B84">
-        <v>0.67933048127851881</v>
+        <v>0.68108924146153726</v>
       </c>
       <c r="C84">
-        <v>0.70949751450405041</v>
+        <v>0.70842051989117705</v>
       </c>
       <c r="D84">
-        <v>1.7234464829834968</v>
+        <v>0.10470043138820542</v>
       </c>
     </row>
     <row r="85">
       <c r="A85">
-        <v>0.40973007585429022</v>
+        <v>0.56627943069511022</v>
       </c>
       <c r="B85">
-        <v>0.67959399011598176</v>
+        <v>0.68126485365564293</v>
       </c>
       <c r="C85">
-        <v>0.70942805584877733</v>
+        <v>0.70839533178573721</v>
       </c>
       <c r="D85">
-        <v>1.720069033119151</v>
+        <v>0.10745161729360138</v>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>0.40838616424403096</v>
+        <v>0.56772017036313693</v>
       </c>
       <c r="B86">
-        <v>0.67833697613607025</v>
+        <v>0.68007384295452766</v>
       </c>
       <c r="C86">
-        <v>0.70994070044661339</v>
+        <v>0.70881432143932055</v>
       </c>
       <c r="D86">
-        <v>1.735152109417849</v>
+        <v>0.10924422750930401</v>
       </c>
     </row>
     <row r="87">
       <c r="A87">
-        <v>0.39982252858385947</v>
+        <v>0.56161837757197608</v>
       </c>
       <c r="B87">
-        <v>0.67685563596900744</v>
+        <v>0.67848414329870144</v>
       </c>
       <c r="C87">
-        <v>0.71255923832134027</v>
+        <v>0.71156711367452397</v>
       </c>
       <c r="D87">
-        <v>1.7369865053986724</v>
+        <v>0.10964739794500938</v>
       </c>
     </row>
     <row r="88">
       <c r="A88">
-        <v>0.38901791481720488</v>
+        <v>0.56079160395748284</v>
       </c>
       <c r="B88">
-        <v>0.67751236460761555</v>
+        <v>0.67983978397885569</v>
       </c>
       <c r="C88">
-        <v>0.71223575598452993</v>
+        <v>0.71089787073701549</v>
       </c>
       <c r="D88">
-        <v>1.7866553329768298</v>
+        <v>0.11074168241974736</v>
       </c>
     </row>
     <row r="89">
       <c r="A89">
-        <v>0.39431453000616734</v>
+        <v>0.56076844265668335</v>
       </c>
       <c r="B89">
-        <v>0.67622691856452244</v>
+        <v>0.67843595913493537</v>
       </c>
       <c r="C89">
-        <v>0.71302600717104103</v>
+        <v>0.71187338482754758</v>
       </c>
       <c r="D89">
-        <v>1.7641712202836008</v>
+        <v>0.11927583386580418</v>
       </c>
     </row>
     <row r="90">
       <c r="A90">
-        <v>0.3854123804859243</v>
+        <v>0.55777694229371644</v>
       </c>
       <c r="B90">
-        <v>0.67578466285284455</v>
+        <v>0.67851201945406059</v>
       </c>
       <c r="C90">
-        <v>0.7141233220529597</v>
+        <v>0.71255343313707975</v>
       </c>
       <c r="D90">
-        <v>1.7838295621182887</v>
+        <v>0.11988708846736862</v>
       </c>
     </row>
     <row r="91">
       <c r="A91">
-        <v>0.38962529075132352</v>
+        <v>0.55870162442088844</v>
       </c>
       <c r="B91">
-        <v>0.67474766718695278</v>
+        <v>0.67722275001322174</v>
       </c>
       <c r="C91">
-        <v>0.7145282881947923</v>
+        <v>0.7132414305181578</v>
       </c>
       <c r="D91">
-        <v>1.7733107346792991</v>
+        <v>0.11647672725722713</v>
       </c>
     </row>
     <row r="92">
       <c r="A92">
-        <v>0.37914833971566941</v>
+        <v>0.55292232490544913</v>
       </c>
       <c r="B92">
-        <v>0.67350876690374373</v>
+        <v>0.67649060637687186</v>
       </c>
       <c r="C92">
-        <v>0.71692242214031654</v>
+        <v>0.7151369120115294</v>
       </c>
       <c r="D92">
-        <v>1.7783746293650529</v>
+        <v>0.11652575747814345</v>
       </c>
     </row>
     <row r="93">
       <c r="A93">
-        <v>0.37882625871073128</v>
+        <v>0.55288702521069233</v>
       </c>
       <c r="B93">
-        <v>0.67314113466555314</v>
+        <v>0.67605807922575289</v>
       </c>
       <c r="C93">
-        <v>0.71719431571860826</v>
+        <v>0.71545078966298004</v>
       </c>
       <c r="D93">
-        <v>1.7793874828078302</v>
+        <v>0.11734352162351237</v>
       </c>
     </row>
     <row r="94">
       <c r="A94">
-        <v>0.37190277036934172</v>
+        <v>0.55020364171651148</v>
       </c>
       <c r="B94">
-        <v>0.67349131901867409</v>
+        <v>0.67656330385673602</v>
       </c>
       <c r="C94">
-        <v>0.71748980014966746</v>
+        <v>0.71569221160217655</v>
       </c>
       <c r="D94">
-        <v>1.7947321944057908</v>
+        <v>0.11847804298128951</v>
       </c>
     </row>
     <row r="95">
       <c r="A95">
-        <v>0.35270232066516982</v>
+        <v>0.54770765496520946</v>
       </c>
       <c r="B95">
-        <v>0.67472400301689506</v>
+        <v>0.6787997510756818</v>
       </c>
       <c r="C95">
-        <v>0.71697460689182479</v>
+        <v>0.71460659257904857</v>
       </c>
       <c r="D95">
-        <v>1.8660227036964501</v>
+        <v>0.12186565609168111</v>
       </c>
     </row>
     <row r="96">
       <c r="A96">
-        <v>0.33802310852753092</v>
+        <v>0.54675624297599545</v>
       </c>
       <c r="B96">
-        <v>0.67653114381542967</v>
+        <v>0.68218526929716727</v>
       </c>
       <c r="C96">
-        <v>0.71586890617304588</v>
+        <v>0.71226428566168098</v>
       </c>
       <c r="D96">
-        <v>1.9172880130778325</v>
+        <v>0.12260229175346868</v>
       </c>
     </row>
     <row r="97">
       <c r="A97">
-        <v>0.33823670047857968</v>
+        <v>0.54647158113714778</v>
       </c>
       <c r="B97">
-        <v>0.67584179595249827</v>
+        <v>0.68165993062281416</v>
       </c>
       <c r="C97">
-        <v>0.71642413991889875</v>
+        <v>0.7127201413144022</v>
       </c>
       <c r="D97">
-        <v>1.9152612499028476</v>
+        <v>0.12465908712958644</v>
       </c>
     </row>
     <row r="98">
       <c r="A98">
-        <v>0.32981712083198517</v>
+        <v>0.54205154418579626</v>
       </c>
       <c r="B98">
-        <v>0.67670735084361477</v>
+        <v>0.68304775119979544</v>
       </c>
       <c r="C98">
-        <v>0.71668141909092542</v>
+        <v>0.71243160678365314</v>
       </c>
       <c r="D98">
-        <v>1.9154543396800927</v>
+        <v>0.12528808818329934</v>
       </c>
     </row>
     <row r="99">
       <c r="A99">
-        <v>0.32884707146290154</v>
+        <v>0.54155641471098415</v>
       </c>
       <c r="B99">
-        <v>0.67659990646584722</v>
+        <v>0.68285864764377657</v>
       </c>
       <c r="C99">
-        <v>0.71688190780521865</v>
+        <v>0.7126645030740878</v>
       </c>
       <c r="D99">
-        <v>1.914858475358687</v>
+        <v>0.13038041326418034</v>
       </c>
     </row>
     <row r="100">
       <c r="A100">
-        <v>0.32336302655969629</v>
+        <v>0.53589097455093793</v>
       </c>
       <c r="B100">
-        <v>0.67782988191715954</v>
+        <v>0.68393879736388941</v>
       </c>
       <c r="C100">
-        <v>0.71694269212450557</v>
+        <v>0.71276454193838334</v>
       </c>
       <c r="D100">
-        <v>1.898818502349344</v>
+        <v>0.13192695498430046</v>
       </c>
     </row>
     <row r="101">
       <c r="A101">
-        <v>0.32198948362912183</v>
+        <v>0.53424357351176899</v>
       </c>
       <c r="B101">
-        <v>0.67854225951878344</v>
+        <v>0.68441900717130444</v>
       </c>
       <c r="C101">
-        <v>0.716679310471382</v>
+        <v>0.71265069280356363</v>
       </c>
       <c r="D101">
-        <v>1.893146827931683</v>
+        <v>0.13254049365442794</v>
       </c>
     </row>
     <row r="102">
       <c r="A102">
-        <v>0.31514034566642368</v>
+        <v>0.53129267455143458</v>
       </c>
       <c r="B102">
-        <v>0.67855308012260684</v>
+        <v>0.6849571361437683</v>
       </c>
       <c r="C102">
-        <v>0.71691492343334584</v>
+        <v>0.71268975292163039</v>
       </c>
       <c r="D102">
-        <v>1.9087259267941052</v>
+        <v>0.1338616421070894</v>
       </c>
     </row>
     <row r="103">
       <c r="A103">
-        <v>0.3083369344552106</v>
+        <v>0.52842651346474367</v>
       </c>
       <c r="B103">
-        <v>0.67850499842421463</v>
+        <v>0.68537376119264326</v>
       </c>
       <c r="C103">
-        <v>0.71730024504794221</v>
+        <v>0.71280168042435654</v>
       </c>
       <c r="D103">
-        <v>1.9193616953727195</v>
+        <v>0.13750869144557787</v>
       </c>
     </row>
     <row r="104">
       <c r="A104">
-        <v>0.28642570332584916</v>
+        <v>0.51833563277341499</v>
       </c>
       <c r="B104">
-        <v>0.67988607667439405</v>
+        <v>0.6876257851329074</v>
       </c>
       <c r="C104">
-        <v>0.71783643251735185</v>
+        <v>0.71252305729421384</v>
       </c>
       <c r="D104">
-        <v>1.9301495270126168</v>
+        <v>0.14341310791002532</v>
       </c>
     </row>
     <row r="105">
       <c r="A105">
-        <v>0.28365174001553234</v>
+        <v>0.51644726425620713</v>
       </c>
       <c r="B105">
-        <v>0.68093551183174539</v>
+        <v>0.68860686386305825</v>
       </c>
       <c r="C105">
-        <v>0.71731357941375484</v>
+        <v>0.71200089292787716</v>
       </c>
       <c r="D105">
-        <v>1.9268078272983855</v>
+        <v>0.14566794062885791</v>
       </c>
     </row>
     <row r="106">
       <c r="A106">
-        <v>0.28991556026879994</v>
+        <v>0.52442571072858857</v>
       </c>
       <c r="B106">
-        <v>0.67666756748077717</v>
+        <v>0.68447617481265399</v>
       </c>
       <c r="C106">
-        <v>0.7196439733465182</v>
+        <v>0.7142172716206483</v>
       </c>
       <c r="D106">
-        <v>1.9489914642575821</v>
+        <v>0.15565759184013014</v>
       </c>
     </row>
     <row r="107">
       <c r="A107">
-        <v>0.30765408503997493</v>
+        <v>0.53790664151666168</v>
       </c>
       <c r="B107">
-        <v>0.67856313732767903</v>
+        <v>0.68656958823661873</v>
       </c>
       <c r="C107">
-        <v>0.71623588242445302</v>
+        <v>0.71051272476707639</v>
       </c>
       <c r="D107">
-        <v>1.9649691330702224</v>
+        <v>0.15600410432345596</v>
       </c>
     </row>
     <row r="108">
       <c r="A108">
-        <v>0.2908463546192237</v>
+        <v>0.52738277031582048</v>
       </c>
       <c r="B108">
-        <v>0.67527556715338832</v>
+        <v>0.68352746946514276</v>
       </c>
       <c r="C108">
-        <v>0.72057390542155053</v>
+        <v>0.71457973891756243</v>
       </c>
       <c r="D108">
-        <v>1.953736472114652</v>
+        <v>0.16273938268230181</v>
       </c>
     </row>
     <row r="109">
       <c r="A109">
-        <v>0.20168244191930726</v>
+        <v>0.5053709909495806</v>
       </c>
       <c r="B109">
-        <v>0.67283396575457743</v>
+        <v>0.68188053116024006</v>
       </c>
       <c r="C109">
-        <v>0.72480223977396552</v>
+        <v>0.71920553828775091</v>
       </c>
       <c r="D109">
-        <v>2.1065299345952164</v>
+        <v>0.17346647259337442</v>
       </c>
     </row>
     <row r="110">
       <c r="A110">
-        <v>0.21348823770505759</v>
+        <v>0.50661757812238095</v>
       </c>
       <c r="B110">
-        <v>0.66891886052056404</v>
+        <v>0.67781549575530065</v>
       </c>
       <c r="C110">
-        <v>0.72764371752160062</v>
+        <v>0.72226581499428666</v>
       </c>
       <c r="D110">
-        <v>2.0875331361911273</v>
+        <v>0.17325881555104497</v>
       </c>
     </row>
     <row r="111">
       <c r="A111">
-        <v>0.1897811215697397</v>
+        <v>0.49837822484916255</v>
       </c>
       <c r="B111">
-        <v>0.66823180618247124</v>
+        <v>0.67778285839694841</v>
       </c>
       <c r="C111">
-        <v>0.72940002071474552</v>
+        <v>0.72344373681267959</v>
       </c>
       <c r="D111">
-        <v>2.0917954035493143</v>
+        <v>0.17201104232307851</v>
       </c>
     </row>
     <row r="112">
       <c r="A112">
-        <v>0.19997771109503082</v>
+        <v>0.50427655008833572</v>
       </c>
       <c r="B112">
-        <v>0.66592032572679782</v>
+        <v>0.6752321883859338</v>
       </c>
       <c r="C112">
-        <v>0.73036888158725777</v>
+        <v>0.72465754653890568</v>
       </c>
       <c r="D112">
-        <v>2.1017763851665774</v>
+        <v>0.17286818572652041</v>
       </c>
     </row>
     <row r="113">
       <c r="A113">
-        <v>0.19684000177920036</v>
+        <v>0.50362413552631835</v>
       </c>
       <c r="B113">
-        <v>0.66542038929546155</v>
+        <v>0.67487027700451963</v>
       </c>
       <c r="C113">
-        <v>0.73094019096436313</v>
+        <v>0.72503395699098205</v>
       </c>
       <c r="D113">
-        <v>2.1012214288872428</v>
+        <v>0.17625100482721062</v>
       </c>
     </row>
     <row r="114">
       <c r="A114">
-        <v>0.20255179259031941</v>
+        <v>0.50796882588475256</v>
       </c>
       <c r="B114">
-        <v>0.66538621265520415</v>
+        <v>0.67496015371840778</v>
       </c>
       <c r="C114">
-        <v>0.73044273922848013</v>
+        <v>0.7243476203225383</v>
       </c>
       <c r="D114">
-        <v>2.1086885146162069</v>
+        <v>0.17819654548237196</v>
       </c>
     </row>
     <row r="115">
       <c r="A115">
-        <v>0.20792726920999247</v>
+        <v>0.5122470832206456</v>
       </c>
       <c r="B115">
-        <v>0.66564783405442207</v>
+        <v>0.67543435466160873</v>
       </c>
       <c r="C115">
-        <v>0.7297345574115901</v>
+        <v>0.72335228646698257</v>
       </c>
       <c r="D115">
-        <v>2.1156571525507895</v>
+        <v>0.17576336911509033</v>
       </c>
     </row>
     <row r="116">
       <c r="A116">
-        <v>0.093403266863728185</v>
+        <v>0.49187608662299726</v>
       </c>
       <c r="B116">
-        <v>0.66165134290062388</v>
+        <v>0.67122436999308865</v>
       </c>
       <c r="C116">
-        <v>0.73464133400282206</v>
+        <v>0.7296050541689304</v>
       </c>
       <c r="D116">
-        <v>2.2288128552966988</v>
+        <v>0.17968980374985322</v>
       </c>
     </row>
     <row r="117">
       <c r="A117">
-        <v>1.675362662979443e-06</v>
+        <v>0.4830818408508184</v>
       </c>
       <c r="B117">
-        <v>0.66657879303344425</v>
+        <v>0.67790183764297862</v>
       </c>
       <c r="C117">
-        <v>0.7314638581292725</v>
+        <v>0.72561375737957257</v>
       </c>
       <c r="D117">
-        <v>2.2878287477867154</v>
+        <v>0.18186024045514665</v>
       </c>
     </row>
     <row r="118">
       <c r="A118">
-        <v>1.6939548671972586e-06</v>
+        <v>0.48231067298297714</v>
       </c>
       <c r="B118">
-        <v>0.66336459817220661</v>
+        <v>0.67452564894385791</v>
       </c>
       <c r="C118">
-        <v>0.73401110982974571</v>
+        <v>0.72838803371667959</v>
       </c>
       <c r="D118">
-        <v>2.2857555214734537</v>
+        <v>0.18266397863418354</v>
       </c>
     </row>
     <row r="119">
       <c r="A119">
-        <v>1.7058892979096214e-06</v>
+        <v>0.48541875072655644</v>
       </c>
       <c r="B119">
-        <v>0.66168170703699847</v>
+        <v>0.67281393372304066</v>
       </c>
       <c r="C119">
-        <v>0.73499317935369635</v>
+        <v>0.72934441142093243</v>
       </c>
       <c r="D119">
-        <v>2.2924971645435162</v>
+        <v>0.18802050585342117</v>
       </c>
     </row>
     <row r="120">
       <c r="A120">
-        <v>1.7551629388729445e-06</v>
+        <v>0.48767056742882009</v>
       </c>
       <c r="B120">
-        <v>0.66127138674806629</v>
+        <v>0.67253671782267177</v>
       </c>
       <c r="C120">
-        <v>0.73513688228380958</v>
+        <v>0.72927238262845306</v>
       </c>
       <c r="D120">
-        <v>2.2967021895767199</v>
+        <v>0.18863084706997901</v>
       </c>
     </row>
     <row r="121">
       <c r="A121">
-        <v>1.7883525700665194e-06</v>
+        <v>0.4990841313909728</v>
       </c>
       <c r="B121">
-        <v>0.66130764360109451</v>
+        <v>0.67338117656425478</v>
       </c>
       <c r="C121">
-        <v>0.73395857023346578</v>
+        <v>0.72710108396164475</v>
       </c>
       <c r="D121">
-        <v>2.3229283533824181</v>
+        <v>0.18754067011284953</v>
       </c>
     </row>
     <row r="122">
       <c r="A122">
-        <v>1.8154909824135648e-06</v>
+        <v>0.49486683692840133</v>
       </c>
       <c r="B122">
-        <v>0.66021942142548218</v>
+        <v>0.67205238942274059</v>
       </c>
       <c r="C122">
-        <v>0.73523845364241502</v>
+        <v>0.72871881573281094</v>
       </c>
       <c r="D122">
-        <v>2.3164822940702203</v>
+        <v>0.19283169447554216</v>
       </c>
     </row>
     <row r="123">
       <c r="A123">
-        <v>1.8395868729402118e-06</v>
+        <v>0.48417962569702355</v>
       </c>
       <c r="B123">
-        <v>0.65974182194865172</v>
+        <v>0.67031392501342335</v>
       </c>
       <c r="C123">
-        <v>0.73599283073712074</v>
+        <v>0.73152818025476396</v>
       </c>
       <c r="D123">
-        <v>2.3353828768868601</v>
+        <v>0.19644657553278305</v>
       </c>
     </row>
     <row r="124">
       <c r="A124">
-        <v>1.8733007768700877e-06</v>
+        <v>0.4856305874917981</v>
       </c>
       <c r="B124">
-        <v>0.65841030719951865</v>
+        <v>0.66940866039506841</v>
       </c>
       <c r="C124">
-        <v>0.73692857087656916</v>
+        <v>0.73203855615646862</v>
       </c>
       <c r="D124">
-        <v>2.324764256625973</v>
+        <v>0.19713287306616784</v>
       </c>
     </row>
     <row r="125">
       <c r="A125">
-        <v>1.9183088601799397e-06</v>
+        <v>0.47974123046898515</v>
       </c>
       <c r="B125">
-        <v>0.65797343807800002</v>
+        <v>0.66903464226279941</v>
       </c>
       <c r="C125">
-        <v>0.7378039765334129</v>
+        <v>0.73311079308866689</v>
       </c>
       <c r="D125">
-        <v>2.3223949732800002</v>
+        <v>0.20193611122396704</v>
       </c>
     </row>
     <row r="126">
       <c r="A126">
-        <v>1.9558413258473445e-06</v>
+        <v>0.47638900122107158</v>
       </c>
       <c r="B126">
-        <v>0.65838677740326801</v>
+        <v>0.66943640581323383</v>
       </c>
       <c r="C126">
-        <v>0.7379014649392972</v>
+        <v>0.73323450417495284</v>
       </c>
       <c r="D126">
-        <v>2.3156301544356062</v>
+        <v>0.20618266015786729</v>
       </c>
     </row>
     <row r="127">
       <c r="A127">
-        <v>1.9497610481172595e-06</v>
+        <v>0.48388125780811791</v>
       </c>
       <c r="B127">
-        <v>0.65514777911120547</v>
+        <v>0.66630569995781008</v>
       </c>
       <c r="C127">
-        <v>0.73948272268975446</v>
+        <v>0.73470650411516769</v>
       </c>
       <c r="D127">
-        <v>2.3391784284928825</v>
+        <v>0.2005305790119396</v>
       </c>
     </row>
     <row r="128">
       <c r="A128">
-        <v>1.9999694159472175e-06</v>
+        <v>0.49207755015718013</v>
       </c>
       <c r="B128">
-        <v>0.65632394953412165</v>
+        <v>0.66817635614009019</v>
       </c>
       <c r="C128">
-        <v>0.73778234947304511</v>
+        <v>0.73216065557440313</v>
       </c>
       <c r="D128">
-        <v>2.356032638731798</v>
+        <v>0.20520447655236218</v>
       </c>
     </row>
     <row r="129">
       <c r="A129">
-        <v>2.0518294401520996e-06</v>
+        <v>0.49209320701194675</v>
       </c>
       <c r="B129">
-        <v>0.65598552214874484</v>
+        <v>0.66803924383430735</v>
       </c>
       <c r="C129">
-        <v>0.73812067799931347</v>
+        <v>0.73226371181591765</v>
       </c>
       <c r="D129">
-        <v>2.354835157869088</v>
+        <v>0.20944773197185201</v>
       </c>
     </row>
     <row r="130">
       <c r="A130">
-        <v>2.046782078986973e-06</v>
+        <v>0.4799769728666422</v>
       </c>
       <c r="B130">
-        <v>0.65521358762478876</v>
+        <v>0.6651387534764639</v>
       </c>
       <c r="C130">
-        <v>0.73890826261466147</v>
+        <v>0.73619508916323007</v>
       </c>
       <c r="D130">
-        <v>2.3900044950856052</v>
+        <v>0.21702311329970458</v>
       </c>
     </row>
     <row r="131">
       <c r="A131">
-        <v>2.0876735657845525e-06</v>
+        <v>0.47481590541284308</v>
       </c>
       <c r="B131">
-        <v>0.65658997662866592</v>
+        <v>0.66706231781098624</v>
       </c>
       <c r="C131">
-        <v>0.73812602265864846</v>
+        <v>0.73544053791679342</v>
       </c>
       <c r="D131">
-        <v>2.4084383996724865</v>
+        <v>0.21789567029752202</v>
       </c>
     </row>
     <row r="132">
       <c r="A132">
-        <v>2.1368895321449489e-06</v>
+        <v>0.47261591513730911</v>
       </c>
       <c r="B132">
-        <v>0.65953720137507066</v>
+        <v>0.67072456192789209</v>
       </c>
       <c r="C132">
-        <v>0.73608764986743203</v>
+        <v>0.73290423651629344</v>
       </c>
       <c r="D132">
-        <v>2.4148544651422839</v>
+        <v>0.21507445135687434</v>
       </c>
     </row>
     <row r="133">
       <c r="A133">
-        <v>2.1591310725298956e-06</v>
+        <v>0.4713347286486399</v>
       </c>
       <c r="B133">
-        <v>0.66146226072921221</v>
+        <v>0.67288185572700487</v>
       </c>
       <c r="C133">
-        <v>0.73473145078115087</v>
+        <v>0.73137690319182602</v>
       </c>
       <c r="D133">
-        <v>2.4161275143600482</v>
+        <v>0.21519694361586536</v>
       </c>
     </row>
     <row r="134">
       <c r="A134">
-        <v>2.2141848200782641e-06</v>
+        <v>0.46948665690423813</v>
       </c>
       <c r="B134">
-        <v>0.66282560050770334</v>
+        <v>0.67400728828842782</v>
       </c>
       <c r="C134">
-        <v>0.73392131468228428</v>
+        <v>0.73071344243457115</v>
       </c>
       <c r="D134">
-        <v>2.4108315845707589</v>
+        <v>0.21862945119210714</v>
       </c>
     </row>
     <row r="135">
       <c r="A135">
-        <v>2.2369566957685533e-06</v>
+        <v>0.46304490336689597</v>
       </c>
       <c r="B135">
-        <v>0.6666703939835259</v>
+        <v>0.6770732653150342</v>
       </c>
       <c r="C135">
-        <v>0.73173705426100799</v>
+        <v>0.72904182636201609</v>
       </c>
       <c r="D135">
-        <v>2.3871993934221338</v>
+        <v>0.22081039391305218</v>
       </c>
     </row>
     <row r="136">
       <c r="A136">
-        <v>2.2802811085937875e-06</v>
+        <v>0.45965071964144066</v>
       </c>
       <c r="B136">
-        <v>0.67079812152227281</v>
+        <v>0.68049790994575321</v>
       </c>
       <c r="C136">
-        <v>0.72873949506720614</v>
+        <v>0.72667693516550891</v>
       </c>
       <c r="D136">
-        <v>2.3829345831454267</v>
+        <v>0.22174741162157174</v>
       </c>
     </row>
     <row r="137">
       <c r="A137">
-        <v>2.2056183425709057e-06</v>
+        <v>0.45062002395193473</v>
       </c>
       <c r="B137">
-        <v>0.67939189068721917</v>
+        <v>0.68920707275570614</v>
       </c>
       <c r="C137">
-        <v>0.72107615672527481</v>
+        <v>0.72057133846200427</v>
       </c>
       <c r="D137">
-        <v>2.4719141293183373</v>
+        <v>0.22435779877019063</v>
       </c>
     </row>
     <row r="138">
       <c r="A138">
-        <v>2.2103057712219376e-06</v>
+        <v>0.45016656118104947</v>
       </c>
       <c r="B138">
-        <v>0.67016858970395399</v>
+        <v>0.68142154665901311</v>
       </c>
       <c r="C138">
-        <v>0.72914804573055392</v>
+        <v>0.72702494766840142</v>
       </c>
       <c r="D138">
-        <v>2.4225519921627119</v>
+        <v>0.2175688501838699</v>
       </c>
     </row>
     <row r="139">
       <c r="A139">
-        <v>2.2384110816897604e-06</v>
+        <v>0.44374007355438694</v>
       </c>
       <c r="B139">
-        <v>0.66993203480611918</v>
+        <v>0.68137294088947886</v>
       </c>
       <c r="C139">
-        <v>0.72976341635548203</v>
+        <v>0.72774162020425637</v>
       </c>
       <c r="D139">
-        <v>2.4223489003088479</v>
+        <v>0.21973222728180813</v>
       </c>
     </row>
     <row r="140">
       <c r="A140">
-        <v>2.2720903016271348e-06</v>
+        <v>0.42311174045421862</v>
       </c>
       <c r="B140">
-        <v>0.67280686016487012</v>
+        <v>0.6842424325651254</v>
       </c>
       <c r="C140">
-        <v>0.72935925442340932</v>
+        <v>0.7275014526955037</v>
       </c>
       <c r="D140">
-        <v>2.3908643296306287</v>
+        <v>0.22845515309639369</v>
       </c>
     </row>
     <row r="141">
       <c r="A141">
-        <v>2.2879658623693542e-06</v>
+        <v>0.41955259722064814</v>
       </c>
       <c r="B141">
-        <v>0.67665345605865279</v>
+        <v>0.68717367570700194</v>
       </c>
       <c r="C141">
-        <v>0.72668747400288902</v>
+        <v>0.72543051777371104</v>
       </c>
       <c r="D141">
-        <v>2.3760282523243701</v>
+        <v>0.23139693317833351</v>
       </c>
     </row>
     <row r="142">
       <c r="A142">
-        <v>2.3016504336373991e-06</v>
+        <v>0.42086031803120538</v>
       </c>
       <c r="B142">
-        <v>0.67507642325534722</v>
+        <v>0.68508113277369276</v>
       </c>
       <c r="C142">
-        <v>0.72791640912039546</v>
+        <v>0.72703219780870332</v>
       </c>
       <c r="D142">
-        <v>2.3798880676420184</v>
+        <v>0.23122106087486236</v>
       </c>
     </row>
     <row r="143">
       <c r="A143">
-        <v>2.3329121248119654e-06</v>
+        <v>0.40756371751175408</v>
       </c>
       <c r="B143">
-        <v>0.6771196175766292</v>
+        <v>0.68564350111126693</v>
       </c>
       <c r="C143">
-        <v>0.72749677431014526</v>
+        <v>0.72782205263557376</v>
       </c>
       <c r="D143">
-        <v>2.3457629935626874</v>
+        <v>0.23724962802132046</v>
       </c>
     </row>
     <row r="144">
       <c r="A144">
-        <v>2.2912513100127501e-06</v>
+        <v>0.38748515644614789</v>
       </c>
       <c r="B144">
-        <v>0.68355502456751349</v>
+        <v>0.69060405643024314</v>
       </c>
       <c r="C144">
-        <v>0.72204150035599701</v>
+        <v>0.72552418297902799</v>
       </c>
       <c r="D144">
-        <v>2.422187505251328</v>
+        <v>0.24716178814367745</v>
       </c>
     </row>
     <row r="145">
       <c r="A145">
-        <v>2.2460894877392362e-06</v>
+        <v>0.37513333173897223</v>
       </c>
       <c r="B145">
-        <v>0.69380976678625117</v>
+        <v>0.70186612446713714</v>
       </c>
       <c r="C145">
-        <v>0.71335982964290523</v>
+        <v>0.71709804720188264</v>
       </c>
       <c r="D145">
-        <v>2.4810441144104551</v>
+        <v>0.25518438382993591</v>
       </c>
     </row>
     <row r="146">
       <c r="A146">
-        <v>2.2332612731122944e-06</v>
+        <v>0.37178095941405376</v>
       </c>
       <c r="B146">
-        <v>0.69714620279107731</v>
+        <v>0.70556751748190583</v>
       </c>
       <c r="C146">
-        <v>0.71068976885659674</v>
+        <v>0.71420259544842146</v>
       </c>
       <c r="D146">
-        <v>2.4848248399161323</v>
+        <v>0.25767492115910084</v>
       </c>
     </row>
     <row r="147">
       <c r="A147">
-        <v>2.2348517229170245e-06</v>
+        <v>0.36556641444353333</v>
       </c>
       <c r="B147">
-        <v>0.69940917025891181</v>
+        <v>0.70736097815865717</v>
       </c>
       <c r="C147">
-        <v>0.70922280368411539</v>
+        <v>0.71316467534208772</v>
       </c>
       <c r="D147">
-        <v>2.478397423221721</v>
+        <v>0.26355112417279025</v>
       </c>
     </row>
     <row r="148">
       <c r="A148">
-        <v>2.2528916287799545e-06</v>
+        <v>0.36058863065545604</v>
       </c>
       <c r="B148">
-        <v>0.70042373503427158</v>
+        <v>0.70750758451200657</v>
       </c>
       <c r="C148">
-        <v>0.70887324879043001</v>
+        <v>0.71343671465378566</v>
       </c>
       <c r="D148">
-        <v>2.4663088408580904</v>
+        <v>0.26582533436278521</v>
       </c>
     </row>
     <row r="149">
       <c r="A149">
-        <v>2.2801388712806776e-06</v>
+        <v>0.35511349945554366</v>
       </c>
       <c r="B149">
-        <v>0.70112102714288138</v>
+        <v>0.70722906651322748</v>
       </c>
       <c r="C149">
-        <v>0.70890528984520151</v>
+        <v>0.71410868674668304</v>
       </c>
       <c r="D149">
-        <v>2.4499382116978712</v>
+        <v>0.26412515658722802</v>
       </c>
     </row>
     <row r="150">
       <c r="A150">
-        <v>2.3759284784060767e-06</v>
+        <v>0.37289116759648439</v>
       </c>
       <c r="B150">
-        <v>0.69706226612459476</v>
+        <v>0.70454092355481301</v>
       </c>
       <c r="C150">
-        <v>0.71137609256552392</v>
+        <v>0.71499427021209461</v>
       </c>
       <c r="D150">
-        <v>2.4744315326838362</v>
+        <v>0.25568416563668173</v>
       </c>
     </row>
     <row r="151">
       <c r="A151">
-        <v>2.3763972017057895e-06</v>
+        <v>0.31771310805060171</v>
       </c>
       <c r="B151">
-        <v>0.69633934552964405</v>
+        <v>0.69833218775466777</v>
       </c>
       <c r="C151">
-        <v>0.71286272406315931</v>
+        <v>0.72450482769502056</v>
       </c>
       <c r="D151">
-        <v>2.5609545178346349</v>
+        <v>0.27219177800949373</v>
       </c>
     </row>
     <row r="152">
       <c r="A152">
-        <v>2.3715242316186026e-06</v>
+        <v>0.3267172791714229</v>
       </c>
       <c r="B152">
-        <v>0.69187381511807122</v>
+        <v>0.69447015597041195</v>
       </c>
       <c r="C152">
-        <v>0.7162836519222352</v>
+        <v>0.72712335049344945</v>
       </c>
       <c r="D152">
-        <v>2.5528379043802247</v>
+        <v>0.27055257680815381</v>
       </c>
     </row>
     <row r="153">
       <c r="A153">
-        <v>2.3619722598769678e-06</v>
+        <v>0.33086714393349725</v>
       </c>
       <c r="B153">
-        <v>0.69101791416001745</v>
+        <v>0.69372147063204248</v>
       </c>
       <c r="C153">
-        <v>0.71688759447605621</v>
+        <v>0.72745006737293538</v>
       </c>
       <c r="D153">
-        <v>2.555437113150143</v>
+        <v>0.27330737545519046</v>
       </c>
     </row>
     <row r="154">
       <c r="A154">
-        <v>2.3836818856348834e-06</v>
+        <v>0.36379344853306916</v>
       </c>
       <c r="B154">
-        <v>0.69062768710529454</v>
+        <v>0.69461616847816132</v>
       </c>
       <c r="C154">
-        <v>0.71505274818340447</v>
+        <v>0.7242165867594883</v>
       </c>
       <c r="D154">
-        <v>2.605469729852314</v>
+        <v>0.26452764970554632</v>
       </c>
     </row>
     <row r="155">
       <c r="A155">
-        <v>2.5081083812446438e-06</v>
+        <v>0.32506363297770546</v>
       </c>
       <c r="B155">
-        <v>0.68374553192330234</v>
+        <v>0.68718286203988466</v>
       </c>
       <c r="C155">
-        <v>0.7241773117118635</v>
+        <v>0.73332008133574056</v>
       </c>
       <c r="D155">
-        <v>2.5295100429326807</v>
+        <v>0.28193722287776479</v>
       </c>
     </row>
     <row r="156">
       <c r="A156">
-        <v>2.4224073743135802e-06</v>
+        <v>0.33326687647598874</v>
       </c>
       <c r="B156">
-        <v>0.6816752050620678</v>
+        <v>0.68615639552441821</v>
       </c>
       <c r="C156">
-        <v>0.72555984343590341</v>
+        <v>0.73358353386994279</v>
       </c>
       <c r="D156">
-        <v>2.5283884580515616</v>
+        <v>0.27452093463281085</v>
       </c>
     </row>
     <row r="157">
       <c r="A157">
-        <v>2.4744645050353434e-06</v>
+        <v>0.34472560238437588</v>
       </c>
       <c r="B157">
-        <v>0.68094391575755009</v>
+        <v>0.68621524721965432</v>
       </c>
       <c r="C157">
-        <v>0.72557855990704723</v>
+        <v>0.73269562603583493</v>
       </c>
       <c r="D157">
-        <v>2.5382406328229221</v>
+        <v>0.26914291167666116</v>
       </c>
     </row>
     <row r="158">
       <c r="A158">
-        <v>2.4463922140184271e-06</v>
+        <v>0.27499553888736084</v>
       </c>
       <c r="B158">
-        <v>0.67923550917948106</v>
+        <v>0.6783210661942809</v>
       </c>
       <c r="C158">
-        <v>0.72825178935880763</v>
+        <v>0.7438041040051584</v>
       </c>
       <c r="D158">
-        <v>2.6511765322395253</v>
+        <v>0.3118314399187932</v>
       </c>
     </row>
     <row r="159">
       <c r="A159">
-        <v>2.3537986158868342e-06</v>
+        <v>0.2872514751143051</v>
       </c>
       <c r="B159">
-        <v>0.6691001875112188</v>
+        <v>0.6699418472678822</v>
       </c>
       <c r="C159">
-        <v>0.73647634898099201</v>
+        <v>0.74980982017669784</v>
       </c>
       <c r="D159">
-        <v>2.6106302616709662</v>
+        <v>0.31308589556336752</v>
       </c>
     </row>
     <row r="160">
       <c r="A160">
-        <v>2.4116180721075141e-06</v>
+        <v>0.31851938014219666</v>
       </c>
       <c r="B160">
-        <v>0.66902057387560987</v>
+        <v>0.67030958519783967</v>
       </c>
       <c r="C160">
-        <v>0.73507420851713068</v>
+        <v>0.74753088082957153</v>
       </c>
       <c r="D160">
-        <v>2.5966581418469623</v>
+        <v>0.30217046408040221</v>
       </c>
     </row>
     <row r="161">
       <c r="A161">
-        <v>2.4401174060643537e-06</v>
+        <v>0.34920577194468072</v>
       </c>
       <c r="B161">
-        <v>0.67402159511819837</v>
+        <v>0.67560189379659707</v>
       </c>
       <c r="C161">
-        <v>0.72898902824163314</v>
+        <v>0.74110865089145672</v>
       </c>
       <c r="D161">
-        <v>2.6278735640299731</v>
+        <v>0.31230356789318642</v>
       </c>
     </row>
     <row r="162">
       <c r="A162">
-        <v>2.453305227562232e-06</v>
+        <v>0.33158937468107452</v>
       </c>
       <c r="B162">
-        <v>0.66849593025981924</v>
+        <v>0.67117295467834448</v>
       </c>
       <c r="C162">
-        <v>0.73524059244340279</v>
+        <v>0.74594494185014126</v>
       </c>
       <c r="D162">
-        <v>2.5914895029227116</v>
+        <v>0.31018882262601744</v>
       </c>
     </row>
     <row r="163">
       <c r="A163">
-        <v>2.5568794270375871e-06</v>
+        <v>0.33482502861632524</v>
       </c>
       <c r="B163">
-        <v>0.66786339567119268</v>
+        <v>0.6709777249187161</v>
       </c>
       <c r="C163">
-        <v>0.73558822872488827</v>
+        <v>0.74586890462019395</v>
       </c>
       <c r="D163">
-        <v>2.5751486846888936</v>
+        <v>0.31473036583777619</v>
       </c>
     </row>
     <row r="164">
       <c r="A164">
-        <v>2.6180633489601004e-06</v>
+        <v>0.35484995338116271</v>
       </c>
       <c r="B164">
-        <v>0.66877687843608724</v>
+        <v>0.67229664663440269</v>
       </c>
       <c r="C164">
-        <v>0.73361149351251398</v>
+        <v>0.74334633552199536</v>
       </c>
       <c r="D164">
-        <v>2.582301275977628</v>
+        <v>0.31188510312883194</v>
       </c>
     </row>
     <row r="165">
       <c r="A165">
-        <v>2.4291981091469206e-06</v>
+        <v>0.32785689462744089</v>
       </c>
       <c r="B165">
-        <v>0.66567225332428426</v>
+        <v>0.6666316297574908</v>
       </c>
       <c r="C165">
-        <v>0.73666124164686519</v>
+        <v>0.74982641479949996</v>
       </c>
       <c r="D165">
-        <v>2.6204452379723513</v>
+        <v>0.32842032740545812</v>
       </c>
     </row>
     <row r="166">
       <c r="A166">
-        <v>2.492968492041307e-06</v>
+        <v>0.34935708518639208</v>
       </c>
       <c r="B166">
-        <v>0.66402451854062394</v>
+        <v>0.6647355091158782</v>
       </c>
       <c r="C166">
-        <v>0.73674293008531855</v>
+        <v>0.74979818967256118</v>
       </c>
       <c r="D166">
-        <v>2.6116810903102721</v>
+        <v>0.31125271515460462</v>
       </c>
     </row>
     <row r="167">
       <c r="A167">
-        <v>2.5679038293730014e-06</v>
+        <v>0.34814881236132506</v>
       </c>
       <c r="B167">
-        <v>0.6629007166820492</v>
+        <v>0.66416159635992833</v>
       </c>
       <c r="C167">
-        <v>0.73790860997044683</v>
+        <v>0.75033748647905996</v>
       </c>
       <c r="D167">
-        <v>2.6072215329329285</v>
+        <v>0.32062960469750057</v>
       </c>
     </row>
     <row r="168">
       <c r="A168">
-        <v>2.6053851530717762e-06</v>
+        <v>0.33948778550706427</v>
       </c>
       <c r="B168">
-        <v>0.66090418814042451</v>
+        <v>0.66261864731158249</v>
       </c>
       <c r="C168">
-        <v>0.74051793968397017</v>
+        <v>0.7521822421658142</v>
       </c>
       <c r="D168">
-        <v>2.5820164558962064</v>
+        <v>0.32452570307647377</v>
       </c>
     </row>
     <row r="169">
       <c r="A169">
-        <v>2.6018639180505503e-06</v>
+        <v>0.3485651829651451</v>
       </c>
       <c r="B169">
-        <v>0.66013627067548064</v>
+        <v>0.66218447300868544</v>
       </c>
       <c r="C169">
-        <v>0.74052197796589114</v>
+        <v>0.75186057067216649</v>
       </c>
       <c r="D169">
-        <v>2.6023825621558339</v>
+        <v>0.31897325570832646</v>
       </c>
     </row>
     <row r="170">
       <c r="A170">
-        <v>2.6554476926870841e-06</v>
+        <v>0.35772679909414995</v>
       </c>
       <c r="B170">
-        <v>0.66017801965851541</v>
+        <v>0.66301867381155399</v>
       </c>
       <c r="C170">
-        <v>0.73996323752930149</v>
+        <v>0.75051336355248377</v>
       </c>
       <c r="D170">
-        <v>2.619836957967717</v>
+        <v>0.31760069881792896</v>
       </c>
     </row>
     <row r="171">
       <c r="A171">
-        <v>2.7041546380266488e-06</v>
+        <v>0.36762374896246136</v>
       </c>
       <c r="B171">
-        <v>0.66049371461066375</v>
+        <v>0.66446398437137844</v>
       </c>
       <c r="C171">
-        <v>0.73914502160809148</v>
+        <v>0.74860131967952537</v>
       </c>
       <c r="D171">
-        <v>2.6385856008296003</v>
+        <v>0.30924507279020924</v>
       </c>
     </row>
     <row r="172">
       <c r="A172">
-        <v>2.7548865834435367e-06</v>
+        <v>0.36120713109581887</v>
       </c>
       <c r="B172">
-        <v>0.65985446496186118</v>
+        <v>0.66287198449394513</v>
       </c>
       <c r="C172">
-        <v>0.73979058742827586</v>
+        <v>0.75035866234848947</v>
       </c>
       <c r="D172">
-        <v>2.6425916362250192</v>
+        <v>0.31704493839685188</v>
       </c>
     </row>
     <row r="173">
       <c r="A173">
-        <v>2.8215768021366659e-06</v>
+        <v>0.37310063775969521</v>
       </c>
       <c r="B173">
-        <v>0.65960548894742899</v>
+        <v>0.66337883519466423</v>
       </c>
       <c r="C173">
-        <v>0.73920800384282537</v>
+        <v>0.74901562292816748</v>
       </c>
       <c r="D173">
-        <v>2.6487369000994176</v>
+        <v>0.31170690229354592</v>
       </c>
     </row>
     <row r="174">
       <c r="A174">
-        <v>2.8477999064280773e-06</v>
+        <v>0.37519762329302386</v>
       </c>
       <c r="B174">
-        <v>0.65939493347545908</v>
+        <v>0.66360519025974063</v>
       </c>
       <c r="C174">
-        <v>0.73934422811762524</v>
+        <v>0.74866335256084704</v>
       </c>
       <c r="D174">
-        <v>2.6497334613405514</v>
+        <v>0.31829852806960124</v>
       </c>
     </row>
     <row r="175">
       <c r="A175">
-        <v>2.8835180590228046e-06</v>
+        <v>0.38735960905656008</v>
       </c>
       <c r="B175">
-        <v>0.66020404295690127</v>
+        <v>0.66544553396472006</v>
       </c>
       <c r="C175">
-        <v>0.73819704799067432</v>
+        <v>0.746188390057275</v>
       </c>
       <c r="D175">
-        <v>2.6184451487125315</v>
+        <v>0.3075676242217053</v>
       </c>
     </row>
     <row r="176">
       <c r="A176">
-        <v>2.9645863532301426e-06</v>
+        <v>0.38715706450839771</v>
       </c>
       <c r="B176">
-        <v>0.65998683499881139</v>
+        <v>0.66521450618971789</v>
       </c>
       <c r="C176">
-        <v>0.73837057375164517</v>
+        <v>0.74638618786872513</v>
       </c>
       <c r="D176">
-        <v>2.6184379344885844</v>
+        <v>0.30857358687449088</v>
       </c>
     </row>
     <row r="177">
       <c r="A177">
-        <v>2.9914272762520255e-06</v>
+        <v>0.39861373329591188</v>
       </c>
       <c r="B177">
-        <v>0.66170598027058358</v>
+        <v>0.66708572000523114</v>
       </c>
       <c r="C177">
-        <v>0.73597174867186799</v>
+        <v>0.7438884400957535</v>
       </c>
       <c r="D177">
-        <v>2.639458094421852</v>
+        <v>0.31206749660247868</v>
       </c>
     </row>
     <row r="178">
       <c r="A178">
-        <v>3.0873003939928125e-06</v>
+        <v>0.40544237625408297</v>
       </c>
       <c r="B178">
-        <v>0.66293216793487508</v>
+        <v>0.66893851593315123</v>
       </c>
       <c r="C178">
-        <v>0.73446921605692261</v>
+        <v>0.74178390966277907</v>
       </c>
       <c r="D178">
-        <v>2.6523493564187222</v>
+        <v>0.31316257221495891</v>
       </c>
     </row>
     <row r="179">
       <c r="A179">
-        <v>3.0707726736973518e-06</v>
+        <v>0.37857979837425887</v>
       </c>
       <c r="B179">
-        <v>0.65900762331542762</v>
+        <v>0.66104707850211053</v>
       </c>
       <c r="C179">
-        <v>0.73810026724903255</v>
+        <v>0.75044867087198264</v>
       </c>
       <c r="D179">
-        <v>2.7278598253129194</v>
+        <v>0.32659757821522117</v>
       </c>
     </row>
     <row r="180">
       <c r="A180">
-        <v>3.1325455075008159e-06</v>
+        <v>0.37798054084395627</v>
       </c>
       <c r="B180">
-        <v>0.65817550523620749</v>
+        <v>0.661058851265242</v>
       </c>
       <c r="C180">
-        <v>0.73880955443622842</v>
+        <v>0.75048898625393479</v>
       </c>
       <c r="D180">
-        <v>2.7225145021991204</v>
+        <v>0.33363439795654526</v>
       </c>
     </row>
     <row r="181">
       <c r="A181">
-        <v>3.2352793473174992e-06</v>
+        <v>0.38780126573511775</v>
       </c>
       <c r="B181">
-        <v>0.65501550585240809</v>
+        <v>0.65706182747410535</v>
       </c>
       <c r="C181">
-        <v>0.74045629853226025</v>
+        <v>0.75275160948228992</v>
       </c>
       <c r="D181">
-        <v>2.7219862907394674</v>
+        <v>0.34094925044505342</v>
       </c>
     </row>
     <row r="182">
       <c r="A182">
-        <v>3.3058734327154821e-06</v>
+        <v>0.38654657750737448</v>
       </c>
       <c r="B182">
-        <v>0.65472536310893859</v>
+        <v>0.65655701227033192</v>
       </c>
       <c r="C182">
-        <v>0.74071825468985253</v>
+        <v>0.7532516200320224</v>
       </c>
       <c r="D182">
-        <v>2.7217952142303972</v>
+        <v>0.34741614057749592</v>
       </c>
     </row>
     <row r="183">
       <c r="A183">
-        <v>3.316067476433523e-06</v>
+        <v>0.38998773455340041</v>
       </c>
       <c r="B183">
-        <v>0.65522915875566923</v>
+        <v>0.6570677089297301</v>
       </c>
       <c r="C183">
-        <v>0.74002556262856301</v>
+        <v>0.7525449252577403</v>
       </c>
       <c r="D183">
-        <v>2.7269315338007534</v>
+        <v>0.3512356259186048</v>
       </c>
     </row>
     <row r="184">
       <c r="A184">
-        <v>3.5368501578665841e-06</v>
+        <v>0.40290194755505532</v>
       </c>
       <c r="B184">
-        <v>0.65779220682432638</v>
+        <v>0.65960964211630335</v>
       </c>
       <c r="C184">
-        <v>0.73658826739301098</v>
+        <v>0.74936711834734715</v>
       </c>
       <c r="D184">
-        <v>2.76201134833682</v>
+        <v>0.34863548334053285</v>
       </c>
     </row>
     <row r="185">
       <c r="A185">
-        <v>3.5799493789860281e-06</v>
+        <v>0.4123435324380797</v>
       </c>
       <c r="B185">
-        <v>0.66055275507313471</v>
+        <v>0.66322516295485667</v>
       </c>
       <c r="C185">
-        <v>0.73351009985012317</v>
+        <v>0.7456151299788214</v>
       </c>
       <c r="D185">
-        <v>2.7842702961798311</v>
+        <v>0.35161626975152183</v>
       </c>
     </row>
     <row r="186">
       <c r="A186">
-        <v>3.6344741435266402e-06</v>
+        <v>0.40818968596591654</v>
       </c>
       <c r="B186">
-        <v>0.66102072970360726</v>
+        <v>0.66145961126593622</v>
       </c>
       <c r="C186">
-        <v>0.73319550938558775</v>
+        <v>0.74741630503454926</v>
       </c>
       <c r="D186">
-        <v>2.765157520935515</v>
+        <v>0.3555277536633149</v>
       </c>
     </row>
     <row r="187">
       <c r="A187">
-        <v>3.6742435252510984e-06</v>
+        <v>0.41649418852275522</v>
       </c>
       <c r="B187">
-        <v>0.66364071392844826</v>
+        <v>0.66322187935565602</v>
       </c>
       <c r="C187">
-        <v>0.73052942649322961</v>
+        <v>0.74515231805500415</v>
       </c>
       <c r="D187">
-        <v>2.7324855704611295</v>
+        <v>0.35447204163689683</v>
       </c>
     </row>
     <row r="188">
       <c r="A188">
-        <v>3.7345153976919813e-06</v>
+        <v>0.41807231784041521</v>
       </c>
       <c r="B188">
-        <v>0.66452934903937633</v>
+        <v>0.66382250313935642</v>
       </c>
       <c r="C188">
-        <v>0.72960267639319487</v>
+        <v>0.74450831360110636</v>
       </c>
       <c r="D188">
-        <v>2.7339576765703688</v>
+        <v>0.36169057914248065</v>
       </c>
     </row>
     <row r="189">
       <c r="A189">
-        <v>3.822307789862853e-06</v>
+        <v>0.42191689939029697</v>
       </c>
       <c r="B189">
-        <v>0.66632353109581033</v>
+        <v>0.66508730312387665</v>
       </c>
       <c r="C189">
-        <v>0.72791664116915689</v>
+        <v>0.74307173847317121</v>
       </c>
       <c r="D189">
-        <v>2.7072437313484379</v>
+        <v>0.3712593332215598</v>
       </c>
     </row>
     <row r="190">
       <c r="A190">
-        <v>3.8760514806188442e-06</v>
+        <v>0.42534268437189399</v>
       </c>
       <c r="B190">
-        <v>0.66819156927963097</v>
+        <v>0.66634104847324527</v>
       </c>
       <c r="C190">
-        <v>0.72594332623039048</v>
+        <v>0.74167305119794669</v>
       </c>
       <c r="D190">
-        <v>2.7069195346585793</v>
+        <v>0.37463913902117157</v>
       </c>
     </row>
     <row r="191">
       <c r="A191">
-        <v>3.9019513225934452e-06</v>
+        <v>0.43553459146027307</v>
       </c>
       <c r="B191">
-        <v>0.67335213782298009</v>
+        <v>0.67038618006325135</v>
       </c>
       <c r="C191">
-        <v>0.72012826004194075</v>
+        <v>0.73717209267607897</v>
       </c>
       <c r="D191">
-        <v>2.7316037482364357</v>
+        <v>0.37866719232204821</v>
       </c>
     </row>
     <row r="192">
       <c r="A192">
-        <v>4.0378629834627654e-06</v>
+        <v>0.43575757219077005</v>
       </c>
       <c r="B192">
-        <v>0.67257912128729369</v>
+        <v>0.67051368379299492</v>
       </c>
       <c r="C192">
-        <v>0.72094733042150638</v>
+        <v>0.73704148855787466</v>
       </c>
       <c r="D192">
-        <v>2.7279982357141845</v>
+        <v>0.38089127886996077</v>
       </c>
     </row>
     <row r="193">
       <c r="A193">
-        <v>4.1239740415872378e-06</v>
+        <v>0.43318459159830502</v>
       </c>
       <c r="B193">
-        <v>0.67280888454159116</v>
+        <v>0.66911386472523526</v>
       </c>
       <c r="C193">
-        <v>0.72104182726252941</v>
+        <v>0.73852822475119573</v>
       </c>
       <c r="D193">
-        <v>2.6934734092960309</v>
+        <v>0.38398141927320772</v>
       </c>
     </row>
     <row r="194">
       <c r="A194">
-        <v>4.1759659972930782e-06</v>
+        <v>0.43446843092441251</v>
       </c>
       <c r="B194">
-        <v>0.67387916271077297</v>
+        <v>0.66933064676722553</v>
       </c>
       <c r="C194">
-        <v>0.7201285907581092</v>
+        <v>0.73809175881538813</v>
       </c>
       <c r="D194">
-        <v>2.658825483804069</v>
+        <v>0.39273179791691637</v>
       </c>
     </row>
     <row r="195">
       <c r="A195">
-        <v>4.23469813494286e-06</v>
+        <v>0.43653813650829032</v>
       </c>
       <c r="B195">
-        <v>0.67601356257598511</v>
+        <v>0.67028146698493585</v>
       </c>
       <c r="C195">
-        <v>0.71788570889353687</v>
+        <v>0.73696082720851674</v>
       </c>
       <c r="D195">
-        <v>2.6549043229384464</v>
+        <v>0.39045527247375972</v>
       </c>
     </row>
     <row r="196">
       <c r="A196">
-        <v>4.3068663071540982e-06</v>
+        <v>0.4378725295617456</v>
       </c>
       <c r="B196">
-        <v>0.67759417132317656</v>
+        <v>0.67109352670191846</v>
       </c>
       <c r="C196">
-        <v>0.71692304713513466</v>
+        <v>0.73607369077193208</v>
       </c>
       <c r="D196">
-        <v>2.5875511396618345</v>
+        <v>0.39331380791239656</v>
       </c>
     </row>
     <row r="197">
       <c r="A197">
-        <v>4.4124088978278738e-06</v>
+        <v>0.43667068798584224</v>
       </c>
       <c r="B197">
-        <v>0.67704337134895076</v>
+        <v>0.67028969181487907</v>
       </c>
       <c r="C197">
-        <v>0.71745091323893939</v>
+        <v>0.73696219716301559</v>
       </c>
       <c r="D197">
-        <v>2.5916991295142537</v>
+        <v>0.3973984499663813</v>
       </c>
     </row>
     <row r="198">
       <c r="A198">
-        <v>4.4425431471993062e-06</v>
+        <v>0.43734686462495742</v>
       </c>
       <c r="B198">
-        <v>0.67877652471899508</v>
+        <v>0.67029926745306212</v>
       </c>
       <c r="C198">
-        <v>0.71536783797648373</v>
+        <v>0.73651082913767507</v>
       </c>
       <c r="D198">
-        <v>2.5876818249930715</v>
+        <v>0.40516086338825552</v>
       </c>
     </row>
     <row r="199">
       <c r="A199">
-        <v>4.4910474618049625e-06</v>
+        <v>0.43713569241324957</v>
       </c>
       <c r="B199">
-        <v>0.67819974422074669</v>
+        <v>0.67011923523756611</v>
       </c>
       <c r="C199">
-        <v>0.71599245555298185</v>
+        <v>0.73669875340186874</v>
       </c>
       <c r="D199">
-        <v>2.5854016459636311</v>
+        <v>0.40466203697583042</v>
       </c>
     </row>
     <row r="200">
       <c r="A200">
-        <v>4.5808751862493945e-06</v>
+        <v>0.43654591505648743</v>
       </c>
       <c r="B200">
-        <v>0.67793660335352746</v>
+        <v>0.66944389921487391</v>
       </c>
       <c r="C200">
-        <v>0.71672148081074094</v>
+        <v>0.73747613874683293</v>
       </c>
       <c r="D200">
-        <v>2.5378498606241995</v>
+        <v>0.41109936240754197</v>
       </c>
     </row>
     <row r="201">
       <c r="A201">
-        <v>4.5451907673005919e-06</v>
+        <v>0.43723824682602097</v>
       </c>
       <c r="B201">
-        <v>0.67773327349794044</v>
+        <v>0.6698042336718939</v>
       </c>
       <c r="C201">
-        <v>0.71683108816610486</v>
+        <v>0.73735948118398797</v>
       </c>
       <c r="D201">
-        <v>2.5518995806926013</v>
+        <v>0.4148297475372773</v>
       </c>
     </row>
     <row r="202">
       <c r="A202">
-        <v>4.6488161745485714e-06</v>
+        <v>0.43732828579010391</v>
       </c>
       <c r="B202">
-        <v>0.67757730065683908</v>
+        <v>0.66987824109766292</v>
       </c>
       <c r="C202">
-        <v>0.71700342222283975</v>
+        <v>0.73730343442409452</v>
       </c>
       <c r="D202">
-        <v>2.5434430976838192</v>
+        <v>0.42074136135314921</v>
       </c>
     </row>
     <row r="203">
       <c r="A203">
-        <v>4.456552208501159e-06</v>
+        <v>0.43587289392247869</v>
       </c>
       <c r="B203">
-        <v>0.6758889409550386</v>
+        <v>0.66854318151476844</v>
       </c>
       <c r="C203">
-        <v>0.71966012359500797</v>
+        <v>0.73819387844192819</v>
       </c>
       <c r="D203">
-        <v>2.4175084361262948</v>
+        <v>0.42230624203264933</v>
       </c>
     </row>
     <row r="204">
       <c r="A204">
-        <v>4.5346248450126174e-06</v>
+        <v>0.43719197524539422</v>
       </c>
       <c r="B204">
-        <v>0.67908393587700011</v>
+        <v>0.66982717757930721</v>
       </c>
       <c r="C204">
-        <v>0.71665546602726959</v>
+        <v>0.73678588874631323</v>
       </c>
       <c r="D204">
-        <v>2.3913270883985738</v>
+        <v>0.43129149401176431</v>
       </c>
     </row>
     <row r="205">
       <c r="A205">
-        <v>4.6433343608717623e-06</v>
+        <v>0.43574408670333931</v>
       </c>
       <c r="B205">
-        <v>0.67650663584514525</v>
+        <v>0.66813028372403949</v>
       </c>
       <c r="C205">
-        <v>0.71927783924339461</v>
+        <v>0.73853984046135146</v>
       </c>
       <c r="D205">
-        <v>2.3916837736716312</v>
+        <v>0.43536213726927886</v>
       </c>
     </row>
     <row r="206">
       <c r="A206">
-        <v>4.7815366720163841e-06</v>
+        <v>0.43493803787851654</v>
       </c>
       <c r="B206">
-        <v>0.67717022845461083</v>
+        <v>0.6679976107835619</v>
       </c>
       <c r="C206">
-        <v>0.71836075906145047</v>
+        <v>0.73844903100663994</v>
       </c>
       <c r="D206">
-        <v>2.3957063824053275</v>
+        <v>0.44893042819823614</v>
       </c>
     </row>
     <row r="207">
       <c r="A207">
-        <v>4.8670288834632923e-06</v>
+        <v>0.43499439652941851</v>
       </c>
       <c r="B207">
-        <v>0.67691421913657157</v>
+        <v>0.66810328847452438</v>
       </c>
       <c r="C207">
-        <v>0.71950519465158458</v>
+        <v>0.73833921346547937</v>
       </c>
       <c r="D207">
-        <v>2.3042509401347915</v>
+        <v>0.45253817464995943</v>
       </c>
     </row>
     <row r="208">
       <c r="A208">
-        <v>4.9162095298873227e-06</v>
+        <v>0.43468990800188084</v>
       </c>
       <c r="B208">
-        <v>0.67850637214120191</v>
+        <v>0.66864431412922287</v>
       </c>
       <c r="C208">
-        <v>0.71828680170152404</v>
+        <v>0.73768368942693652</v>
       </c>
       <c r="D208">
-        <v>2.2583196617440913</v>
+        <v>0.45289663015224207</v>
       </c>
     </row>
     <row r="209">
       <c r="A209">
-        <v>5.021109197042728e-06</v>
+        <v>0.43473028689123128</v>
       </c>
       <c r="B209">
-        <v>0.67915207411270251</v>
+        <v>0.66875742159264639</v>
       </c>
       <c r="C209">
-        <v>0.71766479865923527</v>
+        <v>0.7375700405860397</v>
       </c>
       <c r="D209">
-        <v>2.2546895971980967</v>
+        <v>0.46487797208634979</v>
       </c>
     </row>
     <row r="210">
       <c r="A210">
-        <v>5.0124942200716722e-06</v>
+        <v>0.43585416823966372</v>
       </c>
       <c r="B210">
-        <v>0.67909830597744292</v>
+        <v>0.66792729316931332</v>
       </c>
       <c r="C210">
-        <v>0.71748868894924289</v>
+        <v>0.738543389023116</v>
       </c>
       <c r="D210">
-        <v>2.2796458957500141</v>
+        <v>0.46662031147885485</v>
       </c>
     </row>
     <row r="211">
       <c r="A211">
-        <v>5.1539722089833461e-06</v>
+        <v>0.43765396742396545</v>
       </c>
       <c r="B211">
-        <v>0.67920793822418302</v>
+        <v>0.66870947197362751</v>
       </c>
       <c r="C211">
-        <v>0.71735418419764596</v>
+        <v>0.73793453808126142</v>
       </c>
       <c r="D211">
-        <v>2.2872227708409634</v>
+        <v>0.46794827476186956</v>
       </c>
     </row>
     <row r="212">
       <c r="A212">
-        <v>5.1655413350359867e-06</v>
+        <v>0.43612594018189288</v>
       </c>
       <c r="B212">
-        <v>0.67891770716714228</v>
+        <v>0.66791855619311469</v>
       </c>
       <c r="C212">
-        <v>0.71754532651986969</v>
+        <v>0.73856316577158121</v>
       </c>
       <c r="D212">
-        <v>2.2821638728796927</v>
+        <v>0.46573441184863185</v>
       </c>
     </row>
     <row r="213">
       <c r="A213">
-        <v>5.2258199318125413e-06</v>
+        <v>0.43479640496830491</v>
       </c>
       <c r="B213">
-        <v>0.67954620122822074</v>
+        <v>0.66770553843836655</v>
       </c>
       <c r="C213">
-        <v>0.7166879865935577</v>
+        <v>0.73858326326200341</v>
       </c>
       <c r="D213">
-        <v>2.2862749143328909</v>
+        <v>0.47204489564884378</v>
       </c>
     </row>
     <row r="214">
       <c r="A214">
-        <v>5.4236384699705123e-06</v>
+        <v>0.43499779020183016</v>
       </c>
       <c r="B214">
-        <v>0.67911676665677523</v>
+        <v>0.66703075661785993</v>
       </c>
       <c r="C214">
-        <v>0.71760580774420046</v>
+        <v>0.73932532698603637</v>
       </c>
       <c r="D214">
-        <v>2.2370932386720401</v>
+        <v>0.47198079270996018</v>
       </c>
     </row>
     <row r="215">
       <c r="A215">
-        <v>5.5017820248586818e-06</v>
+        <v>0.43472322416971443</v>
       </c>
       <c r="B215">
-        <v>0.67931371020249898</v>
+        <v>0.66699020480001314</v>
       </c>
       <c r="C215">
-        <v>0.71761562141090884</v>
+        <v>0.73933469712861344</v>
       </c>
       <c r="D215">
-        <v>2.2096121877363215</v>
+        <v>0.48462386625396747</v>
       </c>
     </row>
     <row r="216">
       <c r="A216">
-        <v>5.4645400534661556e-06</v>
+        <v>0.43626974894543691</v>
       </c>
       <c r="B216">
-        <v>0.67849610859743925</v>
+        <v>0.66714024790790849</v>
       </c>
       <c r="C216">
-        <v>0.71842590793375716</v>
+        <v>0.73936840972642137</v>
       </c>
       <c r="D216">
-        <v>2.220017410365946</v>
+        <v>0.49555386954164754</v>
       </c>
     </row>
     <row r="217">
       <c r="A217">
-        <v>5.5025328360937254e-06</v>
+        <v>0.43833482492837039</v>
       </c>
       <c r="B217">
-        <v>0.67838119568771227</v>
+        <v>0.66817607866392459</v>
       </c>
       <c r="C217">
-        <v>0.71857530251435997</v>
+        <v>0.73855698813743187</v>
       </c>
       <c r="D217">
-        <v>2.2155277299885685</v>
+        <v>0.50261690106076462</v>
       </c>
     </row>
     <row r="218">
       <c r="A218">
-        <v>5.5062899970616616e-06</v>
+        <v>0.43679990929919804</v>
       </c>
       <c r="B218">
-        <v>0.67776416760592006</v>
+        <v>0.6672388193143457</v>
       </c>
       <c r="C218">
-        <v>0.71923652738035027</v>
+        <v>0.7393105193583176</v>
       </c>
       <c r="D218">
-        <v>2.1930761499181726</v>
+        <v>0.5034481094138743</v>
       </c>
     </row>
     <row r="219">
       <c r="A219">
-        <v>5.6593734575485488e-06</v>
+        <v>0.4365979443862017</v>
       </c>
       <c r="B219">
-        <v>0.67801086508773678</v>
+        <v>0.66719107786346998</v>
       </c>
       <c r="C219">
-        <v>0.71895680318081767</v>
+        <v>0.73931855473428021</v>
       </c>
       <c r="D219">
-        <v>2.1917203398233016</v>
+        <v>0.50316917138955886</v>
       </c>
     </row>
     <row r="220">
       <c r="A220">
-        <v>5.8740314705037195e-06</v>
+        <v>0.43597059233376545</v>
       </c>
       <c r="B220">
-        <v>0.67864078858556087</v>
+        <v>0.66716737985896313</v>
       </c>
       <c r="C220">
-        <v>0.71816078048330101</v>
+        <v>0.73919936069875647</v>
       </c>
       <c r="D220">
-        <v>2.194837257813635</v>
+        <v>0.50305847753449351</v>
       </c>
     </row>
     <row r="221">
       <c r="A221">
-        <v>5.8367605627735728e-06</v>
+        <v>0.4359947378863393</v>
       </c>
       <c r="B221">
-        <v>0.67784514718820699</v>
+        <v>0.66720943064796212</v>
       </c>
       <c r="C221">
-        <v>0.7197316471027404</v>
+        <v>0.73915771449784096</v>
       </c>
       <c r="D221">
-        <v>2.112753188010335</v>
+        <v>0.51421336801054418</v>
       </c>
     </row>
     <row r="222">
       <c r="A222">
-        <v>5.7991948069251145e-06</v>
+        <v>0.43721210861094323</v>
       </c>
       <c r="B222">
-        <v>0.67683924566491749</v>
+        <v>0.66664781498745529</v>
       </c>
       <c r="C222">
-        <v>0.72045222940948106</v>
+        <v>0.73995740746656558</v>
       </c>
       <c r="D222">
-        <v>2.1483850477331101</v>
+        <v>0.51792576414964397</v>
       </c>
     </row>
     <row r="223">
       <c r="A223">
-        <v>5.9416852001854357e-06</v>
+        <v>0.43641881031518087</v>
       </c>
       <c r="B223">
-        <v>0.67652693986265855</v>
+        <v>0.66616911919353372</v>
       </c>
       <c r="C223">
-        <v>0.72072101428900726</v>
+        <v>0.74034165036878363</v>
       </c>
       <c r="D223">
-        <v>2.1417959602177552</v>
+        <v>0.52552742629843663</v>
       </c>
     </row>
     <row r="224">
       <c r="A224">
-        <v>6.0195065030399182e-06</v>
+        <v>0.43638417008896202</v>
       </c>
       <c r="B224">
-        <v>0.67591460735462372</v>
+        <v>0.66616132358817026</v>
       </c>
       <c r="C224">
-        <v>0.72158389203857687</v>
+        <v>0.74034307549435319</v>
       </c>
       <c r="D224">
-        <v>2.1070566899342218</v>
+        <v>0.54194386881758638</v>
       </c>
     </row>
     <row r="225">
       <c r="A225">
-        <v>6.1275436324548153e-06</v>
+        <v>0.43549858243596129</v>
       </c>
       <c r="B225">
-        <v>0.67634586683318254</v>
+        <v>0.66584820882149987</v>
       </c>
       <c r="C225">
-        <v>0.72119975893091837</v>
+        <v>0.74048353538948852</v>
       </c>
       <c r="D225">
-        <v>2.0873564594510623</v>
+        <v>0.54772062390883014</v>
       </c>
     </row>
     <row r="226">
       <c r="A226">
-        <v>6.4711168098882361e-06</v>
+        <v>0.43580182774321419</v>
       </c>
       <c r="B226">
-        <v>0.67357070283791387</v>
+        <v>0.66476822067761931</v>
       </c>
       <c r="C226">
-        <v>0.72412356395228861</v>
+        <v>0.74180202944991624</v>
       </c>
       <c r="D226">
-        <v>2.0907106193729978</v>
+        <v>0.5380417665403292</v>
       </c>
     </row>
     <row r="227">
       <c r="A227">
-        <v>6.4285615806280255e-06</v>
+        <v>0.43274161378969933</v>
       </c>
       <c r="B227">
-        <v>0.67182443966621364</v>
+        <v>0.6626791594272825</v>
       </c>
       <c r="C227">
-        <v>0.72562663199089839</v>
+        <v>0.74346195112302249</v>
       </c>
       <c r="D227">
-        <v>2.0758144398156517</v>
+        <v>0.53747365412985715</v>
       </c>
     </row>
     <row r="228">
       <c r="A228">
-        <v>6.5453336150349929e-06</v>
+        <v>0.43266515641945347</v>
       </c>
       <c r="B228">
-        <v>0.67095157825124674</v>
+        <v>0.66296812369461822</v>
       </c>
       <c r="C228">
-        <v>0.72730724760045662</v>
+        <v>0.74308591305754113</v>
       </c>
       <c r="D228">
-        <v>1.9814415118783444</v>
+        <v>0.54942467713480014</v>
       </c>
     </row>
     <row r="229">
       <c r="A229">
-        <v>6.8173137431373569e-06</v>
+        <v>0.43258028056222331</v>
       </c>
       <c r="B229">
-        <v>0.67017494804364364</v>
+        <v>0.66210979366130052</v>
       </c>
       <c r="C229">
-        <v>0.72794199743752108</v>
+        <v>0.74404187366341346</v>
       </c>
       <c r="D229">
-        <v>1.9974659549849672</v>
+        <v>0.55200837475279785</v>
       </c>
     </row>
     <row r="230">
       <c r="A230">
-        <v>6.9538828081672703e-06</v>
+        <v>0.43283006685219094</v>
       </c>
       <c r="B230">
-        <v>0.67018723489433463</v>
+        <v>0.66222831341767785</v>
       </c>
       <c r="C230">
-        <v>0.72793041564971228</v>
+        <v>0.74396160576352166</v>
       </c>
       <c r="D230">
-        <v>1.9974330446986346</v>
+        <v>0.55573991572838022</v>
       </c>
     </row>
     <row r="231">
       <c r="A231">
-        <v>7.0591779910402912e-06</v>
+        <v>0.4327877109598649</v>
       </c>
       <c r="B231">
-        <v>0.66972032791701064</v>
+        <v>0.66221670136510702</v>
       </c>
       <c r="C231">
-        <v>0.72854788034694562</v>
+        <v>0.74396545918630141</v>
       </c>
       <c r="D231">
-        <v>1.9723682221423493</v>
+        <v>0.57501893028538076</v>
       </c>
     </row>
     <row r="232">
       <c r="A232">
-        <v>7.1883538894551493e-06</v>
+        <v>0.43093803366223715</v>
       </c>
       <c r="B232">
-        <v>0.67017965365574672</v>
+        <v>0.66155828181494103</v>
       </c>
       <c r="C232">
-        <v>0.72811200198077286</v>
+        <v>0.74425661636594875</v>
       </c>
       <c r="D232">
-        <v>1.9414745023788536</v>
+        <v>0.59052817488898612</v>
       </c>
     </row>
     <row r="233">
       <c r="A233">
-        <v>7.3690685010618777e-06</v>
+        <v>0.43000512224046217</v>
       </c>
       <c r="B233">
-        <v>0.66750063825856298</v>
+        <v>0.65970861651743762</v>
       </c>
       <c r="C233">
-        <v>0.73079066568568474</v>
+        <v>0.74610883073797807</v>
       </c>
       <c r="D233">
-        <v>1.9402705674970702</v>
+        <v>0.59034333344517098</v>
       </c>
     </row>
     <row r="234">
       <c r="A234">
-        <v>7.4575449463709263e-06</v>
+        <v>0.42971254058743058</v>
       </c>
       <c r="B234">
-        <v>0.66754536992734359</v>
+        <v>0.65965543880140798</v>
       </c>
       <c r="C234">
-        <v>0.73070745249589475</v>
+        <v>0.74612022482331797</v>
       </c>
       <c r="D234">
-        <v>1.939799875027286</v>
+        <v>0.6009212849467398</v>
       </c>
     </row>
     <row r="235">
       <c r="A235">
-        <v>7.5798824729377908e-06</v>
+        <v>0.42959761124473422</v>
       </c>
       <c r="B235">
-        <v>0.66655079063385081</v>
+        <v>0.65967299004996705</v>
       </c>
       <c r="C235">
-        <v>0.73214615493713819</v>
+        <v>0.74608489361252661</v>
       </c>
       <c r="D235">
-        <v>1.8816435930148452</v>
+        <v>0.61228410469852501</v>
       </c>
     </row>
     <row r="236">
       <c r="A236">
-        <v>7.6024309839326592e-06</v>
+        <v>0.43104754224880826</v>
       </c>
       <c r="B236">
-        <v>0.66619297917828701</v>
+        <v>0.65966381242214323</v>
       </c>
       <c r="C236">
-        <v>0.73233641337449273</v>
+        <v>0.74630267413966878</v>
       </c>
       <c r="D236">
-        <v>1.9068952361058753</v>
+        <v>0.62038794874922187</v>
       </c>
     </row>
     <row r="237">
       <c r="A237">
-        <v>7.7225963077183845e-06</v>
+        <v>0.43056395999771996</v>
       </c>
       <c r="B237">
-        <v>0.66597987724299335</v>
+        <v>0.65939159518305424</v>
       </c>
       <c r="C237">
-        <v>0.73250900332936586</v>
+        <v>0.74651261983393369</v>
       </c>
       <c r="D237">
-        <v>1.9029345960045669</v>
+        <v>0.6304223609454731</v>
       </c>
     </row>
     <row r="238">
       <c r="A238">
-        <v>8.0039560733897751e-06</v>
+        <v>0.43003474498538496</v>
       </c>
       <c r="B238">
-        <v>0.66551890029494776</v>
+        <v>0.65916945739466426</v>
       </c>
       <c r="C238">
-        <v>0.73307657636387247</v>
+        <v>0.74664886410816345</v>
       </c>
       <c r="D238">
-        <v>1.8783384347722505</v>
+        <v>0.63274116977509787</v>
       </c>
     </row>
     <row r="239">
       <c r="A239">
-        <v>8.1106737328590025e-06</v>
+        <v>0.42898903818829226</v>
       </c>
       <c r="B239">
-        <v>0.66625120825532402</v>
+        <v>0.65912512416193536</v>
       </c>
       <c r="C239">
-        <v>0.73232347294431011</v>
+        <v>0.74647346657715052</v>
       </c>
       <c r="D239">
-        <v>1.8627946059165659</v>
+        <v>0.66051226787326034</v>
       </c>
     </row>
     <row r="240">
       <c r="A240">
-        <v>8.3171448481516126e-06</v>
+        <v>0.42914910293343217</v>
       </c>
       <c r="B240">
-        <v>0.66696319480254007</v>
+        <v>0.65960754075578532</v>
       </c>
       <c r="C240">
-        <v>0.73160071848507791</v>
+        <v>0.74598679448460492</v>
       </c>
       <c r="D240">
-        <v>1.8637284291631713</v>
+        <v>0.67729879171849572</v>
       </c>
     </row>
     <row r="241">
       <c r="A241">
-        <v>8.6859348664938534e-06</v>
+        <v>0.42949033657960839</v>
       </c>
       <c r="B241">
-        <v>0.66529038663987528</v>
+        <v>0.65831522511179141</v>
       </c>
       <c r="C241">
-        <v>0.73334371859499048</v>
+        <v>0.74733593802876463</v>
       </c>
       <c r="D241">
-        <v>1.8641341399927616</v>
+        <v>0.68465809998036686</v>
       </c>
     </row>
     <row r="242">
       <c r="A242">
-        <v>8.9983722425575069e-06</v>
+        <v>0.43418876368962411</v>
       </c>
       <c r="B242">
-        <v>0.66751317865904114</v>
+        <v>0.66010773065737882</v>
       </c>
       <c r="C242">
-        <v>0.73063220917966509</v>
+        <v>0.74605553852681816</v>
       </c>
       <c r="D242">
-        <v>1.9377981708201519</v>
+        <v>0.68954742552952464</v>
       </c>
     </row>
     <row r="243">
       <c r="A243">
-        <v>9.3640680030687663e-06</v>
+        <v>0.43031399650653523</v>
       </c>
       <c r="B243">
-        <v>0.66458553908606566</v>
+        <v>0.65733893990649084</v>
       </c>
       <c r="C243">
-        <v>0.73349312657522914</v>
+        <v>0.74835025127119703</v>
       </c>
       <c r="D243">
-        <v>1.8990491823442244</v>
+        <v>0.6983779646745284</v>
       </c>
     </row>
     <row r="244">
       <c r="A244">
-        <v>9.6843919726853234e-06</v>
+        <v>0.43032483799274235</v>
       </c>
       <c r="B244">
-        <v>0.66464581859910754</v>
+        <v>0.65735115998874638</v>
       </c>
       <c r="C244">
-        <v>0.733425848773128</v>
+        <v>0.74833945929307366</v>
       </c>
       <c r="D244">
-        <v>1.8982203122061925</v>
+        <v>0.70743385396275849</v>
       </c>
     </row>
     <row r="245">
       <c r="A245">
-        <v>9.8230805848874405e-06</v>
+        <v>0.43167954153308669</v>
       </c>
       <c r="B245">
-        <v>0.66475123593561669</v>
+        <v>0.657771173904794</v>
       </c>
       <c r="C245">
-        <v>0.73326901691436874</v>
+        <v>0.74820976110839688</v>
       </c>
       <c r="D245">
-        <v>1.9203318270560614</v>
+        <v>0.71302838649990719</v>
       </c>
     </row>
     <row r="246">
       <c r="A246">
-        <v>1.0179667410286269e-05</v>
+        <v>0.43149616972325139</v>
       </c>
       <c r="B246">
-        <v>0.66455722281555685</v>
+        <v>0.65763313054495498</v>
       </c>
       <c r="C246">
-        <v>0.73342512395746984</v>
+        <v>0.74831734407847783</v>
       </c>
       <c r="D246">
-        <v>1.9190136883615005</v>
+        <v>0.73601402987568787</v>
       </c>
     </row>
     <row r="247">
       <c r="A247">
-        <v>1.0421322266636124e-05</v>
+        <v>0.43201652954383429</v>
       </c>
       <c r="B247">
-        <v>0.66473958177842163</v>
+        <v>0.65802870398448987</v>
       </c>
       <c r="C247">
-        <v>0.73336820510912093</v>
+        <v>0.74804672981148879</v>
       </c>
       <c r="D247">
-        <v>1.9182490749729282</v>
+        <v>0.74237763178237615</v>
       </c>
     </row>
     <row r="248">
       <c r="A248">
-        <v>1.0644023263696537e-05</v>
+        <v>0.43176061174534014</v>
       </c>
       <c r="B248">
-        <v>0.66460441648652613</v>
+        <v>0.65780344550667746</v>
       </c>
       <c r="C248">
-        <v>0.73344795116956463</v>
+        <v>0.74820537597372239</v>
       </c>
       <c r="D248">
-        <v>1.9185276898710844</v>
+        <v>0.75826806764089949</v>
       </c>
     </row>
     <row r="249">
       <c r="A249">
-        <v>1.1057424686929662e-05</v>
+        <v>0.43262337370733706</v>
       </c>
       <c r="B249">
-        <v>0.66620018635060618</v>
+        <v>0.65865479248967918</v>
       </c>
       <c r="C249">
-        <v>0.73145045366453765</v>
+        <v>0.74784119299514351</v>
       </c>
       <c r="D249">
-        <v>1.9773827730365501</v>
+        <v>0.76247332176271398</v>
       </c>
     </row>
     <row r="250">
       <c r="A250">
-        <v>1.1732082068885764e-05</v>
+        <v>0.43120427607561629</v>
       </c>
       <c r="B250">
-        <v>0.66403344980364687</v>
+        <v>0.65714496146679446</v>
       </c>
       <c r="C250">
-        <v>0.7336233262104972</v>
+        <v>0.74904576478949225</v>
       </c>
       <c r="D250">
-        <v>1.9423197623918909</v>
+        <v>0.77526441654151523</v>
       </c>
     </row>
     <row r="251">
       <c r="A251">
-        <v>1.2061290044086905e-05</v>
+        <v>0.43130348138391983</v>
       </c>
       <c r="B251">
-        <v>0.66392118656502574</v>
+        <v>0.65758069930139207</v>
       </c>
       <c r="C251">
-        <v>0.73377820864594734</v>
+        <v>0.74881280958556151</v>
       </c>
       <c r="D251">
-        <v>1.94750290074687</v>
+        <v>0.79115151216002944</v>
       </c>
     </row>
     <row r="252">
       <c r="A252">
-        <v>1.2311736434001909e-05</v>
+        <v>0.43084205293851652</v>
       </c>
       <c r="B252">
-        <v>0.66356626550016151</v>
+        <v>0.65668747827127594</v>
       </c>
       <c r="C252">
-        <v>0.73392318998987016</v>
+        <v>0.74943763197939561</v>
       </c>
       <c r="D252">
-        <v>1.9468665808813808</v>
+        <v>0.80524629624488608</v>
       </c>
     </row>
     <row r="253">
       <c r="A253">
-        <v>1.2719739129515915e-05</v>
+        <v>0.43145667192531689</v>
       </c>
       <c r="B253">
-        <v>0.66405249485451867</v>
+        <v>0.65675757077827612</v>
       </c>
       <c r="C253">
-        <v>0.73325709803752193</v>
+        <v>0.74920368452019304</v>
       </c>
       <c r="D253">
-        <v>1.9519312240794442</v>
+        <v>0.82152615184491506</v>
       </c>
     </row>
     <row r="254">
       <c r="A254">
-        <v>1.3099928362821482e-05</v>
+        <v>0.43227958129276084</v>
       </c>
       <c r="B254">
-        <v>0.66459852851385692</v>
+        <v>0.65723000643047302</v>
       </c>
       <c r="C254">
-        <v>0.73265947988233771</v>
+        <v>0.74866144795408229</v>
       </c>
       <c r="D254">
-        <v>1.9490623084238248</v>
+        <v>0.83730461972496617</v>
       </c>
     </row>
     <row r="255">
       <c r="A255">
-        <v>1.365953758404001e-05</v>
+        <v>0.43308595148537066</v>
       </c>
       <c r="B255">
-        <v>0.66489290134008738</v>
+        <v>0.65780821922748534</v>
       </c>
       <c r="C255">
-        <v>0.73263795677897003</v>
+        <v>0.74803009452882674</v>
       </c>
       <c r="D255">
-        <v>1.9139664600954829</v>
+        <v>0.8705789455915891</v>
       </c>
     </row>
     <row r="256">
       <c r="A256">
-        <v>1.4344668689328556e-05</v>
+        <v>0.43413637904157376</v>
       </c>
       <c r="B256">
-        <v>0.66611774702897586</v>
+        <v>0.65873286136097386</v>
       </c>
       <c r="C256">
-        <v>0.73166375408047801</v>
+        <v>0.74704332453731626</v>
       </c>
       <c r="D256">
-        <v>1.885064648625189</v>
+        <v>0.86832863323145237</v>
       </c>
     </row>
     <row r="257">
       <c r="A257">
-        <v>1.4803441402798822e-05</v>
+        <v>0.43131330886631808</v>
       </c>
       <c r="B257">
-        <v>0.6644787819092226</v>
+        <v>0.65560474844008088</v>
       </c>
       <c r="C257">
-        <v>0.73275981162403669</v>
+        <v>0.75021988599366418</v>
       </c>
       <c r="D257">
-        <v>1.9354029939144031</v>
+        <v>0.89680722247429534</v>
       </c>
     </row>
     <row r="258">
       <c r="A258">
-        <v>1.5322672275031854e-05</v>
+        <v>0.43062498683310102</v>
       </c>
       <c r="B258">
-        <v>0.66396175937748347</v>
+        <v>0.65503899361165818</v>
       </c>
       <c r="C258">
-        <v>0.73323036756210791</v>
+        <v>0.75064225328836764</v>
       </c>
       <c r="D258">
-        <v>1.9248070869035057</v>
+        <v>0.90258086603473986</v>
       </c>
     </row>
     <row r="259">
       <c r="A259">
-        <v>1.5770851558930744e-05</v>
+        <v>0.43068380743885759</v>
       </c>
       <c r="B259">
-        <v>0.66394973318576467</v>
+        <v>0.65508417090360949</v>
       </c>
       <c r="C259">
-        <v>0.73324749669263833</v>
+        <v>0.75062363993308523</v>
       </c>
       <c r="D259">
-        <v>1.9215924973073459</v>
+        <v>0.92062586996983908</v>
       </c>
     </row>
     <row r="260">
       <c r="A260">
-        <v>1.6316318769121326e-05</v>
+        <v>0.43048846300685151</v>
       </c>
       <c r="B260">
-        <v>0.66405573088007597</v>
+        <v>0.65492388178726213</v>
       </c>
       <c r="C260">
-        <v>0.73307863145506247</v>
+        <v>0.7506905893242426</v>
       </c>
       <c r="D260">
-        <v>1.9195872795169859</v>
+        <v>0.93451677498927543</v>
       </c>
     </row>
     <row r="261">
       <c r="A261">
-        <v>1.6810246588701481e-05</v>
+        <v>0.43051025564658241</v>
       </c>
       <c r="B261">
-        <v>0.66437086307057969</v>
+        <v>0.65498345693910431</v>
       </c>
       <c r="C261">
-        <v>0.73268118743202948</v>
+        <v>0.75055115619963719</v>
       </c>
       <c r="D261">
-        <v>1.92135183587956</v>
+        <v>0.9383931801220341</v>
       </c>
     </row>
     <row r="262">
       <c r="A262">
-        <v>1.7254894244347691e-05</v>
+        <v>0.43072015888523874</v>
       </c>
       <c r="B262">
-        <v>0.66487924191414394</v>
+        <v>0.65530510497576999</v>
       </c>
       <c r="C262">
-        <v>0.73206131383630346</v>
+        <v>0.75015048726714828</v>
       </c>
       <c r="D262">
-        <v>1.924588605542066</v>
+        <v>0.96752185048457495</v>
       </c>
     </row>
     <row r="263">
       <c r="A263">
-        <v>1.8057300904131195e-05</v>
+        <v>0.43058464727323936</v>
       </c>
       <c r="B263">
-        <v>0.66478291384430821</v>
+        <v>0.65507317655612907</v>
       </c>
       <c r="C263">
-        <v>0.73230034168611713</v>
+        <v>0.75040408771529821</v>
       </c>
       <c r="D263">
-        <v>1.9079564303118726</v>
+        <v>0.98071783534741197</v>
       </c>
     </row>
     <row r="264">
       <c r="A264">
-        <v>1.8801667395961035e-05</v>
+        <v>0.4308109110896618</v>
       </c>
       <c r="B264">
-        <v>0.66470736070226155</v>
+        <v>0.65501368290459494</v>
       </c>
       <c r="C264">
-        <v>0.73235889628656814</v>
+        <v>0.75054766350744773</v>
       </c>
       <c r="D264">
-        <v>1.9120510538178621</v>
+        <v>1.0007593365784924</v>
       </c>
     </row>
     <row r="265">
       <c r="A265">
-        <v>1.941277178809121e-05</v>
+        <v>0.43074467182070653</v>
       </c>
       <c r="B265">
-        <v>0.66471210700587147</v>
+        <v>0.65498409331843588</v>
       </c>
       <c r="C265">
-        <v>0.73233487319598511</v>
+        <v>0.75056261495112497</v>
       </c>
       <c r="D265">
-        <v>1.9112938825848715</v>
+        <v>1.012881706402452</v>
       </c>
     </row>
     <row r="266">
       <c r="A266">
-        <v>1.9959588711500688e-05</v>
+        <v>0.43112795815271071</v>
       </c>
       <c r="B266">
-        <v>0.66477182947708802</v>
+        <v>0.6551418756525037</v>
       </c>
       <c r="C266">
-        <v>0.73227502520619248</v>
+        <v>0.75050161436985707</v>
       </c>
       <c r="D266">
-        <v>1.9145315182411708</v>
+        <v>1.0390204746845619</v>
       </c>
     </row>
     <row r="267">
       <c r="A267">
-        <v>2.0566461565495534e-05</v>
+        <v>0.43045907525547522</v>
       </c>
       <c r="B267">
-        <v>0.66457612155661761</v>
+        <v>0.65472299937679512</v>
       </c>
       <c r="C267">
-        <v>0.73236224232153513</v>
+        <v>0.75077208243471949</v>
       </c>
       <c r="D267">
-        <v>1.9117577456141985</v>
+        <v>1.0505495137670331</v>
       </c>
     </row>
     <row r="268">
       <c r="A268">
-        <v>2.2118911990382441e-05</v>
+        <v>0.43057571385901272</v>
       </c>
       <c r="B268">
-        <v>0.66429988164104548</v>
+        <v>0.65468033857557462</v>
       </c>
       <c r="C268">
-        <v>0.73273073002448408</v>
+        <v>0.75088095069697958</v>
       </c>
       <c r="D268">
-        <v>1.9098084766379817</v>
+        <v>1.0643882239033078</v>
       </c>
     </row>
     <row r="269">
       <c r="A269">
-        <v>2.2722365562670633e-05</v>
+        <v>0.43129541869357013</v>
       </c>
       <c r="B269">
-        <v>0.66460233351179221</v>
+        <v>0.65505104061269237</v>
       </c>
       <c r="C269">
-        <v>0.73256639734837536</v>
+        <v>0.75069797652479964</v>
       </c>
       <c r="D269">
-        <v>1.9130850297188398</v>
+        <v>1.0836545527067289</v>
       </c>
     </row>
     <row r="270">
       <c r="A270">
-        <v>2.2924337011940764e-05</v>
+        <v>0.4328297265123191</v>
       </c>
       <c r="B270">
-        <v>0.66528776933319944</v>
+        <v>0.65626319720096693</v>
       </c>
       <c r="C270">
-        <v>0.73181107996114081</v>
+        <v>0.74980931377479132</v>
       </c>
       <c r="D270">
-        <v>1.9277563068991665</v>
+        <v>1.069432615407794</v>
       </c>
     </row>
     <row r="271">
       <c r="A271">
-        <v>2.333156886087142e-05</v>
+        <v>0.43265249850653725</v>
       </c>
       <c r="B271">
-        <v>0.66478039038014858</v>
+        <v>0.65609231364660148</v>
       </c>
       <c r="C271">
-        <v>0.73228300778965616</v>
+        <v>0.74994313004004365</v>
       </c>
       <c r="D271">
-        <v>1.9214149467014039</v>
+        <v>1.0871911525810387</v>
       </c>
     </row>
     <row r="272">
       <c r="A272">
-        <v>2.4055980586935069e-05</v>
+        <v>0.43219358765520222</v>
       </c>
       <c r="B272">
-        <v>0.6645724262097269</v>
+        <v>0.65551349756216126</v>
       </c>
       <c r="C272">
-        <v>0.7323616919616649</v>
+        <v>0.75033920271645593</v>
       </c>
       <c r="D272">
-        <v>1.9191455276303921</v>
+        <v>1.0806240795549624</v>
       </c>
     </row>
     <row r="273">
       <c r="A273">
-        <v>2.4999388748360358e-05</v>
+        <v>0.43238010709985414</v>
       </c>
       <c r="B273">
-        <v>0.66430776614051679</v>
+        <v>0.65552548624361939</v>
       </c>
       <c r="C273">
-        <v>0.73278428859488098</v>
+        <v>0.75021628669000462</v>
       </c>
       <c r="D273">
-        <v>1.8912236860430269</v>
+        <v>1.1115824101995764</v>
       </c>
     </row>
     <row r="274">
       <c r="A274">
-        <v>2.6117513522749288e-05</v>
+        <v>0.43302585410331457</v>
       </c>
       <c r="B274">
-        <v>0.66532199374706158</v>
+        <v>0.65598286017555374</v>
       </c>
       <c r="C274">
-        <v>0.73177608260647597</v>
+        <v>0.7496562691397346</v>
       </c>
       <c r="D274">
-        <v>1.8834934926610072</v>
+        <v>1.1101112185935507</v>
       </c>
     </row>
     <row r="275">
       <c r="A275">
-        <v>2.6610741090503788e-05</v>
+        <v>0.4330017018170299</v>
       </c>
       <c r="B275">
-        <v>0.6652864164695812</v>
+        <v>0.65596008922002103</v>
       </c>
       <c r="C275">
-        <v>0.73181452729961549</v>
+        <v>0.74968189363486193</v>
       </c>
       <c r="D275">
-        <v>1.8834323521299829</v>
+        <v>1.1429828227394052</v>
       </c>
     </row>
     <row r="276">
       <c r="A276">
-        <v>2.7539997384975372e-05</v>
+        <v>0.43362873202145014</v>
       </c>
       <c r="B276">
-        <v>0.66648000176263444</v>
+        <v>0.65695232660682634</v>
       </c>
       <c r="C276">
-        <v>0.73054072339138609</v>
+        <v>0.7484744268166954</v>
       </c>
       <c r="D276">
-        <v>1.8699016123948038</v>
+        <v>1.1647149070963769</v>
       </c>
     </row>
     <row r="277">
       <c r="A277">
-        <v>2.8498408288057887e-05</v>
+        <v>0.43292850682013839</v>
       </c>
       <c r="B277">
-        <v>0.66686761646118287</v>
+        <v>0.65606963517489714</v>
       </c>
       <c r="C277">
-        <v>0.73027393198519619</v>
+        <v>0.74932122788020206</v>
       </c>
       <c r="D277">
-        <v>1.8604147199806671</v>
+        <v>1.2033711779730263</v>
       </c>
     </row>
     <row r="278">
       <c r="A278">
-        <v>2.9233957986371663e-05</v>
+        <v>0.4330704523903075</v>
       </c>
       <c r="B278">
-        <v>0.66483397524806476</v>
+        <v>0.65423156829020068</v>
       </c>
       <c r="C278">
-        <v>0.73207207436504973</v>
+        <v>0.75126367515796932</v>
       </c>
       <c r="D278">
-        <v>1.8867165651592748</v>
+        <v>1.2105207477912381</v>
       </c>
     </row>
     <row r="279">
       <c r="A279">
-        <v>3.0073365220396425e-05</v>
+        <v>0.43363587649488849</v>
       </c>
       <c r="B279">
-        <v>0.66488522700711683</v>
+        <v>0.65459704133745911</v>
       </c>
       <c r="C279">
-        <v>0.73202610293751569</v>
+        <v>0.75097473995379727</v>
       </c>
       <c r="D279">
-        <v>1.8871921250668011</v>
+        <v>1.2208439623883092</v>
       </c>
     </row>
     <row r="280">
       <c r="A280">
-        <v>3.0612128907967536e-05</v>
+        <v>0.43542098445216504</v>
       </c>
       <c r="B280">
-        <v>0.66537480920028358</v>
+        <v>0.65577767649062535</v>
       </c>
       <c r="C280">
-        <v>0.73147406410706939</v>
+        <v>0.75008626190428829</v>
       </c>
       <c r="D280">
-        <v>1.8988977795858659</v>
+        <v>1.2493947819944602</v>
       </c>
     </row>
     <row r="281">
       <c r="A281">
-        <v>3.1673985301340984e-05</v>
+        <v>0.43229053993065814</v>
       </c>
       <c r="B281">
-        <v>0.66340965522762629</v>
+        <v>0.65320293125581097</v>
       </c>
       <c r="C281">
-        <v>0.73329326955771468</v>
+        <v>0.75210175509570432</v>
       </c>
       <c r="D281">
-        <v>1.8717702833524958</v>
+        <v>1.2501670741632038</v>
       </c>
     </row>
     <row r="282">
       <c r="A282">
-        <v>3.2672589025473079e-05</v>
+        <v>0.43253976940076744</v>
       </c>
       <c r="B282">
-        <v>0.66431213306361592</v>
+        <v>0.65356446055948347</v>
       </c>
       <c r="C282">
-        <v>0.73235520925196007</v>
+        <v>0.75168609228940864</v>
       </c>
       <c r="D282">
-        <v>1.8721180198367979</v>
+        <v>1.2921938199539162</v>
       </c>
     </row>
     <row r="283">
       <c r="A283">
-        <v>3.4013114325632553e-05</v>
+        <v>0.43258994800068784</v>
       </c>
       <c r="B283">
-        <v>0.66462109668900782</v>
+        <v>0.6536421832132201</v>
       </c>
       <c r="C283">
-        <v>0.73207788461102141</v>
+        <v>0.75160626652676943</v>
       </c>
       <c r="D283">
-        <v>1.8678835265054885</v>
+        <v>1.3206621017693938</v>
       </c>
     </row>
     <row r="284">
       <c r="A284">
-        <v>3.5366975851770992e-05</v>
+        <v>0.43260062037701036</v>
       </c>
       <c r="B284">
-        <v>0.66452177868910922</v>
+        <v>0.6536750919523191</v>
       </c>
       <c r="C284">
-        <v>0.73239808704985665</v>
+        <v>0.75157181094897929</v>
       </c>
       <c r="D284">
-        <v>1.8435872349672986</v>
+        <v>1.3491925493671859</v>
       </c>
     </row>
     <row r="285">
       <c r="A285">
-        <v>3.4913357770841391e-05</v>
+        <v>0.43254232645330815</v>
       </c>
       <c r="B285">
-        <v>0.66481630997538599</v>
+        <v>0.65372577016111921</v>
       </c>
       <c r="C285">
-        <v>0.73214186122384084</v>
+        <v>0.75150499519687552</v>
       </c>
       <c r="D285">
-        <v>1.8376421993489513</v>
+        <v>1.3812572338763758</v>
       </c>
     </row>
     <row r="286">
       <c r="A286">
-        <v>3.5928594391546161e-05</v>
+        <v>0.43218264017201302</v>
       </c>
       <c r="B286">
-        <v>0.66514334260956953</v>
+        <v>0.65387045748842076</v>
       </c>
       <c r="C286">
-        <v>0.73194682447286918</v>
+        <v>0.75128739966264846</v>
       </c>
       <c r="D286">
-        <v>1.8189248350456526</v>
+        <v>1.4044238058861664</v>
       </c>
     </row>
     <row r="287">
       <c r="A287">
-        <v>3.7658861970158049e-05</v>
+        <v>0.43225371934369433</v>
       </c>
       <c r="B287">
-        <v>0.66523435664299835</v>
+        <v>0.65375790795044653</v>
       </c>
       <c r="C287">
-        <v>0.73204624478420555</v>
+        <v>0.75141433444159011</v>
       </c>
       <c r="D287">
-        <v>1.8004627039057084</v>
+        <v>1.4400351603797814</v>
       </c>
     </row>
     <row r="288">
       <c r="A288">
-        <v>3.8568348347833476e-05</v>
+        <v>0.43387677446273326</v>
       </c>
       <c r="B288">
-        <v>0.66438053474298264</v>
+        <v>0.65359855143285106</v>
       </c>
       <c r="C288">
-        <v>0.73275169734848999</v>
+        <v>0.75177495989394993</v>
       </c>
       <c r="D288">
-        <v>1.8205358372030691</v>
+        <v>1.4719591091880604</v>
       </c>
     </row>
     <row r="289">
       <c r="A289">
-        <v>3.928944896667125e-05</v>
+        <v>0.43537653801041931</v>
       </c>
       <c r="B289">
-        <v>0.66478874149597222</v>
+        <v>0.65451423927698649</v>
       </c>
       <c r="C289">
-        <v>0.73242410593719187</v>
+        <v>0.75105116190746801</v>
       </c>
       <c r="D289">
-        <v>1.823720979797341</v>
+        <v>1.4696665715488075</v>
       </c>
     </row>
     <row r="290">
       <c r="A290">
-        <v>4.025224943504605e-05</v>
+        <v>0.43399286270134241</v>
       </c>
       <c r="B290">
-        <v>0.66369888589694437</v>
+        <v>0.65356613485534731</v>
       </c>
       <c r="C290">
-        <v>0.73343763410826091</v>
+        <v>0.75179139041156784</v>
       </c>
       <c r="D290">
-        <v>1.8109130679934196</v>
+        <v>1.4870213556747891</v>
       </c>
     </row>
     <row r="291">
       <c r="A291">
-        <v>4.2562828499207773e-05</v>
+        <v>0.43575296939823616</v>
       </c>
       <c r="B291">
-        <v>0.66488858685375374</v>
+        <v>0.65420246418059902</v>
       </c>
       <c r="C291">
-        <v>0.73180894283139741</v>
+        <v>0.75158510207669826</v>
       </c>
       <c r="D291">
-        <v>1.8662899073362418</v>
+        <v>1.5157156709612662</v>
       </c>
     </row>
     <row r="292">
       <c r="A292">
-        <v>4.4839984964098817e-05</v>
+        <v>0.43130608532055337</v>
       </c>
       <c r="B292">
-        <v>0.66140644109562152</v>
+        <v>0.65029211737005288</v>
       </c>
       <c r="C292">
-        <v>0.73508504399457864</v>
+        <v>0.75472923131280445</v>
       </c>
       <c r="D292">
-        <v>1.8306460617720759</v>
+        <v>1.5465662657097996</v>
       </c>
     </row>
     <row r="293">
       <c r="A293">
-        <v>4.6463231393443447e-05</v>
+        <v>0.43098539069279274</v>
       </c>
       <c r="B293">
-        <v>0.66108743882535626</v>
+        <v>0.6499171989266177</v>
       </c>
       <c r="C293">
-        <v>0.73532670059474081</v>
+        <v>0.75520463788141179</v>
       </c>
       <c r="D293">
-        <v>1.8394992433574346</v>
+        <v>1.5672385968539013</v>
       </c>
     </row>
     <row r="294">
       <c r="A294">
-        <v>4.7842640400070281e-05</v>
+        <v>0.43126920369963395</v>
       </c>
       <c r="B294">
-        <v>0.66108812971767605</v>
+        <v>0.65016009870386116</v>
       </c>
       <c r="C294">
-        <v>0.73534652837270242</v>
+        <v>0.75505462149431257</v>
       </c>
       <c r="D294">
-        <v>1.8409958598486289</v>
+        <v>1.5921726423846247</v>
       </c>
     </row>
     <row r="295">
       <c r="A295">
-        <v>4.9295374254651224e-05</v>
+        <v>0.43216893995851369</v>
       </c>
       <c r="B295">
-        <v>0.66127233545089115</v>
+        <v>0.65105828313838587</v>
       </c>
       <c r="C295">
-        <v>0.73541049982327444</v>
+        <v>0.75446529450620869</v>
       </c>
       <c r="D295">
-        <v>1.8403755475174388</v>
+        <v>1.6193542572632289</v>
       </c>
     </row>
     <row r="296">
       <c r="A296">
-        <v>5.1181954764374932e-05</v>
+        <v>0.43107253378696331</v>
       </c>
       <c r="B296">
-        <v>0.66042511418324878</v>
+        <v>0.649821556278386</v>
       </c>
       <c r="C296">
-        <v>0.73599764617725993</v>
+        <v>0.75540307150443342</v>
       </c>
       <c r="D296">
-        <v>1.8420877159317497</v>
+        <v>1.6313161888600112</v>
       </c>
     </row>
     <row r="297">
       <c r="A297">
-        <v>5.2736306150455916e-05</v>
+        <v>0.43115935037939646</v>
       </c>
       <c r="B297">
-        <v>0.66010914291278378</v>
+        <v>0.64973496764266281</v>
       </c>
       <c r="C297">
-        <v>0.73628955739259982</v>
+        <v>0.75539327250929789</v>
       </c>
       <c r="D297">
-        <v>1.8323745865702437</v>
+        <v>1.6686822739090099</v>
       </c>
     </row>
     <row r="298">
       <c r="A298">
-        <v>5.5298836905326193e-05</v>
+        <v>0.43185376984493196</v>
       </c>
       <c r="B298">
-        <v>0.65974716011808088</v>
+        <v>0.65005805257976368</v>
       </c>
       <c r="C298">
-        <v>0.73692710660945604</v>
+        <v>0.75491475096109273</v>
       </c>
       <c r="D298">
-        <v>1.7914956259497512</v>
+        <v>1.7031718250216117</v>
       </c>
     </row>
     <row r="299">
       <c r="A299">
-        <v>5.7406856975894618e-05</v>
+        <v>0.43262480573451989</v>
       </c>
       <c r="B299">
-        <v>0.6608992606141042</v>
+        <v>0.65072816313561987</v>
       </c>
       <c r="C299">
-        <v>0.73583998722715871</v>
+        <v>0.7542360406233104</v>
       </c>
       <c r="D299">
-        <v>1.7863849183835612</v>
+        <v>1.7339936989258276</v>
       </c>
     </row>
     <row r="300">
       <c r="A300">
-        <v>6.0708018675796494e-05</v>
+        <v>0.43144117225077128</v>
       </c>
       <c r="B300">
-        <v>0.65899883733400166</v>
+        <v>0.64942184058412333</v>
       </c>
       <c r="C300">
-        <v>0.73776608090365092</v>
+        <v>0.75555747448761501</v>
       </c>
       <c r="D300">
-        <v>1.7841309087887249</v>
+        <v>1.7327428631227604</v>
       </c>
     </row>
     <row r="301">
       <c r="A301">
-        <v>6.3949109875987182e-05</v>
+        <v>0.43058451714097445</v>
       </c>
       <c r="B301">
-        <v>0.65752604465624054</v>
+        <v>0.64889155401794141</v>
       </c>
       <c r="C301">
-        <v>0.73940980288543368</v>
+        <v>0.7558275449884605</v>
       </c>
       <c r="D301">
-        <v>1.7414586108442065</v>
+        <v>1.8143202355525876</v>
       </c>
     </row>
     <row r="302">
       <c r="A302">
-        <v>7.0051772229163872e-05</v>
+        <v>0.42982799853674292</v>
       </c>
       <c r="B302">
-        <v>0.65609151575951907</v>
+        <v>0.64768418573424669</v>
       </c>
       <c r="C302">
-        <v>0.74075354715238628</v>
+        <v>0.75708244556058024</v>
       </c>
       <c r="D302">
-        <v>1.7501261495824578</v>
+        <v>1.8414062181795348</v>
       </c>
     </row>
     <row r="303">
       <c r="A303">
-        <v>7.179081362374401e-05</v>
+        <v>0.42855307021432509</v>
       </c>
       <c r="B303">
-        <v>0.65568508766634892</v>
+        <v>0.64684914984145891</v>
       </c>
       <c r="C303">
-        <v>0.74094933589539513</v>
+        <v>0.75764014236198207</v>
       </c>
       <c r="D303">
-        <v>1.7477787559815141</v>
+        <v>1.8174578401221293</v>
       </c>
     </row>
     <row r="304">
       <c r="A304">
-        <v>7.500893062048322e-05</v>
+        <v>0.42858681016864392</v>
       </c>
       <c r="B304">
-        <v>0.65587566417823395</v>
+        <v>0.64694703934367082</v>
       </c>
       <c r="C304">
-        <v>0.74077969791979492</v>
+        <v>0.75753269230324571</v>
       </c>
       <c r="D304">
-        <v>1.7437535690453041</v>
+        <v>1.8670694811200537</v>
       </c>
     </row>
     <row r="305">
       <c r="A305">
-        <v>7.8401688425067004e-05</v>
+        <v>0.4284988961950098</v>
       </c>
       <c r="B305">
-        <v>0.65616785876243466</v>
+        <v>0.64720217939673141</v>
       </c>
       <c r="C305">
-        <v>0.74054388536523807</v>
+        <v>0.75722410325944067</v>
       </c>
       <c r="D305">
-        <v>1.7326928021708787</v>
+        <v>1.9016764293350659</v>
       </c>
     </row>
     <row r="306">
       <c r="A306">
-        <v>8.0770615486675177e-05</v>
+        <v>0.42850709225954053</v>
       </c>
       <c r="B306">
-        <v>0.65607532455137085</v>
+        <v>0.6467749654275613</v>
       </c>
       <c r="C306">
-        <v>0.74059743642584153</v>
+        <v>0.75767549041145887</v>
       </c>
       <c r="D306">
-        <v>1.7369477743468762</v>
+        <v>1.9066766849841013</v>
       </c>
     </row>
     <row r="307">
       <c r="A307">
-        <v>8.3683818798957162e-05</v>
+        <v>0.42858885853091561</v>
       </c>
       <c r="B307">
-        <v>0.65609571459254035</v>
+        <v>0.64680046339696018</v>
       </c>
       <c r="C307">
-        <v>0.74057587284127835</v>
+        <v>0.75766296838468228</v>
       </c>
       <c r="D307">
-        <v>1.7364567683443104</v>
+        <v>1.9429410264373668</v>
       </c>
     </row>
     <row r="308">
       <c r="A308">
-        <v>8.5610358586547271e-05</v>
+        <v>0.42990547834668652</v>
       </c>
       <c r="B308">
-        <v>0.65654845337700096</v>
+        <v>0.64711060793693953</v>
       </c>
       <c r="C308">
-        <v>0.7399816796204628</v>
+        <v>0.75755858887617133</v>
       </c>
       <c r="D308">
-        <v>1.755341078261333</v>
+        <v>1.9357291757682966</v>
       </c>
     </row>
     <row r="309">
       <c r="A309">
-        <v>8.8830455813842388e-05</v>
+        <v>0.43025028444332458</v>
       </c>
       <c r="B309">
-        <v>0.65644704059248249</v>
+        <v>0.64733802947819641</v>
       </c>
       <c r="C309">
-        <v>0.74007964942566784</v>
+        <v>0.7573862093477981</v>
       </c>
       <c r="D309">
-        <v>1.7534626970474592</v>
+        <v>1.9683442417951329</v>
       </c>
     </row>
     <row r="310">
       <c r="A310">
-        <v>9.1263107453586485e-05</v>
+        <v>0.4292009244492051</v>
       </c>
       <c r="B310">
-        <v>0.65618726341193567</v>
+        <v>0.64663186716906662</v>
       </c>
       <c r="C310">
-        <v>0.74022070994912537</v>
+        <v>0.75788879896322214</v>
       </c>
       <c r="D310">
-        <v>1.7498313855159944</v>
+        <v>2.0135381965933794</v>
       </c>
     </row>
     <row r="311">
       <c r="A311">
-        <v>9.525595881854627e-05</v>
+        <v>0.42883117532856407</v>
       </c>
       <c r="B311">
-        <v>0.65626161076465894</v>
+        <v>0.64674495348111272</v>
       </c>
       <c r="C311">
-        <v>0.74030031580520839</v>
+        <v>0.75761364725001512</v>
       </c>
       <c r="D311">
-        <v>1.7229380088957424</v>
+        <v>2.0523205362017984</v>
       </c>
     </row>
     <row r="312">
       <c r="A312">
-        <v>9.6496142884363554e-05</v>
+        <v>0.42791193897052038</v>
       </c>
       <c r="B312">
-        <v>0.65527637608448719</v>
+        <v>0.64490370951994791</v>
       </c>
       <c r="C312">
-        <v>0.74097370914350913</v>
+        <v>0.75942386620670299</v>
       </c>
       <c r="D312">
-        <v>1.7476182088785865</v>
+        <v>2.0561046649441015</v>
       </c>
     </row>
     <row r="313">
       <c r="A313">
-        <v>9.9061008041486103e-05</v>
+        <v>0.42751226831698941</v>
       </c>
       <c r="B313">
-        <v>0.65510184137827443</v>
+        <v>0.64468827206937362</v>
       </c>
       <c r="C313">
-        <v>0.74112233040795461</v>
+        <v>0.7595700675866055</v>
       </c>
       <c r="D313">
-        <v>1.7427133029804034</v>
+        <v>2.0925916143064547</v>
       </c>
     </row>
     <row r="314">
       <c r="A314">
-        <v>0.00010310513490688531</v>
+        <v>0.42685877339336903</v>
       </c>
       <c r="B314">
-        <v>0.65517669776559961</v>
+        <v>0.64449209944646524</v>
       </c>
       <c r="C314">
-        <v>0.74101766609396336</v>
+        <v>0.7596274935118521</v>
       </c>
       <c r="D314">
-        <v>1.7347905832540182</v>
+        <v>2.1185959160139385</v>
       </c>
     </row>
     <row r="315">
       <c r="A315">
-        <v>0.0001078137188240666</v>
+        <v>0.42687691626886248</v>
       </c>
       <c r="B315">
-        <v>0.65508781350773271</v>
+        <v>0.64447911054047435</v>
       </c>
       <c r="C315">
-        <v>0.7413109756160956</v>
+        <v>0.75964571211149545</v>
       </c>
       <c r="D315">
-        <v>1.7140269932115155</v>
+        <v>2.1431403746712121</v>
       </c>
     </row>
     <row r="316">
       <c r="A316">
-        <v>0.00011076085542913127</v>
+        <v>0.42644174333499574</v>
       </c>
       <c r="B316">
-        <v>0.65566510254292254</v>
+        <v>0.64464263973718672</v>
       </c>
       <c r="C316">
-        <v>0.74085802830138503</v>
+        <v>0.75940409744631754</v>
       </c>
       <c r="D316">
-        <v>1.6990617614645047</v>
+        <v>2.1783504971334313</v>
       </c>
     </row>
     <row r="317">
       <c r="A317">
-        <v>0.00011415859377139342</v>
+        <v>0.4262350374919025</v>
       </c>
       <c r="B317">
-        <v>0.65768850296460557</v>
+        <v>0.64568008976712377</v>
       </c>
       <c r="C317">
-        <v>0.73888543230633608</v>
+        <v>0.75834490087765249</v>
       </c>
       <c r="D317">
-        <v>1.6967074466898677</v>
+        <v>2.1935374434466408</v>
       </c>
     </row>
     <row r="318">
       <c r="A318">
-        <v>0.00011634592213512958</v>
+        <v>0.42669222304104748</v>
       </c>
       <c r="B318">
-        <v>0.65975071458670187</v>
+        <v>0.64765150352172673</v>
       </c>
       <c r="C318">
-        <v>0.73727767764046503</v>
+        <v>0.75650708996310911</v>
       </c>
       <c r="D318">
-        <v>1.6667050723781218</v>
+        <v>2.2289524705286601</v>
       </c>
     </row>
     <row r="319">
       <c r="A319">
-        <v>0.0001206338403399512</v>
+        <v>0.42644179095431367</v>
       </c>
       <c r="B319">
-        <v>0.65803245689309597</v>
+        <v>0.6446610298380121</v>
       </c>
       <c r="C319">
-        <v>0.73863850673860454</v>
+        <v>0.75923524464998438</v>
       </c>
       <c r="D319">
-        <v>1.6871901221176508</v>
+        <v>2.2032305854465033</v>
       </c>
     </row>
     <row r="320">
       <c r="A320">
-        <v>0.00012605704959158843</v>
+        <v>0.42384441384128191</v>
       </c>
       <c r="B320">
-        <v>0.65823216405955165</v>
+        <v>0.64448220483736263</v>
       </c>
       <c r="C320">
-        <v>0.73846589638857707</v>
+        <v>0.75927948028170011</v>
       </c>
       <c r="D320">
-        <v>1.6741271995426563</v>
+        <v>2.2790588901745181</v>
       </c>
     </row>
     <row r="321">
       <c r="A321">
-        <v>0.00013970526175667193</v>
+        <v>0.42627473841882713</v>
       </c>
       <c r="B321">
-        <v>0.65560858623823326</v>
+        <v>0.64268691164795455</v>
       </c>
       <c r="C321">
-        <v>0.74098892877398859</v>
+        <v>0.76097715570046232</v>
       </c>
       <c r="D321">
-        <v>1.6769231344232705</v>
+        <v>2.2743601471450292</v>
       </c>
     </row>
     <row r="322">
       <c r="A322">
-        <v>0.00014560735945229385</v>
+        <v>0.42384213930723225</v>
       </c>
       <c r="B322">
-        <v>0.65327227664473231</v>
+        <v>0.64189633812134272</v>
       </c>
       <c r="C322">
-        <v>0.74357020840551202</v>
+        <v>0.76158510454438622</v>
       </c>
       <c r="D322">
-        <v>1.6287749513451839</v>
+        <v>2.3602919370087205</v>
       </c>
     </row>
     <row r="323">
       <c r="A323">
-        <v>0.00015039615848748056</v>
+        <v>0.42127322010205165</v>
       </c>
       <c r="B323">
-        <v>0.65370100483382054</v>
+        <v>0.64195415208415874</v>
       </c>
       <c r="C323">
-        <v>0.74331748810238774</v>
+        <v>0.7614264749856583</v>
       </c>
       <c r="D323">
-        <v>1.6064136788504517</v>
+        <v>2.4363832966334327</v>
       </c>
     </row>
     <row r="324">
       <c r="A324">
-        <v>0.00015800913879299215</v>
+        <v>0.41981429096513445</v>
       </c>
       <c r="B324">
-        <v>0.65585536931899469</v>
+        <v>0.64329372912715344</v>
       </c>
       <c r="C324">
-        <v>0.74129436610806732</v>
+        <v>0.76018902915572495</v>
       </c>
       <c r="D324">
-        <v>1.6044249396268948</v>
+        <v>2.4937483417830402</v>
       </c>
     </row>
     <row r="325">
       <c r="A325">
-        <v>0.00016417387928465782</v>
+        <v>0.42079654721639581</v>
       </c>
       <c r="B325">
-        <v>0.65530495634303598</v>
+        <v>0.64206539409467245</v>
       </c>
       <c r="C325">
-        <v>0.74172268971330557</v>
+        <v>0.76128890456378306</v>
       </c>
       <c r="D325">
-        <v>1.611773929138244</v>
+        <v>2.5368936139504035</v>
       </c>
     </row>
     <row r="326">
       <c r="A326">
-        <v>0.28158229017567299</v>
+        <v>0.42196286626016005</v>
       </c>
       <c r="B326">
-        <v>0.65687904176235368</v>
+        <v>0.64200175935037684</v>
       </c>
       <c r="C326">
-        <v>0.73917757785521077</v>
+        <v>0.76136659466683754</v>
       </c>
       <c r="D326">
-        <v>1.5804889941321743</v>
+        <v>2.543326861990109</v>
       </c>
     </row>
     <row r="327">
       <c r="A327">
-        <v>0.27899078435500535</v>
+        <v>0.41874399109746979</v>
       </c>
       <c r="B327">
-        <v>0.65685422900292156</v>
+        <v>0.64175899916344892</v>
       </c>
       <c r="C327">
-        <v>0.73922385265094093</v>
+        <v>0.76151940710617627</v>
       </c>
       <c r="D327">
-        <v>1.5716002527225539</v>
+        <v>2.5823544620183001</v>
       </c>
     </row>
     <row r="328">
       <c r="A328">
-        <v>0.27620331559748207</v>
+        <v>0.416086281645698</v>
       </c>
       <c r="B328">
-        <v>0.65794103467529796</v>
+        <v>0.64241641822649109</v>
       </c>
       <c r="C328">
-        <v>0.73818392393709487</v>
+        <v>0.76090770921238637</v>
       </c>
       <c r="D328">
-        <v>1.5706594169247134</v>
+        <v>2.7015955801350784</v>
       </c>
     </row>
     <row r="329">
       <c r="A329">
-        <v>0.27732892138706028</v>
+        <v>0.41335472333906309</v>
       </c>
       <c r="B329">
-        <v>0.65890096950819754</v>
+        <v>0.64371546578056149</v>
       </c>
       <c r="C329">
-        <v>0.73758992055313022</v>
+        <v>0.75975456505534456</v>
       </c>
       <c r="D329">
-        <v>1.5413423433004727</v>
+        <v>2.7597552789221389</v>
       </c>
     </row>
     <row r="330">
       <c r="A330">
-        <v>0.27710724826716182</v>
+        <v>0.41332492567983364</v>
       </c>
       <c r="B330">
-        <v>0.65920327290323555</v>
+        <v>0.64379746266637083</v>
       </c>
       <c r="C330">
-        <v>0.73732040681658706</v>
+        <v>0.75968463519909368</v>
       </c>
       <c r="D330">
-        <v>1.5405577030533852</v>
+        <v>2.8448455093572873</v>
       </c>
     </row>
     <row r="331">
       <c r="A331">
-        <v>0.27927281092634637</v>
+        <v>0.41502806595628988</v>
       </c>
       <c r="B331">
-        <v>0.65880073466163802</v>
+        <v>0.6434986317427942</v>
       </c>
       <c r="C331">
-        <v>0.73769661605099091</v>
+        <v>0.75994621539582663</v>
       </c>
       <c r="D331">
-        <v>1.5404262208448563</v>
+        <v>2.8226460740468733</v>
       </c>
     </row>
     <row r="332">
       <c r="A332">
-        <v>0.27813308603829129</v>
+        <v>0.41403407060622716</v>
       </c>
       <c r="B332">
-        <v>0.65850954060444966</v>
+        <v>0.64354579320949856</v>
       </c>
       <c r="C332">
-        <v>0.73810545262530558</v>
+        <v>0.75990502259832238</v>
       </c>
       <c r="D332">
-        <v>1.5270871934711705</v>
+        <v>2.8831650722227531</v>
       </c>
     </row>
     <row r="333">
       <c r="A333">
-        <v>0.27384170355965809</v>
+        <v>0.40912209721945153</v>
       </c>
       <c r="B333">
-        <v>0.65854754891846867</v>
+        <v>0.64367557982036983</v>
       </c>
       <c r="C333">
-        <v>0.73824287222191787</v>
+        <v>0.75978952408201128</v>
       </c>
       <c r="D333">
-        <v>1.5102190285599901</v>
+        <v>2.9413539865393243</v>
       </c>
     </row>
     <row r="334">
       <c r="A334">
-        <v>0.27389898845734922</v>
+        <v>0.40938629392293113</v>
       </c>
       <c r="B334">
-        <v>0.65859476329682154</v>
+        <v>0.64368087657883244</v>
       </c>
       <c r="C334">
-        <v>0.73819999966394689</v>
+        <v>0.75978568489331277</v>
       </c>
       <c r="D334">
-        <v>1.5103118758428351</v>
+        <v>3.0097362093405109</v>
       </c>
     </row>
     <row r="335">
       <c r="A335">
-        <v>0.27045220887024751</v>
+        <v>0.40689731927062933</v>
       </c>
       <c r="B335">
-        <v>0.65885268952986176</v>
+        <v>0.64388000221105002</v>
       </c>
       <c r="C335">
-        <v>0.73799723619538171</v>
+        <v>0.75962157682776565</v>
       </c>
       <c r="D335">
-        <v>1.5078043992666526</v>
+        <v>3.0761138324116097</v>
       </c>
     </row>
     <row r="336">
       <c r="A336">
-        <v>0.27196810672432631</v>
+        <v>0.4066005823433847</v>
       </c>
       <c r="B336">
-        <v>0.65825250079272435</v>
+        <v>0.64395453720559059</v>
       </c>
       <c r="C336">
-        <v>0.73894139520261437</v>
+        <v>0.75955984788606934</v>
       </c>
       <c r="D336">
-        <v>1.4725576743338382</v>
+        <v>3.0955617472075669</v>
       </c>
     </row>
     <row r="337">
       <c r="A337">
-        <v>0.27108028149352875</v>
+        <v>0.40628826236927928</v>
       </c>
       <c r="B337">
-        <v>0.65834347056878628</v>
+        <v>0.64401198234440482</v>
       </c>
       <c r="C337">
-        <v>0.73896145826551041</v>
+        <v>0.75951300733085447</v>
       </c>
       <c r="D337">
-        <v>1.4635631184138223</v>
+        <v>3.1290405809639728</v>
       </c>
     </row>
     <row r="338">
       <c r="A338">
-        <v>0.26713597418512058</v>
+        <v>0.40286134337251484</v>
       </c>
       <c r="B338">
-        <v>0.65865481999145259</v>
+        <v>0.64408104553282353</v>
       </c>
       <c r="C338">
-        <v>0.738753827558156</v>
+        <v>0.75946977961785367</v>
       </c>
       <c r="D338">
-        <v>1.4575358426362661</v>
+        <v>3.2036456401508904</v>
       </c>
     </row>
     <row r="339">
       <c r="A339">
-        <v>0.26213742620414249</v>
+        <v>0.39723599911758589</v>
       </c>
       <c r="B339">
-        <v>0.65901665092918615</v>
+        <v>0.64445866502722815</v>
       </c>
       <c r="C339">
-        <v>0.73865112488699425</v>
+        <v>0.75917738281656599</v>
       </c>
       <c r="D339">
-        <v>1.4389894888172119</v>
+        <v>3.2912092747247286</v>
       </c>
     </row>
     <row r="340">
       <c r="A340">
-        <v>0.25856910023818386</v>
+        <v>0.39126962512422647</v>
       </c>
       <c r="B340">
-        <v>0.65961911019452835</v>
+        <v>0.6452993806063182</v>
       </c>
       <c r="C340">
-        <v>0.73847081826641114</v>
+        <v>0.75850026552873007</v>
       </c>
       <c r="D340">
-        <v>1.4087429235462472</v>
+        <v>3.3227428920115103</v>
       </c>
     </row>
     <row r="341">
       <c r="A341">
-        <v>0.25302727855565743</v>
+        <v>0.3866594070761239</v>
       </c>
       <c r="B341">
-        <v>0.66071318224179842</v>
+        <v>0.64608977626833819</v>
       </c>
       <c r="C341">
-        <v>0.73759406176543663</v>
+        <v>0.75786434797582414</v>
       </c>
       <c r="D341">
-        <v>1.4018597831651136</v>
+        <v>3.3533610097700959</v>
       </c>
     </row>
     <row r="342">
       <c r="A342">
-        <v>0.25809182444299805</v>
+        <v>0.39811365583332725</v>
       </c>
       <c r="B342">
-        <v>0.66024810661215927</v>
+        <v>0.64468079564107716</v>
       </c>
       <c r="C342">
-        <v>0.73770934380870412</v>
+        <v>0.75895594719870818</v>
       </c>
       <c r="D342">
-        <v>1.4246372864957277</v>
+        <v>3.3255401294430369</v>
       </c>
     </row>
     <row r="343">
       <c r="A343">
-        <v>0.25706783574458447</v>
+        <v>0.41122783718386208</v>
       </c>
       <c r="B343">
-        <v>0.66105373137342571</v>
+        <v>0.64548159103116742</v>
       </c>
       <c r="C343">
-        <v>0.73670340291054148</v>
+        <v>0.75815399569944542</v>
       </c>
       <c r="D343">
-        <v>1.4484219518101225</v>
+        <v>3.3107346244301721</v>
       </c>
     </row>
     <row r="344">
       <c r="A344">
-        <v>0.25389159775283893</v>
+        <v>0.4067733612510544</v>
       </c>
       <c r="B344">
-        <v>0.65983381748709891</v>
+        <v>0.64476628602566688</v>
       </c>
       <c r="C344">
-        <v>0.73812810466429768</v>
+        <v>0.75879868853129806</v>
       </c>
       <c r="D344">
-        <v>1.4211334088951237</v>
+        <v>3.3700169872365446</v>
       </c>
     </row>
   </sheetData>

--- a/Prefered_PARX_model_forecast/Resultater_PAR/theta_sqr_est_T_2para_PAR.xlsx
+++ b/Prefered_PARX_model_forecast/Resultater_PAR/theta_sqr_est_T_2para_PAR.xlsx
@@ -28,7 +28,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -50,11 +50,13 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -70,6 +72,8 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -90,13 +94,13 @@
   <sheetData>
     <row r="1">
       <c r="A1">
-        <v>0.53362743357970599</v>
+        <v>0.53362740447109758</v>
       </c>
       <c r="B1">
-        <v>0.71125802421249218</v>
+        <v>0.7112579586237624</v>
       </c>
       <c r="C1">
-        <v>0.67050309656794127</v>
+        <v>0.67050314967759239</v>
       </c>
       <c r="D1">
         <v>0.043935368460097102</v>
@@ -104,13 +108,13 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>0.56531693475040912</v>
+        <v>0.56531698867493707</v>
       </c>
       <c r="B2">
-        <v>0.71294103229815997</v>
+        <v>0.71294098043172882</v>
       </c>
       <c r="C2">
-        <v>0.66760287522703399</v>
+        <v>0.66760291756471279</v>
       </c>
       <c r="D2">
         <v>0.043041667500014841</v>
@@ -118,13 +122,13 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>0.54754485989280588</v>
+        <v>0.54754504618116151</v>
       </c>
       <c r="B3">
-        <v>0.70944620802464775</v>
+        <v>0.70944624162291481</v>
       </c>
       <c r="C3">
-        <v>0.67196547857969979</v>
+        <v>0.67196544624228016</v>
       </c>
       <c r="D3">
         <v>0.04416353232110156</v>
@@ -132,13 +136,13 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>0.54784674706712366</v>
+        <v>0.5478468945085162</v>
       </c>
       <c r="B4">
-        <v>0.70996017848333515</v>
+        <v>0.70996021981000412</v>
       </c>
       <c r="C4">
-        <v>0.67140296754734707</v>
+        <v>0.67140292018389758</v>
       </c>
       <c r="D4">
         <v>0.045311367441656772</v>
@@ -146,13 +150,13 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>0.53830374905943357</v>
+        <v>0.53830382922423237</v>
       </c>
       <c r="B5">
-        <v>0.70958041158939589</v>
+        <v>0.70958048450012901</v>
       </c>
       <c r="C5">
-        <v>0.6720865225929129</v>
+        <v>0.67208643538006241</v>
       </c>
       <c r="D5">
         <v>0.045876933105993778</v>
@@ -160,13 +164,13 @@
     </row>
     <row r="6">
       <c r="A6">
-        <v>0.5679213716453767</v>
+        <v>0.5679214000665429</v>
       </c>
       <c r="B6">
-        <v>0.71065974193784165</v>
+        <v>0.71065972294703406</v>
       </c>
       <c r="C6">
-        <v>0.67003740604305506</v>
+        <v>0.67003742227595131</v>
       </c>
       <c r="D6">
         <v>0.04501223922144628</v>
@@ -174,13 +178,13 @@
     </row>
     <row r="7">
       <c r="A7">
-        <v>0.57169049794430682</v>
+        <v>0.57169041828742218</v>
       </c>
       <c r="B7">
-        <v>0.71187315264992168</v>
+        <v>0.71187310857527408</v>
       </c>
       <c r="C7">
-        <v>0.66860950655119256</v>
+        <v>0.66860954673563389</v>
       </c>
       <c r="D7">
         <v>0.045466083912026133</v>
@@ -188,13 +192,13 @@
     </row>
     <row r="8">
       <c r="A8">
-        <v>0.56044450611240615</v>
+        <v>0.56044460980170308</v>
       </c>
       <c r="B8">
-        <v>0.70976960632551944</v>
+        <v>0.70976954824689686</v>
       </c>
       <c r="C8">
-        <v>0.6711380554035612</v>
+        <v>0.6711381116323849</v>
       </c>
       <c r="D8">
         <v>0.045500610002659037</v>
@@ -202,13 +206,13 @@
     </row>
     <row r="9">
       <c r="A9">
-        <v>0.56096298086172347</v>
+        <v>0.56096309589971449</v>
       </c>
       <c r="B9">
-        <v>0.71022060270072296</v>
+        <v>0.71022069383634889</v>
       </c>
       <c r="C9">
-        <v>0.67063327392112615</v>
+        <v>0.67063316126859163</v>
       </c>
       <c r="D9">
         <v>0.046796973037892695</v>
@@ -216,13 +220,13 @@
     </row>
     <row r="10">
       <c r="A10">
-        <v>0.54959480715173359</v>
+        <v>0.54959482152896388</v>
       </c>
       <c r="B10">
-        <v>0.7096683797463007</v>
+        <v>0.70966841225256161</v>
       </c>
       <c r="C10">
-        <v>0.67142871480592858</v>
+        <v>0.67142867947615115</v>
       </c>
       <c r="D10">
         <v>0.045887541231007425</v>
@@ -230,13 +234,13 @@
     </row>
     <row r="11">
       <c r="A11">
-        <v>0.57174421819398236</v>
+        <v>0.57174422637513245</v>
       </c>
       <c r="B11">
-        <v>0.70796939659048841</v>
+        <v>0.70796946971333796</v>
       </c>
       <c r="C11">
-        <v>0.67285036102122897</v>
+        <v>0.67285029142236463</v>
       </c>
       <c r="D11">
         <v>0.045474144180657712</v>
@@ -244,13 +248,13 @@
     </row>
     <row r="12">
       <c r="A12">
-        <v>0.57051754292732015</v>
+        <v>0.57051753144610862</v>
       </c>
       <c r="B12">
-        <v>0.70787973863792208</v>
+        <v>0.70787967415621922</v>
       </c>
       <c r="C12">
-        <v>0.6729741095545283</v>
+        <v>0.67297418544544119</v>
       </c>
       <c r="D12">
         <v>0.046558140056256858</v>
@@ -258,13 +262,13 @@
     </row>
     <row r="13">
       <c r="A13">
-        <v>0.57967444309000116</v>
+        <v>0.57967449858377496</v>
       </c>
       <c r="B13">
-        <v>0.70986748095867147</v>
+        <v>0.70986748649773457</v>
       </c>
       <c r="C13">
-        <v>0.67067973196154584</v>
+        <v>0.67067971461056597</v>
       </c>
       <c r="D13">
         <v>0.045780955044222651</v>
@@ -272,13 +276,13 @@
     </row>
     <row r="14">
       <c r="A14">
-        <v>0.56584864727938755</v>
+        <v>0.565848883661903</v>
       </c>
       <c r="B14">
-        <v>0.70650479487596318</v>
+        <v>0.70650488023278679</v>
       </c>
       <c r="C14">
-        <v>0.67446118853091419</v>
+        <v>0.67446107684114331</v>
       </c>
       <c r="D14">
         <v>0.04660787219514842</v>
@@ -286,13 +290,13 @@
     </row>
     <row r="15">
       <c r="A15">
-        <v>0.56756857166451402</v>
+        <v>0.56756841753925458</v>
       </c>
       <c r="B15">
-        <v>0.70675899250769691</v>
+        <v>0.70675896582746733</v>
       </c>
       <c r="C15">
-        <v>0.67418262805195206</v>
+        <v>0.67418264810820039</v>
       </c>
       <c r="D15">
         <v>0.047143379127441029</v>
@@ -300,13 +304,13 @@
     </row>
     <row r="16">
       <c r="A16">
-        <v>0.5604124936525593</v>
+        <v>0.56041237380337572</v>
       </c>
       <c r="B16">
-        <v>0.70654690064715253</v>
+        <v>0.70654693801705615</v>
       </c>
       <c r="C16">
-        <v>0.67444332471739443</v>
+        <v>0.67444327652151914</v>
       </c>
       <c r="D16">
         <v>0.047795820752604044</v>
@@ -314,13 +318,13 @@
     </row>
     <row r="17">
       <c r="A17">
-        <v>0.55301324838265309</v>
+        <v>0.5530132778006549</v>
       </c>
       <c r="B17">
-        <v>0.70773522910785736</v>
+        <v>0.70773523704416652</v>
       </c>
       <c r="C17">
-        <v>0.67318227518246077</v>
+        <v>0.67318226868434761</v>
       </c>
       <c r="D17">
         <v>0.049608303030319545</v>
@@ -328,13 +332,13 @@
     </row>
     <row r="18">
       <c r="A18">
-        <v>0.55766600993596804</v>
+        <v>0.55766608009520557</v>
       </c>
       <c r="B18">
-        <v>0.70730827585922773</v>
+        <v>0.70730831866009791</v>
       </c>
       <c r="C18">
-        <v>0.67357332711120965</v>
+        <v>0.67357327111380771</v>
       </c>
       <c r="D18">
         <v>0.050054117591543615</v>
@@ -342,13 +346,13 @@
     </row>
     <row r="19">
       <c r="A19">
-        <v>0.55380028158474603</v>
+        <v>0.55380036072136662</v>
       </c>
       <c r="B19">
-        <v>0.70731908252406228</v>
+        <v>0.70731908956658751</v>
       </c>
       <c r="C19">
-        <v>0.6736523455164859</v>
+        <v>0.67365235182514915</v>
       </c>
       <c r="D19">
         <v>0.049988438473191274</v>
@@ -356,13 +360,13 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>0.55135203589465331</v>
+        <v>0.55135223720634841</v>
       </c>
       <c r="B20">
-        <v>0.70756452309814322</v>
+        <v>0.70756453857463653</v>
       </c>
       <c r="C20">
-        <v>0.67344525576329395</v>
+        <v>0.6734452275962326</v>
       </c>
       <c r="D20">
         <v>0.050540852776185079</v>
@@ -370,13 +374,13 @@
     </row>
     <row r="21">
       <c r="A21">
-        <v>0.55573757881039088</v>
+        <v>0.55573779966152848</v>
       </c>
       <c r="B21">
-        <v>0.70815255976937364</v>
+        <v>0.708152665924069</v>
       </c>
       <c r="C21">
-        <v>0.67269730682164242</v>
+        <v>0.67269716323772943</v>
       </c>
       <c r="D21">
         <v>0.050597350415705761</v>
@@ -384,13 +388,13 @@
     </row>
     <row r="22">
       <c r="A22">
-        <v>0.56960963131698406</v>
+        <v>0.56960962077805433</v>
       </c>
       <c r="B22">
-        <v>0.71032515596163881</v>
+        <v>0.71032517580864352</v>
       </c>
       <c r="C22">
-        <v>0.66997251356626641</v>
+        <v>0.66997250543765974</v>
       </c>
       <c r="D22">
         <v>0.050475221515689866</v>
@@ -398,13 +402,13 @@
     </row>
     <row r="23">
       <c r="A23">
-        <v>0.55284246924959746</v>
+        <v>0.55284260750082725</v>
       </c>
       <c r="B23">
-        <v>0.70635573738391833</v>
+        <v>0.7063558353823296</v>
       </c>
       <c r="C23">
-        <v>0.67465093126409048</v>
+        <v>0.67465079897066305</v>
       </c>
       <c r="D23">
         <v>0.051360979501530193</v>
@@ -412,13 +416,13 @@
     </row>
     <row r="24">
       <c r="A24">
-        <v>0.55957287838592196</v>
+        <v>0.55957283306019123</v>
       </c>
       <c r="B24">
-        <v>0.70624976243200321</v>
+        <v>0.70624976719959576</v>
       </c>
       <c r="C24">
-        <v>0.67466566239691916</v>
+        <v>0.67466565564549419</v>
       </c>
       <c r="D24">
         <v>0.05133653882036697</v>
@@ -426,13 +430,13 @@
     </row>
     <row r="25">
       <c r="A25">
-        <v>0.57809687236271856</v>
+        <v>0.57809687194415882</v>
       </c>
       <c r="B25">
-        <v>0.70939257467795547</v>
+        <v>0.70939256683229091</v>
       </c>
       <c r="C25">
-        <v>0.67087984593313044</v>
+        <v>0.6708798546667345</v>
       </c>
       <c r="D25">
         <v>0.050697211075764116</v>
@@ -440,13 +444,13 @@
     </row>
     <row r="26">
       <c r="A26">
-        <v>0.55346058048571756</v>
+        <v>0.55346070345486842</v>
       </c>
       <c r="B26">
-        <v>0.70161921073439393</v>
+        <v>0.70161927646114719</v>
       </c>
       <c r="C26">
-        <v>0.67964800972330774</v>
+        <v>0.67964793425833547</v>
       </c>
       <c r="D26">
         <v>0.053529300978956584</v>
@@ -454,13 +458,13 @@
     </row>
     <row r="27">
       <c r="A27">
-        <v>0.56029338140998208</v>
+        <v>0.56029334433446543</v>
       </c>
       <c r="B27">
-        <v>0.69950683551689363</v>
+        <v>0.69950675304565868</v>
       </c>
       <c r="C27">
-        <v>0.68193952213930231</v>
+        <v>0.68193961609681519</v>
       </c>
       <c r="D27">
         <v>0.054174055027663072</v>
@@ -468,13 +472,13 @@
     </row>
     <row r="28">
       <c r="A28">
-        <v>0.56926308145971471</v>
+        <v>0.56926347836499347</v>
       </c>
       <c r="B28">
-        <v>0.70122407748560867</v>
+        <v>0.70122409939252672</v>
       </c>
       <c r="C28">
-        <v>0.67999166799772959</v>
+        <v>0.67999161898800031</v>
       </c>
       <c r="D28">
         <v>0.053608308464068617</v>
@@ -482,13 +486,13 @@
     </row>
     <row r="29">
       <c r="A29">
-        <v>0.56534708870717842</v>
+        <v>0.56534724129698577</v>
       </c>
       <c r="B29">
-        <v>0.7003478303953441</v>
+        <v>0.70034779997772612</v>
       </c>
       <c r="C29">
-        <v>0.68095844132388184</v>
+        <v>0.68095846372271596</v>
       </c>
       <c r="D29">
         <v>0.054265369861345253</v>
@@ -496,13 +500,13 @@
     </row>
     <row r="30">
       <c r="A30">
-        <v>0.55761416762955007</v>
+        <v>0.55761402719853248</v>
       </c>
       <c r="B30">
-        <v>0.69958281948426593</v>
+        <v>0.69958282586891629</v>
       </c>
       <c r="C30">
-        <v>0.68174485141985608</v>
+        <v>0.68174485647558358</v>
       </c>
       <c r="D30">
         <v>0.056030088611139117</v>
@@ -510,13 +514,13 @@
     </row>
     <row r="31">
       <c r="A31">
-        <v>0.55704624339622089</v>
+        <v>0.55704609541030603</v>
       </c>
       <c r="B31">
-        <v>0.70007660763375568</v>
+        <v>0.70007652344092697</v>
       </c>
       <c r="C31">
-        <v>0.68120153315929144</v>
+        <v>0.68120163646225185</v>
       </c>
       <c r="D31">
         <v>0.056103631720184108</v>
@@ -524,13 +528,13 @@
     </row>
     <row r="32">
       <c r="A32">
-        <v>0.55287753979360676</v>
+        <v>0.55287758437210499</v>
       </c>
       <c r="B32">
-        <v>0.70049437545054305</v>
+        <v>0.70049440380807548</v>
       </c>
       <c r="C32">
-        <v>0.6807765876949522</v>
+        <v>0.6807765596708546</v>
       </c>
       <c r="D32">
         <v>0.05701170929465519</v>
@@ -538,13 +542,13 @@
     </row>
     <row r="33">
       <c r="A33">
-        <v>0.55029932175567742</v>
+        <v>0.55029930596405274</v>
       </c>
       <c r="B33">
-        <v>0.70103423632615147</v>
+        <v>0.70103426089148935</v>
       </c>
       <c r="C33">
-        <v>0.68022914279993762</v>
+        <v>0.68022911211403303</v>
       </c>
       <c r="D33">
         <v>0.057681490329621235</v>
@@ -552,13 +556,13 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>0.57128153322239217</v>
+        <v>0.57128146775900301</v>
       </c>
       <c r="B34">
-        <v>0.70071712877232284</v>
+        <v>0.70071717145295886</v>
       </c>
       <c r="C34">
-        <v>0.68014423798553381</v>
+        <v>0.68014420426500566</v>
       </c>
       <c r="D34">
         <v>0.057693553704508044</v>
@@ -566,13 +570,13 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>0.54836617134316978</v>
+        <v>0.54836637204180516</v>
       </c>
       <c r="B35">
-        <v>0.69375529785314916</v>
+        <v>0.6937553211297941</v>
       </c>
       <c r="C35">
-        <v>0.68792562248832434</v>
+        <v>0.687925598650869</v>
       </c>
       <c r="D35">
         <v>0.059160809145162856</v>
@@ -580,13 +584,13 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>0.55030188389822299</v>
+        <v>0.55030209993875756</v>
       </c>
       <c r="B36">
-        <v>0.69368638135665173</v>
+        <v>0.69368640021348971</v>
       </c>
       <c r="C36">
-        <v>0.68798106901276412</v>
+        <v>0.68798104556601036</v>
       </c>
       <c r="D36">
         <v>0.060127525077603598</v>
@@ -594,13 +598,13 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>0.5378691616294462</v>
+        <v>0.53786910899397533</v>
       </c>
       <c r="B37">
-        <v>0.69349335788684585</v>
+        <v>0.69349333878501851</v>
       </c>
       <c r="C37">
-        <v>0.68840453354647102</v>
+        <v>0.68840455216313545</v>
       </c>
       <c r="D37">
         <v>0.061285563412285193</v>
@@ -608,13 +612,13 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>0.5402267137833503</v>
+        <v>0.54022657780406347</v>
       </c>
       <c r="B38">
-        <v>0.69335489015927321</v>
+        <v>0.69335491838824448</v>
       </c>
       <c r="C38">
-        <v>0.68849435942458015</v>
+        <v>0.68849433974825747</v>
       </c>
       <c r="D38">
         <v>0.062918233985526192</v>
@@ -622,13 +626,13 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>0.55915483859755821</v>
+        <v>0.55915509577548517</v>
       </c>
       <c r="B39">
-        <v>0.69416110525024255</v>
+        <v>0.69416108838329404</v>
       </c>
       <c r="C39">
-        <v>0.68706942471550725</v>
+        <v>0.6870694109809321</v>
       </c>
       <c r="D39">
         <v>0.062371829050373757</v>
@@ -636,13 +640,13 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>0.53940458852748274</v>
+        <v>0.53940439700557907</v>
       </c>
       <c r="B40">
-        <v>0.68942822245208291</v>
+        <v>0.68942816704892085</v>
       </c>
       <c r="C40">
-        <v>0.69250595754341804</v>
+        <v>0.69250603538064892</v>
       </c>
       <c r="D40">
         <v>0.064060320853234279</v>
@@ -650,13 +654,13 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>0.54962864245054233</v>
+        <v>0.54962860975831251</v>
       </c>
       <c r="B41">
-        <v>0.68868562541546408</v>
+        <v>0.68868562952057522</v>
       </c>
       <c r="C41">
-        <v>0.6930233726021533</v>
+        <v>0.69302338743460223</v>
       </c>
       <c r="D41">
         <v>0.063350973026477186</v>
@@ -664,13 +668,13 @@
     </row>
     <row r="42">
       <c r="A42">
-        <v>0.54945465999207188</v>
+        <v>0.54945450717300137</v>
       </c>
       <c r="B42">
-        <v>0.68886142805656547</v>
+        <v>0.68886148638359845</v>
       </c>
       <c r="C42">
-        <v>0.69284902771894541</v>
+        <v>0.69284897097523368</v>
       </c>
       <c r="D42">
         <v>0.065255274740054769</v>
@@ -678,13 +682,13 @@
     </row>
     <row r="43">
       <c r="A43">
-        <v>0.56740773869132666</v>
+        <v>0.56740769135060609</v>
       </c>
       <c r="B43">
-        <v>0.69161535704711163</v>
+        <v>0.69161530319863673</v>
       </c>
       <c r="C43">
-        <v>0.68960214285484156</v>
+        <v>0.68960219031892978</v>
       </c>
       <c r="D43">
         <v>0.063889483483221599</v>
@@ -692,13 +696,13 @@
     </row>
     <row r="44">
       <c r="A44">
-        <v>0.59168466211939652</v>
+        <v>0.59168477983215739</v>
       </c>
       <c r="B44">
-        <v>0.69976918289647816</v>
+        <v>0.69976913799811502</v>
       </c>
       <c r="C44">
-        <v>0.68061105950684642</v>
+        <v>0.68061108909869361</v>
       </c>
       <c r="D44">
         <v>0.063370985038340488</v>
@@ -706,13 +710,13 @@
     </row>
     <row r="45">
       <c r="A45">
-        <v>0.59145133628456592</v>
+        <v>0.59145100512924553</v>
       </c>
       <c r="B45">
-        <v>0.69969728503733664</v>
+        <v>0.69969725062217902</v>
       </c>
       <c r="C45">
-        <v>0.68068617042459123</v>
+        <v>0.6806862278237088</v>
       </c>
       <c r="D45">
         <v>0.064377776932715666</v>
@@ -720,13 +724,13 @@
     </row>
     <row r="46">
       <c r="A46">
-        <v>0.58775077976963064</v>
+        <v>0.58775060716031269</v>
       </c>
       <c r="B46">
-        <v>0.69824847536568679</v>
+        <v>0.69824844042887968</v>
       </c>
       <c r="C46">
-        <v>0.6820952493724971</v>
+        <v>0.68209528705295486</v>
       </c>
       <c r="D46">
         <v>0.065495915587575809</v>
@@ -734,13 +738,13 @@
     </row>
     <row r="47">
       <c r="A47">
-        <v>0.58584982831319943</v>
+        <v>0.5858497389524735</v>
       </c>
       <c r="B47">
-        <v>0.69814710845517647</v>
+        <v>0.69814708622945898</v>
       </c>
       <c r="C47">
-        <v>0.68197548063173441</v>
+        <v>0.68197552002359818</v>
       </c>
       <c r="D47">
         <v>0.066422026461774669</v>
@@ -748,13 +752,13 @@
     </row>
     <row r="48">
       <c r="A48">
-        <v>0.59098527690064317</v>
+        <v>0.59098549900079222</v>
       </c>
       <c r="B48">
-        <v>0.69684580764912096</v>
+        <v>0.69684580626061354</v>
       </c>
       <c r="C48">
-        <v>0.68412239264205943</v>
+        <v>0.68412237472606774</v>
       </c>
       <c r="D48">
         <v>0.068200520541986248</v>
@@ -762,13 +766,13 @@
     </row>
     <row r="49">
       <c r="A49">
-        <v>0.59918666118652575</v>
+        <v>0.59918636947301884</v>
       </c>
       <c r="B49">
-        <v>0.70079568178300722</v>
+        <v>0.70079558424146504</v>
       </c>
       <c r="C49">
-        <v>0.68017247456872187</v>
+        <v>0.68017259144704223</v>
       </c>
       <c r="D49">
         <v>0.068331916570097198</v>
@@ -776,13 +780,13 @@
     </row>
     <row r="50">
       <c r="A50">
-        <v>0.59782793261497069</v>
+        <v>0.59782791054031115</v>
       </c>
       <c r="B50">
-        <v>0.70001099101492392</v>
+        <v>0.70001101560093781</v>
       </c>
       <c r="C50">
-        <v>0.68093758178568564</v>
+        <v>0.68093756638619496</v>
       </c>
       <c r="D50">
         <v>0.069791931766134005</v>
@@ -790,13 +794,13 @@
     </row>
     <row r="51">
       <c r="A51">
-        <v>0.60210558917909451</v>
+        <v>0.60210578037154949</v>
       </c>
       <c r="B51">
-        <v>0.70230601503547008</v>
+        <v>0.70230602335728509</v>
       </c>
       <c r="C51">
-        <v>0.67928854368444958</v>
+        <v>0.67928849971133687</v>
       </c>
       <c r="D51">
         <v>0.070923335969836146</v>
@@ -804,13 +808,13 @@
     </row>
     <row r="52">
       <c r="A52">
-        <v>0.59771734041109315</v>
+        <v>0.59771714920898955</v>
       </c>
       <c r="B52">
-        <v>0.69908765215447644</v>
+        <v>0.69908769949312088</v>
       </c>
       <c r="C52">
-        <v>0.68226170002539976</v>
+        <v>0.68226166238724195</v>
       </c>
       <c r="D52">
         <v>0.071613454103441804</v>
@@ -818,13 +822,13 @@
     </row>
     <row r="53">
       <c r="A53">
-        <v>0.59764200418980207</v>
+        <v>0.59764199474408997</v>
       </c>
       <c r="B53">
-        <v>0.69908534799626465</v>
+        <v>0.69908543122722588</v>
       </c>
       <c r="C53">
-        <v>0.68250541699321676</v>
+        <v>0.68250532740341574</v>
       </c>
       <c r="D53">
         <v>0.07110561172245447</v>
@@ -832,13 +836,13 @@
     </row>
     <row r="54">
       <c r="A54">
-        <v>0.59807455820476141</v>
+        <v>0.59807468310959888</v>
       </c>
       <c r="B54">
-        <v>0.69944858065133819</v>
+        <v>0.69944854240601129</v>
       </c>
       <c r="C54">
-        <v>0.6824263082207509</v>
+        <v>0.68242633683162901</v>
       </c>
       <c r="D54">
         <v>0.071373833186741648</v>
@@ -846,13 +850,13 @@
     </row>
     <row r="55">
       <c r="A55">
-        <v>0.60116657849724175</v>
+        <v>0.60116652351238797</v>
       </c>
       <c r="B55">
-        <v>0.70214163400458351</v>
+        <v>0.70214159650630203</v>
       </c>
       <c r="C55">
-        <v>0.68084357066113577</v>
+        <v>0.68084359347721168</v>
       </c>
       <c r="D55">
         <v>0.072449978736147044</v>
@@ -860,13 +864,13 @@
     </row>
     <row r="56">
       <c r="A56">
-        <v>0.5975473789788821</v>
+        <v>0.59754724925072811</v>
       </c>
       <c r="B56">
-        <v>0.69885942842070403</v>
+        <v>0.69885944098429575</v>
       </c>
       <c r="C56">
-        <v>0.68387790000699811</v>
+        <v>0.6838779125467962</v>
       </c>
       <c r="D56">
         <v>0.073361996446132477</v>
@@ -874,13 +878,13 @@
     </row>
     <row r="57">
       <c r="A57">
-        <v>0.59760431435261918</v>
+        <v>0.59760442146047021</v>
       </c>
       <c r="B57">
-        <v>0.69877196266279429</v>
+        <v>0.69877199750152674</v>
       </c>
       <c r="C57">
-        <v>0.68387655415776094</v>
+        <v>0.68387651752800083</v>
       </c>
       <c r="D57">
         <v>0.074734823657137961</v>
@@ -888,13 +892,13 @@
     </row>
     <row r="58">
       <c r="A58">
-        <v>0.59455801588267509</v>
+        <v>0.59455789552965932</v>
       </c>
       <c r="B58">
-        <v>0.69895542339150207</v>
+        <v>0.69895533999203319</v>
       </c>
       <c r="C58">
-        <v>0.68564473173195661</v>
+        <v>0.68564482519686121</v>
       </c>
       <c r="D58">
         <v>0.075846893855195538</v>
@@ -902,13 +906,13 @@
     </row>
     <row r="59">
       <c r="A59">
-        <v>0.59460892710454838</v>
+        <v>0.5946088120229327</v>
       </c>
       <c r="B59">
-        <v>0.6990796466072049</v>
+        <v>0.69907962454282102</v>
       </c>
       <c r="C59">
-        <v>0.68556069670407216</v>
+        <v>0.68556073346685564</v>
       </c>
       <c r="D59">
         <v>0.077349793944907791</v>
@@ -916,13 +920,13 @@
     </row>
     <row r="60">
       <c r="A60">
-        <v>0.59448001627306168</v>
+        <v>0.59448014987257514</v>
       </c>
       <c r="B60">
-        <v>0.6999948004673926</v>
+        <v>0.69999486281041401</v>
       </c>
       <c r="C60">
-        <v>0.68505032070049554</v>
+        <v>0.68505023998162295</v>
       </c>
       <c r="D60">
         <v>0.077328080258831727</v>
@@ -930,13 +934,13 @@
     </row>
     <row r="61">
       <c r="A61">
-        <v>0.59476050067086939</v>
+        <v>0.59476049639050776</v>
       </c>
       <c r="B61">
-        <v>0.69788021465105876</v>
+        <v>0.69788021992905758</v>
       </c>
       <c r="C61">
-        <v>0.68633095133934408</v>
+        <v>0.68633091865629958</v>
       </c>
       <c r="D61">
         <v>0.078074137452793624</v>
@@ -944,13 +948,13 @@
     </row>
     <row r="62">
       <c r="A62">
-        <v>0.58712278613060032</v>
+        <v>0.58712264769890188</v>
       </c>
       <c r="B62">
-        <v>0.69592755198055578</v>
+        <v>0.69592751644452733</v>
       </c>
       <c r="C62">
-        <v>0.69015743934569929</v>
+        <v>0.69015748929049636</v>
       </c>
       <c r="D62">
         <v>0.080320366805169227</v>
@@ -958,13 +962,13 @@
     </row>
     <row r="63">
       <c r="A63">
-        <v>0.58722801365641186</v>
+        <v>0.58722796790652376</v>
       </c>
       <c r="B63">
-        <v>0.69864617520243444</v>
+        <v>0.69864614432156724</v>
       </c>
       <c r="C63">
-        <v>0.68836399726950415</v>
+        <v>0.68836402550195941</v>
       </c>
       <c r="D63">
         <v>0.079979525011191627</v>
@@ -972,13 +976,13 @@
     </row>
     <row r="64">
       <c r="A64">
-        <v>0.58637685182379184</v>
+        <v>0.58637686790541588</v>
       </c>
       <c r="B64">
-        <v>0.69590966991692338</v>
+        <v>0.69590968529538633</v>
       </c>
       <c r="C64">
-        <v>0.69051921337331079</v>
+        <v>0.69051918999829076</v>
       </c>
       <c r="D64">
         <v>0.081213582803075765</v>
@@ -986,13 +990,13 @@
     </row>
     <row r="65">
       <c r="A65">
-        <v>0.59209864402087353</v>
+        <v>0.59209869023848105</v>
       </c>
       <c r="B65">
-        <v>0.69581171224703287</v>
+        <v>0.69581176470477479</v>
       </c>
       <c r="C65">
-        <v>0.68898551625831983</v>
+        <v>0.68898546525919879</v>
       </c>
       <c r="D65">
         <v>0.082370390712251829</v>
@@ -1000,13 +1004,13 @@
     </row>
     <row r="66">
       <c r="A66">
-        <v>0.58619859258465823</v>
+        <v>0.58619896443870478</v>
       </c>
       <c r="B66">
-        <v>0.69337101269105639</v>
+        <v>0.69337112691540315</v>
       </c>
       <c r="C66">
-        <v>0.69244692784018114</v>
+        <v>0.6924467810539261</v>
       </c>
       <c r="D66">
         <v>0.083673996546950749</v>
@@ -1014,13 +1018,13 @@
     </row>
     <row r="67">
       <c r="A67">
-        <v>0.58380464573956958</v>
+        <v>0.58380461127794603</v>
       </c>
       <c r="B67">
-        <v>0.69327998445971528</v>
+        <v>0.69328002985045567</v>
       </c>
       <c r="C67">
-        <v>0.69332996324685836</v>
+        <v>0.69332992393225501</v>
       </c>
       <c r="D67">
         <v>0.085654263599134639</v>
@@ -1028,13 +1032,13 @@
     </row>
     <row r="68">
       <c r="A68">
-        <v>0.58425294607044909</v>
+        <v>0.58425300336161623</v>
       </c>
       <c r="B68">
-        <v>0.69177502541204572</v>
+        <v>0.69177504316617333</v>
       </c>
       <c r="C68">
-        <v>0.69411873138191682</v>
+        <v>0.6941187244228485</v>
       </c>
       <c r="D68">
         <v>0.085668365330465818</v>
@@ -1042,13 +1046,13 @@
     </row>
     <row r="69">
       <c r="A69">
-        <v>0.58079432039661361</v>
+        <v>0.58079426872973161</v>
       </c>
       <c r="B69">
-        <v>0.69087511575380112</v>
+        <v>0.69087510299586308</v>
       </c>
       <c r="C69">
-        <v>0.69587031559656465</v>
+        <v>0.69587032028455531</v>
       </c>
       <c r="D69">
         <v>0.086703126028522537</v>
@@ -1056,13 +1060,13 @@
     </row>
     <row r="70">
       <c r="A70">
-        <v>0.57962138883146341</v>
+        <v>0.57962110609744277</v>
       </c>
       <c r="B70">
-        <v>0.69198920252582174</v>
+        <v>0.69198919528883596</v>
       </c>
       <c r="C70">
-        <v>0.69562333861682446</v>
+        <v>0.69562334780807089</v>
       </c>
       <c r="D70">
         <v>0.088027437616781071</v>
@@ -1070,13 +1074,13 @@
     </row>
     <row r="71">
       <c r="A71">
-        <v>0.5793637939270585</v>
+        <v>0.57936393368059758</v>
       </c>
       <c r="B71">
-        <v>0.69143206669592661</v>
+        <v>0.69143214064484004</v>
       </c>
       <c r="C71">
-        <v>0.69606244651266891</v>
+        <v>0.69606234979491566</v>
       </c>
       <c r="D71">
         <v>0.088410965059412594</v>
@@ -1084,13 +1088,13 @@
     </row>
     <row r="72">
       <c r="A72">
-        <v>0.58221957917157008</v>
+        <v>0.5822195613292056</v>
       </c>
       <c r="B72">
-        <v>0.68993522200301838</v>
+        <v>0.68993518039332402</v>
       </c>
       <c r="C72">
-        <v>0.69619105986402141</v>
+        <v>0.69619109598511109</v>
       </c>
       <c r="D72">
         <v>0.090944061707267529</v>
@@ -1098,13 +1102,13 @@
     </row>
     <row r="73">
       <c r="A73">
-        <v>0.57351610742789039</v>
+        <v>0.57351589413523185</v>
       </c>
       <c r="B73">
-        <v>0.68619330489646035</v>
+        <v>0.6861932403974631</v>
       </c>
       <c r="C73">
-        <v>0.70141387942360423</v>
+        <v>0.70141395294133124</v>
       </c>
       <c r="D73">
         <v>0.090678873890380929</v>
@@ -1112,13 +1116,13 @@
     </row>
     <row r="74">
       <c r="A74">
-        <v>0.5713575899664739</v>
+        <v>0.57135775006096301</v>
       </c>
       <c r="B74">
-        <v>0.6889617611756409</v>
+        <v>0.68896176319493296</v>
       </c>
       <c r="C74">
-        <v>0.70056964168232305</v>
+        <v>0.70056963289484964</v>
       </c>
       <c r="D74">
         <v>0.092410026211364696</v>
@@ -1126,13 +1130,13 @@
     </row>
     <row r="75">
       <c r="A75">
-        <v>0.56449523045855798</v>
+        <v>0.56449478781748086</v>
       </c>
       <c r="B75">
-        <v>0.67853072107065249</v>
+        <v>0.67853070890224454</v>
       </c>
       <c r="C75">
-        <v>0.70945083978759527</v>
+        <v>0.70945088345596508</v>
       </c>
       <c r="D75">
         <v>0.094515756461156009</v>
@@ -1140,13 +1144,13 @@
     </row>
     <row r="76">
       <c r="A76">
-        <v>0.56501066963121727</v>
+        <v>0.56501087071569189</v>
       </c>
       <c r="B76">
-        <v>0.6786801468131366</v>
+        <v>0.67868014660222309</v>
       </c>
       <c r="C76">
-        <v>0.7092059374711529</v>
+        <v>0.70920592455743747</v>
       </c>
       <c r="D76">
         <v>0.095503163072340538</v>
@@ -1154,13 +1158,13 @@
     </row>
     <row r="77">
       <c r="A77">
-        <v>0.57101869504841818</v>
+        <v>0.57101862373397294</v>
       </c>
       <c r="B77">
-        <v>0.68041541794040628</v>
+        <v>0.68041549125771983</v>
       </c>
       <c r="C77">
-        <v>0.70617735760724676</v>
+        <v>0.70617729215048053</v>
       </c>
       <c r="D77">
         <v>0.096942035390890496</v>
@@ -1168,13 +1172,13 @@
     </row>
     <row r="78">
       <c r="A78">
-        <v>0.56725834410690079</v>
+        <v>0.56725821338788451</v>
       </c>
       <c r="B78">
-        <v>0.67831426624138091</v>
+        <v>0.67831427411759559</v>
       </c>
       <c r="C78">
-        <v>0.70882026964433953</v>
+        <v>0.70882027518068969</v>
       </c>
       <c r="D78">
         <v>0.095088507901145841</v>
@@ -1182,13 +1186,13 @@
     </row>
     <row r="79">
       <c r="A79">
-        <v>0.56669290313515486</v>
+        <v>0.56669302737414906</v>
       </c>
       <c r="B79">
-        <v>0.67813410924590534</v>
+        <v>0.6781341219239263</v>
       </c>
       <c r="C79">
-        <v>0.70923382141182234</v>
+        <v>0.70923380125662383</v>
       </c>
       <c r="D79">
         <v>0.097039955685372353</v>
@@ -1196,13 +1200,13 @@
     </row>
     <row r="80">
       <c r="A80">
-        <v>0.56668072218275767</v>
+        <v>0.56668093509477024</v>
       </c>
       <c r="B80">
-        <v>0.67812285937842209</v>
+        <v>0.67812292594131307</v>
       </c>
       <c r="C80">
-        <v>0.70924383629239329</v>
+        <v>0.70924376108187603</v>
       </c>
       <c r="D80">
         <v>0.098994954896895249</v>
@@ -1210,13 +1214,13 @@
     </row>
     <row r="81">
       <c r="A81">
-        <v>0.56596079601068716</v>
+        <v>0.56596091637098689</v>
       </c>
       <c r="B81">
-        <v>0.67888211867371495</v>
+        <v>0.67888207502752773</v>
       </c>
       <c r="C81">
-        <v>0.70990001665466185</v>
+        <v>0.70990004690015596</v>
       </c>
       <c r="D81">
         <v>0.10068302977362481</v>
@@ -1224,13 +1228,13 @@
     </row>
     <row r="82">
       <c r="A82">
-        <v>0.56627209595699801</v>
+        <v>0.56627204280624011</v>
       </c>
       <c r="B82">
-        <v>0.67924701401342014</v>
+        <v>0.67924700117811232</v>
       </c>
       <c r="C82">
-        <v>0.70960497210146734</v>
+        <v>0.70960497658160149</v>
       </c>
       <c r="D82">
         <v>0.10198557187345121</v>
@@ -1238,13 +1242,13 @@
     </row>
     <row r="83">
       <c r="A83">
-        <v>0.566656390935105</v>
+        <v>0.56665646133159919</v>
       </c>
       <c r="B83">
-        <v>0.68067246274084214</v>
+        <v>0.68067248776491307</v>
       </c>
       <c r="C83">
-        <v>0.70866620162092042</v>
+        <v>0.70866616269245775</v>
       </c>
       <c r="D83">
         <v>0.1026352197739049</v>
@@ -1252,13 +1256,13 @@
     </row>
     <row r="84">
       <c r="A84">
-        <v>0.566604395327993</v>
+        <v>0.56660439615634983</v>
       </c>
       <c r="B84">
-        <v>0.68108924146153726</v>
+        <v>0.6810892270942478</v>
       </c>
       <c r="C84">
-        <v>0.70842051989117705</v>
+        <v>0.70842053295265472</v>
       </c>
       <c r="D84">
         <v>0.10470043138820542</v>
@@ -1266,13 +1270,13 @@
     </row>
     <row r="85">
       <c r="A85">
-        <v>0.56627943069511022</v>
+        <v>0.56627948298446207</v>
       </c>
       <c r="B85">
-        <v>0.68126485365564293</v>
+        <v>0.68126483227162837</v>
       </c>
       <c r="C85">
-        <v>0.70839533178573721</v>
+        <v>0.70839534702668905</v>
       </c>
       <c r="D85">
         <v>0.10745161729360138</v>
@@ -1280,13 +1284,13 @@
     </row>
     <row r="86">
       <c r="A86">
-        <v>0.56772017036313693</v>
+        <v>0.56772026350094218</v>
       </c>
       <c r="B86">
-        <v>0.68007384295452766</v>
+        <v>0.68007382367661129</v>
       </c>
       <c r="C86">
-        <v>0.70881432143932055</v>
+        <v>0.70881433894048684</v>
       </c>
       <c r="D86">
         <v>0.10924422750930401</v>
@@ -1294,13 +1298,13 @@
     </row>
     <row r="87">
       <c r="A87">
-        <v>0.56161837757197608</v>
+        <v>0.56161829044477207</v>
       </c>
       <c r="B87">
-        <v>0.67848414329870144</v>
+        <v>0.67848407900554131</v>
       </c>
       <c r="C87">
-        <v>0.71156711367452397</v>
+        <v>0.71156715994373443</v>
       </c>
       <c r="D87">
         <v>0.10964739794500938</v>
@@ -1308,13 +1312,13 @@
     </row>
     <row r="88">
       <c r="A88">
-        <v>0.56079160395748284</v>
+        <v>0.56079156324570234</v>
       </c>
       <c r="B88">
-        <v>0.67983978397885569</v>
+        <v>0.67983976355336073</v>
       </c>
       <c r="C88">
-        <v>0.71089787073701549</v>
+        <v>0.71089790002674091</v>
       </c>
       <c r="D88">
         <v>0.11074168241974736</v>
@@ -1322,13 +1326,13 @@
     </row>
     <row r="89">
       <c r="A89">
-        <v>0.56076844265668335</v>
+        <v>0.56076857181241357</v>
       </c>
       <c r="B89">
-        <v>0.67843595913493537</v>
+        <v>0.67843605911595406</v>
       </c>
       <c r="C89">
-        <v>0.71187338482754758</v>
+        <v>0.71187331612821558</v>
       </c>
       <c r="D89">
         <v>0.11927583386580418</v>
@@ -1336,13 +1340,13 @@
     </row>
     <row r="90">
       <c r="A90">
-        <v>0.55777694229371644</v>
+        <v>0.55777669923311524</v>
       </c>
       <c r="B90">
-        <v>0.67851201945406059</v>
+        <v>0.67851200602767592</v>
       </c>
       <c r="C90">
-        <v>0.71255343313707975</v>
+        <v>0.71255347944972947</v>
       </c>
       <c r="D90">
         <v>0.11988708846736862</v>
@@ -1350,13 +1354,13 @@
     </row>
     <row r="91">
       <c r="A91">
-        <v>0.55870162442088844</v>
+        <v>0.55870156840184748</v>
       </c>
       <c r="B91">
-        <v>0.67722275001322174</v>
+        <v>0.67722272138338513</v>
       </c>
       <c r="C91">
-        <v>0.7132414305181578</v>
+        <v>0.71324145813667772</v>
       </c>
       <c r="D91">
         <v>0.11647672725722713</v>
@@ -1364,13 +1368,13 @@
     </row>
     <row r="92">
       <c r="A92">
-        <v>0.55292232490544913</v>
+        <v>0.55292221900778937</v>
       </c>
       <c r="B92">
-        <v>0.67649060637687186</v>
+        <v>0.67649059955453883</v>
       </c>
       <c r="C92">
-        <v>0.7151369120115294</v>
+        <v>0.71513692715131782</v>
       </c>
       <c r="D92">
         <v>0.11652575747814345</v>
@@ -1378,13 +1382,13 @@
     </row>
     <row r="93">
       <c r="A93">
-        <v>0.55288702521069233</v>
+        <v>0.5528869393961765</v>
       </c>
       <c r="B93">
-        <v>0.67605807922575289</v>
+        <v>0.67605814028414046</v>
       </c>
       <c r="C93">
-        <v>0.71545078966298004</v>
+        <v>0.71545073708193963</v>
       </c>
       <c r="D93">
         <v>0.11734352162351237</v>
@@ -1392,13 +1396,13 @@
     </row>
     <row r="94">
       <c r="A94">
-        <v>0.55020364171651148</v>
+        <v>0.55020365187582831</v>
       </c>
       <c r="B94">
-        <v>0.67656330385673602</v>
+        <v>0.67656327619637546</v>
       </c>
       <c r="C94">
-        <v>0.71569221160217655</v>
+        <v>0.71569223353055156</v>
       </c>
       <c r="D94">
         <v>0.11847804298128951</v>
@@ -1406,13 +1410,13 @@
     </row>
     <row r="95">
       <c r="A95">
-        <v>0.54770765496520946</v>
+        <v>0.5477079325870523</v>
       </c>
       <c r="B95">
-        <v>0.6787997510756818</v>
+        <v>0.67879974720297331</v>
       </c>
       <c r="C95">
-        <v>0.71460659257904857</v>
+        <v>0.7146065664087452</v>
       </c>
       <c r="D95">
         <v>0.12186565609168111</v>
@@ -1420,13 +1424,13 @@
     </row>
     <row r="96">
       <c r="A96">
-        <v>0.54675624297599545</v>
+        <v>0.54675608237554907</v>
       </c>
       <c r="B96">
-        <v>0.68218526929716727</v>
+        <v>0.68218525266567365</v>
       </c>
       <c r="C96">
-        <v>0.71226428566168098</v>
+        <v>0.71226430683564723</v>
       </c>
       <c r="D96">
         <v>0.12260229175346868</v>
@@ -1434,13 +1438,13 @@
     </row>
     <row r="97">
       <c r="A97">
-        <v>0.54647158113714778</v>
+        <v>0.54647143265889553</v>
       </c>
       <c r="B97">
-        <v>0.68165993062281416</v>
+        <v>0.68165994527775553</v>
       </c>
       <c r="C97">
-        <v>0.7127201413144022</v>
+        <v>0.71272011802339363</v>
       </c>
       <c r="D97">
         <v>0.12465908712958644</v>
@@ -1448,13 +1452,13 @@
     </row>
     <row r="98">
       <c r="A98">
-        <v>0.54205154418579626</v>
+        <v>0.54205173315596511</v>
       </c>
       <c r="B98">
-        <v>0.68304775119979544</v>
+        <v>0.683047750921979</v>
       </c>
       <c r="C98">
-        <v>0.71243160678365314</v>
+        <v>0.71243159108616716</v>
       </c>
       <c r="D98">
         <v>0.12528808818329934</v>
@@ -1462,13 +1466,13 @@
     </row>
     <row r="99">
       <c r="A99">
-        <v>0.54155641471098415</v>
+        <v>0.54155614064622881</v>
       </c>
       <c r="B99">
-        <v>0.68285864764377657</v>
+        <v>0.6828586186960095</v>
       </c>
       <c r="C99">
-        <v>0.7126645030740878</v>
+        <v>0.71266453804919083</v>
       </c>
       <c r="D99">
         <v>0.13038041326418034</v>
@@ -1476,13 +1480,13 @@
     </row>
     <row r="100">
       <c r="A100">
-        <v>0.53589097455093793</v>
+        <v>0.53589102311892423</v>
       </c>
       <c r="B100">
-        <v>0.68393879736388941</v>
+        <v>0.68393882276055518</v>
       </c>
       <c r="C100">
-        <v>0.71276454193838334</v>
+        <v>0.71276452668276158</v>
       </c>
       <c r="D100">
         <v>0.13192695498430046</v>
@@ -1490,13 +1494,13 @@
     </row>
     <row r="101">
       <c r="A101">
-        <v>0.53424357351176899</v>
+        <v>0.5342435529740539</v>
       </c>
       <c r="B101">
-        <v>0.68441900717130444</v>
+        <v>0.68441902758938555</v>
       </c>
       <c r="C101">
-        <v>0.71265069280356363</v>
+        <v>0.7126506680344652</v>
       </c>
       <c r="D101">
         <v>0.13254049365442794</v>
@@ -1504,13 +1508,13 @@
     </row>
     <row r="102">
       <c r="A102">
-        <v>0.53129267455143458</v>
+        <v>0.53129282039641101</v>
       </c>
       <c r="B102">
-        <v>0.6849571361437683</v>
+        <v>0.68495709583555153</v>
       </c>
       <c r="C102">
-        <v>0.71268975292163039</v>
+        <v>0.71268979541814381</v>
       </c>
       <c r="D102">
         <v>0.1338616421070894</v>
@@ -1518,13 +1522,13 @@
     </row>
     <row r="103">
       <c r="A103">
-        <v>0.52842651346474367</v>
+        <v>0.52842652779632049</v>
       </c>
       <c r="B103">
-        <v>0.68537376119264326</v>
+        <v>0.6853737585448324</v>
       </c>
       <c r="C103">
-        <v>0.71280168042435654</v>
+        <v>0.71280167920586424</v>
       </c>
       <c r="D103">
         <v>0.13750869144557787</v>
@@ -1532,13 +1536,13 @@
     </row>
     <row r="104">
       <c r="A104">
-        <v>0.51833563277341499</v>
+        <v>0.5183357868262517</v>
       </c>
       <c r="B104">
-        <v>0.6876257851329074</v>
+        <v>0.68762572984671033</v>
       </c>
       <c r="C104">
-        <v>0.71252305729421384</v>
+        <v>0.71252311951693836</v>
       </c>
       <c r="D104">
         <v>0.14341310791002532</v>
@@ -1546,13 +1550,13 @@
     </row>
     <row r="105">
       <c r="A105">
-        <v>0.51644726425620713</v>
+        <v>0.51644727612552188</v>
       </c>
       <c r="B105">
-        <v>0.68860686386305825</v>
+        <v>0.68860685963292356</v>
       </c>
       <c r="C105">
-        <v>0.71200089292787716</v>
+        <v>0.71200089110413645</v>
       </c>
       <c r="D105">
         <v>0.14566794062885791</v>
@@ -1560,13 +1564,13 @@
     </row>
     <row r="106">
       <c r="A106">
-        <v>0.52442571072858857</v>
+        <v>0.52442580898525515</v>
       </c>
       <c r="B106">
-        <v>0.68447617481265399</v>
+        <v>0.684476151813036</v>
       </c>
       <c r="C106">
-        <v>0.7142172716206483</v>
+        <v>0.71421728667368001</v>
       </c>
       <c r="D106">
         <v>0.15565759184013014</v>
@@ -1574,13 +1578,13 @@
     </row>
     <row r="107">
       <c r="A107">
-        <v>0.53790664151666168</v>
+        <v>0.53790651250638599</v>
       </c>
       <c r="B107">
-        <v>0.68656958823661873</v>
+        <v>0.68656956999892194</v>
       </c>
       <c r="C107">
-        <v>0.71051272476707639</v>
+        <v>0.7105127658926772</v>
       </c>
       <c r="D107">
         <v>0.15600410432345596</v>
@@ -1588,13 +1592,13 @@
     </row>
     <row r="108">
       <c r="A108">
-        <v>0.52738277031582048</v>
+        <v>0.52738252863529878</v>
       </c>
       <c r="B108">
-        <v>0.68352746946514276</v>
+        <v>0.68352749667021018</v>
       </c>
       <c r="C108">
-        <v>0.71457973891756243</v>
+        <v>0.71457972897257349</v>
       </c>
       <c r="D108">
         <v>0.16273938268230181</v>
@@ -1602,13 +1606,13 @@
     </row>
     <row r="109">
       <c r="A109">
-        <v>0.5053709909495806</v>
+        <v>0.50537082337700578</v>
       </c>
       <c r="B109">
-        <v>0.68188053116024006</v>
+        <v>0.68188044384960966</v>
       </c>
       <c r="C109">
-        <v>0.71920553828775091</v>
+        <v>0.71920563881965371</v>
       </c>
       <c r="D109">
         <v>0.17346647259337442</v>
@@ -1616,13 +1620,13 @@
     </row>
     <row r="110">
       <c r="A110">
-        <v>0.50661757812238095</v>
+        <v>0.50661731222922901</v>
       </c>
       <c r="B110">
-        <v>0.67781549575530065</v>
+        <v>0.67781552133699896</v>
       </c>
       <c r="C110">
-        <v>0.72226581499428666</v>
+        <v>0.72226580258625739</v>
       </c>
       <c r="D110">
         <v>0.17325881555104497</v>
@@ -1630,13 +1634,13 @@
     </row>
     <row r="111">
       <c r="A111">
-        <v>0.49837822484916255</v>
+        <v>0.49837812602979265</v>
       </c>
       <c r="B111">
-        <v>0.67778285839694841</v>
+        <v>0.6777828684371201</v>
       </c>
       <c r="C111">
-        <v>0.72344373681267959</v>
+        <v>0.72344371781729677</v>
       </c>
       <c r="D111">
         <v>0.17201104232307851</v>
@@ -1644,13 +1648,13 @@
     </row>
     <row r="112">
       <c r="A112">
-        <v>0.50427655008833572</v>
+        <v>0.50427677433230467</v>
       </c>
       <c r="B112">
-        <v>0.6752321883859338</v>
+        <v>0.67523221483526552</v>
       </c>
       <c r="C112">
-        <v>0.72465754653890568</v>
+        <v>0.72465752634360803</v>
       </c>
       <c r="D112">
         <v>0.17286818572652041</v>
@@ -1658,13 +1662,13 @@
     </row>
     <row r="113">
       <c r="A113">
-        <v>0.50362413552631835</v>
+        <v>0.50362414939202338</v>
       </c>
       <c r="B113">
-        <v>0.67487027700451963</v>
+        <v>0.67487032563084215</v>
       </c>
       <c r="C113">
-        <v>0.72503395699098205</v>
+        <v>0.72503391457642197</v>
       </c>
       <c r="D113">
         <v>0.17625100482721062</v>
@@ -1672,13 +1676,13 @@
     </row>
     <row r="114">
       <c r="A114">
-        <v>0.50796882588475256</v>
+        <v>0.50796862101315376</v>
       </c>
       <c r="B114">
-        <v>0.67496015371840778</v>
+        <v>0.67496018734895336</v>
       </c>
       <c r="C114">
-        <v>0.7243476203225383</v>
+        <v>0.72434759810778715</v>
       </c>
       <c r="D114">
         <v>0.17819654548237196</v>
@@ -1686,13 +1690,13 @@
     </row>
     <row r="115">
       <c r="A115">
-        <v>0.5122470832206456</v>
+        <v>0.51224663829401118</v>
       </c>
       <c r="B115">
-        <v>0.67543435466160873</v>
+        <v>0.67543423939404068</v>
       </c>
       <c r="C115">
-        <v>0.72335228646698257</v>
+        <v>0.72335241479455492</v>
       </c>
       <c r="D115">
         <v>0.17576336911509033</v>
@@ -1700,13 +1704,13 @@
     </row>
     <row r="116">
       <c r="A116">
-        <v>0.49187608662299726</v>
+        <v>0.49187602084972071</v>
       </c>
       <c r="B116">
-        <v>0.67122436999308865</v>
+        <v>0.67122437822115999</v>
       </c>
       <c r="C116">
-        <v>0.7296050541689304</v>
+        <v>0.729605055313995</v>
       </c>
       <c r="D116">
         <v>0.17968980374985322</v>
@@ -1714,13 +1718,13 @@
     </row>
     <row r="117">
       <c r="A117">
-        <v>0.4830818408508184</v>
+        <v>0.48308182600969857</v>
       </c>
       <c r="B117">
-        <v>0.67790183764297862</v>
+        <v>0.67790187917395817</v>
       </c>
       <c r="C117">
-        <v>0.72561375737957257</v>
+        <v>0.72561372952004788</v>
       </c>
       <c r="D117">
         <v>0.18186024045514665</v>
@@ -1728,13 +1732,13 @@
     </row>
     <row r="118">
       <c r="A118">
-        <v>0.48231067298297714</v>
+        <v>0.48231080664864573</v>
       </c>
       <c r="B118">
-        <v>0.67452564894385791</v>
+        <v>0.67452560596240829</v>
       </c>
       <c r="C118">
-        <v>0.72838803371667959</v>
+        <v>0.72838805715118382</v>
       </c>
       <c r="D118">
         <v>0.18266397863418354</v>
@@ -1742,13 +1746,13 @@
     </row>
     <row r="119">
       <c r="A119">
-        <v>0.48541875072655644</v>
+        <v>0.48541905535020236</v>
       </c>
       <c r="B119">
-        <v>0.67281393372304066</v>
+        <v>0.67281395978285774</v>
       </c>
       <c r="C119">
-        <v>0.72934441142093243</v>
+        <v>0.7293443597572119</v>
       </c>
       <c r="D119">
         <v>0.18802050585342117</v>
@@ -1756,13 +1760,13 @@
     </row>
     <row r="120">
       <c r="A120">
-        <v>0.48767056742882009</v>
+        <v>0.4876704058578557</v>
       </c>
       <c r="B120">
-        <v>0.67253671782267177</v>
+        <v>0.67253667292482544</v>
       </c>
       <c r="C120">
-        <v>0.72927238262845306</v>
+        <v>0.72927243189405222</v>
       </c>
       <c r="D120">
         <v>0.18863084706997901</v>
@@ -1770,13 +1774,13 @@
     </row>
     <row r="121">
       <c r="A121">
-        <v>0.4990841313909728</v>
+        <v>0.49908403074854313</v>
       </c>
       <c r="B121">
-        <v>0.67338117656425478</v>
+        <v>0.67338121274118357</v>
       </c>
       <c r="C121">
-        <v>0.72710108396164475</v>
+        <v>0.72710105665936209</v>
       </c>
       <c r="D121">
         <v>0.18754067011284953</v>
@@ -1784,13 +1788,13 @@
     </row>
     <row r="122">
       <c r="A122">
-        <v>0.49486683692840133</v>
+        <v>0.49486680098651703</v>
       </c>
       <c r="B122">
-        <v>0.67205238942274059</v>
+        <v>0.67205238618426344</v>
       </c>
       <c r="C122">
-        <v>0.72871881573281094</v>
+        <v>0.72871881661375393</v>
       </c>
       <c r="D122">
         <v>0.19283169447554216</v>
@@ -1798,13 +1802,13 @@
     </row>
     <row r="123">
       <c r="A123">
-        <v>0.48417962569702355</v>
+        <v>0.4841797095743775</v>
       </c>
       <c r="B123">
-        <v>0.67031392501342335</v>
+        <v>0.67031389368435068</v>
       </c>
       <c r="C123">
-        <v>0.73152818025476396</v>
+        <v>0.73152819062626828</v>
       </c>
       <c r="D123">
         <v>0.19644657553278305</v>
@@ -1812,13 +1816,13 @@
     </row>
     <row r="124">
       <c r="A124">
-        <v>0.4856305874917981</v>
+        <v>0.48563051972720039</v>
       </c>
       <c r="B124">
-        <v>0.66940866039506841</v>
+        <v>0.6694086897385868</v>
       </c>
       <c r="C124">
-        <v>0.73203855615646862</v>
+        <v>0.73203853981438582</v>
       </c>
       <c r="D124">
         <v>0.19713287306616784</v>
@@ -1826,13 +1830,13 @@
     </row>
     <row r="125">
       <c r="A125">
-        <v>0.47974123046898515</v>
+        <v>0.47974137901224512</v>
       </c>
       <c r="B125">
-        <v>0.66903464226279941</v>
+        <v>0.66903467308036024</v>
       </c>
       <c r="C125">
-        <v>0.73311079308866689</v>
+        <v>0.73311075790378477</v>
       </c>
       <c r="D125">
         <v>0.20193611122396704</v>
@@ -1840,13 +1844,13 @@
     </row>
     <row r="126">
       <c r="A126">
-        <v>0.47638900122107158</v>
+        <v>0.47638906210558818</v>
       </c>
       <c r="B126">
-        <v>0.66943640581323383</v>
+        <v>0.66943649770156344</v>
       </c>
       <c r="C126">
-        <v>0.73323450417495284</v>
+        <v>0.73323440231838999</v>
       </c>
       <c r="D126">
         <v>0.20618266015786729</v>
@@ -1854,13 +1858,13 @@
     </row>
     <row r="127">
       <c r="A127">
-        <v>0.48388125780811791</v>
+        <v>0.4838809760731656</v>
       </c>
       <c r="B127">
-        <v>0.66630569995781008</v>
+        <v>0.6663057185315755</v>
       </c>
       <c r="C127">
-        <v>0.73470650411516769</v>
+        <v>0.73470649729028037</v>
       </c>
       <c r="D127">
         <v>0.2005305790119396</v>
@@ -1868,13 +1872,13 @@
     </row>
     <row r="128">
       <c r="A128">
-        <v>0.49207755015718013</v>
+        <v>0.49207737346569885</v>
       </c>
       <c r="B128">
-        <v>0.66817635614009019</v>
+        <v>0.66817624062848591</v>
       </c>
       <c r="C128">
-        <v>0.73216065557440313</v>
+        <v>0.73216077328879137</v>
       </c>
       <c r="D128">
         <v>0.20520447655236218</v>
@@ -1882,13 +1886,13 @@
     </row>
     <row r="129">
       <c r="A129">
-        <v>0.49209320701194675</v>
+        <v>0.49209319449753469</v>
       </c>
       <c r="B129">
-        <v>0.66803924383430735</v>
+        <v>0.66803925613070292</v>
       </c>
       <c r="C129">
-        <v>0.73226371181591765</v>
+        <v>0.73226370097457449</v>
       </c>
       <c r="D129">
         <v>0.20944773197185201</v>
@@ -1896,13 +1900,13 @@
     </row>
     <row r="130">
       <c r="A130">
-        <v>0.4799769728666422</v>
+        <v>0.47997712260642222</v>
       </c>
       <c r="B130">
-        <v>0.6651387534764639</v>
+        <v>0.66513873086506403</v>
       </c>
       <c r="C130">
-        <v>0.73619508916323007</v>
+        <v>0.73619510497824137</v>
       </c>
       <c r="D130">
         <v>0.21702311329970458</v>
@@ -1910,13 +1914,13 @@
     </row>
     <row r="131">
       <c r="A131">
-        <v>0.47481590541284308</v>
+        <v>0.47481569317443051</v>
       </c>
       <c r="B131">
-        <v>0.66706231781098624</v>
+        <v>0.66706236613658865</v>
       </c>
       <c r="C131">
-        <v>0.73544053791679342</v>
+        <v>0.73544050337590705</v>
       </c>
       <c r="D131">
         <v>0.21789567029752202</v>
@@ -1924,13 +1928,13 @@
     </row>
     <row r="132">
       <c r="A132">
-        <v>0.47261591513730911</v>
+        <v>0.47261621638166229</v>
       </c>
       <c r="B132">
-        <v>0.67072456192789209</v>
+        <v>0.67072458006704594</v>
       </c>
       <c r="C132">
-        <v>0.73290423651629344</v>
+        <v>0.73290420291614233</v>
       </c>
       <c r="D132">
         <v>0.21507445135687434</v>
@@ -1938,13 +1942,13 @@
     </row>
     <row r="133">
       <c r="A133">
-        <v>0.4713347286486399</v>
+        <v>0.4713345228553395</v>
       </c>
       <c r="B133">
-        <v>0.67288185572700487</v>
+        <v>0.67288186863597188</v>
       </c>
       <c r="C133">
-        <v>0.73137690319182602</v>
+        <v>0.73137689112730464</v>
       </c>
       <c r="D133">
         <v>0.21519694361586536</v>
@@ -1952,13 +1956,13 @@
     </row>
     <row r="134">
       <c r="A134">
-        <v>0.46948665690423813</v>
+        <v>0.46948674463760626</v>
       </c>
       <c r="B134">
-        <v>0.67400728828842782</v>
+        <v>0.67400734641650684</v>
       </c>
       <c r="C134">
-        <v>0.73071344243457115</v>
+        <v>0.73071338527863283</v>
       </c>
       <c r="D134">
         <v>0.21862945119210714</v>
@@ -1966,13 +1970,13 @@
     </row>
     <row r="135">
       <c r="A135">
-        <v>0.46304490336689597</v>
+        <v>0.46304500140053606</v>
       </c>
       <c r="B135">
-        <v>0.6770732653150342</v>
+        <v>0.67707327606111212</v>
       </c>
       <c r="C135">
-        <v>0.72904182636201609</v>
+        <v>0.72904181959693337</v>
       </c>
       <c r="D135">
         <v>0.22081039391305218</v>
@@ -1980,13 +1984,13 @@
     </row>
     <row r="136">
       <c r="A136">
-        <v>0.45965071964144066</v>
+        <v>0.4596505114126298</v>
       </c>
       <c r="B136">
-        <v>0.68049790994575321</v>
+        <v>0.6804978559456023</v>
       </c>
       <c r="C136">
-        <v>0.72667693516550891</v>
+        <v>0.72667698404019321</v>
       </c>
       <c r="D136">
         <v>0.22174741162157174</v>
@@ -1994,13 +1998,13 @@
     </row>
     <row r="137">
       <c r="A137">
-        <v>0.45062002395193473</v>
+        <v>0.45062007644026603</v>
       </c>
       <c r="B137">
-        <v>0.68920707275570614</v>
+        <v>0.68920706644658203</v>
       </c>
       <c r="C137">
-        <v>0.72057133846200427</v>
+        <v>0.72057134427972647</v>
       </c>
       <c r="D137">
         <v>0.22435779877019063</v>
@@ -2008,13 +2012,13 @@
     </row>
     <row r="138">
       <c r="A138">
-        <v>0.45016656118104947</v>
+        <v>0.45016667433484936</v>
       </c>
       <c r="B138">
-        <v>0.68142154665901311</v>
+        <v>0.68142158224835558</v>
       </c>
       <c r="C138">
-        <v>0.72702494766840142</v>
+        <v>0.72702491516694301</v>
       </c>
       <c r="D138">
         <v>0.2175688501838699</v>
@@ -2022,13 +2026,13 @@
     </row>
     <row r="139">
       <c r="A139">
-        <v>0.44374007355438694</v>
+        <v>0.44373980160444676</v>
       </c>
       <c r="B139">
-        <v>0.68137294088947886</v>
+        <v>0.68137297749206915</v>
       </c>
       <c r="C139">
-        <v>0.72774162020425637</v>
+        <v>0.72774159677863226</v>
       </c>
       <c r="D139">
         <v>0.21973222728180813</v>
@@ -2036,13 +2040,13 @@
     </row>
     <row r="140">
       <c r="A140">
-        <v>0.42311174045421862</v>
+        <v>0.42311137289334838</v>
       </c>
       <c r="B140">
-        <v>0.6842424325651254</v>
+        <v>0.68424242725794338</v>
       </c>
       <c r="C140">
-        <v>0.7275014526955037</v>
+        <v>0.72750146916862335</v>
       </c>
       <c r="D140">
         <v>0.22845515309639369</v>
@@ -2050,13 +2054,13 @@
     </row>
     <row r="141">
       <c r="A141">
-        <v>0.41955259722064814</v>
+        <v>0.41955290630601394</v>
       </c>
       <c r="B141">
-        <v>0.68717367570700194</v>
+        <v>0.68717369844067844</v>
       </c>
       <c r="C141">
-        <v>0.72543051777371104</v>
+        <v>0.72543048937518395</v>
       </c>
       <c r="D141">
         <v>0.23139693317833351</v>
@@ -2064,13 +2068,13 @@
     </row>
     <row r="142">
       <c r="A142">
-        <v>0.42086031803120538</v>
+        <v>0.42086017132263548</v>
       </c>
       <c r="B142">
-        <v>0.68508113277369276</v>
+        <v>0.68508115120132129</v>
       </c>
       <c r="C142">
-        <v>0.72703219780870332</v>
+        <v>0.72703218018969906</v>
       </c>
       <c r="D142">
         <v>0.23122106087486236</v>
@@ -2078,13 +2082,13 @@
     </row>
     <row r="143">
       <c r="A143">
-        <v>0.40756371751175408</v>
+        <v>0.40756345712999587</v>
       </c>
       <c r="B143">
-        <v>0.68564350111126693</v>
+        <v>0.68564349532206093</v>
       </c>
       <c r="C143">
-        <v>0.72782205263557376</v>
+        <v>0.72782206086803214</v>
       </c>
       <c r="D143">
         <v>0.23724962802132046</v>
@@ -2092,13 +2096,13 @@
     </row>
     <row r="144">
       <c r="A144">
-        <v>0.38748515644614789</v>
+        <v>0.38748488505608036</v>
       </c>
       <c r="B144">
-        <v>0.69060405643024314</v>
+        <v>0.69060407108104749</v>
       </c>
       <c r="C144">
-        <v>0.72552418297902799</v>
+        <v>0.72552418945239949</v>
       </c>
       <c r="D144">
         <v>0.24716178814367745</v>
@@ -2106,13 +2110,13 @@
     </row>
     <row r="145">
       <c r="A145">
-        <v>0.37513333173897223</v>
+        <v>0.37513346426815891</v>
       </c>
       <c r="B145">
-        <v>0.70186612446713714</v>
+        <v>0.70186611954227396</v>
       </c>
       <c r="C145">
-        <v>0.71709804720188264</v>
+        <v>0.71709805328137766</v>
       </c>
       <c r="D145">
         <v>0.25518438382993591</v>
@@ -2120,13 +2124,13 @@
     </row>
     <row r="146">
       <c r="A146">
-        <v>0.37178095941405376</v>
+        <v>0.37178058464203995</v>
       </c>
       <c r="B146">
-        <v>0.70556751748190583</v>
+        <v>0.70556753091735669</v>
       </c>
       <c r="C146">
-        <v>0.71420259544842146</v>
+        <v>0.71420259225083171</v>
       </c>
       <c r="D146">
         <v>0.25767492115910084</v>
@@ -2134,13 +2138,13 @@
     </row>
     <row r="147">
       <c r="A147">
-        <v>0.36556641444353333</v>
+        <v>0.36556634020452294</v>
       </c>
       <c r="B147">
-        <v>0.70736097815865717</v>
+        <v>0.70736097650457852</v>
       </c>
       <c r="C147">
-        <v>0.71316467534208772</v>
+        <v>0.71316468029920022</v>
       </c>
       <c r="D147">
         <v>0.26355112417279025</v>
@@ -2148,13 +2152,13 @@
     </row>
     <row r="148">
       <c r="A148">
-        <v>0.36058863065545604</v>
+        <v>0.36058860327719261</v>
       </c>
       <c r="B148">
-        <v>0.70750758451200657</v>
+        <v>0.7075075589382156</v>
       </c>
       <c r="C148">
-        <v>0.71343671465378566</v>
+        <v>0.71343675620505698</v>
       </c>
       <c r="D148">
         <v>0.26582533436278521</v>
@@ -2162,13 +2166,13 @@
     </row>
     <row r="149">
       <c r="A149">
-        <v>0.35511349945554366</v>
+        <v>0.35511393665186408</v>
       </c>
       <c r="B149">
-        <v>0.70722906651322748</v>
+        <v>0.70722916613109477</v>
       </c>
       <c r="C149">
-        <v>0.71410868674668304</v>
+        <v>0.71410857280876239</v>
       </c>
       <c r="D149">
         <v>0.26412515658722802</v>
@@ -2176,13 +2180,13 @@
     </row>
     <row r="150">
       <c r="A150">
-        <v>0.37289116759648439</v>
+        <v>0.37289063921345766</v>
       </c>
       <c r="B150">
-        <v>0.70454092355481301</v>
+        <v>0.70454090656317891</v>
       </c>
       <c r="C150">
-        <v>0.71499427021209461</v>
+        <v>0.71499430269164943</v>
       </c>
       <c r="D150">
         <v>0.25568416563668173</v>
@@ -2190,13 +2194,13 @@
     </row>
     <row r="151">
       <c r="A151">
-        <v>0.31771310805060171</v>
+        <v>0.31771293904675652</v>
       </c>
       <c r="B151">
-        <v>0.69833218775466777</v>
+        <v>0.69833216073248527</v>
       </c>
       <c r="C151">
-        <v>0.72450482769502056</v>
+        <v>0.72450487292695032</v>
       </c>
       <c r="D151">
         <v>0.27219177800949373</v>
@@ -2204,13 +2208,13 @@
     </row>
     <row r="152">
       <c r="A152">
-        <v>0.3267172791714229</v>
+        <v>0.32671746182362504</v>
       </c>
       <c r="B152">
-        <v>0.69447015597041195</v>
+        <v>0.69447021698451916</v>
       </c>
       <c r="C152">
-        <v>0.72712335049344945</v>
+        <v>0.72712330377569789</v>
       </c>
       <c r="D152">
         <v>0.27055257680815381</v>
@@ -2218,13 +2222,13 @@
     </row>
     <row r="153">
       <c r="A153">
-        <v>0.33086714393349725</v>
+        <v>0.3308667704211089</v>
       </c>
       <c r="B153">
-        <v>0.69372147063204248</v>
+        <v>0.6937214770489295</v>
       </c>
       <c r="C153">
-        <v>0.72745006737293538</v>
+        <v>0.72745006960846359</v>
       </c>
       <c r="D153">
         <v>0.27330737545519046</v>
@@ -2232,13 +2236,13 @@
     </row>
     <row r="154">
       <c r="A154">
-        <v>0.36379344853306916</v>
+        <v>0.36379329588518611</v>
       </c>
       <c r="B154">
-        <v>0.69461616847816132</v>
+        <v>0.69461614977460373</v>
       </c>
       <c r="C154">
-        <v>0.7242165867594883</v>
+        <v>0.72421661039017948</v>
       </c>
       <c r="D154">
         <v>0.26452764970554632</v>
@@ -2246,13 +2250,13 @@
     </row>
     <row r="155">
       <c r="A155">
-        <v>0.32506363297770546</v>
+        <v>0.32506364824832201</v>
       </c>
       <c r="B155">
-        <v>0.68718286203988466</v>
+        <v>0.68718294543150393</v>
       </c>
       <c r="C155">
-        <v>0.73332008133574056</v>
+        <v>0.73332001311456141</v>
       </c>
       <c r="D155">
         <v>0.28193722287776479</v>
@@ -2260,13 +2264,13 @@
     </row>
     <row r="156">
       <c r="A156">
-        <v>0.33326687647598874</v>
+        <v>0.33326638593783298</v>
       </c>
       <c r="B156">
-        <v>0.68615639552441821</v>
+        <v>0.68615636777015421</v>
       </c>
       <c r="C156">
-        <v>0.73358353386994279</v>
+        <v>0.7335835716410648</v>
       </c>
       <c r="D156">
         <v>0.27452093463281085</v>
@@ -2274,13 +2278,13 @@
     </row>
     <row r="157">
       <c r="A157">
-        <v>0.34472560238437588</v>
+        <v>0.34472511058335709</v>
       </c>
       <c r="B157">
-        <v>0.68621524721965432</v>
+        <v>0.68621523305978394</v>
       </c>
       <c r="C157">
-        <v>0.73269562603583493</v>
+        <v>0.73269563921660497</v>
       </c>
       <c r="D157">
         <v>0.26914291167666116</v>
@@ -2288,13 +2292,13 @@
     </row>
     <row r="158">
       <c r="A158">
-        <v>0.27499553888736084</v>
+        <v>0.27499569581046018</v>
       </c>
       <c r="B158">
-        <v>0.6783210661942809</v>
+        <v>0.67832099818081937</v>
       </c>
       <c r="C158">
-        <v>0.7438041040051584</v>
+        <v>0.74380414887294932</v>
       </c>
       <c r="D158">
         <v>0.3118314399187932</v>
@@ -2302,13 +2306,13 @@
     </row>
     <row r="159">
       <c r="A159">
-        <v>0.2872514751143051</v>
+        <v>0.28725118631250002</v>
       </c>
       <c r="B159">
-        <v>0.6699418472678822</v>
+        <v>0.66994184732059869</v>
       </c>
       <c r="C159">
-        <v>0.74980982017669784</v>
+        <v>0.74980982324393586</v>
       </c>
       <c r="D159">
         <v>0.31308589556336752</v>
@@ -2316,13 +2320,13 @@
     </row>
     <row r="160">
       <c r="A160">
-        <v>0.31851938014219666</v>
+        <v>0.31851909477103812</v>
       </c>
       <c r="B160">
-        <v>0.67030958519783967</v>
+        <v>0.67030965949943266</v>
       </c>
       <c r="C160">
-        <v>0.74753088082957153</v>
+        <v>0.7475308216268034</v>
       </c>
       <c r="D160">
         <v>0.30217046408040221</v>
@@ -2330,13 +2334,13 @@
     </row>
     <row r="161">
       <c r="A161">
-        <v>0.34920577194468072</v>
+        <v>0.34920574437845608</v>
       </c>
       <c r="B161">
-        <v>0.67560189379659707</v>
+        <v>0.67560192781915962</v>
       </c>
       <c r="C161">
-        <v>0.74110865089145672</v>
+        <v>0.74110861806856065</v>
       </c>
       <c r="D161">
         <v>0.31230356789318642</v>
@@ -2344,13 +2348,13 @@
     </row>
     <row r="162">
       <c r="A162">
-        <v>0.33158937468107452</v>
+        <v>0.33158903069742773</v>
       </c>
       <c r="B162">
-        <v>0.67117295467834448</v>
+        <v>0.67117294499801994</v>
       </c>
       <c r="C162">
-        <v>0.74594494185014126</v>
+        <v>0.74594496634815011</v>
       </c>
       <c r="D162">
         <v>0.31018882262601744</v>
@@ -2358,13 +2362,13 @@
     </row>
     <row r="163">
       <c r="A163">
-        <v>0.33482502861632524</v>
+        <v>0.33482489696342843</v>
       </c>
       <c r="B163">
-        <v>0.6709777249187161</v>
+        <v>0.67097774994756798</v>
       </c>
       <c r="C163">
-        <v>0.74586890462019395</v>
+        <v>0.7458688817905017</v>
       </c>
       <c r="D163">
         <v>0.31473036583777619</v>
@@ -2372,13 +2376,13 @@
     </row>
     <row r="164">
       <c r="A164">
-        <v>0.35484995338116271</v>
+        <v>0.35484962596101421</v>
       </c>
       <c r="B164">
-        <v>0.67229664663440269</v>
+        <v>0.67229662783662114</v>
       </c>
       <c r="C164">
-        <v>0.74334633552199536</v>
+        <v>0.7433463641642204</v>
       </c>
       <c r="D164">
         <v>0.31188510312883194</v>
@@ -2386,13 +2390,13 @@
     </row>
     <row r="165">
       <c r="A165">
-        <v>0.32785689462744089</v>
+        <v>0.32785717705402706</v>
       </c>
       <c r="B165">
-        <v>0.6666316297574908</v>
+        <v>0.66663160345404759</v>
       </c>
       <c r="C165">
-        <v>0.74982641479949996</v>
+        <v>0.74982643104149116</v>
       </c>
       <c r="D165">
         <v>0.32842032740545812</v>
@@ -2400,13 +2404,13 @@
     </row>
     <row r="166">
       <c r="A166">
-        <v>0.34935708518639208</v>
+        <v>0.34935705295699448</v>
       </c>
       <c r="B166">
-        <v>0.6647355091158782</v>
+        <v>0.66473547471594419</v>
       </c>
       <c r="C166">
-        <v>0.74979818967256118</v>
+        <v>0.74979822294318721</v>
       </c>
       <c r="D166">
         <v>0.31125271515460462</v>
@@ -2414,13 +2418,13 @@
     </row>
     <row r="167">
       <c r="A167">
-        <v>0.34814881236132506</v>
+        <v>0.3481490245259925</v>
       </c>
       <c r="B167">
-        <v>0.66416159635992833</v>
+        <v>0.66416159444061462</v>
       </c>
       <c r="C167">
-        <v>0.75033748647905996</v>
+        <v>0.75033748446518178</v>
       </c>
       <c r="D167">
         <v>0.32062960469750057</v>
@@ -2428,13 +2432,13 @@
     </row>
     <row r="168">
       <c r="A168">
-        <v>0.33948778550706427</v>
+        <v>0.33948748994029532</v>
       </c>
       <c r="B168">
-        <v>0.66261864731158249</v>
+        <v>0.66261865969049238</v>
       </c>
       <c r="C168">
-        <v>0.7521822421658142</v>
+        <v>0.75218223316649147</v>
       </c>
       <c r="D168">
         <v>0.32452570307647377</v>
@@ -2442,13 +2446,13 @@
     </row>
     <row r="169">
       <c r="A169">
-        <v>0.3485651829651451</v>
+        <v>0.34856483533563665</v>
       </c>
       <c r="B169">
-        <v>0.66218447300868544</v>
+        <v>0.66218449594968865</v>
       </c>
       <c r="C169">
-        <v>0.75186057067216649</v>
+        <v>0.75186055875182034</v>
       </c>
       <c r="D169">
         <v>0.31897325570832646</v>
@@ -2456,13 +2460,13 @@
     </row>
     <row r="170">
       <c r="A170">
-        <v>0.35772679909414995</v>
+        <v>0.35772631182179138</v>
       </c>
       <c r="B170">
-        <v>0.66301867381155399</v>
+        <v>0.66301867534369796</v>
       </c>
       <c r="C170">
-        <v>0.75051336355248377</v>
+        <v>0.75051336414388659</v>
       </c>
       <c r="D170">
         <v>0.31760069881792896</v>
@@ -2470,13 +2474,13 @@
     </row>
     <row r="171">
       <c r="A171">
-        <v>0.36762374896246136</v>
+        <v>0.36762383029789614</v>
       </c>
       <c r="B171">
-        <v>0.66446398437137844</v>
+        <v>0.66446396589504819</v>
       </c>
       <c r="C171">
-        <v>0.74860131967952537</v>
+        <v>0.74860132417138836</v>
       </c>
       <c r="D171">
         <v>0.30924507279020924</v>
@@ -2484,13 +2488,13 @@
     </row>
     <row r="172">
       <c r="A172">
-        <v>0.36120713109581887</v>
+        <v>0.36120745151109357</v>
       </c>
       <c r="B172">
-        <v>0.66287198449394513</v>
+        <v>0.66287198581837026</v>
       </c>
       <c r="C172">
-        <v>0.75035866234848947</v>
+        <v>0.75035865828779724</v>
       </c>
       <c r="D172">
         <v>0.31704493839685188</v>
@@ -2498,13 +2502,13 @@
     </row>
     <row r="173">
       <c r="A173">
-        <v>0.37310063775969521</v>
+        <v>0.37310079968395926</v>
       </c>
       <c r="B173">
-        <v>0.66337883519466423</v>
+        <v>0.66337893387778668</v>
       </c>
       <c r="C173">
-        <v>0.74901562292816748</v>
+        <v>0.74901552977199037</v>
       </c>
       <c r="D173">
         <v>0.31170690229354592</v>
@@ -2512,13 +2516,13 @@
     </row>
     <row r="174">
       <c r="A174">
-        <v>0.37519762329302386</v>
+        <v>0.37519766981912384</v>
       </c>
       <c r="B174">
-        <v>0.66360519025974063</v>
+        <v>0.66360521804601302</v>
       </c>
       <c r="C174">
-        <v>0.74866335256084704</v>
+        <v>0.74866332386846568</v>
       </c>
       <c r="D174">
         <v>0.31829852806960124</v>
@@ -2526,13 +2530,13 @@
     </row>
     <row r="175">
       <c r="A175">
-        <v>0.38735960905656008</v>
+        <v>0.38735937096675377</v>
       </c>
       <c r="B175">
-        <v>0.66544553396472006</v>
+        <v>0.66544551780852057</v>
       </c>
       <c r="C175">
-        <v>0.746188390057275</v>
+        <v>0.7461884224113885</v>
       </c>
       <c r="D175">
         <v>0.3075676242217053</v>
@@ -2540,13 +2544,13 @@
     </row>
     <row r="176">
       <c r="A176">
-        <v>0.38715706450839771</v>
+        <v>0.38715731057961938</v>
       </c>
       <c r="B176">
-        <v>0.66521450618971789</v>
+        <v>0.66521444572698452</v>
       </c>
       <c r="C176">
-        <v>0.74638618786872513</v>
+        <v>0.74638624435508649</v>
       </c>
       <c r="D176">
         <v>0.30857358687449088</v>
@@ -2554,13 +2558,13 @@
     </row>
     <row r="177">
       <c r="A177">
-        <v>0.39861373329591188</v>
+        <v>0.39861362267981071</v>
       </c>
       <c r="B177">
-        <v>0.66708572000523114</v>
+        <v>0.66708572036432268</v>
       </c>
       <c r="C177">
-        <v>0.7438884400957535</v>
+        <v>0.74388844444958879</v>
       </c>
       <c r="D177">
         <v>0.31206749660247868</v>
@@ -2568,13 +2572,13 @@
     </row>
     <row r="178">
       <c r="A178">
-        <v>0.40544237625408297</v>
+        <v>0.40544229358090128</v>
       </c>
       <c r="B178">
-        <v>0.66893851593315123</v>
+        <v>0.66893850275148159</v>
       </c>
       <c r="C178">
-        <v>0.74178390966277907</v>
+        <v>0.74178391839649127</v>
       </c>
       <c r="D178">
         <v>0.31316257221495891</v>
@@ -2582,13 +2586,13 @@
     </row>
     <row r="179">
       <c r="A179">
-        <v>0.37857979837425887</v>
+        <v>0.37858006262805599</v>
       </c>
       <c r="B179">
-        <v>0.66104707850211053</v>
+        <v>0.66104704909493639</v>
       </c>
       <c r="C179">
-        <v>0.75044867087198264</v>
+        <v>0.7504486933435528</v>
       </c>
       <c r="D179">
         <v>0.32659757821522117</v>
@@ -2596,13 +2600,13 @@
     </row>
     <row r="180">
       <c r="A180">
-        <v>0.37798054084395627</v>
+        <v>0.3779807101779038</v>
       </c>
       <c r="B180">
-        <v>0.661058851265242</v>
+        <v>0.66105887351284964</v>
       </c>
       <c r="C180">
-        <v>0.75048898625393479</v>
+        <v>0.75048896270332632</v>
       </c>
       <c r="D180">
         <v>0.33363439795654526</v>
@@ -2610,13 +2614,13 @@
     </row>
     <row r="181">
       <c r="A181">
-        <v>0.38780126573511775</v>
+        <v>0.38780138057109576</v>
       </c>
       <c r="B181">
-        <v>0.65706182747410535</v>
+        <v>0.65706180985600027</v>
       </c>
       <c r="C181">
-        <v>0.75275160948228992</v>
+        <v>0.75275163030813796</v>
       </c>
       <c r="D181">
         <v>0.34094925044505342</v>
@@ -2624,13 +2628,13 @@
     </row>
     <row r="182">
       <c r="A182">
-        <v>0.38654657750737448</v>
+        <v>0.38654649564873333</v>
       </c>
       <c r="B182">
-        <v>0.65655701227033192</v>
+        <v>0.65655702966557983</v>
       </c>
       <c r="C182">
-        <v>0.7532516200320224</v>
+        <v>0.75325159999522928</v>
       </c>
       <c r="D182">
         <v>0.34741614057749592</v>
@@ -2638,13 +2642,13 @@
     </row>
     <row r="183">
       <c r="A183">
-        <v>0.38998773455340041</v>
+        <v>0.3899878042568099</v>
       </c>
       <c r="B183">
-        <v>0.6570677089297301</v>
+        <v>0.65706770777060974</v>
       </c>
       <c r="C183">
-        <v>0.7525449252577403</v>
+        <v>0.752544920159683</v>
       </c>
       <c r="D183">
         <v>0.3512356259186048</v>
@@ -2652,13 +2656,13 @@
     </row>
     <row r="184">
       <c r="A184">
-        <v>0.40290194755505532</v>
+        <v>0.40290169765871753</v>
       </c>
       <c r="B184">
-        <v>0.65960964211630335</v>
+        <v>0.65960964061831451</v>
       </c>
       <c r="C184">
-        <v>0.74936711834734715</v>
+        <v>0.74936711618652763</v>
       </c>
       <c r="D184">
         <v>0.34863548334053285</v>
@@ -2666,13 +2670,13 @@
     </row>
     <row r="185">
       <c r="A185">
-        <v>0.4123435324380797</v>
+        <v>0.41234343627524639</v>
       </c>
       <c r="B185">
-        <v>0.66322516295485667</v>
+        <v>0.6632251575629633</v>
       </c>
       <c r="C185">
-        <v>0.7456151299788214</v>
+        <v>0.74561513716241379</v>
       </c>
       <c r="D185">
         <v>0.35161626975152183</v>
@@ -2680,13 +2684,13 @@
     </row>
     <row r="186">
       <c r="A186">
-        <v>0.40818968596591654</v>
+        <v>0.4081895672818231</v>
       </c>
       <c r="B186">
-        <v>0.66145961126593622</v>
+        <v>0.66145963436180666</v>
       </c>
       <c r="C186">
-        <v>0.74741630503454926</v>
+        <v>0.7474162782374385</v>
       </c>
       <c r="D186">
         <v>0.3555277536633149</v>
@@ -2694,13 +2698,13 @@
     </row>
     <row r="187">
       <c r="A187">
-        <v>0.41649418852275522</v>
+        <v>0.41649422276734527</v>
       </c>
       <c r="B187">
-        <v>0.66322187935565602</v>
+        <v>0.66322189043970914</v>
       </c>
       <c r="C187">
-        <v>0.74515231805500415</v>
+        <v>0.74515230888908213</v>
       </c>
       <c r="D187">
         <v>0.35447204163689683</v>
@@ -2708,13 +2712,13 @@
     </row>
     <row r="188">
       <c r="A188">
-        <v>0.41807231784041521</v>
+        <v>0.41807244198636673</v>
       </c>
       <c r="B188">
-        <v>0.66382250313935642</v>
+        <v>0.66382257195279304</v>
       </c>
       <c r="C188">
-        <v>0.74450831360110636</v>
+        <v>0.74450826056092101</v>
       </c>
       <c r="D188">
         <v>0.36169057914248065</v>
@@ -2722,13 +2726,13 @@
     </row>
     <row r="189">
       <c r="A189">
-        <v>0.42191689939029697</v>
+        <v>0.42191669946378035</v>
       </c>
       <c r="B189">
-        <v>0.66508730312387665</v>
+        <v>0.6650872502792553</v>
       </c>
       <c r="C189">
-        <v>0.74307173847317121</v>
+        <v>0.74307179620456421</v>
       </c>
       <c r="D189">
         <v>0.3712593332215598</v>
@@ -2736,13 +2740,13 @@
     </row>
     <row r="190">
       <c r="A190">
-        <v>0.42534268437189399</v>
+        <v>0.42534273349914958</v>
       </c>
       <c r="B190">
-        <v>0.66634104847324527</v>
+        <v>0.66634098506968065</v>
       </c>
       <c r="C190">
-        <v>0.74167305119794669</v>
+        <v>0.74167310362810968</v>
       </c>
       <c r="D190">
         <v>0.37463913902117157</v>
@@ -2750,13 +2754,13 @@
     </row>
     <row r="191">
       <c r="A191">
-        <v>0.43553459146027307</v>
+        <v>0.43553466251185813</v>
       </c>
       <c r="B191">
-        <v>0.67038618006325135</v>
+        <v>0.67038618423805652</v>
       </c>
       <c r="C191">
-        <v>0.73717209267607897</v>
+        <v>0.73717208740555562</v>
       </c>
       <c r="D191">
         <v>0.37866719232204821</v>
@@ -2764,13 +2768,13 @@
     </row>
     <row r="192">
       <c r="A192">
-        <v>0.43575757219077005</v>
+        <v>0.43575744295491015</v>
       </c>
       <c r="B192">
-        <v>0.67051368379299492</v>
+        <v>0.67051371286047656</v>
       </c>
       <c r="C192">
-        <v>0.73704148855787466</v>
+        <v>0.73704146929036252</v>
       </c>
       <c r="D192">
         <v>0.38089127886996077</v>
@@ -2778,13 +2782,13 @@
     </row>
     <row r="193">
       <c r="A193">
-        <v>0.43318459159830502</v>
+        <v>0.43318477607116401</v>
       </c>
       <c r="B193">
-        <v>0.66911386472523526</v>
+        <v>0.66911385955245506</v>
       </c>
       <c r="C193">
-        <v>0.73852822475119573</v>
+        <v>0.73852822384933037</v>
       </c>
       <c r="D193">
         <v>0.38398141927320772</v>
@@ -2792,13 +2796,13 @@
     </row>
     <row r="194">
       <c r="A194">
-        <v>0.43446843092441251</v>
+        <v>0.43446835575214182</v>
       </c>
       <c r="B194">
-        <v>0.66933064676722553</v>
+        <v>0.66933058420792579</v>
       </c>
       <c r="C194">
-        <v>0.73809175881538813</v>
+        <v>0.73809180939041641</v>
       </c>
       <c r="D194">
         <v>0.39273179791691637</v>
@@ -2806,13 +2810,13 @@
     </row>
     <row r="195">
       <c r="A195">
-        <v>0.43653813650829032</v>
+        <v>0.43653854019738847</v>
       </c>
       <c r="B195">
-        <v>0.67028146698493585</v>
+        <v>0.67028147504583035</v>
       </c>
       <c r="C195">
-        <v>0.73696082720851674</v>
+        <v>0.736960817106741</v>
       </c>
       <c r="D195">
         <v>0.39045527247375972</v>
@@ -2820,13 +2824,13 @@
     </row>
     <row r="196">
       <c r="A196">
-        <v>0.4378725295617456</v>
+        <v>0.43787282192845711</v>
       </c>
       <c r="B196">
-        <v>0.67109352670191846</v>
+        <v>0.6710935019221359</v>
       </c>
       <c r="C196">
-        <v>0.73607369077193208</v>
+        <v>0.73607369765618502</v>
       </c>
       <c r="D196">
         <v>0.39331380791239656</v>
@@ -2834,13 +2838,13 @@
     </row>
     <row r="197">
       <c r="A197">
-        <v>0.43667068798584224</v>
+        <v>0.43667022394230182</v>
       </c>
       <c r="B197">
-        <v>0.67028969181487907</v>
+        <v>0.67028962766497602</v>
       </c>
       <c r="C197">
-        <v>0.73696219716301559</v>
+        <v>0.73696226413053245</v>
       </c>
       <c r="D197">
         <v>0.3973984499663813</v>
@@ -2848,13 +2852,13 @@
     </row>
     <row r="198">
       <c r="A198">
-        <v>0.43734686462495742</v>
+        <v>0.43734644112330173</v>
       </c>
       <c r="B198">
-        <v>0.67029926745306212</v>
+        <v>0.67029934377504641</v>
       </c>
       <c r="C198">
-        <v>0.73651082913767507</v>
+        <v>0.73651077068057613</v>
       </c>
       <c r="D198">
         <v>0.40516086338825552</v>
@@ -2862,13 +2866,13 @@
     </row>
     <row r="199">
       <c r="A199">
-        <v>0.43713569241324957</v>
+        <v>0.4371362229218303</v>
       </c>
       <c r="B199">
-        <v>0.67011923523756611</v>
+        <v>0.67011921934286767</v>
       </c>
       <c r="C199">
-        <v>0.73669875340186874</v>
+        <v>0.73669876333723772</v>
       </c>
       <c r="D199">
         <v>0.40466203697583042</v>
@@ -2876,13 +2880,13 @@
     </row>
     <row r="200">
       <c r="A200">
-        <v>0.43654591505648743</v>
+        <v>0.43654598242826237</v>
       </c>
       <c r="B200">
-        <v>0.66944389921487391</v>
+        <v>0.66944397868001992</v>
       </c>
       <c r="C200">
-        <v>0.73747613874683293</v>
+        <v>0.7374760659333881</v>
       </c>
       <c r="D200">
         <v>0.41109936240754197</v>
@@ -2890,13 +2894,13 @@
     </row>
     <row r="201">
       <c r="A201">
-        <v>0.43723824682602097</v>
+        <v>0.43723822473631946</v>
       </c>
       <c r="B201">
-        <v>0.6698042336718939</v>
+        <v>0.66980420792166395</v>
       </c>
       <c r="C201">
-        <v>0.73735948118398797</v>
+        <v>0.7373595070689043</v>
       </c>
       <c r="D201">
         <v>0.4148297475372773</v>
@@ -2904,13 +2908,13 @@
     </row>
     <row r="202">
       <c r="A202">
-        <v>0.43732828579010391</v>
+        <v>0.43732847992494678</v>
       </c>
       <c r="B202">
-        <v>0.66987824109766292</v>
+        <v>0.66987826152754781</v>
       </c>
       <c r="C202">
-        <v>0.73730343442409452</v>
+        <v>0.73730342472363852</v>
       </c>
       <c r="D202">
         <v>0.42074136135314921</v>
@@ -2918,13 +2922,13 @@
     </row>
     <row r="203">
       <c r="A203">
-        <v>0.43587289392247869</v>
+        <v>0.43587313890094193</v>
       </c>
       <c r="B203">
-        <v>0.66854318151476844</v>
+        <v>0.66854314974973006</v>
       </c>
       <c r="C203">
-        <v>0.73819387844192819</v>
+        <v>0.73819389436736449</v>
       </c>
       <c r="D203">
         <v>0.42230624203264933</v>
@@ -2932,13 +2936,13 @@
     </row>
     <row r="204">
       <c r="A204">
-        <v>0.43719197524539422</v>
+        <v>0.4371915701307606</v>
       </c>
       <c r="B204">
-        <v>0.66982717757930721</v>
+        <v>0.66982708949107139</v>
       </c>
       <c r="C204">
-        <v>0.73678588874631323</v>
+        <v>0.7367859778761835</v>
       </c>
       <c r="D204">
         <v>0.43129149401176431</v>
@@ -2946,13 +2950,13 @@
     </row>
     <row r="205">
       <c r="A205">
-        <v>0.43574408670333931</v>
+        <v>0.43574358944474401</v>
       </c>
       <c r="B205">
-        <v>0.66813028372403949</v>
+        <v>0.66813027313503337</v>
       </c>
       <c r="C205">
-        <v>0.73853984046135146</v>
+        <v>0.73853985178052106</v>
       </c>
       <c r="D205">
         <v>0.43536213726927886</v>
@@ -2960,13 +2964,13 @@
     </row>
     <row r="206">
       <c r="A206">
-        <v>0.43493803787851654</v>
+        <v>0.43493799156003221</v>
       </c>
       <c r="B206">
-        <v>0.6679976107835619</v>
+        <v>0.66799762217801184</v>
       </c>
       <c r="C206">
-        <v>0.73844903100663994</v>
+        <v>0.7384490254963243</v>
       </c>
       <c r="D206">
         <v>0.44893042819823614</v>
@@ -2974,13 +2978,13 @@
     </row>
     <row r="207">
       <c r="A207">
-        <v>0.43499439652941851</v>
+        <v>0.43499467306325523</v>
       </c>
       <c r="B207">
-        <v>0.66810328847452438</v>
+        <v>0.66810325833142925</v>
       </c>
       <c r="C207">
-        <v>0.73833921346547937</v>
+        <v>0.73833923048455263</v>
       </c>
       <c r="D207">
         <v>0.45253817464995943</v>
@@ -2988,13 +2992,13 @@
     </row>
     <row r="208">
       <c r="A208">
-        <v>0.43468990800188084</v>
+        <v>0.43468978602040786</v>
       </c>
       <c r="B208">
-        <v>0.66864431412922287</v>
+        <v>0.66864441053830237</v>
       </c>
       <c r="C208">
-        <v>0.73768368942693652</v>
+        <v>0.73768361298496643</v>
       </c>
       <c r="D208">
         <v>0.45289663015224207</v>
@@ -3002,13 +3006,13 @@
     </row>
     <row r="209">
       <c r="A209">
-        <v>0.43473028689123128</v>
+        <v>0.4347301346931528</v>
       </c>
       <c r="B209">
-        <v>0.66875742159264639</v>
+        <v>0.66875734030400236</v>
       </c>
       <c r="C209">
-        <v>0.7375700405860397</v>
+        <v>0.73757010706597925</v>
       </c>
       <c r="D209">
         <v>0.46487797208634979</v>
@@ -3016,13 +3020,13 @@
     </row>
     <row r="210">
       <c r="A210">
-        <v>0.43585416823966372</v>
+        <v>0.43585409551540699</v>
       </c>
       <c r="B210">
-        <v>0.66792729316931332</v>
+        <v>0.66792711570863206</v>
       </c>
       <c r="C210">
-        <v>0.738543389023116</v>
+        <v>0.73854355384731629</v>
       </c>
       <c r="D210">
         <v>0.46662031147885485</v>
@@ -3030,13 +3034,13 @@
     </row>
     <row r="211">
       <c r="A211">
-        <v>0.43765396742396545</v>
+        <v>0.43765390732429321</v>
       </c>
       <c r="B211">
-        <v>0.66870947197362751</v>
+        <v>0.66870951835521053</v>
       </c>
       <c r="C211">
-        <v>0.73793453808126142</v>
+        <v>0.73793451327466553</v>
       </c>
       <c r="D211">
         <v>0.46794827476186956</v>
@@ -3044,13 +3048,13 @@
     </row>
     <row r="212">
       <c r="A212">
-        <v>0.43612594018189288</v>
+        <v>0.43612624957763646</v>
       </c>
       <c r="B212">
-        <v>0.66791855619311469</v>
+        <v>0.66791862750984099</v>
       </c>
       <c r="C212">
-        <v>0.73856316577158121</v>
+        <v>0.73856309906663287</v>
       </c>
       <c r="D212">
         <v>0.46573441184863185</v>
@@ -3058,13 +3062,13 @@
     </row>
     <row r="213">
       <c r="A213">
-        <v>0.43479640496830491</v>
+        <v>0.43479666707675158</v>
       </c>
       <c r="B213">
-        <v>0.66770553843836655</v>
+        <v>0.66770558483529907</v>
       </c>
       <c r="C213">
-        <v>0.73858326326200341</v>
+        <v>0.7385832110585322</v>
       </c>
       <c r="D213">
         <v>0.47204489564884378</v>
@@ -3072,13 +3076,13 @@
     </row>
     <row r="214">
       <c r="A214">
-        <v>0.43499779020183016</v>
+        <v>0.43499755950523056</v>
       </c>
       <c r="B214">
-        <v>0.66703075661785993</v>
+        <v>0.66703069717477526</v>
       </c>
       <c r="C214">
-        <v>0.73932532698603637</v>
+        <v>0.73932539155789745</v>
       </c>
       <c r="D214">
         <v>0.47198079270996018</v>
@@ -3086,13 +3090,13 @@
     </row>
     <row r="215">
       <c r="A215">
-        <v>0.43472322416971443</v>
+        <v>0.43472356344281093</v>
       </c>
       <c r="B215">
-        <v>0.66699020480001314</v>
+        <v>0.66699025103898568</v>
       </c>
       <c r="C215">
-        <v>0.73933469712861344</v>
+        <v>0.73933464765424062</v>
       </c>
       <c r="D215">
         <v>0.48462386625396747</v>
@@ -3100,13 +3104,13 @@
     </row>
     <row r="216">
       <c r="A216">
-        <v>0.43626974894543691</v>
+        <v>0.43626946486006479</v>
       </c>
       <c r="B216">
-        <v>0.66714024790790849</v>
+        <v>0.667140164766721</v>
       </c>
       <c r="C216">
-        <v>0.73936840972642137</v>
+        <v>0.73936848436051894</v>
       </c>
       <c r="D216">
         <v>0.49555386954164754</v>
@@ -3114,13 +3118,13 @@
     </row>
     <row r="217">
       <c r="A217">
-        <v>0.43833482492837039</v>
+        <v>0.43833430053867178</v>
       </c>
       <c r="B217">
-        <v>0.66817607866392459</v>
+        <v>0.66817608090670921</v>
       </c>
       <c r="C217">
-        <v>0.73855698813743187</v>
+        <v>0.73855699366575656</v>
       </c>
       <c r="D217">
         <v>0.50261690106076462</v>
@@ -3128,13 +3132,13 @@
     </row>
     <row r="218">
       <c r="A218">
-        <v>0.43679990929919804</v>
+        <v>0.43680058261705529</v>
       </c>
       <c r="B218">
-        <v>0.6672388193143457</v>
+        <v>0.66723892261509299</v>
       </c>
       <c r="C218">
-        <v>0.7393105193583176</v>
+        <v>0.73931043004323793</v>
       </c>
       <c r="D218">
         <v>0.5034481094138743</v>
@@ -3142,13 +3146,13 @@
     </row>
     <row r="219">
       <c r="A219">
-        <v>0.4365979443862017</v>
+        <v>0.436598357761456</v>
       </c>
       <c r="B219">
-        <v>0.66719107786346998</v>
+        <v>0.6671911148177132</v>
       </c>
       <c r="C219">
-        <v>0.73931855473428021</v>
+        <v>0.73931851848801844</v>
       </c>
       <c r="D219">
         <v>0.50316917138955886</v>
@@ -3156,13 +3160,13 @@
     </row>
     <row r="220">
       <c r="A220">
-        <v>0.43597059233376545</v>
+        <v>0.4359704853062113</v>
       </c>
       <c r="B220">
-        <v>0.66716737985896313</v>
+        <v>0.66716734519843812</v>
       </c>
       <c r="C220">
-        <v>0.73919936069875647</v>
+        <v>0.73919939510680566</v>
       </c>
       <c r="D220">
         <v>0.50305847753449351</v>
@@ -3170,13 +3174,13 @@
     </row>
     <row r="221">
       <c r="A221">
-        <v>0.4359947378863393</v>
+        <v>0.43599459506884608</v>
       </c>
       <c r="B221">
-        <v>0.66720943064796212</v>
+        <v>0.66720945260417364</v>
       </c>
       <c r="C221">
-        <v>0.73915771449784096</v>
+        <v>0.73915769825768907</v>
       </c>
       <c r="D221">
         <v>0.51421336801054418</v>
@@ -3184,13 +3188,13 @@
     </row>
     <row r="222">
       <c r="A222">
-        <v>0.43721210861094323</v>
+        <v>0.43721220287229934</v>
       </c>
       <c r="B222">
-        <v>0.66664781498745529</v>
+        <v>0.66664789553016313</v>
       </c>
       <c r="C222">
-        <v>0.73995740746656558</v>
+        <v>0.73995734423272452</v>
       </c>
       <c r="D222">
         <v>0.51792576414964397</v>
@@ -3198,13 +3202,13 @@
     </row>
     <row r="223">
       <c r="A223">
-        <v>0.43641881031518087</v>
+        <v>0.43641833170455191</v>
       </c>
       <c r="B223">
-        <v>0.66616911919353372</v>
+        <v>0.6661691023942321</v>
       </c>
       <c r="C223">
-        <v>0.74034165036878363</v>
+        <v>0.74034167156624986</v>
       </c>
       <c r="D223">
         <v>0.52552742629843663</v>
@@ -3212,13 +3216,13 @@
     </row>
     <row r="224">
       <c r="A224">
-        <v>0.43638417008896202</v>
+        <v>0.43638469842811495</v>
       </c>
       <c r="B224">
-        <v>0.66616132358817026</v>
+        <v>0.66616131563844916</v>
       </c>
       <c r="C224">
-        <v>0.74034307549435319</v>
+        <v>0.74034306257934479</v>
       </c>
       <c r="D224">
         <v>0.54194386881758638</v>
@@ -3226,13 +3230,13 @@
     </row>
     <row r="225">
       <c r="A225">
-        <v>0.43549858243596129</v>
+        <v>0.43549871713115934</v>
       </c>
       <c r="B225">
-        <v>0.66584820882149987</v>
+        <v>0.66584831121364785</v>
       </c>
       <c r="C225">
-        <v>0.74048353538948852</v>
+        <v>0.74048345105723756</v>
       </c>
       <c r="D225">
         <v>0.54772062390883014</v>
@@ -3240,13 +3244,13 @@
     </row>
     <row r="226">
       <c r="A226">
-        <v>0.43580182774321419</v>
+        <v>0.4358016715900685</v>
       </c>
       <c r="B226">
-        <v>0.66476822067761931</v>
+        <v>0.66476820669489101</v>
       </c>
       <c r="C226">
-        <v>0.74180202944991624</v>
+        <v>0.74180203743559492</v>
       </c>
       <c r="D226">
         <v>0.5380417665403292</v>
@@ -3254,13 +3258,13 @@
     </row>
     <row r="227">
       <c r="A227">
-        <v>0.43274161378969933</v>
+        <v>0.43274146664875618</v>
       </c>
       <c r="B227">
-        <v>0.6626791594272825</v>
+        <v>0.66267916422988704</v>
       </c>
       <c r="C227">
-        <v>0.74346195112302249</v>
+        <v>0.74346195353663413</v>
       </c>
       <c r="D227">
         <v>0.53747365412985715</v>
@@ -3268,13 +3272,13 @@
     </row>
     <row r="228">
       <c r="A228">
-        <v>0.43266515641945347</v>
+        <v>0.43266514526915056</v>
       </c>
       <c r="B228">
-        <v>0.66296812369461822</v>
+        <v>0.66296821118397697</v>
       </c>
       <c r="C228">
-        <v>0.74308591305754113</v>
+        <v>0.74308582549507896</v>
       </c>
       <c r="D228">
         <v>0.54942467713480014</v>
@@ -3282,13 +3286,13 @@
     </row>
     <row r="229">
       <c r="A229">
-        <v>0.43258028056222331</v>
+        <v>0.43258053008942871</v>
       </c>
       <c r="B229">
-        <v>0.66210979366130052</v>
+        <v>0.66210984119579219</v>
       </c>
       <c r="C229">
-        <v>0.74404187366341346</v>
+        <v>0.74404183036493809</v>
       </c>
       <c r="D229">
         <v>0.55200837475279785</v>
@@ -3296,13 +3300,13 @@
     </row>
     <row r="230">
       <c r="A230">
-        <v>0.43283006685219094</v>
+        <v>0.43283005710511196</v>
       </c>
       <c r="B230">
-        <v>0.66222831341767785</v>
+        <v>0.66222839232379438</v>
       </c>
       <c r="C230">
-        <v>0.74396160576352166</v>
+        <v>0.74396155122755125</v>
       </c>
       <c r="D230">
         <v>0.55573991572838022</v>
@@ -3310,13 +3314,13 @@
     </row>
     <row r="231">
       <c r="A231">
-        <v>0.4327877109598649</v>
+        <v>0.4327880354378606</v>
       </c>
       <c r="B231">
-        <v>0.66221670136510702</v>
+        <v>0.66221667508722615</v>
       </c>
       <c r="C231">
-        <v>0.74396545918630141</v>
+        <v>0.74396548731828893</v>
       </c>
       <c r="D231">
         <v>0.57501893028538076</v>
@@ -3324,13 +3328,13 @@
     </row>
     <row r="232">
       <c r="A232">
-        <v>0.43093803366223715</v>
+        <v>0.43093821967256085</v>
       </c>
       <c r="B232">
-        <v>0.66155828181494103</v>
+        <v>0.66155826751260571</v>
       </c>
       <c r="C232">
-        <v>0.74425661636594875</v>
+        <v>0.7442566171422117</v>
       </c>
       <c r="D232">
         <v>0.59052817488898612</v>
@@ -3338,13 +3342,13 @@
     </row>
     <row r="233">
       <c r="A233">
-        <v>0.43000512224046217</v>
+        <v>0.43000467716240254</v>
       </c>
       <c r="B233">
-        <v>0.65970861651743762</v>
+        <v>0.65970880009695199</v>
       </c>
       <c r="C233">
-        <v>0.74610883073797807</v>
+        <v>0.74610866796471664</v>
       </c>
       <c r="D233">
         <v>0.59034333344517098</v>
@@ -3352,13 +3356,13 @@
     </row>
     <row r="234">
       <c r="A234">
-        <v>0.42971254058743058</v>
+        <v>0.42971245375484157</v>
       </c>
       <c r="B234">
-        <v>0.65965543880140798</v>
+        <v>0.65965536447054784</v>
       </c>
       <c r="C234">
-        <v>0.74612022482331797</v>
+        <v>0.74612029483019238</v>
       </c>
       <c r="D234">
         <v>0.6009212849467398</v>
@@ -3366,13 +3370,13 @@
     </row>
     <row r="235">
       <c r="A235">
-        <v>0.42959761124473422</v>
+        <v>0.42959725897633294</v>
       </c>
       <c r="B235">
-        <v>0.65967299004996705</v>
+        <v>0.65967303847948966</v>
       </c>
       <c r="C235">
-        <v>0.74608489361252661</v>
+        <v>0.74608485607499986</v>
       </c>
       <c r="D235">
         <v>0.61228410469852501</v>
@@ -3380,13 +3384,13 @@
     </row>
     <row r="236">
       <c r="A236">
-        <v>0.43104754224880826</v>
+        <v>0.43104741279641168</v>
       </c>
       <c r="B236">
-        <v>0.65966381242214323</v>
+        <v>0.65966377720177205</v>
       </c>
       <c r="C236">
-        <v>0.74630267413966878</v>
+        <v>0.74630270554967404</v>
       </c>
       <c r="D236">
         <v>0.62038794874922187</v>
@@ -3394,13 +3398,13 @@
     </row>
     <row r="237">
       <c r="A237">
-        <v>0.43056395999771996</v>
+        <v>0.43056398707333032</v>
       </c>
       <c r="B237">
-        <v>0.65939159518305424</v>
+        <v>0.65939155416385786</v>
       </c>
       <c r="C237">
-        <v>0.74651261983393369</v>
+        <v>0.74651266413666417</v>
       </c>
       <c r="D237">
         <v>0.6304223609454731</v>
@@ -3408,13 +3412,13 @@
     </row>
     <row r="238">
       <c r="A238">
-        <v>0.43003474498538496</v>
+        <v>0.43003466107039556</v>
       </c>
       <c r="B238">
-        <v>0.65916945739466426</v>
+        <v>0.659169334568107</v>
       </c>
       <c r="C238">
-        <v>0.74664886410816345</v>
+        <v>0.74664896682269488</v>
       </c>
       <c r="D238">
         <v>0.63274116977509787</v>
@@ -3422,13 +3426,13 @@
     </row>
     <row r="239">
       <c r="A239">
-        <v>0.42898903818829226</v>
+        <v>0.42898925624789835</v>
       </c>
       <c r="B239">
-        <v>0.65912512416193536</v>
+        <v>0.65912508894054722</v>
       </c>
       <c r="C239">
-        <v>0.74647346657715052</v>
+        <v>0.74647347775415684</v>
       </c>
       <c r="D239">
         <v>0.66051226787326034</v>
@@ -3436,13 +3440,13 @@
     </row>
     <row r="240">
       <c r="A240">
-        <v>0.42914910293343217</v>
+        <v>0.42914922750519047</v>
       </c>
       <c r="B240">
-        <v>0.65960754075578532</v>
+        <v>0.65960754337825833</v>
       </c>
       <c r="C240">
-        <v>0.74598679448460492</v>
+        <v>0.74598680428920672</v>
       </c>
       <c r="D240">
         <v>0.67729879171849572</v>
@@ -3450,13 +3454,13 @@
     </row>
     <row r="241">
       <c r="A241">
-        <v>0.42949033657960839</v>
+        <v>0.42949012600009034</v>
       </c>
       <c r="B241">
-        <v>0.65831522511179141</v>
+        <v>0.65831516315023075</v>
       </c>
       <c r="C241">
-        <v>0.74733593802876463</v>
+        <v>0.74733599042095367</v>
       </c>
       <c r="D241">
         <v>0.68465809998036686</v>
@@ -3464,13 +3468,13 @@
     </row>
     <row r="242">
       <c r="A242">
-        <v>0.43418876368962411</v>
+        <v>0.43418844674430013</v>
       </c>
       <c r="B242">
-        <v>0.66010773065737882</v>
+        <v>0.66010766782913011</v>
       </c>
       <c r="C242">
-        <v>0.74605553852681816</v>
+        <v>0.74605559563408153</v>
       </c>
       <c r="D242">
         <v>0.68954742552952464</v>
@@ -3478,13 +3482,13 @@
     </row>
     <row r="243">
       <c r="A243">
-        <v>0.43031399650653523</v>
+        <v>0.43031368747041088</v>
       </c>
       <c r="B243">
-        <v>0.65733893990649084</v>
+        <v>0.65733888455420253</v>
       </c>
       <c r="C243">
-        <v>0.74835025127119703</v>
+        <v>0.74835029794975039</v>
       </c>
       <c r="D243">
         <v>0.6983779646745284</v>
@@ -3492,13 +3496,13 @@
     </row>
     <row r="244">
       <c r="A244">
-        <v>0.43032483799274235</v>
+        <v>0.43032526889592959</v>
       </c>
       <c r="B244">
-        <v>0.65735115998874638</v>
+        <v>0.65735120706072037</v>
       </c>
       <c r="C244">
-        <v>0.74833945929307366</v>
+        <v>0.74833942135567677</v>
       </c>
       <c r="D244">
         <v>0.70743385396275849</v>
@@ -3506,13 +3510,13 @@
     </row>
     <row r="245">
       <c r="A245">
-        <v>0.43167954153308669</v>
+        <v>0.43167863716891097</v>
       </c>
       <c r="B245">
-        <v>0.657771173904794</v>
+        <v>0.65777109316062043</v>
       </c>
       <c r="C245">
-        <v>0.74820976110839688</v>
+        <v>0.74820984387953671</v>
       </c>
       <c r="D245">
         <v>0.71302838649990719</v>
@@ -3520,13 +3524,13 @@
     </row>
     <row r="246">
       <c r="A246">
-        <v>0.43149616972325139</v>
+        <v>0.43149582154431176</v>
       </c>
       <c r="B246">
-        <v>0.65763313054495498</v>
+        <v>0.65763297995164371</v>
       </c>
       <c r="C246">
-        <v>0.74831734407847783</v>
+        <v>0.74831749274948889</v>
       </c>
       <c r="D246">
         <v>0.73601402987568787</v>
@@ -3534,13 +3538,13 @@
     </row>
     <row r="247">
       <c r="A247">
-        <v>0.43201652954383429</v>
+        <v>0.4320165900884706</v>
       </c>
       <c r="B247">
-        <v>0.65802870398448987</v>
+        <v>0.65802878751139204</v>
       </c>
       <c r="C247">
-        <v>0.74804672981148879</v>
+        <v>0.74804666036812428</v>
       </c>
       <c r="D247">
         <v>0.74237763178237615</v>
@@ -3548,13 +3552,13 @@
     </row>
     <row r="248">
       <c r="A248">
-        <v>0.43176061174534014</v>
+        <v>0.43176108984036787</v>
       </c>
       <c r="B248">
-        <v>0.65780344550667746</v>
+        <v>0.65780347550911511</v>
       </c>
       <c r="C248">
-        <v>0.74820537597372239</v>
+        <v>0.74820534764975077</v>
       </c>
       <c r="D248">
         <v>0.75826806764089949</v>
@@ -3562,13 +3566,13 @@
     </row>
     <row r="249">
       <c r="A249">
-        <v>0.43262337370733706</v>
+        <v>0.43262345529960389</v>
       </c>
       <c r="B249">
-        <v>0.65865479248967918</v>
+        <v>0.65865482863412161</v>
       </c>
       <c r="C249">
-        <v>0.74784119299514351</v>
+        <v>0.74784116797467148</v>
       </c>
       <c r="D249">
         <v>0.76247332176271398</v>
@@ -3576,13 +3580,13 @@
     </row>
     <row r="250">
       <c r="A250">
-        <v>0.43120427607561629</v>
+        <v>0.43120434689130899</v>
       </c>
       <c r="B250">
-        <v>0.65714496146679446</v>
+        <v>0.65714499021174488</v>
       </c>
       <c r="C250">
-        <v>0.74904576478949225</v>
+        <v>0.74904573831554111</v>
       </c>
       <c r="D250">
         <v>0.77526441654151523</v>
@@ -3590,13 +3594,13 @@
     </row>
     <row r="251">
       <c r="A251">
-        <v>0.43130348138391983</v>
+        <v>0.43130383244557757</v>
       </c>
       <c r="B251">
-        <v>0.65758069930139207</v>
+        <v>0.65758075372432234</v>
       </c>
       <c r="C251">
-        <v>0.74881280958556151</v>
+        <v>0.74881275466658959</v>
       </c>
       <c r="D251">
         <v>0.79115151216002944</v>
@@ -3604,13 +3608,13 @@
     </row>
     <row r="252">
       <c r="A252">
-        <v>0.43084205293851652</v>
+        <v>0.43084243559652224</v>
       </c>
       <c r="B252">
-        <v>0.65668747827127594</v>
+        <v>0.65668740807433523</v>
       </c>
       <c r="C252">
-        <v>0.74943763197939561</v>
+        <v>0.74943768509517894</v>
       </c>
       <c r="D252">
         <v>0.80524629624488608</v>
@@ -3618,13 +3622,13 @@
     </row>
     <row r="253">
       <c r="A253">
-        <v>0.43145667192531689</v>
+        <v>0.43145717213575407</v>
       </c>
       <c r="B253">
-        <v>0.65675757077827612</v>
+        <v>0.65675760364887559</v>
       </c>
       <c r="C253">
-        <v>0.74920368452019304</v>
+        <v>0.74920363863122397</v>
       </c>
       <c r="D253">
         <v>0.82152615184491506</v>
@@ -3632,13 +3636,13 @@
     </row>
     <row r="254">
       <c r="A254">
-        <v>0.43227958129276084</v>
+        <v>0.43227934464894768</v>
       </c>
       <c r="B254">
-        <v>0.65723000643047302</v>
+        <v>0.65722995551747643</v>
       </c>
       <c r="C254">
-        <v>0.74866144795408229</v>
+        <v>0.74866147671116856</v>
       </c>
       <c r="D254">
         <v>0.83730461972496617</v>
@@ -3646,13 +3650,13 @@
     </row>
     <row r="255">
       <c r="A255">
-        <v>0.43308595148537066</v>
+        <v>0.43308572535769285</v>
       </c>
       <c r="B255">
-        <v>0.65780821922748534</v>
+        <v>0.65780818634309279</v>
       </c>
       <c r="C255">
-        <v>0.74803009452882674</v>
+        <v>0.74803014080198427</v>
       </c>
       <c r="D255">
         <v>0.8705789455915891</v>
@@ -3660,13 +3664,13 @@
     </row>
     <row r="256">
       <c r="A256">
-        <v>0.43413637904157376</v>
+        <v>0.43413629087164096</v>
       </c>
       <c r="B256">
-        <v>0.65873286136097386</v>
+        <v>0.65873284251287179</v>
       </c>
       <c r="C256">
-        <v>0.74704332453731626</v>
+        <v>0.74704333038480564</v>
       </c>
       <c r="D256">
         <v>0.86832863323145237</v>
@@ -3674,13 +3678,13 @@
     </row>
     <row r="257">
       <c r="A257">
-        <v>0.43131330886631808</v>
+        <v>0.43131396743274331</v>
       </c>
       <c r="B257">
-        <v>0.65560474844008088</v>
+        <v>0.65560487721499827</v>
       </c>
       <c r="C257">
-        <v>0.75021988599366418</v>
+        <v>0.75021979495310365</v>
       </c>
       <c r="D257">
         <v>0.89680722247429534</v>
@@ -3688,13 +3692,13 @@
     </row>
     <row r="258">
       <c r="A258">
-        <v>0.43062498683310102</v>
+        <v>0.43062433049545185</v>
       </c>
       <c r="B258">
-        <v>0.65503899361165818</v>
+        <v>0.6550390412416508</v>
       </c>
       <c r="C258">
-        <v>0.75064225328836764</v>
+        <v>0.75064220604985943</v>
       </c>
       <c r="D258">
         <v>0.90258086603473986</v>
@@ -3702,13 +3706,13 @@
     </row>
     <row r="259">
       <c r="A259">
-        <v>0.43068380743885759</v>
+        <v>0.43068364680737947</v>
       </c>
       <c r="B259">
-        <v>0.65508417090360949</v>
+        <v>0.65508422336719085</v>
       </c>
       <c r="C259">
-        <v>0.75062363993308523</v>
+        <v>0.75062360281962159</v>
       </c>
       <c r="D259">
         <v>0.92062586996983908</v>
@@ -3716,13 +3720,13 @@
     </row>
     <row r="260">
       <c r="A260">
-        <v>0.43048846300685151</v>
+        <v>0.4304887745838375</v>
       </c>
       <c r="B260">
-        <v>0.65492388178726213</v>
+        <v>0.65492393527896864</v>
       </c>
       <c r="C260">
-        <v>0.7506905893242426</v>
+        <v>0.7506905539007277</v>
       </c>
       <c r="D260">
         <v>0.93451677498927543</v>
@@ -3730,13 +3734,13 @@
     </row>
     <row r="261">
       <c r="A261">
-        <v>0.43051025564658241</v>
+        <v>0.43051025929204945</v>
       </c>
       <c r="B261">
-        <v>0.65498345693910431</v>
+        <v>0.6549833661298653</v>
       </c>
       <c r="C261">
-        <v>0.75055115619963719</v>
+        <v>0.75055123066930196</v>
       </c>
       <c r="D261">
         <v>0.9383931801220341</v>
@@ -3744,13 +3748,13 @@
     </row>
     <row r="262">
       <c r="A262">
-        <v>0.43072015888523874</v>
+        <v>0.43072002462239195</v>
       </c>
       <c r="B262">
-        <v>0.65530510497576999</v>
+        <v>0.65530516904068525</v>
       </c>
       <c r="C262">
-        <v>0.75015048726714828</v>
+        <v>0.75015042840449975</v>
       </c>
       <c r="D262">
         <v>0.96752185048457495</v>
@@ -3758,13 +3762,13 @@
     </row>
     <row r="263">
       <c r="A263">
-        <v>0.43058464727323936</v>
+        <v>0.43058475049300771</v>
       </c>
       <c r="B263">
-        <v>0.65507317655612907</v>
+        <v>0.65507307699503625</v>
       </c>
       <c r="C263">
-        <v>0.75040408771529821</v>
+        <v>0.75040413620520718</v>
       </c>
       <c r="D263">
         <v>0.98071783534741197</v>
@@ -3772,13 +3776,13 @@
     </row>
     <row r="264">
       <c r="A264">
-        <v>0.4308109110896618</v>
+        <v>0.43081192490657921</v>
       </c>
       <c r="B264">
-        <v>0.65501368290459494</v>
+        <v>0.65501374045178462</v>
       </c>
       <c r="C264">
-        <v>0.75054766350744773</v>
+        <v>0.75054759734707766</v>
       </c>
       <c r="D264">
         <v>1.0007593365784924</v>
@@ -3786,13 +3790,13 @@
     </row>
     <row r="265">
       <c r="A265">
-        <v>0.43074467182070653</v>
+        <v>0.43074460141627069</v>
       </c>
       <c r="B265">
-        <v>0.65498409331843588</v>
+        <v>0.65498422357932806</v>
       </c>
       <c r="C265">
-        <v>0.75056261495112497</v>
+        <v>0.75056251616566128</v>
       </c>
       <c r="D265">
         <v>1.012881706402452</v>
@@ -3800,13 +3804,13 @@
     </row>
     <row r="266">
       <c r="A266">
-        <v>0.43112795815271071</v>
+        <v>0.43112787108184958</v>
       </c>
       <c r="B266">
-        <v>0.6551418756525037</v>
+        <v>0.6551419924548233</v>
       </c>
       <c r="C266">
-        <v>0.75050161436985707</v>
+        <v>0.75050151857740532</v>
       </c>
       <c r="D266">
         <v>1.0390204746845619</v>
@@ -3814,13 +3818,13 @@
     </row>
     <row r="267">
       <c r="A267">
-        <v>0.43045907525547522</v>
+        <v>0.43045851969414539</v>
       </c>
       <c r="B267">
-        <v>0.65472299937679512</v>
+        <v>0.65472300490024593</v>
       </c>
       <c r="C267">
-        <v>0.75077208243471949</v>
+        <v>0.75077208500238446</v>
       </c>
       <c r="D267">
         <v>1.0505495137670331</v>
@@ -3828,13 +3832,13 @@
     </row>
     <row r="268">
       <c r="A268">
-        <v>0.43057571385901272</v>
+        <v>0.43057613466097888</v>
       </c>
       <c r="B268">
-        <v>0.65468033857557462</v>
+        <v>0.65468030258602705</v>
       </c>
       <c r="C268">
-        <v>0.75088095069697958</v>
+        <v>0.75088097826635058</v>
       </c>
       <c r="D268">
         <v>1.0643882239033078</v>
@@ -3842,13 +3846,13 @@
     </row>
     <row r="269">
       <c r="A269">
-        <v>0.43129541869357013</v>
+        <v>0.43129541463826199</v>
       </c>
       <c r="B269">
-        <v>0.65505104061269237</v>
+        <v>0.65505102148888206</v>
       </c>
       <c r="C269">
-        <v>0.75069797652479964</v>
+        <v>0.75069801001736036</v>
       </c>
       <c r="D269">
         <v>1.0836545527067289</v>
@@ -3856,13 +3860,13 @@
     </row>
     <row r="270">
       <c r="A270">
-        <v>0.4328297265123191</v>
+        <v>0.43282948595651177</v>
       </c>
       <c r="B270">
-        <v>0.65626319720096693</v>
+        <v>0.65626315349136333</v>
       </c>
       <c r="C270">
-        <v>0.74980931377479132</v>
+        <v>0.74980933726159971</v>
       </c>
       <c r="D270">
         <v>1.069432615407794</v>
@@ -3870,13 +3874,13 @@
     </row>
     <row r="271">
       <c r="A271">
-        <v>0.43265249850653725</v>
+        <v>0.43265259831667469</v>
       </c>
       <c r="B271">
-        <v>0.65609231364660148</v>
+        <v>0.65609238127454361</v>
       </c>
       <c r="C271">
-        <v>0.74994313004004365</v>
+        <v>0.74994307141519445</v>
       </c>
       <c r="D271">
         <v>1.0871911525810387</v>
@@ -3884,13 +3888,13 @@
     </row>
     <row r="272">
       <c r="A272">
-        <v>0.43219358765520222</v>
+        <v>0.43219380101786675</v>
       </c>
       <c r="B272">
-        <v>0.65551349756216126</v>
+        <v>0.65551353212216634</v>
       </c>
       <c r="C272">
-        <v>0.75033920271645593</v>
+        <v>0.75033917648043913</v>
       </c>
       <c r="D272">
         <v>1.0806240795549624</v>
@@ -3898,13 +3902,13 @@
     </row>
     <row r="273">
       <c r="A273">
-        <v>0.43238010709985414</v>
+        <v>0.43237996206757034</v>
       </c>
       <c r="B273">
-        <v>0.65552548624361939</v>
+        <v>0.65552537812859857</v>
       </c>
       <c r="C273">
-        <v>0.75021628669000462</v>
+        <v>0.75021638353013609</v>
       </c>
       <c r="D273">
         <v>1.1115824101995764</v>
@@ -3912,13 +3916,13 @@
     </row>
     <row r="274">
       <c r="A274">
-        <v>0.43302585410331457</v>
+        <v>0.43302566739128179</v>
       </c>
       <c r="B274">
-        <v>0.65598286017555374</v>
+        <v>0.65598275956746166</v>
       </c>
       <c r="C274">
-        <v>0.7496562691397346</v>
+        <v>0.74965635663894958</v>
       </c>
       <c r="D274">
         <v>1.1101112185935507</v>
@@ -3926,13 +3930,13 @@
     </row>
     <row r="275">
       <c r="A275">
-        <v>0.4330017018170299</v>
+        <v>0.433001657952515</v>
       </c>
       <c r="B275">
-        <v>0.65596008922002103</v>
+        <v>0.65596012020827854</v>
       </c>
       <c r="C275">
-        <v>0.74968189363486193</v>
+        <v>0.74968187634676775</v>
       </c>
       <c r="D275">
         <v>1.1429828227394052</v>
@@ -3940,13 +3944,13 @@
     </row>
     <row r="276">
       <c r="A276">
-        <v>0.43362873202145014</v>
+        <v>0.43362850518317769</v>
       </c>
       <c r="B276">
-        <v>0.65695232660682634</v>
+        <v>0.65695234658834267</v>
       </c>
       <c r="C276">
-        <v>0.7484744268166954</v>
+        <v>0.74847440696909318</v>
       </c>
       <c r="D276">
         <v>1.1647149070963769</v>
@@ -3954,13 +3958,13 @@
     </row>
     <row r="277">
       <c r="A277">
-        <v>0.43292850682013839</v>
+        <v>0.43292838238855286</v>
       </c>
       <c r="B277">
-        <v>0.65606963517489714</v>
+        <v>0.65606969397654979</v>
       </c>
       <c r="C277">
-        <v>0.74932122788020206</v>
+        <v>0.74932116983472385</v>
       </c>
       <c r="D277">
         <v>1.2033711779730263</v>
@@ -3968,13 +3972,13 @@
     </row>
     <row r="278">
       <c r="A278">
-        <v>0.4330704523903075</v>
+        <v>0.43307035364449731</v>
       </c>
       <c r="B278">
-        <v>0.65423156829020068</v>
+        <v>0.65423157109733698</v>
       </c>
       <c r="C278">
-        <v>0.75126367515796932</v>
+        <v>0.75126368092057172</v>
       </c>
       <c r="D278">
         <v>1.2105207477912381</v>
@@ -3982,13 +3986,13 @@
     </row>
     <row r="279">
       <c r="A279">
-        <v>0.43363587649488849</v>
+        <v>0.43363596859038567</v>
       </c>
       <c r="B279">
-        <v>0.65459704133745911</v>
+        <v>0.65459708777927283</v>
       </c>
       <c r="C279">
-        <v>0.75097473995379727</v>
+        <v>0.75097469314856091</v>
       </c>
       <c r="D279">
         <v>1.2208439623883092</v>
@@ -3996,13 +4000,13 @@
     </row>
     <row r="280">
       <c r="A280">
-        <v>0.43542098445216504</v>
+        <v>0.43542085632250188</v>
       </c>
       <c r="B280">
-        <v>0.65577767649062535</v>
+        <v>0.65577766214718414</v>
       </c>
       <c r="C280">
-        <v>0.75008626190428829</v>
+        <v>0.75008627784478221</v>
       </c>
       <c r="D280">
         <v>1.2493947819944602</v>
@@ -4010,13 +4014,13 @@
     </row>
     <row r="281">
       <c r="A281">
-        <v>0.43229053993065814</v>
+        <v>0.43229056471783706</v>
       </c>
       <c r="B281">
-        <v>0.65320293125581097</v>
+        <v>0.65320300588705116</v>
       </c>
       <c r="C281">
-        <v>0.75210175509570432</v>
+        <v>0.75210169009744754</v>
       </c>
       <c r="D281">
         <v>1.2501670741632038</v>
@@ -4024,13 +4028,13 @@
     </row>
     <row r="282">
       <c r="A282">
-        <v>0.43253976940076744</v>
+        <v>0.43254041313355956</v>
       </c>
       <c r="B282">
-        <v>0.65356446055948347</v>
+        <v>0.65356448478015261</v>
       </c>
       <c r="C282">
-        <v>0.75168609228940864</v>
+        <v>0.75168605834592594</v>
       </c>
       <c r="D282">
         <v>1.2921938199539162</v>
@@ -4038,13 +4042,13 @@
     </row>
     <row r="283">
       <c r="A283">
-        <v>0.43258994800068784</v>
+        <v>0.43259034596194335</v>
       </c>
       <c r="B283">
-        <v>0.6536421832132201</v>
+        <v>0.65364206413940495</v>
       </c>
       <c r="C283">
-        <v>0.75160626652676943</v>
+        <v>0.75160635840646139</v>
       </c>
       <c r="D283">
         <v>1.3206621017693938</v>
@@ -4052,13 +4056,13 @@
     </row>
     <row r="284">
       <c r="A284">
-        <v>0.43260062037701036</v>
+        <v>0.43260036685818015</v>
       </c>
       <c r="B284">
-        <v>0.6536750919523191</v>
+        <v>0.65367509605639063</v>
       </c>
       <c r="C284">
-        <v>0.75157181094897929</v>
+        <v>0.75157181261126949</v>
       </c>
       <c r="D284">
         <v>1.3491925493671859</v>
@@ -4066,13 +4070,13 @@
     </row>
     <row r="285">
       <c r="A285">
-        <v>0.43254232645330815</v>
+        <v>0.43254269182125971</v>
       </c>
       <c r="B285">
-        <v>0.65372577016111921</v>
+        <v>0.65372581859802648</v>
       </c>
       <c r="C285">
-        <v>0.75150499519687552</v>
+        <v>0.7515049400525653</v>
       </c>
       <c r="D285">
         <v>1.3812572338763758</v>
@@ -4080,13 +4084,13 @@
     </row>
     <row r="286">
       <c r="A286">
-        <v>0.43218264017201302</v>
+        <v>0.43218189398227219</v>
       </c>
       <c r="B286">
-        <v>0.65387045748842076</v>
+        <v>0.65387050658562962</v>
       </c>
       <c r="C286">
-        <v>0.75128739966264846</v>
+        <v>0.75128735928131063</v>
       </c>
       <c r="D286">
         <v>1.4044238058861664</v>
@@ -4094,13 +4098,13 @@
     </row>
     <row r="287">
       <c r="A287">
-        <v>0.43225371934369433</v>
+        <v>0.43225412388890405</v>
       </c>
       <c r="B287">
-        <v>0.65375790795044653</v>
+        <v>0.65375775850226425</v>
       </c>
       <c r="C287">
-        <v>0.75141433444159011</v>
+        <v>0.75141445722268307</v>
       </c>
       <c r="D287">
         <v>1.4400351603797814</v>
@@ -4108,13 +4112,13 @@
     </row>
     <row r="288">
       <c r="A288">
-        <v>0.43387677446273326</v>
+        <v>0.43387649893026647</v>
       </c>
       <c r="B288">
-        <v>0.65359855143285106</v>
+        <v>0.65359849000204906</v>
       </c>
       <c r="C288">
-        <v>0.75177495989394993</v>
+        <v>0.75177502587333445</v>
       </c>
       <c r="D288">
         <v>1.4719591091880604</v>
@@ -4122,13 +4126,13 @@
     </row>
     <row r="289">
       <c r="A289">
-        <v>0.43537653801041931</v>
+        <v>0.43537671427626357</v>
       </c>
       <c r="B289">
-        <v>0.65451423927698649</v>
+        <v>0.65451425944509345</v>
       </c>
       <c r="C289">
-        <v>0.75105116190746801</v>
+        <v>0.75105114361997671</v>
       </c>
       <c r="D289">
         <v>1.4696665715488075</v>
@@ -4136,13 +4140,13 @@
     </row>
     <row r="290">
       <c r="A290">
-        <v>0.43399286270134241</v>
+        <v>0.43399233633023682</v>
       </c>
       <c r="B290">
-        <v>0.65356613485534731</v>
+        <v>0.65356606910498349</v>
       </c>
       <c r="C290">
-        <v>0.75179139041156784</v>
+        <v>0.75179146744947567</v>
       </c>
       <c r="D290">
         <v>1.4870213556747891</v>
@@ -4150,13 +4154,13 @@
     </row>
     <row r="291">
       <c r="A291">
-        <v>0.43575296939823616</v>
+        <v>0.43575290793928206</v>
       </c>
       <c r="B291">
-        <v>0.65420246418059902</v>
+        <v>0.654202397780421</v>
       </c>
       <c r="C291">
-        <v>0.75158510207669826</v>
+        <v>0.75158515776736134</v>
       </c>
       <c r="D291">
         <v>1.5157156709612662</v>
@@ -4164,13 +4168,13 @@
     </row>
     <row r="292">
       <c r="A292">
-        <v>0.43130608532055337</v>
+        <v>0.43130601512653977</v>
       </c>
       <c r="B292">
-        <v>0.65029211737005288</v>
+        <v>0.65029216039052384</v>
       </c>
       <c r="C292">
-        <v>0.75472923131280445</v>
+        <v>0.75472919601135247</v>
       </c>
       <c r="D292">
         <v>1.5465662657097996</v>
@@ -4178,13 +4182,13 @@
     </row>
     <row r="293">
       <c r="A293">
-        <v>0.43098539069279274</v>
+        <v>0.43098583354179243</v>
       </c>
       <c r="B293">
-        <v>0.6499171989266177</v>
+        <v>0.64991709285691546</v>
       </c>
       <c r="C293">
-        <v>0.75520463788141179</v>
+        <v>0.75520472065046307</v>
       </c>
       <c r="D293">
         <v>1.5672385968539013</v>
@@ -4192,13 +4196,13 @@
     </row>
     <row r="294">
       <c r="A294">
-        <v>0.43126920369963395</v>
+        <v>0.43126833725512359</v>
       </c>
       <c r="B294">
-        <v>0.65016009870386116</v>
+        <v>0.65016004359769508</v>
       </c>
       <c r="C294">
-        <v>0.75505462149431257</v>
+        <v>0.75505471130960877</v>
       </c>
       <c r="D294">
         <v>1.5921726423846247</v>
@@ -4206,13 +4210,13 @@
     </row>
     <row r="295">
       <c r="A295">
-        <v>0.43216893995851369</v>
+        <v>0.4321690314126615</v>
       </c>
       <c r="B295">
-        <v>0.65105828313838587</v>
+        <v>0.65105833205691077</v>
       </c>
       <c r="C295">
-        <v>0.75446529450620869</v>
+        <v>0.75446523853721614</v>
       </c>
       <c r="D295">
         <v>1.6193542572632289</v>
@@ -4220,13 +4224,13 @@
     </row>
     <row r="296">
       <c r="A296">
-        <v>0.43107253378696331</v>
+        <v>0.43107304617792919</v>
       </c>
       <c r="B296">
-        <v>0.649821556278386</v>
+        <v>0.64982156080871079</v>
       </c>
       <c r="C296">
-        <v>0.75540307150443342</v>
+        <v>0.75540306410171065</v>
       </c>
       <c r="D296">
         <v>1.6313161888600112</v>
@@ -4234,13 +4238,13 @@
     </row>
     <row r="297">
       <c r="A297">
-        <v>0.43115935037939646</v>
+        <v>0.43115931521198514</v>
       </c>
       <c r="B297">
-        <v>0.64973496764266281</v>
+        <v>0.64973491359132274</v>
       </c>
       <c r="C297">
-        <v>0.75539327250929789</v>
+        <v>0.75539332258897962</v>
       </c>
       <c r="D297">
         <v>1.6686822739090099</v>
@@ -4248,13 +4252,13 @@
     </row>
     <row r="298">
       <c r="A298">
-        <v>0.43185376984493196</v>
+        <v>0.43185388880618447</v>
       </c>
       <c r="B298">
-        <v>0.65005805257976368</v>
+        <v>0.65005803419113672</v>
       </c>
       <c r="C298">
-        <v>0.75491475096109273</v>
+        <v>0.75491475808467257</v>
       </c>
       <c r="D298">
         <v>1.7031718250216117</v>
@@ -4262,13 +4266,13 @@
     </row>
     <row r="299">
       <c r="A299">
-        <v>0.43262480573451989</v>
+        <v>0.43262479643432517</v>
       </c>
       <c r="B299">
-        <v>0.65072816313561987</v>
+        <v>0.65072831444381829</v>
       </c>
       <c r="C299">
-        <v>0.7542360406233104</v>
+        <v>0.7542359169310322</v>
       </c>
       <c r="D299">
         <v>1.7339936989258276</v>
@@ -4276,13 +4280,13 @@
     </row>
     <row r="300">
       <c r="A300">
-        <v>0.43144117225077128</v>
+        <v>0.431441270658943</v>
       </c>
       <c r="B300">
-        <v>0.64942184058412333</v>
+        <v>0.6494217365557351</v>
       </c>
       <c r="C300">
-        <v>0.75555747448761501</v>
+        <v>0.75555756064728974</v>
       </c>
       <c r="D300">
         <v>1.7327428631227604</v>
@@ -4290,13 +4294,13 @@
     </row>
     <row r="301">
       <c r="A301">
-        <v>0.43058451714097445</v>
+        <v>0.4305846160877736</v>
       </c>
       <c r="B301">
-        <v>0.64889155401794141</v>
+        <v>0.64889159964600296</v>
       </c>
       <c r="C301">
-        <v>0.7558275449884605</v>
+        <v>0.75582751073886034</v>
       </c>
       <c r="D301">
         <v>1.8143202355525876</v>
@@ -4304,13 +4308,13 @@
     </row>
     <row r="302">
       <c r="A302">
-        <v>0.42982799853674292</v>
+        <v>0.42982794559784182</v>
       </c>
       <c r="B302">
-        <v>0.64768418573424669</v>
+        <v>0.64768415970718851</v>
       </c>
       <c r="C302">
-        <v>0.75708244556058024</v>
+        <v>0.75708246147211211</v>
       </c>
       <c r="D302">
         <v>1.8414062181795348</v>
@@ -4318,13 +4322,13 @@
     </row>
     <row r="303">
       <c r="A303">
-        <v>0.42855307021432509</v>
+        <v>0.4285536507404224</v>
       </c>
       <c r="B303">
-        <v>0.64684914984145891</v>
+        <v>0.64684916707653961</v>
       </c>
       <c r="C303">
-        <v>0.75764014236198207</v>
+        <v>0.7576401231190546</v>
       </c>
       <c r="D303">
         <v>1.8174578401221293</v>
@@ -4332,13 +4336,13 @@
     </row>
     <row r="304">
       <c r="A304">
-        <v>0.42858681016864392</v>
+        <v>0.42858711334290261</v>
       </c>
       <c r="B304">
-        <v>0.64694703934367082</v>
+        <v>0.64694705635307548</v>
       </c>
       <c r="C304">
-        <v>0.75753269230324571</v>
+        <v>0.75753267864634788</v>
       </c>
       <c r="D304">
         <v>1.8670694811200537</v>
@@ -4346,13 +4350,13 @@
     </row>
     <row r="305">
       <c r="A305">
-        <v>0.4284988961950098</v>
+        <v>0.42849958034498964</v>
       </c>
       <c r="B305">
-        <v>0.64720217939673141</v>
+        <v>0.64720233128191773</v>
       </c>
       <c r="C305">
-        <v>0.75722410325944067</v>
+        <v>0.75722395951774524</v>
       </c>
       <c r="D305">
         <v>1.9016764293350659</v>
@@ -4360,13 +4364,13 @@
     </row>
     <row r="306">
       <c r="A306">
-        <v>0.42850709225954053</v>
+        <v>0.42850665365055018</v>
       </c>
       <c r="B306">
-        <v>0.6467749654275613</v>
+        <v>0.64677498712158343</v>
       </c>
       <c r="C306">
-        <v>0.75767549041145887</v>
+        <v>0.7576754829232738</v>
       </c>
       <c r="D306">
         <v>1.9066766849841013</v>
@@ -4374,13 +4378,13 @@
     </row>
     <row r="307">
       <c r="A307">
-        <v>0.42858885853091561</v>
+        <v>0.42858902711278746</v>
       </c>
       <c r="B307">
-        <v>0.64680046339696018</v>
+        <v>0.64680041791702825</v>
       </c>
       <c r="C307">
-        <v>0.75766296838468228</v>
+        <v>0.75766299263984083</v>
       </c>
       <c r="D307">
         <v>1.9429410264373668</v>
@@ -4388,13 +4392,13 @@
     </row>
     <row r="308">
       <c r="A308">
-        <v>0.42990547834668652</v>
+        <v>0.42990494514383548</v>
       </c>
       <c r="B308">
-        <v>0.64711060793693953</v>
+        <v>0.64711055702730869</v>
       </c>
       <c r="C308">
-        <v>0.75755858887617133</v>
+        <v>0.75755863061018514</v>
       </c>
       <c r="D308">
         <v>1.9357291757682966</v>
@@ -4402,13 +4406,13 @@
     </row>
     <row r="309">
       <c r="A309">
-        <v>0.43025028444332458</v>
+        <v>0.43025017505547125</v>
       </c>
       <c r="B309">
-        <v>0.64733802947819641</v>
+        <v>0.64733813360390124</v>
       </c>
       <c r="C309">
-        <v>0.7573862093477981</v>
+        <v>0.75738613083441098</v>
       </c>
       <c r="D309">
         <v>1.9683442417951329</v>
@@ -4416,13 +4420,13 @@
     </row>
     <row r="310">
       <c r="A310">
-        <v>0.4292009244492051</v>
+        <v>0.42920070491562551</v>
       </c>
       <c r="B310">
-        <v>0.64663186716906662</v>
+        <v>0.64663188455035414</v>
       </c>
       <c r="C310">
-        <v>0.75788879896322214</v>
+        <v>0.75788879507851048</v>
       </c>
       <c r="D310">
         <v>2.0135381965933794</v>
@@ -4430,13 +4434,13 @@
     </row>
     <row r="311">
       <c r="A311">
-        <v>0.42883117532856407</v>
+        <v>0.4288310701895065</v>
       </c>
       <c r="B311">
-        <v>0.64674495348111272</v>
+        <v>0.64674483942543193</v>
       </c>
       <c r="C311">
-        <v>0.75761364725001512</v>
+        <v>0.75761374175260254</v>
       </c>
       <c r="D311">
         <v>2.0523205362017984</v>
@@ -4444,13 +4448,13 @@
     </row>
     <row r="312">
       <c r="A312">
-        <v>0.42791193897052038</v>
+        <v>0.42791229337728848</v>
       </c>
       <c r="B312">
-        <v>0.64490370951994791</v>
+        <v>0.64490368927773623</v>
       </c>
       <c r="C312">
-        <v>0.75942386620670299</v>
+        <v>0.75942387746784812</v>
       </c>
       <c r="D312">
         <v>2.0561046649441015</v>
@@ -4458,13 +4462,13 @@
     </row>
     <row r="313">
       <c r="A313">
-        <v>0.42751226831698941</v>
+        <v>0.42751229196431662</v>
       </c>
       <c r="B313">
-        <v>0.64468827206937362</v>
+        <v>0.64468826998769369</v>
       </c>
       <c r="C313">
-        <v>0.7595700675866055</v>
+        <v>0.75957006078558065</v>
       </c>
       <c r="D313">
         <v>2.0925916143064547</v>
@@ -4472,13 +4476,13 @@
     </row>
     <row r="314">
       <c r="A314">
-        <v>0.42685877339336903</v>
+        <v>0.42685829964754757</v>
       </c>
       <c r="B314">
-        <v>0.64449209944646524</v>
+        <v>0.64449205591802738</v>
       </c>
       <c r="C314">
-        <v>0.7596274935118521</v>
+        <v>0.75962753610907918</v>
       </c>
       <c r="D314">
         <v>2.1185959160139385</v>
@@ -4486,13 +4490,13 @@
     </row>
     <row r="315">
       <c r="A315">
-        <v>0.42687691626886248</v>
+        <v>0.42687721059806849</v>
       </c>
       <c r="B315">
-        <v>0.64447911054047435</v>
+        <v>0.64447912957380793</v>
       </c>
       <c r="C315">
-        <v>0.75964571211149545</v>
+        <v>0.75964569922433811</v>
       </c>
       <c r="D315">
         <v>2.1431403746712121</v>
@@ -4500,13 +4504,13 @@
     </row>
     <row r="316">
       <c r="A316">
-        <v>0.42644174333499574</v>
+        <v>0.42644193904476357</v>
       </c>
       <c r="B316">
-        <v>0.64464263973718672</v>
+        <v>0.64464265914545082</v>
       </c>
       <c r="C316">
-        <v>0.75940409744631754</v>
+        <v>0.75940409168281953</v>
       </c>
       <c r="D316">
         <v>2.1783504971334313</v>
@@ -4514,13 +4518,13 @@
     </row>
     <row r="317">
       <c r="A317">
-        <v>0.4262350374919025</v>
+        <v>0.42623528712133152</v>
       </c>
       <c r="B317">
-        <v>0.64568008976712377</v>
+        <v>0.64568007815774675</v>
       </c>
       <c r="C317">
-        <v>0.75834490087765249</v>
+        <v>0.7583449069159488</v>
       </c>
       <c r="D317">
         <v>2.1935374434466408</v>
@@ -4528,13 +4532,13 @@
     </row>
     <row r="318">
       <c r="A318">
-        <v>0.42669222304104748</v>
+        <v>0.42669291140260918</v>
       </c>
       <c r="B318">
-        <v>0.64765150352172673</v>
+        <v>0.64765150374704994</v>
       </c>
       <c r="C318">
-        <v>0.75650708996310911</v>
+        <v>0.7565070660661658</v>
       </c>
       <c r="D318">
         <v>2.2289524705286601</v>
@@ -4542,13 +4546,13 @@
     </row>
     <row r="319">
       <c r="A319">
-        <v>0.42644179095431367</v>
+        <v>0.42644113433850794</v>
       </c>
       <c r="B319">
-        <v>0.6446610298380121</v>
+        <v>0.64466097443016146</v>
       </c>
       <c r="C319">
-        <v>0.75923524464998438</v>
+        <v>0.7592353084744643</v>
       </c>
       <c r="D319">
         <v>2.2032305854465033</v>
@@ -4556,13 +4560,13 @@
     </row>
     <row r="320">
       <c r="A320">
-        <v>0.42384441384128191</v>
+        <v>0.42384424052212571</v>
       </c>
       <c r="B320">
-        <v>0.64448220483736263</v>
+        <v>0.64448218934712453</v>
       </c>
       <c r="C320">
-        <v>0.75927948028170011</v>
+        <v>0.75927949700670871</v>
       </c>
       <c r="D320">
         <v>2.2790588901745181</v>
@@ -4570,13 +4574,13 @@
     </row>
     <row r="321">
       <c r="A321">
-        <v>0.42627473841882713</v>
+        <v>0.42627426541139901</v>
       </c>
       <c r="B321">
-        <v>0.64268691164795455</v>
+        <v>0.64268688041317268</v>
       </c>
       <c r="C321">
-        <v>0.76097715570046232</v>
+        <v>0.76097718253025692</v>
       </c>
       <c r="D321">
         <v>2.2743601471450292</v>
@@ -4584,13 +4588,13 @@
     </row>
     <row r="322">
       <c r="A322">
-        <v>0.42384213930723225</v>
+        <v>0.42384286515964098</v>
       </c>
       <c r="B322">
-        <v>0.64189633812134272</v>
+        <v>0.64189632513064998</v>
       </c>
       <c r="C322">
-        <v>0.76158510454438622</v>
+        <v>0.76158509313393652</v>
       </c>
       <c r="D322">
         <v>2.3602919370087205</v>
@@ -4598,13 +4602,13 @@
     </row>
     <row r="323">
       <c r="A323">
-        <v>0.42127322010205165</v>
+        <v>0.42127300067835738</v>
       </c>
       <c r="B323">
-        <v>0.64195415208415874</v>
+        <v>0.64195413517157174</v>
       </c>
       <c r="C323">
-        <v>0.7614264749856583</v>
+        <v>0.76142649009311358</v>
       </c>
       <c r="D323">
         <v>2.4363832966334327</v>
@@ -4612,13 +4616,13 @@
     </row>
     <row r="324">
       <c r="A324">
-        <v>0.41981429096513445</v>
+        <v>0.41981456728536892</v>
       </c>
       <c r="B324">
-        <v>0.64329372912715344</v>
+        <v>0.64329364757901075</v>
       </c>
       <c r="C324">
-        <v>0.76018902915572495</v>
+        <v>0.76018908578931299</v>
       </c>
       <c r="D324">
         <v>2.4937483417830402</v>
@@ -4626,13 +4630,13 @@
     </row>
     <row r="325">
       <c r="A325">
-        <v>0.42079654721639581</v>
+        <v>0.42079622611567263</v>
       </c>
       <c r="B325">
-        <v>0.64206539409467245</v>
+        <v>0.64206531237662623</v>
       </c>
       <c r="C325">
-        <v>0.76128890456378306</v>
+        <v>0.76128898561785285</v>
       </c>
       <c r="D325">
         <v>2.5368936139504035</v>
@@ -4640,13 +4644,13 @@
     </row>
     <row r="326">
       <c r="A326">
-        <v>0.42196286626016005</v>
+        <v>0.42196274333631539</v>
       </c>
       <c r="B326">
-        <v>0.64200175935037684</v>
+        <v>0.64200171693187769</v>
       </c>
       <c r="C326">
-        <v>0.76136659466683754</v>
+        <v>0.7613666377886098</v>
       </c>
       <c r="D326">
         <v>2.543326861990109</v>
@@ -4654,13 +4658,13 @@
     </row>
     <row r="327">
       <c r="A327">
-        <v>0.41874399109746979</v>
+        <v>0.41874416669711201</v>
       </c>
       <c r="B327">
-        <v>0.64175899916344892</v>
+        <v>0.64175905858536941</v>
       </c>
       <c r="C327">
-        <v>0.76151940710617627</v>
+        <v>0.76151936510607121</v>
       </c>
       <c r="D327">
         <v>2.5823544620183001</v>
@@ -4668,13 +4672,13 @@
     </row>
     <row r="328">
       <c r="A328">
-        <v>0.416086281645698</v>
+        <v>0.4160862952920571</v>
       </c>
       <c r="B328">
-        <v>0.64241641822649109</v>
+        <v>0.64241645187712471</v>
       </c>
       <c r="C328">
-        <v>0.76090770921238637</v>
+        <v>0.76090769439121775</v>
       </c>
       <c r="D328">
         <v>2.7015955801350784</v>
@@ -4682,13 +4686,13 @@
     </row>
     <row r="329">
       <c r="A329">
-        <v>0.41335472333906309</v>
+        <v>0.41335447179521656</v>
       </c>
       <c r="B329">
-        <v>0.64371546578056149</v>
+        <v>0.64371545449835021</v>
       </c>
       <c r="C329">
-        <v>0.75975456505534456</v>
+        <v>0.75975457505677868</v>
       </c>
       <c r="D329">
         <v>2.7597552789221389</v>
@@ -4696,13 +4700,13 @@
     </row>
     <row r="330">
       <c r="A330">
-        <v>0.41332492567983364</v>
+        <v>0.41332488462911643</v>
       </c>
       <c r="B330">
-        <v>0.64379746266637083</v>
+        <v>0.64379741814059832</v>
       </c>
       <c r="C330">
-        <v>0.75968463519909368</v>
+        <v>0.75968467094148595</v>
       </c>
       <c r="D330">
         <v>2.8448455093572873</v>
@@ -4710,13 +4714,13 @@
     </row>
     <row r="331">
       <c r="A331">
-        <v>0.41502806595628988</v>
+        <v>0.41502788149077152</v>
       </c>
       <c r="B331">
-        <v>0.6434986317427942</v>
+        <v>0.64349858549979666</v>
       </c>
       <c r="C331">
-        <v>0.75994621539582663</v>
+        <v>0.75994625561769369</v>
       </c>
       <c r="D331">
         <v>2.8226460740468733</v>
@@ -4724,13 +4728,13 @@
     </row>
     <row r="332">
       <c r="A332">
-        <v>0.41403407060622716</v>
+        <v>0.41403444813524848</v>
       </c>
       <c r="B332">
-        <v>0.64354579320949856</v>
+        <v>0.64354566908567101</v>
       </c>
       <c r="C332">
-        <v>0.75990502259832238</v>
+        <v>0.75990511164236696</v>
       </c>
       <c r="D332">
         <v>2.8831650722227531</v>
@@ -4738,13 +4742,13 @@
     </row>
     <row r="333">
       <c r="A333">
-        <v>0.40912209721945153</v>
+        <v>0.40912200446063829</v>
       </c>
       <c r="B333">
-        <v>0.64367557982036983</v>
+        <v>0.64367558912410539</v>
       </c>
       <c r="C333">
-        <v>0.75978952408201128</v>
+        <v>0.75978951869780109</v>
       </c>
       <c r="D333">
         <v>2.9413539865393243</v>
@@ -4752,13 +4756,13 @@
     </row>
     <row r="334">
       <c r="A334">
-        <v>0.40938629392293113</v>
+        <v>0.40938580039559147</v>
       </c>
       <c r="B334">
-        <v>0.64368087657883244</v>
+        <v>0.64368088664692469</v>
       </c>
       <c r="C334">
-        <v>0.75978568489331277</v>
+        <v>0.75978567137429009</v>
       </c>
       <c r="D334">
         <v>3.0097362093405109</v>
@@ -4766,13 +4770,13 @@
     </row>
     <row r="335">
       <c r="A335">
-        <v>0.40689731927062933</v>
+        <v>0.40689781388304158</v>
       </c>
       <c r="B335">
-        <v>0.64388000221105002</v>
+        <v>0.64388010418285557</v>
       </c>
       <c r="C335">
-        <v>0.75962157682776565</v>
+        <v>0.75962147647000133</v>
       </c>
       <c r="D335">
         <v>3.0761138324116097</v>
@@ -4780,13 +4784,13 @@
     </row>
     <row r="336">
       <c r="A336">
-        <v>0.4066005823433847</v>
+        <v>0.40660086201391821</v>
       </c>
       <c r="B336">
-        <v>0.64395453720559059</v>
+        <v>0.64395463197019054</v>
       </c>
       <c r="C336">
-        <v>0.75955984788606934</v>
+        <v>0.75955976144755977</v>
       </c>
       <c r="D336">
         <v>3.0955617472075669</v>
@@ -4794,13 +4798,13 @@
     </row>
     <row r="337">
       <c r="A337">
-        <v>0.40628826236927928</v>
+        <v>0.40628852501794599</v>
       </c>
       <c r="B337">
-        <v>0.64401198234440482</v>
+        <v>0.64401202341910402</v>
       </c>
       <c r="C337">
-        <v>0.75951300733085447</v>
+        <v>0.75951296913249622</v>
       </c>
       <c r="D337">
         <v>3.1290405809639728</v>
@@ -4808,13 +4812,13 @@
     </row>
     <row r="338">
       <c r="A338">
-        <v>0.40286134337251484</v>
+        <v>0.40286080857989703</v>
       </c>
       <c r="B338">
-        <v>0.64408104553282353</v>
+        <v>0.64408107113227486</v>
       </c>
       <c r="C338">
-        <v>0.75946977961785367</v>
+        <v>0.75946976382701537</v>
       </c>
       <c r="D338">
         <v>3.2036456401508904</v>
@@ -4822,13 +4826,13 @@
     </row>
     <row r="339">
       <c r="A339">
-        <v>0.39723599911758589</v>
+        <v>0.39723525649395697</v>
       </c>
       <c r="B339">
-        <v>0.64445866502722815</v>
+        <v>0.64445864524228835</v>
       </c>
       <c r="C339">
-        <v>0.75917738281656599</v>
+        <v>0.75917740527665223</v>
       </c>
       <c r="D339">
         <v>3.2912092747247286</v>
@@ -4836,13 +4840,13 @@
     </row>
     <row r="340">
       <c r="A340">
-        <v>0.39126962512422647</v>
+        <v>0.39126988910907395</v>
       </c>
       <c r="B340">
-        <v>0.6452993806063182</v>
+        <v>0.64529946714232878</v>
       </c>
       <c r="C340">
-        <v>0.75850026552873007</v>
+        <v>0.75850018891015769</v>
       </c>
       <c r="D340">
         <v>3.3227428920115103</v>
@@ -4850,13 +4854,13 @@
     </row>
     <row r="341">
       <c r="A341">
-        <v>0.3866594070761239</v>
+        <v>0.38665987272606983</v>
       </c>
       <c r="B341">
-        <v>0.64608977626833819</v>
+        <v>0.64608981815091204</v>
       </c>
       <c r="C341">
-        <v>0.75786434797582414</v>
+        <v>0.75786430378914149</v>
       </c>
       <c r="D341">
         <v>3.3533610097700959</v>
@@ -4864,13 +4868,13 @@
     </row>
     <row r="342">
       <c r="A342">
-        <v>0.39811365583332725</v>
+        <v>0.39811355023986461</v>
       </c>
       <c r="B342">
-        <v>0.64468079564107716</v>
+        <v>0.64468076863779822</v>
       </c>
       <c r="C342">
-        <v>0.75895594719870818</v>
+        <v>0.75895597670489567</v>
       </c>
       <c r="D342">
         <v>3.3255401294430369</v>
@@ -4878,13 +4882,13 @@
     </row>
     <row r="343">
       <c r="A343">
-        <v>0.41122783718386208</v>
+        <v>0.41122733504424558</v>
       </c>
       <c r="B343">
-        <v>0.64548159103116742</v>
+        <v>0.64548159965738139</v>
       </c>
       <c r="C343">
-        <v>0.75815399569944542</v>
+        <v>0.75815399716405008</v>
       </c>
       <c r="D343">
         <v>3.3107346244301721</v>
@@ -4892,13 +4896,13 @@
     </row>
     <row r="344">
       <c r="A344">
-        <v>0.4067733612510544</v>
+        <v>0.40677321457705884</v>
       </c>
       <c r="B344">
-        <v>0.64476628602566688</v>
+        <v>0.64476636099785134</v>
       </c>
       <c r="C344">
-        <v>0.75879868853129806</v>
+        <v>0.75879861907327584</v>
       </c>
       <c r="D344">
         <v>3.3700169872365446</v>

--- a/Prefered_PARX_model_forecast/Resultater_PAR/theta_sqr_est_T_2para_PAR.xlsx
+++ b/Prefered_PARX_model_forecast/Resultater_PAR/theta_sqr_est_T_2para_PAR.xlsx
@@ -28,7 +28,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -52,11 +52,13 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -74,6 +76,8 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -86,4826 +90,4826 @@
   <dimension ref="A1:D344"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="true"/>
+    <col min="1" max="1" width="15.7109375" customWidth="true"/>
     <col min="2" max="2" width="12.7109375" customWidth="true"/>
     <col min="3" max="3" width="12.7109375" customWidth="true"/>
-    <col min="4" max="4" width="13.7109375" customWidth="true"/>
+    <col min="4" max="4" width="11.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1">
-        <v>0.53362740447109758</v>
+        <v>0.46580154808200969</v>
       </c>
       <c r="B1">
-        <v>0.7112579586237624</v>
+        <v>0.7137238693213801</v>
       </c>
       <c r="C1">
-        <v>0.67050314967759239</v>
+        <v>0.66760040341208482</v>
       </c>
       <c r="D1">
-        <v>0.043935368460097102</v>
+        <v>1.3065060174591885</v>
       </c>
     </row>
     <row r="2">
       <c r="A2">
-        <v>0.56531698867493707</v>
+        <v>0.51871160237915104</v>
       </c>
       <c r="B2">
-        <v>0.71294098043172882</v>
+        <v>0.71532556674873615</v>
       </c>
       <c r="C2">
-        <v>0.66760291756471279</v>
+        <v>0.66472082555161016</v>
       </c>
       <c r="D2">
-        <v>0.043041667500014841</v>
+        <v>1.155184186466081</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>0.54754504618116151</v>
+        <v>0.4969110478351384</v>
       </c>
       <c r="B3">
-        <v>0.70944624162291481</v>
+        <v>0.71169472073003526</v>
       </c>
       <c r="C3">
-        <v>0.67196544624228016</v>
+        <v>0.66927642621748307</v>
       </c>
       <c r="D3">
-        <v>0.04416353232110156</v>
+        <v>1.1774752334940906</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>0.5478468945085162</v>
+        <v>0.49886645564212068</v>
       </c>
       <c r="B4">
-        <v>0.70996021981000412</v>
+        <v>0.71187308624305368</v>
       </c>
       <c r="C4">
-        <v>0.67140292018389758</v>
+        <v>0.66916319619983922</v>
       </c>
       <c r="D4">
-        <v>0.045311367441656772</v>
+        <v>1.129102460934835</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>0.53830382922423237</v>
+        <v>0.49232717468561171</v>
       </c>
       <c r="B5">
-        <v>0.70958048450012901</v>
+        <v>0.71146284797389081</v>
       </c>
       <c r="C5">
-        <v>0.67208643538006241</v>
+        <v>0.66989305674359256</v>
       </c>
       <c r="D5">
-        <v>0.045876933105993778</v>
+        <v>1.0825576225944329</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>0.5679214000665429</v>
+        <v>0.52766455888645825</v>
       </c>
       <c r="B6">
-        <v>0.71065972294703406</v>
+        <v>0.71206559060630958</v>
       </c>
       <c r="C6">
-        <v>0.67003742227595131</v>
+        <v>0.66839686399148346</v>
       </c>
       <c r="D6">
-        <v>0.04501223922144628</v>
+        <v>1.0390450006306926</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>0.57169041828742218</v>
+        <v>0.53253010259210587</v>
       </c>
       <c r="B7">
-        <v>0.71187310857527408</v>
+        <v>0.71335213593372759</v>
       </c>
       <c r="C7">
-        <v>0.66860954673563389</v>
+        <v>0.6668729110104582</v>
       </c>
       <c r="D7">
-        <v>0.045466083912026133</v>
+        <v>1.033361305611052</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>0.56044460980170308</v>
+        <v>0.51696662978827679</v>
       </c>
       <c r="B8">
-        <v>0.70976954824689686</v>
+        <v>0.71137266756518525</v>
       </c>
       <c r="C8">
-        <v>0.6711381116323849</v>
+        <v>0.66926428933480975</v>
       </c>
       <c r="D8">
-        <v>0.045500610002659037</v>
+        <v>1.0789228246649258</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>0.56096309589971449</v>
+        <v>0.51809827021243848</v>
       </c>
       <c r="B9">
-        <v>0.71022069383634889</v>
+        <v>0.71184156052357439</v>
       </c>
       <c r="C9">
-        <v>0.67063316126859163</v>
+        <v>0.66872971656736935</v>
       </c>
       <c r="D9">
-        <v>0.046796973037892695</v>
+        <v>1.0779623478303018</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>0.54959482152896388</v>
+        <v>0.50365818135213691</v>
       </c>
       <c r="B10">
-        <v>0.70966841225256161</v>
+        <v>0.71119989902130087</v>
       </c>
       <c r="C10">
-        <v>0.67142867947615115</v>
+        <v>0.66963260588095563</v>
       </c>
       <c r="D10">
-        <v>0.045887541231007425</v>
+        <v>1.1006327808115679</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>0.57174422637513245</v>
+        <v>0.48639920051009866</v>
       </c>
       <c r="B11">
-        <v>0.70796946971333796</v>
+        <v>0.71163083581078945</v>
       </c>
       <c r="C11">
-        <v>0.67285029142236463</v>
+        <v>0.66862245806175102</v>
       </c>
       <c r="D11">
-        <v>0.045474144180657712</v>
+        <v>1.4891365146162088</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>0.57051753144610862</v>
+        <v>0.48525847634786345</v>
       </c>
       <c r="B12">
-        <v>0.70787967415621922</v>
+        <v>0.71118352603013013</v>
       </c>
       <c r="C12">
-        <v>0.67297418544544119</v>
+        <v>0.66916922776828103</v>
       </c>
       <c r="D12">
-        <v>0.046558140056256858</v>
+        <v>1.4742793754121606</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>0.57967449858377496</v>
+        <v>0.49499158873903226</v>
       </c>
       <c r="B13">
-        <v>0.70986748649773457</v>
+        <v>0.71294945834974155</v>
       </c>
       <c r="C13">
-        <v>0.67067971461056597</v>
+        <v>0.66711974830105758</v>
       </c>
       <c r="D13">
-        <v>0.045780955044222651</v>
+        <v>1.4784568933731688</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>0.565848883661903</v>
+        <v>0.48191974923961217</v>
       </c>
       <c r="B14">
-        <v>0.70650488023278679</v>
+        <v>0.70951394157719716</v>
       </c>
       <c r="C14">
-        <v>0.67446107684114331</v>
+        <v>0.67102065266839628</v>
       </c>
       <c r="D14">
-        <v>0.04660787219514842</v>
+        <v>1.4506732983193378</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>0.56756841753925458</v>
+        <v>0.48443320701019227</v>
       </c>
       <c r="B15">
-        <v>0.70675896582746733</v>
+        <v>0.70970657932851322</v>
       </c>
       <c r="C15">
-        <v>0.67418264810820039</v>
+        <v>0.67081281494053047</v>
       </c>
       <c r="D15">
-        <v>0.047143379127441029</v>
+        <v>1.4478901533086255</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>0.56041237380337572</v>
+        <v>0.47309815810503492</v>
       </c>
       <c r="B16">
-        <v>0.70654693801705615</v>
+        <v>0.70961139833723164</v>
       </c>
       <c r="C16">
-        <v>0.67444327652151914</v>
+        <v>0.67092973388433219</v>
       </c>
       <c r="D16">
-        <v>0.047795820752604044</v>
+        <v>1.4759929490254224</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>0.5530132778006549</v>
+        <v>0.4593745460217934</v>
       </c>
       <c r="B17">
-        <v>0.70773523704416652</v>
+        <v>0.71083364869488641</v>
       </c>
       <c r="C17">
-        <v>0.67318226868434761</v>
+        <v>0.66959809804873949</v>
       </c>
       <c r="D17">
-        <v>0.049608303030319545</v>
+        <v>1.5185778763560469</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>0.55766608009520557</v>
+        <v>0.458244666164345</v>
       </c>
       <c r="B18">
-        <v>0.70730831866009791</v>
+        <v>0.7111762523168873</v>
       </c>
       <c r="C18">
-        <v>0.67357327111380771</v>
+        <v>0.66917938154924983</v>
       </c>
       <c r="D18">
-        <v>0.050054117591543615</v>
+        <v>1.5425883700909442</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>0.55380036072136662</v>
+        <v>0.45984974758779829</v>
       </c>
       <c r="B19">
-        <v>0.70731908956658751</v>
+        <v>0.71100069590386505</v>
       </c>
       <c r="C19">
-        <v>0.67365235182514915</v>
+        <v>0.66950091459518957</v>
       </c>
       <c r="D19">
-        <v>0.049988438473191274</v>
+        <v>1.4824375710538433</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>0.55135223720634841</v>
+        <v>0.45861704988983248</v>
       </c>
       <c r="B20">
-        <v>0.70756453857463653</v>
+        <v>0.71132506821094144</v>
       </c>
       <c r="C20">
-        <v>0.6734452275962326</v>
+        <v>0.66920538961060072</v>
       </c>
       <c r="D20">
-        <v>0.050540852776185079</v>
+        <v>1.465724107687203</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>0.55573779966152848</v>
+        <v>0.46406499035006987</v>
       </c>
       <c r="B21">
-        <v>0.708152665924069</v>
+        <v>0.71177956433558442</v>
       </c>
       <c r="C21">
-        <v>0.67269716323772943</v>
+        <v>0.66860623318613333</v>
       </c>
       <c r="D21">
-        <v>0.050597350415705761</v>
+        <v>1.4639478659868903</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>0.56960962077805433</v>
+        <v>0.48566853484720329</v>
       </c>
       <c r="B22">
-        <v>0.71032517580864352</v>
+        <v>0.7138587571816567</v>
       </c>
       <c r="C22">
-        <v>0.66997250543765974</v>
+        <v>0.66595482550570306</v>
       </c>
       <c r="D22">
-        <v>0.050475221515689866</v>
+        <v>1.4299383250674951</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>0.55284260750082725</v>
+        <v>0.46031037551710485</v>
       </c>
       <c r="B23">
-        <v>0.7063558353823296</v>
+        <v>0.70995341822221847</v>
       </c>
       <c r="C23">
-        <v>0.67465079897066305</v>
+        <v>0.67060814507990707</v>
       </c>
       <c r="D23">
-        <v>0.051360979501530193</v>
+        <v>1.4734984268721303</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>0.55957283306019123</v>
+        <v>0.47380801398246625</v>
       </c>
       <c r="B24">
-        <v>0.70624976719959576</v>
+        <v>0.70974183753524955</v>
       </c>
       <c r="C24">
-        <v>0.67466565564549419</v>
+        <v>0.67073303880170809</v>
       </c>
       <c r="D24">
-        <v>0.05133653882036697</v>
+        <v>1.4392056841195235</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>0.57809687194415882</v>
+        <v>0.46607824511790374</v>
       </c>
       <c r="B25">
-        <v>0.70939256683229091</v>
+        <v>0.71335516192708637</v>
       </c>
       <c r="C25">
-        <v>0.6708798546667345</v>
+        <v>0.66635739161679108</v>
       </c>
       <c r="D25">
-        <v>0.050697211075764116</v>
+        <v>1.6326537719121088</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>0.55346070345486842</v>
+        <v>0.45916183114837744</v>
       </c>
       <c r="B26">
-        <v>0.70161927646114719</v>
+        <v>0.70528560796312501</v>
       </c>
       <c r="C26">
-        <v>0.67964793425833547</v>
+        <v>0.67557427160615724</v>
       </c>
       <c r="D26">
-        <v>0.053529300978956584</v>
+        <v>1.4653256302045985</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>0.56029334433446543</v>
+        <v>0.45935895990770625</v>
       </c>
       <c r="B27">
-        <v>0.69950675304565868</v>
+        <v>0.70285814014457382</v>
       </c>
       <c r="C27">
-        <v>0.68193961609681519</v>
+        <v>0.67829409966465248</v>
       </c>
       <c r="D27">
-        <v>0.054174055027663072</v>
+        <v>1.5077158333288401</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>0.56926347836499347</v>
+        <v>0.47041690582511264</v>
       </c>
       <c r="B28">
-        <v>0.70122409939252672</v>
+        <v>0.70434255245069077</v>
       </c>
       <c r="C28">
-        <v>0.67999161898800031</v>
+        <v>0.67660613791587698</v>
       </c>
       <c r="D28">
-        <v>0.053608308464068617</v>
+        <v>1.5038728946278244</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>0.56534724129698577</v>
+        <v>0.46503825117273478</v>
       </c>
       <c r="B29">
-        <v>0.70034779997772612</v>
+        <v>0.70361317720933525</v>
       </c>
       <c r="C29">
-        <v>0.68095846372271596</v>
+        <v>0.67741441847733108</v>
       </c>
       <c r="D29">
-        <v>0.054265369861345253</v>
+        <v>1.5122602750400849</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>0.55761402719853248</v>
+        <v>0.45132522594044822</v>
       </c>
       <c r="B30">
-        <v>0.69958282586891629</v>
+        <v>0.70296757740959392</v>
       </c>
       <c r="C30">
-        <v>0.68174485647558358</v>
+        <v>0.67806833410393175</v>
       </c>
       <c r="D30">
-        <v>0.056030088611139117</v>
+        <v>1.5454144792817279</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>0.55704609541030603</v>
+        <v>0.45074553267870521</v>
       </c>
       <c r="B31">
-        <v>0.70007652344092697</v>
+        <v>0.70337947302669579</v>
       </c>
       <c r="C31">
-        <v>0.68120163646225185</v>
+        <v>0.6776096676306731</v>
       </c>
       <c r="D31">
-        <v>0.056103631720184108</v>
+        <v>1.5492610153651363</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>0.55287758437210499</v>
+        <v>0.46349451528770275</v>
       </c>
       <c r="B32">
-        <v>0.70049440380807548</v>
+        <v>0.70303435494131894</v>
       </c>
       <c r="C32">
-        <v>0.6807765596708546</v>
+        <v>0.67806994675394805</v>
       </c>
       <c r="D32">
-        <v>0.05701170929465519</v>
+        <v>1.3998510000120199</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>0.55029930596405274</v>
+        <v>0.46451244165624817</v>
       </c>
       <c r="B33">
-        <v>0.70103426089148935</v>
+        <v>0.70372662984056145</v>
       </c>
       <c r="C33">
-        <v>0.68022911211403303</v>
+        <v>0.67734100018525445</v>
       </c>
       <c r="D33">
-        <v>0.057681490329621235</v>
+        <v>1.3663304235228972</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>0.57128146775900301</v>
+        <v>0.4835331378084235</v>
       </c>
       <c r="B34">
-        <v>0.70071717145295886</v>
+        <v>0.70249110959807792</v>
       </c>
       <c r="C34">
-        <v>0.68014420426500566</v>
+        <v>0.67836647031687836</v>
       </c>
       <c r="D34">
-        <v>0.057693553704508044</v>
+        <v>1.390628445942157</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>0.54836637204180516</v>
+        <v>0.45274322343600604</v>
       </c>
       <c r="B35">
-        <v>0.6937553211297941</v>
+        <v>0.69580135595121873</v>
       </c>
       <c r="C35">
-        <v>0.687925598650869</v>
+        <v>0.68587641164250979</v>
       </c>
       <c r="D35">
-        <v>0.059160809145162856</v>
+        <v>1.4197174642132309</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>0.55030209993875756</v>
+        <v>0.45739200103659244</v>
       </c>
       <c r="B36">
-        <v>0.69368640021348971</v>
+        <v>0.69554691919219425</v>
       </c>
       <c r="C36">
-        <v>0.68798104556601036</v>
+        <v>0.68612951092449803</v>
       </c>
       <c r="D36">
-        <v>0.060127525077603598</v>
+        <v>1.4069210461113508</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>0.53786910899397533</v>
+        <v>0.43378164758794879</v>
       </c>
       <c r="B37">
-        <v>0.69349333878501851</v>
+        <v>0.69532167173635384</v>
       </c>
       <c r="C37">
-        <v>0.68840455216313545</v>
+        <v>0.68658867258405276</v>
       </c>
       <c r="D37">
-        <v>0.061285563412285193</v>
+        <v>1.4669481554329336</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>0.54022657780406347</v>
+        <v>0.44102290148271772</v>
       </c>
       <c r="B38">
-        <v>0.69335491838824448</v>
+        <v>0.6949683974533063</v>
       </c>
       <c r="C38">
-        <v>0.68849433974825747</v>
+        <v>0.68687441769832303</v>
       </c>
       <c r="D38">
-        <v>0.062918233985526192</v>
+        <v>1.4470365507055534</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>0.55915509577548517</v>
+        <v>0.42265629931127324</v>
       </c>
       <c r="B39">
-        <v>0.69416108838329404</v>
+        <v>0.69630834132695596</v>
       </c>
       <c r="C39">
-        <v>0.6870694109809321</v>
+        <v>0.68511424256123976</v>
       </c>
       <c r="D39">
-        <v>0.062371829050373757</v>
+        <v>1.6501775187971561</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>0.53940439700557907</v>
+        <v>0.41643401243211076</v>
       </c>
       <c r="B40">
-        <v>0.68942816704892085</v>
+        <v>0.69222635442207525</v>
       </c>
       <c r="C40">
-        <v>0.69250603538064892</v>
+        <v>0.6898057354874304</v>
       </c>
       <c r="D40">
-        <v>0.064060320853234279</v>
+        <v>1.545927958619483</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>0.54962860975831251</v>
+        <v>0.42207784704467832</v>
       </c>
       <c r="B41">
-        <v>0.68868562952057522</v>
+        <v>0.6908579834140669</v>
       </c>
       <c r="C41">
-        <v>0.69302338743460223</v>
+        <v>0.69108999411157235</v>
       </c>
       <c r="D41">
-        <v>0.063350973026477186</v>
+        <v>1.5727339445243742</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>0.54945450717300137</v>
+        <v>0.42229098194984105</v>
       </c>
       <c r="B42">
-        <v>0.68886148638359845</v>
+        <v>0.69110397870664464</v>
       </c>
       <c r="C42">
-        <v>0.69284897097523368</v>
+        <v>0.69083133424008714</v>
       </c>
       <c r="D42">
-        <v>0.065255274740054769</v>
+        <v>1.5730164702236324</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>0.56740769135060609</v>
+        <v>0.44640069199563559</v>
       </c>
       <c r="B43">
-        <v>0.69161530319863673</v>
+        <v>0.69374649828136215</v>
       </c>
       <c r="C43">
-        <v>0.68960219031892978</v>
+        <v>0.6877003953026658</v>
       </c>
       <c r="D43">
-        <v>0.063889483483221599</v>
+        <v>1.5661337734496108</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>0.59168477983215739</v>
+        <v>0.48409295981692224</v>
       </c>
       <c r="B44">
-        <v>0.69976913799811502</v>
+        <v>0.70231884601840144</v>
       </c>
       <c r="C44">
-        <v>0.68061108909869361</v>
+        <v>0.67817188086107871</v>
       </c>
       <c r="D44">
-        <v>0.063370985038340488</v>
+        <v>1.5277725756818366</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>0.59145100512924553</v>
+        <v>0.48413243812899037</v>
       </c>
       <c r="B45">
-        <v>0.69969725062217902</v>
+        <v>0.7023808002339631</v>
       </c>
       <c r="C45">
-        <v>0.6806862278237088</v>
+        <v>0.67810239463072564</v>
       </c>
       <c r="D45">
-        <v>0.064377776932715666</v>
+        <v>1.5279309750119008</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>0.58775060716031269</v>
+        <v>0.49881791067391978</v>
       </c>
       <c r="B46">
-        <v>0.69824844042887968</v>
+        <v>0.69974887141737119</v>
       </c>
       <c r="C46">
-        <v>0.68209528705295486</v>
+        <v>0.68073454305174941</v>
       </c>
       <c r="D46">
-        <v>0.065495915587575809</v>
+        <v>1.3711694501458056</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>0.5858497389524735</v>
+        <v>0.50443776918515693</v>
       </c>
       <c r="B47">
-        <v>0.69814708622945898</v>
+        <v>0.69992501909894123</v>
       </c>
       <c r="C47">
-        <v>0.68197552002359818</v>
+        <v>0.68022838305661848</v>
       </c>
       <c r="D47">
-        <v>0.066422026461774669</v>
+        <v>1.3143589158232571</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>0.59098549900079222</v>
+        <v>0.50066599467632678</v>
       </c>
       <c r="B48">
-        <v>0.69684580626061354</v>
+        <v>0.69756137841443699</v>
       </c>
       <c r="C48">
-        <v>0.68412237472606774</v>
+        <v>0.68363251388015178</v>
       </c>
       <c r="D48">
-        <v>0.068200520541986248</v>
+        <v>1.3678750012817631</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>0.59918636947301884</v>
+        <v>0.504512236027995</v>
       </c>
       <c r="B49">
-        <v>0.70079558424146504</v>
+        <v>0.7010144971811616</v>
       </c>
       <c r="C49">
-        <v>0.68017259144704223</v>
+        <v>0.68022598311086357</v>
       </c>
       <c r="D49">
-        <v>0.068331916570097198</v>
+        <v>1.4025210079002108</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>0.59782791054031115</v>
+        <v>0.50299304370671138</v>
       </c>
       <c r="B50">
-        <v>0.70001101560093781</v>
+        <v>0.70027908933584859</v>
       </c>
       <c r="C50">
-        <v>0.68093756638619496</v>
+        <v>0.6809358748693437</v>
       </c>
       <c r="D50">
-        <v>0.069791931766134005</v>
+        <v>1.40259025362763</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>0.60210578037154949</v>
+        <v>0.51099639033892708</v>
       </c>
       <c r="B51">
-        <v>0.70230602335728509</v>
+        <v>0.70250815326719362</v>
       </c>
       <c r="C51">
-        <v>0.67928849971133687</v>
+        <v>0.67939032788233877</v>
       </c>
       <c r="D51">
-        <v>0.070923335969836146</v>
+        <v>1.3795695576768039</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>0.59771714920898955</v>
+        <v>0.50367356023299958</v>
       </c>
       <c r="B52">
-        <v>0.69908769949312088</v>
+        <v>0.69930736080951283</v>
       </c>
       <c r="C52">
-        <v>0.68226166238724195</v>
+        <v>0.68236852376254631</v>
       </c>
       <c r="D52">
-        <v>0.071613454103441804</v>
+        <v>1.3952513880958226</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>0.59764199474408997</v>
+        <v>0.50171342476103242</v>
       </c>
       <c r="B53">
-        <v>0.69908543122722588</v>
+        <v>0.69931597641392629</v>
       </c>
       <c r="C53">
-        <v>0.68250532740341574</v>
+        <v>0.68244988221994229</v>
       </c>
       <c r="D53">
-        <v>0.07110561172245447</v>
+        <v>1.4094282696826825</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>0.59807468310959888</v>
+        <v>0.49965613316604274</v>
       </c>
       <c r="B54">
-        <v>0.69944854240601129</v>
+        <v>0.69946978151474448</v>
       </c>
       <c r="C54">
-        <v>0.68242633683162901</v>
+        <v>0.68255451894471331</v>
       </c>
       <c r="D54">
-        <v>0.071373833186741648</v>
+        <v>1.4250534564927548</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>0.60116652351238797</v>
+        <v>0.49918091352840077</v>
       </c>
       <c r="B55">
-        <v>0.70214159650630203</v>
+        <v>0.7015111885770986</v>
       </c>
       <c r="C55">
-        <v>0.68084359347721168</v>
+        <v>0.68171472006586931</v>
       </c>
       <c r="D55">
-        <v>0.072449978736147044</v>
+        <v>1.444977479064377</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>0.59754724925072811</v>
+        <v>0.49409070332025729</v>
       </c>
       <c r="B56">
-        <v>0.69885944098429575</v>
+        <v>0.69834127352483033</v>
       </c>
       <c r="C56">
-        <v>0.6838779125467962</v>
+        <v>0.68462804511479591</v>
       </c>
       <c r="D56">
-        <v>0.073361996446132477</v>
+        <v>1.4512749681462578</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>0.59760442146047021</v>
+        <v>0.49394488663647262</v>
       </c>
       <c r="B57">
-        <v>0.69877199750152674</v>
+        <v>0.69827329375426694</v>
       </c>
       <c r="C57">
-        <v>0.68387651752800083</v>
+        <v>0.68463278567407126</v>
       </c>
       <c r="D57">
-        <v>0.074734823657137961</v>
+        <v>1.4525807099537875</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>0.59455789552965932</v>
+        <v>0.49731937877753524</v>
       </c>
       <c r="B58">
-        <v>0.69895533999203319</v>
+        <v>0.69856752975076875</v>
       </c>
       <c r="C58">
-        <v>0.68564482519686121</v>
+        <v>0.68632458704212351</v>
       </c>
       <c r="D58">
-        <v>0.075846893855195538</v>
+        <v>1.4035561207357103</v>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>0.5946088120229327</v>
+        <v>0.49774011241671423</v>
       </c>
       <c r="B59">
-        <v>0.69907962454282102</v>
+        <v>0.69882518514070247</v>
       </c>
       <c r="C59">
-        <v>0.68556073346685564</v>
+        <v>0.6861183742231165</v>
       </c>
       <c r="D59">
-        <v>0.077349793944907791</v>
+        <v>1.4021037295388314</v>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>0.59448014987257514</v>
+        <v>0.49336796053604004</v>
       </c>
       <c r="B60">
-        <v>0.69999486281041401</v>
+        <v>0.69941838120921385</v>
       </c>
       <c r="C60">
-        <v>0.68505023998162295</v>
+        <v>0.68580084171935152</v>
       </c>
       <c r="D60">
-        <v>0.077328080258831727</v>
+        <v>1.4323487483687449</v>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>0.59476049639050776</v>
+        <v>0.50123424998108335</v>
       </c>
       <c r="B61">
-        <v>0.69788021992905758</v>
+        <v>0.69746551851511041</v>
       </c>
       <c r="C61">
-        <v>0.68633091865629958</v>
+        <v>0.68684153136821435</v>
       </c>
       <c r="D61">
-        <v>0.078074137452793624</v>
+        <v>1.3819943476084986</v>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>0.58712264769890188</v>
+        <v>0.48829325772482057</v>
       </c>
       <c r="B62">
-        <v>0.69592751644452733</v>
+        <v>0.69495535872364411</v>
       </c>
       <c r="C62">
-        <v>0.69015748929049636</v>
+        <v>0.69126819115998694</v>
       </c>
       <c r="D62">
-        <v>0.080320366805169227</v>
+        <v>1.4019575924230945</v>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>0.58722796790652376</v>
+        <v>0.48932921158341147</v>
       </c>
       <c r="B63">
-        <v>0.69864614432156724</v>
+        <v>0.69756662956991877</v>
       </c>
       <c r="C63">
-        <v>0.68836402550195941</v>
+        <v>0.68961997762332738</v>
       </c>
       <c r="D63">
-        <v>0.079979525011191627</v>
+        <v>1.3936309528811113</v>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>0.58637686790541588</v>
+        <v>0.48660777754487727</v>
       </c>
       <c r="B64">
-        <v>0.69590968529538633</v>
+        <v>0.69486779405919874</v>
       </c>
       <c r="C64">
-        <v>0.69051918999829076</v>
+        <v>0.69175193016303926</v>
       </c>
       <c r="D64">
-        <v>0.081213582803075765</v>
+        <v>1.4050495860875647</v>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>0.59209869023848105</v>
+        <v>0.48953919891549585</v>
       </c>
       <c r="B65">
-        <v>0.69581176470477479</v>
+        <v>0.69471228034559074</v>
       </c>
       <c r="C65">
-        <v>0.68898546525919879</v>
+        <v>0.69031282766953894</v>
       </c>
       <c r="D65">
-        <v>0.082370390712251829</v>
+        <v>1.4308563955808276</v>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>0.58619896443870478</v>
+        <v>0.48435510173647978</v>
       </c>
       <c r="B66">
-        <v>0.69337112691540315</v>
+        <v>0.69214854895430933</v>
       </c>
       <c r="C66">
-        <v>0.6924467810539261</v>
+        <v>0.69394196365300342</v>
       </c>
       <c r="D66">
-        <v>0.083673996546950749</v>
+        <v>1.4147644989128652</v>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>0.58380461127794603</v>
+        <v>0.47327587897766954</v>
       </c>
       <c r="B67">
-        <v>0.69328002985045567</v>
+        <v>0.69198546917193027</v>
       </c>
       <c r="C67">
-        <v>0.69332992393225501</v>
+        <v>0.69469279364489045</v>
       </c>
       <c r="D67">
-        <v>0.085654263599134639</v>
+        <v>1.4741719624476497</v>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>0.58425300336161623</v>
+        <v>0.478679034696737</v>
       </c>
       <c r="B68">
-        <v>0.69177504316617333</v>
+        <v>0.6907080209799058</v>
       </c>
       <c r="C68">
-        <v>0.6941187244228485</v>
+        <v>0.6951953431074096</v>
       </c>
       <c r="D68">
-        <v>0.085668365330465818</v>
+        <v>1.4456353925511298</v>
       </c>
     </row>
     <row r="69">
       <c r="A69">
-        <v>0.58079426872973161</v>
+        <v>0.47334670867436479</v>
       </c>
       <c r="B69">
-        <v>0.69087510299586308</v>
+        <v>0.68954450582850313</v>
       </c>
       <c r="C69">
-        <v>0.69587032028455531</v>
+        <v>0.69722688515128373</v>
       </c>
       <c r="D69">
-        <v>0.086703126028522537</v>
+        <v>1.4495607373792034</v>
       </c>
     </row>
     <row r="70">
       <c r="A70">
-        <v>0.57962110609744277</v>
+        <v>0.47328459674914386</v>
       </c>
       <c r="B70">
-        <v>0.69198919528883596</v>
+        <v>0.6905630235444653</v>
       </c>
       <c r="C70">
-        <v>0.69562334780807089</v>
+        <v>0.69711494334470792</v>
       </c>
       <c r="D70">
-        <v>0.088027437616781071</v>
+        <v>1.4384504629738921</v>
       </c>
     </row>
     <row r="71">
       <c r="A71">
-        <v>0.57936393368059758</v>
+        <v>0.47260075481013863</v>
       </c>
       <c r="B71">
-        <v>0.69143214064484004</v>
+        <v>0.69007279164856827</v>
       </c>
       <c r="C71">
-        <v>0.69606234979491566</v>
+        <v>0.69750891202121323</v>
       </c>
       <c r="D71">
-        <v>0.088410965059412594</v>
+        <v>1.4408816704946501</v>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>0.5822195613292056</v>
+        <v>0.47128342433636117</v>
       </c>
       <c r="B72">
-        <v>0.68993518039332402</v>
+        <v>0.68844546574579946</v>
       </c>
       <c r="C72">
-        <v>0.69619109598511109</v>
+        <v>0.69780035322671252</v>
       </c>
       <c r="D72">
-        <v>0.090944061707267529</v>
+        <v>1.4701581936705321</v>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>0.57351589413523185</v>
+        <v>0.46483807105958308</v>
       </c>
       <c r="B73">
-        <v>0.6861932403974631</v>
+        <v>0.68465165543832873</v>
       </c>
       <c r="C73">
-        <v>0.70141395294133124</v>
+        <v>0.70310803911051867</v>
       </c>
       <c r="D73">
-        <v>0.090678873890380929</v>
+        <v>1.4404883673191693</v>
       </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>0.57135775006096301</v>
+        <v>0.42274893343673792</v>
       </c>
       <c r="B74">
-        <v>0.68896176319493296</v>
+        <v>0.68662570508636422</v>
       </c>
       <c r="C74">
-        <v>0.70056963289484964</v>
+        <v>0.70260841455477074</v>
       </c>
       <c r="D74">
-        <v>0.092410026211364696</v>
+        <v>1.6770624480770471</v>
       </c>
     </row>
     <row r="75">
       <c r="A75">
-        <v>0.56449478781748086</v>
+        <v>0.43235267132553118</v>
       </c>
       <c r="B75">
-        <v>0.67853070890224454</v>
+        <v>0.67693724670427247</v>
       </c>
       <c r="C75">
-        <v>0.70945088345596508</v>
+        <v>0.71069881800132162</v>
       </c>
       <c r="D75">
-        <v>0.094515756461156009</v>
+        <v>1.5805084277938155</v>
       </c>
     </row>
     <row r="76">
       <c r="A76">
-        <v>0.56501087071569189</v>
+        <v>0.4338350066431802</v>
       </c>
       <c r="B76">
-        <v>0.67868014660222309</v>
+        <v>0.67723626779397428</v>
       </c>
       <c r="C76">
-        <v>0.70920592455743747</v>
+        <v>0.71026584746644938</v>
       </c>
       <c r="D76">
-        <v>0.095503163072340538</v>
+        <v>1.5783880739828611</v>
       </c>
     </row>
     <row r="77">
       <c r="A77">
-        <v>0.57101862373397294</v>
+        <v>0.44197133461604632</v>
       </c>
       <c r="B77">
-        <v>0.68041549125771983</v>
+        <v>0.67949662618928075</v>
       </c>
       <c r="C77">
-        <v>0.70617729215048053</v>
+        <v>0.70667626537121553</v>
       </c>
       <c r="D77">
-        <v>0.096942035390890496</v>
+        <v>1.5832218852011621</v>
       </c>
     </row>
     <row r="78">
       <c r="A78">
-        <v>0.56725821338788451</v>
+        <v>0.4378350114368324</v>
       </c>
       <c r="B78">
-        <v>0.67831427411759559</v>
+        <v>0.67707557697168452</v>
       </c>
       <c r="C78">
-        <v>0.70882027518068969</v>
+        <v>0.70969599913957671</v>
       </c>
       <c r="D78">
-        <v>0.095088507901145841</v>
+        <v>1.5742886275602457</v>
       </c>
     </row>
     <row r="79">
       <c r="A79">
-        <v>0.56669302737414906</v>
+        <v>0.43822082395356476</v>
       </c>
       <c r="B79">
-        <v>0.6781341219239263</v>
+        <v>0.67686302940616305</v>
       </c>
       <c r="C79">
-        <v>0.70923380125662383</v>
+        <v>0.71018499043671002</v>
       </c>
       <c r="D79">
-        <v>0.097039955685372353</v>
+        <v>1.5668234341551184</v>
       </c>
     </row>
     <row r="80">
       <c r="A80">
-        <v>0.56668093509477024</v>
+        <v>0.43839721113784186</v>
       </c>
       <c r="B80">
-        <v>0.67812292594131307</v>
+        <v>0.67688701819670727</v>
       </c>
       <c r="C80">
-        <v>0.70924376108187603</v>
+        <v>0.71019462559314883</v>
       </c>
       <c r="D80">
-        <v>0.098994954896895249</v>
+        <v>1.5656993567908293</v>
       </c>
     </row>
     <row r="81">
       <c r="A81">
-        <v>0.56596091637098689</v>
+        <v>0.40954852197919117</v>
       </c>
       <c r="B81">
-        <v>0.67888207502752773</v>
+        <v>0.67756077936085779</v>
       </c>
       <c r="C81">
-        <v>0.70990004690015596</v>
+        <v>0.71053950930219956</v>
       </c>
       <c r="D81">
-        <v>0.10068302977362481</v>
+        <v>1.7232123734770055</v>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>0.56627204280624011</v>
+        <v>0.40933678424964176</v>
       </c>
       <c r="B82">
-        <v>0.67924700117811232</v>
+        <v>0.67762604388511116</v>
       </c>
       <c r="C82">
-        <v>0.70960497658160149</v>
+        <v>0.71050254386492839</v>
       </c>
       <c r="D82">
-        <v>0.10198557187345121</v>
+        <v>1.7244533060251346</v>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>0.56665646133159919</v>
+        <v>0.40920374314747243</v>
       </c>
       <c r="B83">
-        <v>0.68067248776491307</v>
+        <v>0.67885895932116513</v>
       </c>
       <c r="C83">
-        <v>0.70866616269245775</v>
+        <v>0.70976742385230884</v>
       </c>
       <c r="D83">
-        <v>0.1026352197739049</v>
+        <v>1.7258397355204216</v>
       </c>
     </row>
     <row r="84">
       <c r="A84">
-        <v>0.56660439615634983</v>
+        <v>0.4095680688513334</v>
       </c>
       <c r="B84">
-        <v>0.6810892270942478</v>
+        <v>0.67933047269293212</v>
       </c>
       <c r="C84">
-        <v>0.70842053295265472</v>
+        <v>0.70949753255045189</v>
       </c>
       <c r="D84">
-        <v>0.10470043138820542</v>
+        <v>1.7234457460189947</v>
       </c>
     </row>
     <row r="85">
       <c r="A85">
-        <v>0.56627948298446207</v>
+        <v>0.40972959470375492</v>
       </c>
       <c r="B85">
-        <v>0.68126483227162837</v>
+        <v>0.67959397849448755</v>
       </c>
       <c r="C85">
-        <v>0.70839534702668905</v>
+        <v>0.70942808225097775</v>
       </c>
       <c r="D85">
-        <v>0.10745161729360138</v>
+        <v>1.7200692607835832</v>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>0.56772026350094218</v>
+        <v>0.40838618507076418</v>
       </c>
       <c r="B86">
-        <v>0.68007382367661129</v>
+        <v>0.67833698941139464</v>
       </c>
       <c r="C86">
-        <v>0.70881433894048684</v>
+        <v>0.70994071147795801</v>
       </c>
       <c r="D86">
-        <v>0.10924422750930401</v>
+        <v>1.7351515354673257</v>
       </c>
     </row>
     <row r="87">
       <c r="A87">
-        <v>0.56161829044477207</v>
+        <v>0.39982251013329906</v>
       </c>
       <c r="B87">
-        <v>0.67848407900554131</v>
+        <v>0.6768556216135666</v>
       </c>
       <c r="C87">
-        <v>0.71156715994373443</v>
+        <v>0.71255926718566598</v>
       </c>
       <c r="D87">
-        <v>0.10964739794500938</v>
+        <v>1.7369861734430623</v>
       </c>
     </row>
     <row r="88">
       <c r="A88">
-        <v>0.56079156324570234</v>
+        <v>0.38901792610686292</v>
       </c>
       <c r="B88">
-        <v>0.67983976355336073</v>
+        <v>0.67751233357055951</v>
       </c>
       <c r="C88">
-        <v>0.71089790002674091</v>
+        <v>0.71223580431183309</v>
       </c>
       <c r="D88">
-        <v>0.11074168241974736</v>
+        <v>1.7866543328154085</v>
       </c>
     </row>
     <row r="89">
       <c r="A89">
-        <v>0.56076857181241357</v>
+        <v>0.39431440158592734</v>
       </c>
       <c r="B89">
-        <v>0.67843605911595406</v>
+        <v>0.67622694199946165</v>
       </c>
       <c r="C89">
-        <v>0.71187331612821558</v>
+        <v>0.71302598207970891</v>
       </c>
       <c r="D89">
-        <v>0.11927583386580418</v>
+        <v>1.7641711672849882</v>
       </c>
     </row>
     <row r="90">
       <c r="A90">
-        <v>0.55777669923311524</v>
+        <v>0.38541242798774622</v>
       </c>
       <c r="B90">
-        <v>0.67851200602767592</v>
+        <v>0.67578472207482876</v>
       </c>
       <c r="C90">
-        <v>0.71255347944972947</v>
+        <v>0.71412326097144807</v>
       </c>
       <c r="D90">
-        <v>0.11988708846736862</v>
+        <v>1.7838294226083189</v>
       </c>
     </row>
     <row r="91">
       <c r="A91">
-        <v>0.55870156840184748</v>
+        <v>0.38962566021341255</v>
       </c>
       <c r="B91">
-        <v>0.67722272138338513</v>
+        <v>0.67474763213212929</v>
       </c>
       <c r="C91">
-        <v>0.71324145813667772</v>
+        <v>0.7145283077423743</v>
       </c>
       <c r="D91">
-        <v>0.11647672725722713</v>
+        <v>1.7733107288134531</v>
       </c>
     </row>
     <row r="92">
       <c r="A92">
-        <v>0.55292221900778937</v>
+        <v>0.37914818629072805</v>
       </c>
       <c r="B92">
-        <v>0.67649059955453883</v>
+        <v>0.67350876399729731</v>
       </c>
       <c r="C92">
-        <v>0.71513692715131782</v>
+        <v>0.71692243063122074</v>
       </c>
       <c r="D92">
-        <v>0.11652575747814345</v>
+        <v>1.7783743809868235</v>
       </c>
     </row>
     <row r="93">
       <c r="A93">
-        <v>0.5528869393961765</v>
+        <v>0.37882605430025196</v>
       </c>
       <c r="B93">
-        <v>0.67605814028414046</v>
+        <v>0.67314114322826191</v>
       </c>
       <c r="C93">
-        <v>0.71545073708193963</v>
+        <v>0.71719431000392386</v>
       </c>
       <c r="D93">
-        <v>0.11734352162351237</v>
+        <v>1.7793880615637154</v>
       </c>
     </row>
     <row r="94">
       <c r="A94">
-        <v>0.55020365187582831</v>
+        <v>0.37190290670560372</v>
       </c>
       <c r="B94">
-        <v>0.67656327619637546</v>
+        <v>0.67349131565182474</v>
       </c>
       <c r="C94">
-        <v>0.71569223353055156</v>
+        <v>0.71748980269932927</v>
       </c>
       <c r="D94">
-        <v>0.11847804298128951</v>
+        <v>1.7947320758742653</v>
       </c>
     </row>
     <row r="95">
       <c r="A95">
-        <v>0.5477079325870523</v>
+        <v>0.35270227901987139</v>
       </c>
       <c r="B95">
-        <v>0.67879974720297331</v>
+        <v>0.67472402108657659</v>
       </c>
       <c r="C95">
-        <v>0.7146065664087452</v>
+        <v>0.71697458225607846</v>
       </c>
       <c r="D95">
-        <v>0.12186565609168111</v>
+        <v>1.866023131838406</v>
       </c>
     </row>
     <row r="96">
       <c r="A96">
-        <v>0.54675608237554907</v>
+        <v>0.33802291558700376</v>
       </c>
       <c r="B96">
-        <v>0.68218525266567365</v>
+        <v>0.67653115099769157</v>
       </c>
       <c r="C96">
-        <v>0.71226430683564723</v>
+        <v>0.71586891896972227</v>
       </c>
       <c r="D96">
-        <v>0.12260229175346868</v>
+        <v>1.9172879081680312</v>
       </c>
     </row>
     <row r="97">
       <c r="A97">
-        <v>0.54647143265889553</v>
+        <v>0.33823738378210694</v>
       </c>
       <c r="B97">
-        <v>0.68165994527775553</v>
+        <v>0.67584176826246267</v>
       </c>
       <c r="C97">
-        <v>0.71272011802339363</v>
+        <v>0.71642415038954255</v>
       </c>
       <c r="D97">
-        <v>0.12465908712958644</v>
+        <v>1.9152606002851464</v>
       </c>
     </row>
     <row r="98">
       <c r="A98">
-        <v>0.54205173315596511</v>
+        <v>0.32981705309709819</v>
       </c>
       <c r="B98">
-        <v>0.683047750921979</v>
+        <v>0.67670731136785012</v>
       </c>
       <c r="C98">
-        <v>0.71243159108616716</v>
+        <v>0.71668143854024091</v>
       </c>
       <c r="D98">
-        <v>0.12528808818329934</v>
+        <v>1.9154548160327984</v>
       </c>
     </row>
     <row r="99">
       <c r="A99">
-        <v>0.54155614064622881</v>
+        <v>0.32884732335425704</v>
       </c>
       <c r="B99">
-        <v>0.6828586186960095</v>
+        <v>0.67659983170531035</v>
       </c>
       <c r="C99">
-        <v>0.71266453804919083</v>
+        <v>0.71688196939249871</v>
       </c>
       <c r="D99">
-        <v>0.13038041326418034</v>
+        <v>1.9148584779315616</v>
       </c>
     </row>
     <row r="100">
       <c r="A100">
-        <v>0.53589102311892423</v>
+        <v>0.32336287015085019</v>
       </c>
       <c r="B100">
-        <v>0.68393882276055518</v>
+        <v>0.67782985114537642</v>
       </c>
       <c r="C100">
-        <v>0.71276452668276158</v>
+        <v>0.71694271633309947</v>
       </c>
       <c r="D100">
-        <v>0.13192695498430046</v>
+        <v>1.8988177278893132</v>
       </c>
     </row>
     <row r="101">
       <c r="A101">
-        <v>0.5342435529740539</v>
+        <v>0.32198970339913002</v>
       </c>
       <c r="B101">
-        <v>0.68441902758938555</v>
+        <v>0.67854226700638021</v>
       </c>
       <c r="C101">
-        <v>0.7126506680344652</v>
+        <v>0.71667929980826028</v>
       </c>
       <c r="D101">
-        <v>0.13254049365442794</v>
+        <v>1.8931460578231021</v>
       </c>
     </row>
     <row r="102">
       <c r="A102">
-        <v>0.53129282039641101</v>
+        <v>0.31514043306730988</v>
       </c>
       <c r="B102">
-        <v>0.68495709583555153</v>
+        <v>0.67855310388803214</v>
       </c>
       <c r="C102">
-        <v>0.71268979541814381</v>
+        <v>0.71691489748736048</v>
       </c>
       <c r="D102">
-        <v>0.1338616421070894</v>
+        <v>1.9087259646132138</v>
       </c>
     </row>
     <row r="103">
       <c r="A103">
-        <v>0.52842652779632049</v>
+        <v>0.30833658029230721</v>
       </c>
       <c r="B103">
-        <v>0.6853737585448324</v>
+        <v>0.67850499457100177</v>
       </c>
       <c r="C103">
-        <v>0.71280167920586424</v>
+        <v>0.7173002677485194</v>
       </c>
       <c r="D103">
-        <v>0.13750869144557787</v>
+        <v>1.9193611899704588</v>
       </c>
     </row>
     <row r="104">
       <c r="A104">
-        <v>0.5183357868262517</v>
+        <v>0.28642485093166115</v>
       </c>
       <c r="B104">
-        <v>0.68762572984671033</v>
+        <v>0.67988605571114236</v>
       </c>
       <c r="C104">
-        <v>0.71252311951693836</v>
+        <v>0.71783646336541218</v>
       </c>
       <c r="D104">
-        <v>0.14341310791002532</v>
+        <v>1.9301501441201752</v>
       </c>
     </row>
     <row r="105">
       <c r="A105">
-        <v>0.51644727612552188</v>
+        <v>0.28365181535022321</v>
       </c>
       <c r="B105">
-        <v>0.68860685963292356</v>
+        <v>0.68093553707060162</v>
       </c>
       <c r="C105">
-        <v>0.71200089110413645</v>
+        <v>0.71731355589343426</v>
       </c>
       <c r="D105">
-        <v>0.14566794062885791</v>
+        <v>1.926808314692966</v>
       </c>
     </row>
     <row r="106">
       <c r="A106">
-        <v>0.52442580898525515</v>
+        <v>0.28991547281016639</v>
       </c>
       <c r="B106">
-        <v>0.684476151813036</v>
+        <v>0.6766676378511709</v>
       </c>
       <c r="C106">
-        <v>0.71421728667368001</v>
+        <v>0.71964392464969129</v>
       </c>
       <c r="D106">
-        <v>0.15565759184013014</v>
+        <v>1.9489914613775901</v>
       </c>
     </row>
     <row r="107">
       <c r="A107">
-        <v>0.53790651250638599</v>
+        <v>0.30765409935262877</v>
       </c>
       <c r="B107">
-        <v>0.68656956999892194</v>
+        <v>0.67856312040785838</v>
       </c>
       <c r="C107">
-        <v>0.7105127658926772</v>
+        <v>0.71623590099487111</v>
       </c>
       <c r="D107">
-        <v>0.15600410432345596</v>
+        <v>1.9649691806475094</v>
       </c>
     </row>
     <row r="108">
       <c r="A108">
-        <v>0.52738252863529878</v>
+        <v>0.29084655443730678</v>
       </c>
       <c r="B108">
-        <v>0.68352749667021018</v>
+        <v>0.67527557648539194</v>
       </c>
       <c r="C108">
-        <v>0.71457972897257349</v>
+        <v>0.72057388283282187</v>
       </c>
       <c r="D108">
-        <v>0.16273938268230181</v>
+        <v>1.9537367604169218</v>
       </c>
     </row>
     <row r="109">
       <c r="A109">
-        <v>0.50537082337700578</v>
+        <v>0.20168212473144598</v>
       </c>
       <c r="B109">
-        <v>0.68188044384960966</v>
+        <v>0.67283393615519937</v>
       </c>
       <c r="C109">
-        <v>0.71920563881965371</v>
+        <v>0.72480228097679888</v>
       </c>
       <c r="D109">
-        <v>0.17346647259337442</v>
+        <v>2.1065302600263776</v>
       </c>
     </row>
     <row r="110">
       <c r="A110">
-        <v>0.50661731222922901</v>
+        <v>0.21348841698153009</v>
       </c>
       <c r="B110">
-        <v>0.67781552133699896</v>
+        <v>0.66891881315790935</v>
       </c>
       <c r="C110">
-        <v>0.72226580258625739</v>
+        <v>0.72764374909808027</v>
       </c>
       <c r="D110">
-        <v>0.17325881555104497</v>
+        <v>2.0875335466495022</v>
       </c>
     </row>
     <row r="111">
       <c r="A111">
-        <v>0.49837812602979265</v>
+        <v>0.18978102287168036</v>
       </c>
       <c r="B111">
-        <v>0.6777828684371201</v>
+        <v>0.66823183014450049</v>
       </c>
       <c r="C111">
-        <v>0.72344371781729677</v>
+        <v>0.72939999551643497</v>
       </c>
       <c r="D111">
-        <v>0.17201104232307851</v>
+        <v>2.0917948926691539</v>
       </c>
     </row>
     <row r="112">
       <c r="A112">
-        <v>0.50427677433230467</v>
+        <v>0.19997744267617518</v>
       </c>
       <c r="B112">
-        <v>0.67523221483526552</v>
+        <v>0.66592031012912289</v>
       </c>
       <c r="C112">
-        <v>0.72465752634360803</v>
+        <v>0.7303689053133503</v>
       </c>
       <c r="D112">
-        <v>0.17286818572652041</v>
+        <v>2.1017762675846008</v>
       </c>
     </row>
     <row r="113">
       <c r="A113">
-        <v>0.50362414939202338</v>
+        <v>0.19683973493441106</v>
       </c>
       <c r="B113">
-        <v>0.67487032563084215</v>
+        <v>0.66542042698620385</v>
       </c>
       <c r="C113">
-        <v>0.72503391457642197</v>
+        <v>0.73094016515972005</v>
       </c>
       <c r="D113">
-        <v>0.17625100482721062</v>
+        <v>2.1012216490373667</v>
       </c>
     </row>
     <row r="114">
       <c r="A114">
-        <v>0.50796862101315376</v>
+        <v>0.20255180511357462</v>
       </c>
       <c r="B114">
-        <v>0.67496018734895336</v>
+        <v>0.66538615820279157</v>
       </c>
       <c r="C114">
-        <v>0.72434759810778715</v>
+        <v>0.73044279465383388</v>
       </c>
       <c r="D114">
-        <v>0.17819654548237196</v>
+        <v>2.1086883076588236</v>
       </c>
     </row>
     <row r="115">
       <c r="A115">
-        <v>0.51224663829401118</v>
+        <v>0.207926892591905</v>
       </c>
       <c r="B115">
-        <v>0.67543423939404068</v>
+        <v>0.6656479081375426</v>
       </c>
       <c r="C115">
-        <v>0.72335241479455492</v>
+        <v>0.72973450465254275</v>
       </c>
       <c r="D115">
-        <v>0.17576336911509033</v>
+        <v>2.1156569982415752</v>
       </c>
     </row>
     <row r="116">
       <c r="A116">
-        <v>0.49187602084972071</v>
+        <v>0.093402739748298685</v>
       </c>
       <c r="B116">
-        <v>0.67122437822115999</v>
+        <v>0.66165136484254061</v>
       </c>
       <c r="C116">
-        <v>0.729605055313995</v>
+        <v>0.73464131435878866</v>
       </c>
       <c r="D116">
-        <v>0.17968980374985322</v>
+        <v>2.2288127023851421</v>
       </c>
     </row>
     <row r="117">
       <c r="A117">
-        <v>0.48308182600969857</v>
+        <v>1.1939089395045818e-06</v>
       </c>
       <c r="B117">
-        <v>0.67790187917395817</v>
+        <v>0.66657882052274608</v>
       </c>
       <c r="C117">
-        <v>0.72561372952004788</v>
+        <v>0.73146384028461831</v>
       </c>
       <c r="D117">
-        <v>0.18186024045514665</v>
+        <v>2.2878285439253592</v>
       </c>
     </row>
     <row r="118">
       <c r="A118">
-        <v>0.48231080664864573</v>
+        <v>1.2071574448338246e-06</v>
       </c>
       <c r="B118">
-        <v>0.67452560596240829</v>
+        <v>0.6633645758154767</v>
       </c>
       <c r="C118">
-        <v>0.72838805715118382</v>
+        <v>0.73401112577935468</v>
       </c>
       <c r="D118">
-        <v>0.18266397863418354</v>
+        <v>2.2857555454733642</v>
       </c>
     </row>
     <row r="119">
       <c r="A119">
-        <v>0.48541905535020236</v>
+        <v>1.2157946280535023e-06</v>
       </c>
       <c r="B119">
-        <v>0.67281395978285774</v>
+        <v>0.66168159504550217</v>
       </c>
       <c r="C119">
-        <v>0.7293443597572119</v>
+        <v>0.73499328649616991</v>
       </c>
       <c r="D119">
-        <v>0.18802050585342117</v>
+        <v>2.2924966096535475</v>
       </c>
     </row>
     <row r="120">
       <c r="A120">
-        <v>0.4876704058578557</v>
+        <v>1.2509225374002325e-06</v>
       </c>
       <c r="B120">
-        <v>0.67253667292482544</v>
+        <v>0.6612713486632964</v>
       </c>
       <c r="C120">
-        <v>0.72927243189405222</v>
+        <v>0.73513691361072919</v>
       </c>
       <c r="D120">
-        <v>0.18863084706997901</v>
+        <v>2.2967024409763837</v>
       </c>
     </row>
     <row r="121">
       <c r="A121">
-        <v>0.49908403074854313</v>
+        <v>1.2746051307646632e-06</v>
       </c>
       <c r="B121">
-        <v>0.67338121274118357</v>
+        <v>0.66130766271396635</v>
       </c>
       <c r="C121">
-        <v>0.72710105665936209</v>
+        <v>0.73395853881829232</v>
       </c>
       <c r="D121">
-        <v>0.18754067011284953</v>
+        <v>2.3229285547020382</v>
       </c>
     </row>
     <row r="122">
       <c r="A122">
-        <v>0.49486680098651703</v>
+        <v>1.2952538788333058e-06</v>
       </c>
       <c r="B122">
-        <v>0.67205238618426344</v>
+        <v>0.66021939627731996</v>
       </c>
       <c r="C122">
-        <v>0.72871881661375393</v>
+        <v>0.73523847483623006</v>
       </c>
       <c r="D122">
-        <v>0.19283169447554216</v>
+        <v>2.3164820675367639</v>
       </c>
     </row>
     <row r="123">
       <c r="A123">
-        <v>0.4841797095743775</v>
+        <v>1.3318748329286696e-06</v>
       </c>
       <c r="B123">
-        <v>0.67031389368435068</v>
+        <v>0.65974185057091861</v>
       </c>
       <c r="C123">
-        <v>0.73152819062626828</v>
+        <v>0.73599278800625023</v>
       </c>
       <c r="D123">
-        <v>0.19644657553278305</v>
+        <v>2.3353830868427949</v>
       </c>
     </row>
     <row r="124">
       <c r="A124">
-        <v>0.48563051972720039</v>
+        <v>1.3521485583336004e-06</v>
       </c>
       <c r="B124">
-        <v>0.6694086897385868</v>
+        <v>0.65841033018989181</v>
       </c>
       <c r="C124">
-        <v>0.73203853981438582</v>
+        <v>0.73692855588822925</v>
       </c>
       <c r="D124">
-        <v>0.19713287306616784</v>
+        <v>2.3247646958999777</v>
       </c>
     </row>
     <row r="125">
       <c r="A125">
-        <v>0.47974137901224512</v>
+        <v>1.3846411669240053e-06</v>
       </c>
       <c r="B125">
-        <v>0.66903467308036024</v>
+        <v>0.65797343217950099</v>
       </c>
       <c r="C125">
-        <v>0.73311075790378477</v>
+        <v>0.73780397739689219</v>
       </c>
       <c r="D125">
-        <v>0.20193611122396704</v>
+        <v>2.3223948948184447</v>
       </c>
     </row>
     <row r="126">
       <c r="A126">
-        <v>0.47638906210558818</v>
+        <v>1.4117176673112992e-06</v>
       </c>
       <c r="B126">
-        <v>0.66943649770156344</v>
+        <v>0.65838678483572388</v>
       </c>
       <c r="C126">
-        <v>0.73323440231838999</v>
+        <v>0.73790145288683473</v>
       </c>
       <c r="D126">
-        <v>0.20618266015786729</v>
+        <v>2.3156296413121904</v>
       </c>
     </row>
     <row r="127">
       <c r="A127">
-        <v>0.4838809760731656</v>
+        <v>1.4073379919890881e-06</v>
       </c>
       <c r="B127">
-        <v>0.6663057185315755</v>
+        <v>0.65514774431750022</v>
       </c>
       <c r="C127">
-        <v>0.73470649729028037</v>
+        <v>0.73948274792777791</v>
       </c>
       <c r="D127">
-        <v>0.2005305790119396</v>
+        <v>2.339178258807137</v>
       </c>
     </row>
     <row r="128">
       <c r="A128">
-        <v>0.49207737346569885</v>
+        <v>1.4435853238638811e-06</v>
       </c>
       <c r="B128">
-        <v>0.66817624062848591</v>
+        <v>0.65632403054768607</v>
       </c>
       <c r="C128">
-        <v>0.73216077328879137</v>
+        <v>0.73778227616873704</v>
       </c>
       <c r="D128">
-        <v>0.20520447655236218</v>
+        <v>2.3560328388380603</v>
       </c>
     </row>
     <row r="129">
       <c r="A129">
-        <v>0.49209319449753469</v>
+        <v>1.4798473801061829e-06</v>
       </c>
       <c r="B129">
-        <v>0.66803925613070292</v>
+        <v>0.65598550386761123</v>
       </c>
       <c r="C129">
-        <v>0.73226370097457449</v>
+        <v>0.73812067984250418</v>
       </c>
       <c r="D129">
-        <v>0.20944773197185201</v>
+        <v>2.3548355671439758</v>
       </c>
     </row>
     <row r="130">
       <c r="A130">
-        <v>0.47997712260642222</v>
+        <v>1.4762292068682092e-06</v>
       </c>
       <c r="B130">
-        <v>0.66513873086506403</v>
+        <v>0.65521358408818076</v>
       </c>
       <c r="C130">
-        <v>0.73619510497824137</v>
+        <v>0.738908249498334</v>
       </c>
       <c r="D130">
-        <v>0.21702311329970458</v>
+        <v>2.3900051785272356</v>
       </c>
     </row>
     <row r="131">
       <c r="A131">
-        <v>0.47481569317443051</v>
+        <v>1.5057433188775198e-06</v>
       </c>
       <c r="B131">
-        <v>0.66706236613658865</v>
+        <v>0.65659001690117214</v>
       </c>
       <c r="C131">
-        <v>0.73544050337590705</v>
+        <v>0.73812598249591765</v>
       </c>
       <c r="D131">
-        <v>0.21789567029752202</v>
+        <v>2.4084382533069166</v>
       </c>
     </row>
     <row r="132">
       <c r="A132">
-        <v>0.47261621638166229</v>
+        <v>1.5412481846767137e-06</v>
       </c>
       <c r="B132">
-        <v>0.67072458006704594</v>
+        <v>0.65953721706102741</v>
       </c>
       <c r="C132">
-        <v>0.73290420291614233</v>
+        <v>0.73608763187877024</v>
       </c>
       <c r="D132">
-        <v>0.21507445135687434</v>
+        <v>2.414854613417142</v>
       </c>
     </row>
     <row r="133">
       <c r="A133">
-        <v>0.4713345228553395</v>
+        <v>1.5572888999458101e-06</v>
       </c>
       <c r="B133">
-        <v>0.67288186863597188</v>
+        <v>0.66146224684512478</v>
       </c>
       <c r="C133">
-        <v>0.73137689112730464</v>
+        <v>0.73473147053093246</v>
       </c>
       <c r="D133">
-        <v>0.21519694361586536</v>
+        <v>2.4161273025912102</v>
       </c>
     </row>
     <row r="134">
       <c r="A134">
-        <v>0.46948674463760626</v>
+        <v>1.5969428088623447e-06</v>
       </c>
       <c r="B134">
-        <v>0.67400734641650684</v>
+        <v>0.66282564279373757</v>
       </c>
       <c r="C134">
-        <v>0.73071338527863283</v>
+        <v>0.73392127767783655</v>
       </c>
       <c r="D134">
-        <v>0.21862945119210714</v>
+        <v>2.4108316629504105</v>
       </c>
     </row>
     <row r="135">
       <c r="A135">
-        <v>0.46304500140053606</v>
+        <v>1.6715102825810799e-06</v>
       </c>
       <c r="B135">
-        <v>0.67707327606111212</v>
+        <v>0.66667044799825448</v>
       </c>
       <c r="C135">
-        <v>0.72904181959693337</v>
+        <v>0.73173701868911456</v>
       </c>
       <c r="D135">
-        <v>0.22081039391305218</v>
+        <v>2.387198726802036</v>
       </c>
     </row>
     <row r="136">
       <c r="A136">
-        <v>0.4596505114126298</v>
+        <v>1.7038085130452544e-06</v>
       </c>
       <c r="B136">
-        <v>0.6804978559456023</v>
+        <v>0.67079811867925232</v>
       </c>
       <c r="C136">
-        <v>0.72667698404019321</v>
+        <v>0.72873948958296264</v>
       </c>
       <c r="D136">
-        <v>0.22174741162157174</v>
+        <v>2.3829341451327584</v>
       </c>
     </row>
     <row r="137">
       <c r="A137">
-        <v>0.45062007644026603</v>
+        <v>1.6479910632919543e-06</v>
       </c>
       <c r="B137">
-        <v>0.68920706644658203</v>
+        <v>0.67939184962019161</v>
       </c>
       <c r="C137">
-        <v>0.72057134427972647</v>
+        <v>0.72107619672037127</v>
       </c>
       <c r="D137">
-        <v>0.22435779877019063</v>
+        <v>2.4719139294809516</v>
       </c>
     </row>
     <row r="138">
       <c r="A138">
-        <v>0.45016667433484936</v>
+        <v>1.6514337861901969e-06</v>
       </c>
       <c r="B138">
-        <v>0.68142158224835558</v>
+        <v>0.6701684513200058</v>
       </c>
       <c r="C138">
-        <v>0.72702491516694301</v>
+        <v>0.72914816476960098</v>
       </c>
       <c r="D138">
-        <v>0.2175688501838699</v>
+        <v>2.4225518175356084</v>
       </c>
     </row>
     <row r="139">
       <c r="A139">
-        <v>0.44373980160444676</v>
+        <v>1.6723453903140546e-06</v>
       </c>
       <c r="B139">
-        <v>0.68137297749206915</v>
+        <v>0.66993210378565737</v>
       </c>
       <c r="C139">
-        <v>0.72774159677863226</v>
+        <v>0.72976335010534732</v>
       </c>
       <c r="D139">
-        <v>0.21973222728180813</v>
+        <v>2.4223488058219846</v>
       </c>
     </row>
     <row r="140">
       <c r="A140">
-        <v>0.42311137289334838</v>
+        <v>1.6975287064069553e-06</v>
       </c>
       <c r="B140">
-        <v>0.68424242725794338</v>
+        <v>0.67280688115402287</v>
       </c>
       <c r="C140">
-        <v>0.72750146916862335</v>
+        <v>0.72935924398569429</v>
       </c>
       <c r="D140">
-        <v>0.22845515309639369</v>
+        <v>2.3908639641688421</v>
       </c>
     </row>
     <row r="141">
       <c r="A141">
-        <v>0.41955290630601394</v>
+        <v>1.7093800175414522e-06</v>
       </c>
       <c r="B141">
-        <v>0.68717369844067844</v>
+        <v>0.67665347987789437</v>
       </c>
       <c r="C141">
-        <v>0.72543048937518395</v>
+        <v>0.72668744073196934</v>
       </c>
       <c r="D141">
-        <v>0.23139693317833351</v>
+        <v>2.3760288381885308</v>
       </c>
     </row>
     <row r="142">
       <c r="A142">
-        <v>0.42086017132263548</v>
+        <v>1.7196135491016994e-06</v>
       </c>
       <c r="B142">
-        <v>0.68508115120132129</v>
+        <v>0.67507647994725173</v>
       </c>
       <c r="C142">
-        <v>0.72703218018969906</v>
+        <v>0.7279163465227837</v>
       </c>
       <c r="D142">
-        <v>0.23122106087486236</v>
+        <v>2.3798884548774146</v>
       </c>
     </row>
     <row r="143">
       <c r="A143">
-        <v>0.40756345712999587</v>
+        <v>1.7429700626257288e-06</v>
       </c>
       <c r="B143">
-        <v>0.68564349532206093</v>
+        <v>0.67711962484970156</v>
       </c>
       <c r="C143">
-        <v>0.72782206086803214</v>
+        <v>0.72749676609252456</v>
       </c>
       <c r="D143">
-        <v>0.23724962802132046</v>
+        <v>2.3457629932320119</v>
       </c>
     </row>
     <row r="144">
       <c r="A144">
-        <v>0.38748488505608036</v>
+        <v>1.7118452507102091e-06</v>
       </c>
       <c r="B144">
-        <v>0.69060407108104749</v>
+        <v>0.68355498449431562</v>
       </c>
       <c r="C144">
-        <v>0.72552418945239949</v>
+        <v>0.72204153060407239</v>
       </c>
       <c r="D144">
-        <v>0.24716178814367745</v>
+        <v>2.4221878535206551</v>
       </c>
     </row>
     <row r="145">
       <c r="A145">
-        <v>0.37513346426815891</v>
+        <v>1.6781060885886895e-06</v>
       </c>
       <c r="B145">
-        <v>0.70186611954227396</v>
+        <v>0.69380979931638975</v>
       </c>
       <c r="C145">
-        <v>0.71709805328137766</v>
+        <v>0.71335979841931629</v>
       </c>
       <c r="D145">
-        <v>0.25518438382993591</v>
+        <v>2.4810440164551153</v>
       </c>
     </row>
     <row r="146">
       <c r="A146">
-        <v>0.37178058464203995</v>
+        <v>1.6686122242784685e-06</v>
       </c>
       <c r="B146">
-        <v>0.70556753091735669</v>
+        <v>0.69714618190509192</v>
       </c>
       <c r="C146">
-        <v>0.71420259225083171</v>
+        <v>0.71068978576884478</v>
       </c>
       <c r="D146">
-        <v>0.25767492115910084</v>
+        <v>2.4848245893650001</v>
       </c>
     </row>
     <row r="147">
       <c r="A147">
-        <v>0.36556634020452294</v>
+        <v>1.6698169338019107e-06</v>
       </c>
       <c r="B147">
-        <v>0.70736097650457852</v>
+        <v>0.69940914565534795</v>
       </c>
       <c r="C147">
-        <v>0.71316468029920022</v>
+        <v>0.70922282472714016</v>
       </c>
       <c r="D147">
-        <v>0.26355112417279025</v>
+        <v>2.4783972806249621</v>
       </c>
     </row>
     <row r="148">
       <c r="A148">
-        <v>0.36058860327719261</v>
+        <v>1.683284830419429e-06</v>
       </c>
       <c r="B148">
-        <v>0.7075075589382156</v>
+        <v>0.70042372514996054</v>
       </c>
       <c r="C148">
-        <v>0.71343675620505698</v>
+        <v>0.70887326392874606</v>
       </c>
       <c r="D148">
-        <v>0.26582533436278521</v>
+        <v>2.4663085395295696</v>
       </c>
     </row>
     <row r="149">
       <c r="A149">
-        <v>0.35511393665186408</v>
+        <v>1.7564761059219904e-06</v>
       </c>
       <c r="B149">
-        <v>0.70722916613109477</v>
+        <v>0.70112095869277957</v>
       </c>
       <c r="C149">
-        <v>0.71410857280876239</v>
+        <v>0.70890534389037851</v>
       </c>
       <c r="D149">
-        <v>0.26412515658722802</v>
+        <v>2.4499378851215834</v>
       </c>
     </row>
     <row r="150">
       <c r="A150">
-        <v>0.37289063921345766</v>
+        <v>1.8302196893301209e-06</v>
       </c>
       <c r="B150">
-        <v>0.70454090656317891</v>
+        <v>0.69706222478488222</v>
       </c>
       <c r="C150">
-        <v>0.71499430269164943</v>
+        <v>0.71137614613876377</v>
       </c>
       <c r="D150">
-        <v>0.25568416563668173</v>
+        <v>2.4744310549547084</v>
       </c>
     </row>
     <row r="151">
       <c r="A151">
-        <v>0.31771293904675652</v>
+        <v>1.8305790964419296e-06</v>
       </c>
       <c r="B151">
-        <v>0.69833216073248527</v>
+        <v>0.69633934837308287</v>
       </c>
       <c r="C151">
-        <v>0.72450487292695032</v>
+        <v>0.71286271668187062</v>
       </c>
       <c r="D151">
-        <v>0.27219177800949373</v>
+        <v>2.5609547242103479</v>
       </c>
     </row>
     <row r="152">
       <c r="A152">
-        <v>0.32671746182362504</v>
+        <v>1.826824886227842e-06</v>
       </c>
       <c r="B152">
-        <v>0.69447021698451916</v>
+        <v>0.69187378948106348</v>
       </c>
       <c r="C152">
-        <v>0.72712330377569789</v>
+        <v>0.71628366964262313</v>
       </c>
       <c r="D152">
-        <v>0.27055257680815381</v>
+        <v>2.552838055376601</v>
       </c>
     </row>
     <row r="153">
       <c r="A153">
-        <v>0.3308667704211089</v>
+        <v>1.8194593511320056e-06</v>
       </c>
       <c r="B153">
-        <v>0.6937214770489295</v>
+        <v>0.69101793924972088</v>
       </c>
       <c r="C153">
-        <v>0.72745006960846359</v>
+        <v>0.71688755636333745</v>
       </c>
       <c r="D153">
-        <v>0.27330737545519046</v>
+        <v>2.5554377773602539</v>
       </c>
     </row>
     <row r="154">
       <c r="A154">
-        <v>0.36379329588518611</v>
+        <v>1.8361849568160001e-06</v>
       </c>
       <c r="B154">
-        <v>0.69461614977460373</v>
+        <v>0.69062771850457361</v>
       </c>
       <c r="C154">
-        <v>0.72421661039017948</v>
+        <v>0.71505270701126111</v>
       </c>
       <c r="D154">
-        <v>0.26452764970554632</v>
+        <v>2.6054695842666842</v>
       </c>
     </row>
     <row r="155">
       <c r="A155">
-        <v>0.32506364824832201</v>
+        <v>1.9320277487058412e-06</v>
       </c>
       <c r="B155">
-        <v>0.68718294543150393</v>
+        <v>0.68374558707634603</v>
       </c>
       <c r="C155">
-        <v>0.73332001311456141</v>
+        <v>0.72417724944779061</v>
       </c>
       <c r="D155">
-        <v>0.28193722287776479</v>
+        <v>2.5295108708790437</v>
       </c>
     </row>
     <row r="156">
       <c r="A156">
-        <v>0.33326638593783298</v>
+        <v>1.8660964896980639e-06</v>
       </c>
       <c r="B156">
-        <v>0.68615636777015421</v>
+        <v>0.68167518398286286</v>
       </c>
       <c r="C156">
-        <v>0.7335835716410648</v>
+        <v>0.72555985211179186</v>
       </c>
       <c r="D156">
-        <v>0.27452093463281085</v>
+        <v>2.528388360391451</v>
       </c>
     </row>
     <row r="157">
       <c r="A157">
-        <v>0.34472511058335709</v>
+        <v>1.9061899609584771e-06</v>
       </c>
       <c r="B157">
-        <v>0.68621523305978394</v>
+        <v>0.68094385775776534</v>
       </c>
       <c r="C157">
-        <v>0.73269563921660497</v>
+        <v>0.72557860617898728</v>
       </c>
       <c r="D157">
-        <v>0.26914291167666116</v>
+        <v>2.5382411063899779</v>
       </c>
     </row>
     <row r="158">
       <c r="A158">
-        <v>0.27499569581046018</v>
+        <v>1.8845478140782751e-06</v>
       </c>
       <c r="B158">
-        <v>0.67832099818081937</v>
+        <v>0.67923556202358437</v>
       </c>
       <c r="C158">
-        <v>0.74380414887294932</v>
+        <v>0.72825173671045429</v>
       </c>
       <c r="D158">
-        <v>0.3118314399187932</v>
+        <v>2.651176486195272</v>
       </c>
     </row>
     <row r="159">
       <c r="A159">
-        <v>0.28725118631250002</v>
+        <v>1.8132238312539257e-06</v>
       </c>
       <c r="B159">
-        <v>0.66994184732059869</v>
+        <v>0.66910026977034986</v>
       </c>
       <c r="C159">
-        <v>0.74980982324393586</v>
+        <v>0.73647626889362228</v>
       </c>
       <c r="D159">
-        <v>0.31308589556336752</v>
+        <v>2.6106300203727031</v>
       </c>
     </row>
     <row r="160">
       <c r="A160">
-        <v>0.31851909477103812</v>
+        <v>1.8577640674270181e-06</v>
       </c>
       <c r="B160">
-        <v>0.67030965949943266</v>
+        <v>0.66902065523277998</v>
       </c>
       <c r="C160">
-        <v>0.7475308216268034</v>
+        <v>0.73507413711286995</v>
       </c>
       <c r="D160">
-        <v>0.30217046408040221</v>
+        <v>2.596658094838685</v>
       </c>
     </row>
     <row r="161">
       <c r="A161">
-        <v>0.34920574437845608</v>
+        <v>1.8797343166677677e-06</v>
       </c>
       <c r="B161">
-        <v>0.67560192781915962</v>
+        <v>0.6740216348168605</v>
       </c>
       <c r="C161">
-        <v>0.74110861806856065</v>
+        <v>0.72898897240999472</v>
       </c>
       <c r="D161">
-        <v>0.31230356789318642</v>
+        <v>2.6278742793124192</v>
       </c>
     </row>
     <row r="162">
       <c r="A162">
-        <v>0.33158903069742773</v>
+        <v>1.8899072171767162e-06</v>
       </c>
       <c r="B162">
-        <v>0.67117294499801994</v>
+        <v>0.66849594488733466</v>
       </c>
       <c r="C162">
-        <v>0.74594496634815011</v>
+        <v>0.73524055985654757</v>
       </c>
       <c r="D162">
-        <v>0.31018882262601744</v>
+        <v>2.5914902558165833</v>
       </c>
     </row>
     <row r="163">
       <c r="A163">
-        <v>0.33482489696342843</v>
+        <v>1.9696897188842454e-06</v>
       </c>
       <c r="B163">
-        <v>0.67097774994756798</v>
+        <v>0.66786329615620776</v>
       </c>
       <c r="C163">
-        <v>0.7458688817905017</v>
+        <v>0.73558832292066301</v>
       </c>
       <c r="D163">
-        <v>0.31473036583777619</v>
+        <v>2.5751488139276257</v>
       </c>
     </row>
     <row r="164">
       <c r="A164">
-        <v>0.35484962596101421</v>
+        <v>2.0168311467958438e-06</v>
       </c>
       <c r="B164">
-        <v>0.67229662783662114</v>
+        <v>0.66877692236240982</v>
       </c>
       <c r="C164">
-        <v>0.7433463641642204</v>
+        <v>0.7336114447185047</v>
       </c>
       <c r="D164">
-        <v>0.31188510312883194</v>
+        <v>2.5823008177481919</v>
       </c>
     </row>
     <row r="165">
       <c r="A165">
-        <v>0.32785717705402706</v>
+        <v>1.8713804985866692e-06</v>
       </c>
       <c r="B165">
-        <v>0.66663160345404759</v>
+        <v>0.66567231054156872</v>
       </c>
       <c r="C165">
-        <v>0.74982643104149116</v>
+        <v>0.73666119610526826</v>
       </c>
       <c r="D165">
-        <v>0.32842032740545812</v>
+        <v>2.6204455434176488</v>
       </c>
     </row>
     <row r="166">
       <c r="A166">
-        <v>0.34935705295699448</v>
+        <v>1.9203483737540568e-06</v>
       </c>
       <c r="B166">
-        <v>0.66473547471594419</v>
+        <v>0.66402448609070897</v>
       </c>
       <c r="C166">
-        <v>0.74979822294318721</v>
+        <v>0.73674295301723791</v>
       </c>
       <c r="D166">
-        <v>0.31125271515460462</v>
+        <v>2.6116815074900028</v>
       </c>
     </row>
     <row r="167">
       <c r="A167">
-        <v>0.3481490245259925</v>
+        <v>1.9775136961920612e-06</v>
       </c>
       <c r="B167">
-        <v>0.66416159444061462</v>
+        <v>0.66290065754214433</v>
       </c>
       <c r="C167">
-        <v>0.75033748446518178</v>
+        <v>0.73790866269768918</v>
       </c>
       <c r="D167">
-        <v>0.32062960469750057</v>
+        <v>2.6072218599999686</v>
       </c>
     </row>
     <row r="168">
       <c r="A168">
-        <v>0.33948748994029532</v>
+        <v>2.006578393710068e-06</v>
       </c>
       <c r="B168">
-        <v>0.66261865969049238</v>
+        <v>0.6609042465892998</v>
       </c>
       <c r="C168">
-        <v>0.75218223316649147</v>
+        <v>0.74051788521723605</v>
       </c>
       <c r="D168">
-        <v>0.32452570307647377</v>
+        <v>2.5820171351672503</v>
       </c>
     </row>
     <row r="169">
       <c r="A169">
-        <v>0.34856483533563665</v>
+        <v>2.0038894014482765e-06</v>
       </c>
       <c r="B169">
-        <v>0.66218449594968865</v>
+        <v>0.66013628417672821</v>
       </c>
       <c r="C169">
-        <v>0.75186055875182034</v>
+        <v>0.74052198111633327</v>
       </c>
       <c r="D169">
-        <v>0.31897325570832646</v>
+        <v>2.6023818462135107</v>
       </c>
     </row>
     <row r="170">
       <c r="A170">
-        <v>0.35772631182179138</v>
+        <v>2.0451475815248994e-06</v>
       </c>
       <c r="B170">
-        <v>0.66301867534369796</v>
+        <v>0.66017796775824822</v>
       </c>
       <c r="C170">
-        <v>0.75051336414388659</v>
+        <v>0.73996328600126582</v>
       </c>
       <c r="D170">
-        <v>0.31760069881792896</v>
+        <v>2.6198372757183703</v>
       </c>
     </row>
     <row r="171">
       <c r="A171">
-        <v>0.36762383029789614</v>
+        <v>2.0826061169048107e-06</v>
       </c>
       <c r="B171">
-        <v>0.66446396589504819</v>
+        <v>0.66049363104870928</v>
       </c>
       <c r="C171">
-        <v>0.74860132417138836</v>
+        <v>0.73914509745035351</v>
       </c>
       <c r="D171">
-        <v>0.30924507279020924</v>
+        <v>2.6385852348271674</v>
       </c>
     </row>
     <row r="172">
       <c r="A172">
-        <v>0.36120745151109357</v>
+        <v>2.1207886733128872e-06</v>
       </c>
       <c r="B172">
-        <v>0.66287198581837026</v>
+        <v>0.65985442343609702</v>
       </c>
       <c r="C172">
-        <v>0.75035865828779724</v>
+        <v>0.73979061282513459</v>
       </c>
       <c r="D172">
-        <v>0.31704493839685188</v>
+        <v>2.6425917712373792</v>
       </c>
     </row>
     <row r="173">
       <c r="A173">
-        <v>0.37310079968395926</v>
+        <v>2.1721194687802671e-06</v>
       </c>
       <c r="B173">
-        <v>0.66337893387778668</v>
+        <v>0.65960538816669212</v>
       </c>
       <c r="C173">
-        <v>0.74901552977199037</v>
+        <v>0.73920808548608119</v>
       </c>
       <c r="D173">
-        <v>0.31170690229354592</v>
+        <v>2.6487372898726278</v>
       </c>
     </row>
     <row r="174">
       <c r="A174">
-        <v>0.37519766981912384</v>
+        <v>2.1917836898095275e-06</v>
       </c>
       <c r="B174">
-        <v>0.66360521804601302</v>
+        <v>0.65939489151239028</v>
       </c>
       <c r="C174">
-        <v>0.74866332386846568</v>
+        <v>0.7393442518465706</v>
       </c>
       <c r="D174">
-        <v>0.31829852806960124</v>
+        <v>2.6497341317640837</v>
       </c>
     </row>
     <row r="175">
       <c r="A175">
-        <v>0.38735937096675377</v>
+        <v>2.2192343880179051e-06</v>
       </c>
       <c r="B175">
-        <v>0.66544551780852057</v>
+        <v>0.66020408385677531</v>
       </c>
       <c r="C175">
-        <v>0.7461884224113885</v>
+        <v>0.73819699665708338</v>
       </c>
       <c r="D175">
-        <v>0.3075676242217053</v>
+        <v>2.6184459641142501</v>
       </c>
     </row>
     <row r="176">
       <c r="A176">
-        <v>0.38715731057961938</v>
+        <v>2.2816285830493489e-06</v>
       </c>
       <c r="B176">
-        <v>0.66521444572698452</v>
+        <v>0.65998679185312836</v>
       </c>
       <c r="C176">
-        <v>0.74638624435508649</v>
+        <v>0.7383706016656495</v>
       </c>
       <c r="D176">
-        <v>0.30857358687449088</v>
+        <v>2.6184383135471707</v>
       </c>
     </row>
     <row r="177">
       <c r="A177">
-        <v>0.39861362267981071</v>
+        <v>2.3023401722354586e-06</v>
       </c>
       <c r="B177">
-        <v>0.66708572036432268</v>
+        <v>0.66170595443656244</v>
       </c>
       <c r="C177">
-        <v>0.74388844444958879</v>
+        <v>0.73597177832942506</v>
       </c>
       <c r="D177">
-        <v>0.31206749660247868</v>
+        <v>2.6394576221450006</v>
       </c>
     </row>
     <row r="178">
       <c r="A178">
-        <v>0.40544229358090128</v>
+        <v>2.3759635717816732e-06</v>
       </c>
       <c r="B178">
-        <v>0.66893850275148159</v>
+        <v>0.66293224988110477</v>
       </c>
       <c r="C178">
-        <v>0.74178391839649127</v>
+        <v>0.73446914769168004</v>
       </c>
       <c r="D178">
-        <v>0.31316257221495891</v>
+        <v>2.652349081442078</v>
       </c>
     </row>
     <row r="179">
       <c r="A179">
-        <v>0.37858006262805599</v>
+        <v>2.3632440445444819e-06</v>
       </c>
       <c r="B179">
-        <v>0.66104704909493639</v>
+        <v>0.65900769258737779</v>
       </c>
       <c r="C179">
-        <v>0.7504486933435528</v>
+        <v>0.73810020712408597</v>
       </c>
       <c r="D179">
-        <v>0.32659757821522117</v>
+        <v>2.7278598530400036</v>
       </c>
     </row>
     <row r="180">
       <c r="A180">
-        <v>0.3779807101779038</v>
+        <v>2.4107228220956525e-06</v>
       </c>
       <c r="B180">
-        <v>0.66105887351284964</v>
+        <v>0.65817556198155902</v>
       </c>
       <c r="C180">
-        <v>0.75048896270332632</v>
+        <v>0.73880951735573885</v>
       </c>
       <c r="D180">
-        <v>0.33363439795654526</v>
+        <v>2.7225141477043162</v>
       </c>
     </row>
     <row r="181">
       <c r="A181">
-        <v>0.38780138057109576</v>
+        <v>2.4897859415897179e-06</v>
       </c>
       <c r="B181">
-        <v>0.65706180985600027</v>
+        <v>0.65501543301650933</v>
       </c>
       <c r="C181">
-        <v>0.75275163030813796</v>
+        <v>0.74045635720130742</v>
       </c>
       <c r="D181">
-        <v>0.34094925044505342</v>
+        <v>2.7219862278966773</v>
       </c>
     </row>
     <row r="182">
       <c r="A182">
-        <v>0.38654649564873333</v>
+        <v>2.544360248071523e-06</v>
       </c>
       <c r="B182">
-        <v>0.65655702966557983</v>
+        <v>0.65472538675370395</v>
       </c>
       <c r="C182">
-        <v>0.75325159999522928</v>
+        <v>0.74071824752635718</v>
       </c>
       <c r="D182">
-        <v>0.34741614057749592</v>
+        <v>2.7217947706668779</v>
       </c>
     </row>
     <row r="183">
       <c r="A183">
-        <v>0.3899878042568099</v>
+        <v>2.5522083429234377e-06</v>
       </c>
       <c r="B183">
-        <v>0.65706770777060974</v>
+        <v>0.655229123288527</v>
       </c>
       <c r="C183">
-        <v>0.752544920159683</v>
+        <v>0.74002560156324726</v>
       </c>
       <c r="D183">
-        <v>0.3512356259186048</v>
+        <v>2.7269313734021887</v>
       </c>
     </row>
     <row r="184">
       <c r="A184">
-        <v>0.40290169765871753</v>
+        <v>2.7222520554810296e-06</v>
       </c>
       <c r="B184">
-        <v>0.65960964061831451</v>
+        <v>0.65779228597083261</v>
       </c>
       <c r="C184">
-        <v>0.74936711618652763</v>
+        <v>0.73658817776527241</v>
       </c>
       <c r="D184">
-        <v>0.34863548334053285</v>
+        <v>2.7620119857926539</v>
       </c>
     </row>
     <row r="185">
       <c r="A185">
-        <v>0.41234343627524639</v>
+        <v>2.7554251677193222e-06</v>
       </c>
       <c r="B185">
-        <v>0.6632251575629633</v>
+        <v>0.66055271196999277</v>
       </c>
       <c r="C185">
-        <v>0.74561513716241379</v>
+        <v>0.73351013871212933</v>
       </c>
       <c r="D185">
-        <v>0.35161626975152183</v>
+        <v>2.7842706243971023</v>
       </c>
     </row>
     <row r="186">
       <c r="A186">
-        <v>0.4081895672818231</v>
+        <v>2.7975775033788532e-06</v>
       </c>
       <c r="B186">
-        <v>0.66145963436180666</v>
+        <v>0.66102076998996062</v>
       </c>
       <c r="C186">
-        <v>0.7474162782374385</v>
+        <v>0.73319547701708343</v>
       </c>
       <c r="D186">
-        <v>0.3555277536633149</v>
+        <v>2.7651579522626353</v>
       </c>
     </row>
     <row r="187">
       <c r="A187">
-        <v>0.41649422276734527</v>
+        <v>2.828170317092026e-06</v>
       </c>
       <c r="B187">
-        <v>0.66322189043970914</v>
+        <v>0.6636407005033097</v>
       </c>
       <c r="C187">
-        <v>0.74515230888908213</v>
+        <v>0.73052942646823449</v>
       </c>
       <c r="D187">
-        <v>0.35447204163689683</v>
+        <v>2.7324849973537204</v>
       </c>
     </row>
     <row r="188">
       <c r="A188">
-        <v>0.41807244198636673</v>
+        <v>2.8681998343081556e-06</v>
       </c>
       <c r="B188">
-        <v>0.66382257195279304</v>
+        <v>0.66452939519587217</v>
       </c>
       <c r="C188">
-        <v>0.74450826056092101</v>
+        <v>0.72960264294716648</v>
       </c>
       <c r="D188">
-        <v>0.36169057914248065</v>
+        <v>2.7339570792669301</v>
       </c>
     </row>
     <row r="189">
       <c r="A189">
-        <v>0.42191669946378035</v>
+        <v>2.9349738566322596e-06</v>
       </c>
       <c r="B189">
-        <v>0.6650872502792553</v>
+        <v>0.66632347423712623</v>
       </c>
       <c r="C189">
-        <v>0.74307179620456421</v>
+        <v>0.72791666991344517</v>
       </c>
       <c r="D189">
-        <v>0.3712593332215598</v>
+        <v>2.7072447738369902</v>
       </c>
     </row>
     <row r="190">
       <c r="A190">
-        <v>0.42534273349914958</v>
+        <v>2.9762563171056344e-06</v>
       </c>
       <c r="B190">
-        <v>0.66634098506968065</v>
+        <v>0.66819162246952291</v>
       </c>
       <c r="C190">
-        <v>0.74167310362810968</v>
+        <v>0.72594326819661514</v>
       </c>
       <c r="D190">
-        <v>0.37463913902117157</v>
+        <v>2.706920185808797</v>
       </c>
     </row>
     <row r="191">
       <c r="A191">
-        <v>0.43553466251185813</v>
+        <v>2.9960545818695194e-06</v>
       </c>
       <c r="B191">
-        <v>0.67038618423805652</v>
+        <v>0.67335200849555166</v>
       </c>
       <c r="C191">
-        <v>0.73717208740555562</v>
+        <v>0.72012838355061182</v>
       </c>
       <c r="D191">
-        <v>0.37866719232204821</v>
+        <v>2.7316039351856842</v>
       </c>
     </row>
     <row r="192">
       <c r="A192">
-        <v>0.43575744295491015</v>
+        <v>3.1028095179461535e-06</v>
       </c>
       <c r="B192">
-        <v>0.67051371286047656</v>
+        <v>0.67257907958560814</v>
       </c>
       <c r="C192">
-        <v>0.73704146929036252</v>
+        <v>0.72094736624730482</v>
       </c>
       <c r="D192">
-        <v>0.38089127886996077</v>
+        <v>2.7279981846559149</v>
       </c>
     </row>
     <row r="193">
       <c r="A193">
-        <v>0.43318477607116401</v>
+        <v>3.1689640264313534e-06</v>
       </c>
       <c r="B193">
-        <v>0.66911385955245506</v>
+        <v>0.67280891561393963</v>
       </c>
       <c r="C193">
-        <v>0.73852822384933037</v>
+        <v>0.72104180253693595</v>
       </c>
       <c r="D193">
-        <v>0.38398141927320772</v>
+        <v>2.6934737274966221</v>
       </c>
     </row>
     <row r="194">
       <c r="A194">
-        <v>0.43446835575214182</v>
+        <v>3.2089130538409196e-06</v>
       </c>
       <c r="B194">
-        <v>0.66933058420792579</v>
+        <v>0.67387909613154773</v>
       </c>
       <c r="C194">
-        <v>0.73809180939041641</v>
+        <v>0.72012867211685938</v>
       </c>
       <c r="D194">
-        <v>0.39273179791691637</v>
+        <v>2.6588245876565133</v>
       </c>
     </row>
     <row r="195">
       <c r="A195">
-        <v>0.43653854019738847</v>
+        <v>3.254072709282806e-06</v>
       </c>
       <c r="B195">
-        <v>0.67028147504583035</v>
+        <v>0.67601355654267414</v>
       </c>
       <c r="C195">
-        <v>0.736960817106741</v>
+        <v>0.71788572328322642</v>
       </c>
       <c r="D195">
-        <v>0.39045527247375972</v>
+        <v>2.6549046510982337</v>
       </c>
     </row>
     <row r="196">
       <c r="A196">
-        <v>0.43787282192845711</v>
+        <v>3.3095822843363713e-06</v>
       </c>
       <c r="B196">
-        <v>0.6710935019221359</v>
+        <v>0.6775941051506662</v>
       </c>
       <c r="C196">
-        <v>0.73607369765618502</v>
+        <v>0.71692309913041852</v>
       </c>
       <c r="D196">
-        <v>0.39331380791239656</v>
+        <v>2.5875516027220362</v>
       </c>
     </row>
     <row r="197">
       <c r="A197">
-        <v>0.43667022394230182</v>
+        <v>3.3907349529499967e-06</v>
       </c>
       <c r="B197">
-        <v>0.67028962766497602</v>
+        <v>0.67704327288083466</v>
       </c>
       <c r="C197">
-        <v>0.73696226413053245</v>
+        <v>0.71745100924810412</v>
       </c>
       <c r="D197">
-        <v>0.3973984499663813</v>
+        <v>2.591699074684755</v>
       </c>
     </row>
     <row r="198">
       <c r="A198">
-        <v>0.43734644112330173</v>
+        <v>3.4137663588638469e-06</v>
       </c>
       <c r="B198">
-        <v>0.67029934377504641</v>
+        <v>0.67877655778065438</v>
       </c>
       <c r="C198">
-        <v>0.73651077068057613</v>
+        <v>0.71536779457290089</v>
       </c>
       <c r="D198">
-        <v>0.40516086338825552</v>
+        <v>2.5876830890795905</v>
       </c>
     </row>
     <row r="199">
       <c r="A199">
-        <v>0.4371362229218303</v>
+        <v>3.4504061946205616e-06</v>
       </c>
       <c r="B199">
-        <v>0.67011921934286767</v>
+        <v>0.67819973996489891</v>
       </c>
       <c r="C199">
-        <v>0.73669876333723772</v>
+        <v>0.71599244974578569</v>
       </c>
       <c r="D199">
-        <v>0.40466203697583042</v>
+        <v>2.5854018156560628</v>
       </c>
     </row>
     <row r="200">
       <c r="A200">
-        <v>0.43654598242826237</v>
+        <v>3.5190949538586205e-06</v>
       </c>
       <c r="B200">
-        <v>0.66944397868001992</v>
+        <v>0.67793665993666252</v>
       </c>
       <c r="C200">
-        <v>0.7374760659333881</v>
+        <v>0.71672142576401732</v>
       </c>
       <c r="D200">
-        <v>0.41109936240754197</v>
+        <v>2.5378503283960243</v>
       </c>
     </row>
     <row r="201">
       <c r="A201">
-        <v>0.43723822473631946</v>
+        <v>3.491668162963452e-06</v>
       </c>
       <c r="B201">
-        <v>0.66980420792166395</v>
+        <v>0.67773327181318976</v>
       </c>
       <c r="C201">
-        <v>0.7373595070689043</v>
+        <v>0.71683109406505319</v>
       </c>
       <c r="D201">
-        <v>0.4148297475372773</v>
+        <v>2.5518987688053061</v>
       </c>
     </row>
     <row r="202">
       <c r="A202">
-        <v>0.43732847992494678</v>
+        <v>3.5712141864263568e-06</v>
       </c>
       <c r="B202">
-        <v>0.66987826152754781</v>
+        <v>0.67757735725015489</v>
       </c>
       <c r="C202">
-        <v>0.73730342472363852</v>
+        <v>0.71700338118592699</v>
       </c>
       <c r="D202">
-        <v>0.42074136135314921</v>
+        <v>2.5434423623705422</v>
       </c>
     </row>
     <row r="203">
       <c r="A203">
-        <v>0.43587313890094193</v>
+        <v>3.4236329012869099e-06</v>
       </c>
       <c r="B203">
-        <v>0.66854314974973006</v>
+        <v>0.67588893377319281</v>
       </c>
       <c r="C203">
-        <v>0.73819389436736449</v>
+        <v>0.71966013013381369</v>
       </c>
       <c r="D203">
-        <v>0.42230624203264933</v>
+        <v>2.4175075001102755</v>
       </c>
     </row>
     <row r="204">
       <c r="A204">
-        <v>0.4371915701307606</v>
+        <v>3.4838213331108984e-06</v>
       </c>
       <c r="B204">
-        <v>0.66982708949107139</v>
+        <v>0.67908404651984178</v>
       </c>
       <c r="C204">
-        <v>0.7367859778761835</v>
+        <v>0.71665536481090752</v>
       </c>
       <c r="D204">
-        <v>0.43129149401176431</v>
+        <v>2.391327266358946</v>
       </c>
     </row>
     <row r="205">
       <c r="A205">
-        <v>0.43574358944474401</v>
+        <v>3.5672749518740863e-06</v>
       </c>
       <c r="B205">
-        <v>0.66813027313503337</v>
+        <v>0.67650670008594116</v>
       </c>
       <c r="C205">
-        <v>0.73853985178052106</v>
+        <v>0.71927775570115893</v>
       </c>
       <c r="D205">
-        <v>0.43536213726927886</v>
+        <v>2.3916848291946331</v>
       </c>
     </row>
     <row r="206">
       <c r="A206">
-        <v>0.43493799156003221</v>
+        <v>3.6345375480027934e-06</v>
       </c>
       <c r="B206">
-        <v>0.66799762217801184</v>
+        <v>0.67717025969629496</v>
       </c>
       <c r="C206">
-        <v>0.7384490254963243</v>
+        <v>0.71836073920618804</v>
       </c>
       <c r="D206">
-        <v>0.44893042819823614</v>
+        <v>2.395706204007312</v>
       </c>
     </row>
     <row r="207">
       <c r="A207">
-        <v>0.43499467306325523</v>
+        <v>3.6995118515215442e-06</v>
       </c>
       <c r="B207">
-        <v>0.66810325833142925</v>
+        <v>0.67691418051069507</v>
       </c>
       <c r="C207">
-        <v>0.73833923048455263</v>
+        <v>0.71950524248337422</v>
       </c>
       <c r="D207">
-        <v>0.45253817464995943</v>
+        <v>2.3042508071161292</v>
       </c>
     </row>
     <row r="208">
       <c r="A208">
-        <v>0.43468978602040786</v>
+        <v>3.736941950391821e-06</v>
       </c>
       <c r="B208">
-        <v>0.66864441053830237</v>
+        <v>0.67850644565785845</v>
       </c>
       <c r="C208">
-        <v>0.73768361298496643</v>
+        <v>0.71828674009942306</v>
       </c>
       <c r="D208">
-        <v>0.45289663015224207</v>
+        <v>2.2583191789896166</v>
       </c>
     </row>
     <row r="209">
       <c r="A209">
-        <v>0.4347301346931528</v>
+        <v>3.8177943294502355e-06</v>
       </c>
       <c r="B209">
-        <v>0.66875734030400236</v>
+        <v>0.67915198834894186</v>
       </c>
       <c r="C209">
-        <v>0.73757010706597925</v>
+        <v>0.71766487065877171</v>
       </c>
       <c r="D209">
-        <v>0.46487797208634979</v>
+        <v>2.2546898973333489</v>
       </c>
     </row>
     <row r="210">
       <c r="A210">
-        <v>0.43585409551540699</v>
+        <v>3.8112916398182924e-06</v>
       </c>
       <c r="B210">
-        <v>0.66792711570863206</v>
+        <v>0.67909834084505283</v>
       </c>
       <c r="C210">
-        <v>0.73854355384731629</v>
+        <v>0.71748866920524113</v>
       </c>
       <c r="D210">
-        <v>0.46662031147885485</v>
+        <v>2.2796453246340445</v>
       </c>
     </row>
     <row r="211">
       <c r="A211">
-        <v>0.43765390732429321</v>
+        <v>3.9184874042377879e-06</v>
       </c>
       <c r="B211">
-        <v>0.66870951835521053</v>
+        <v>0.67920791442578921</v>
       </c>
       <c r="C211">
-        <v>0.73793451327466553</v>
+        <v>0.71735420897722757</v>
       </c>
       <c r="D211">
-        <v>0.46794827476186956</v>
+        <v>2.2872227884262366</v>
       </c>
     </row>
     <row r="212">
       <c r="A212">
-        <v>0.43612624957763646</v>
+        <v>3.9272608324040439e-06</v>
       </c>
       <c r="B212">
-        <v>0.66791862750984099</v>
+        <v>0.6789177517945223</v>
       </c>
       <c r="C212">
-        <v>0.73856309906663287</v>
+        <v>0.71754527910962163</v>
       </c>
       <c r="D212">
-        <v>0.46573441184863185</v>
+        <v>2.2821641563523642</v>
       </c>
     </row>
     <row r="213">
       <c r="A213">
-        <v>0.43479666707675158</v>
+        <v>3.9730830203207129e-06</v>
       </c>
       <c r="B213">
-        <v>0.66770558483529907</v>
+        <v>0.67954616286981606</v>
       </c>
       <c r="C213">
-        <v>0.7385832110585322</v>
+        <v>0.71668804271915354</v>
       </c>
       <c r="D213">
-        <v>0.47204489564884378</v>
+        <v>2.2862746413983519</v>
       </c>
     </row>
     <row r="214">
       <c r="A214">
-        <v>0.43499755950523056</v>
+        <v>4.1234752580164581e-06</v>
       </c>
       <c r="B214">
-        <v>0.66703069717477526</v>
+        <v>0.67911683051352978</v>
       </c>
       <c r="C214">
-        <v>0.73932539155789745</v>
+        <v>0.71760574560844614</v>
       </c>
       <c r="D214">
-        <v>0.47198079270996018</v>
+        <v>2.2370931423649596</v>
       </c>
     </row>
     <row r="215">
       <c r="A215">
-        <v>0.43472356344281093</v>
+        <v>4.1829220423241632e-06</v>
       </c>
       <c r="B215">
-        <v>0.66699025103898568</v>
+        <v>0.67931368480642706</v>
       </c>
       <c r="C215">
-        <v>0.73933464765424062</v>
+        <v>0.71761565896931634</v>
       </c>
       <c r="D215">
-        <v>0.48462386625396747</v>
+        <v>2.2096112178781873</v>
       </c>
     </row>
     <row r="216">
       <c r="A216">
-        <v>0.43626946486006479</v>
+        <v>4.1542578815218445e-06</v>
       </c>
       <c r="B216">
-        <v>0.667140164766721</v>
+        <v>0.67849617105937421</v>
       </c>
       <c r="C216">
-        <v>0.73936848436051894</v>
+        <v>0.71842584326221748</v>
       </c>
       <c r="D216">
-        <v>0.49555386954164754</v>
+        <v>2.2200182806576838</v>
       </c>
     </row>
     <row r="217">
       <c r="A217">
-        <v>0.43833430053867178</v>
+        <v>4.339309703396886e-06</v>
       </c>
       <c r="B217">
-        <v>0.66817608090670921</v>
+        <v>0.67838126142453059</v>
       </c>
       <c r="C217">
-        <v>0.73855699366575656</v>
+        <v>0.71857518708904489</v>
       </c>
       <c r="D217">
-        <v>0.50261690106076462</v>
+        <v>2.2155300520227086</v>
       </c>
     </row>
     <row r="218">
       <c r="A218">
-        <v>0.43680058261705529</v>
+        <v>4.5964046903370171e-06</v>
       </c>
       <c r="B218">
-        <v>0.66723892261509299</v>
+        <v>0.67776429195374244</v>
       </c>
       <c r="C218">
-        <v>0.73931043004323793</v>
+        <v>0.71923642685101263</v>
       </c>
       <c r="D218">
-        <v>0.5034481094138743</v>
+        <v>2.1930753780402088</v>
       </c>
     </row>
     <row r="219">
       <c r="A219">
-        <v>0.436598357761456</v>
+        <v>4.7213052632454889e-06</v>
       </c>
       <c r="B219">
-        <v>0.6671911148177132</v>
+        <v>0.67801086136227284</v>
       </c>
       <c r="C219">
-        <v>0.73931851848801844</v>
+        <v>0.71895681289603375</v>
       </c>
       <c r="D219">
-        <v>0.50316917138955886</v>
+        <v>2.1917196236030687</v>
       </c>
     </row>
     <row r="220">
       <c r="A220">
-        <v>0.4359704853062113</v>
+        <v>4.772200412255887e-06</v>
       </c>
       <c r="B220">
-        <v>0.66716734519843812</v>
+        <v>0.67864078213957546</v>
       </c>
       <c r="C220">
-        <v>0.73919939510680566</v>
+        <v>0.71816078618867352</v>
       </c>
       <c r="D220">
-        <v>0.50305847753449351</v>
+        <v>2.194836837862749</v>
       </c>
     </row>
     <row r="221">
       <c r="A221">
-        <v>0.43599459506884608</v>
+        <v>4.7418470753314057e-06</v>
       </c>
       <c r="B221">
-        <v>0.66720945260417364</v>
+        <v>0.67784511148066318</v>
       </c>
       <c r="C221">
-        <v>0.73915769825768907</v>
+        <v>0.71973169072316123</v>
       </c>
       <c r="D221">
-        <v>0.51421336801054418</v>
+        <v>2.1127522229378703</v>
       </c>
     </row>
     <row r="222">
       <c r="A222">
-        <v>0.43721220287229934</v>
+        <v>4.7112247424230371e-06</v>
       </c>
       <c r="B222">
-        <v>0.66664789553016313</v>
+        <v>0.6768392218743825</v>
       </c>
       <c r="C222">
-        <v>0.73995734423272452</v>
+        <v>0.72045223924203905</v>
       </c>
       <c r="D222">
-        <v>0.51792576414964397</v>
+        <v>2.1483863000656802</v>
       </c>
     </row>
     <row r="223">
       <c r="A223">
-        <v>0.43641833170455191</v>
+        <v>4.8270696692196169e-06</v>
       </c>
       <c r="B223">
-        <v>0.6661691023942321</v>
+        <v>0.67652694820247883</v>
       </c>
       <c r="C223">
-        <v>0.74034167156624986</v>
+        <v>0.72072100950512352</v>
       </c>
       <c r="D223">
-        <v>0.52552742629843663</v>
+        <v>2.141796913191234</v>
       </c>
     </row>
     <row r="224">
       <c r="A224">
-        <v>0.43638469842811495</v>
+        <v>4.8902755572444221e-06</v>
       </c>
       <c r="B224">
-        <v>0.66616131563844916</v>
+        <v>0.67591459159542699</v>
       </c>
       <c r="C224">
-        <v>0.74034306257934479</v>
+        <v>0.72158389464242267</v>
       </c>
       <c r="D224">
-        <v>0.54194386881758638</v>
+        <v>2.107056642560365</v>
       </c>
     </row>
     <row r="225">
       <c r="A225">
-        <v>0.43549871713115934</v>
+        <v>4.978838005296776e-06</v>
       </c>
       <c r="B225">
-        <v>0.66584831121364785</v>
+        <v>0.67634592561337026</v>
       </c>
       <c r="C225">
-        <v>0.74048345105723756</v>
+        <v>0.7211996986291328</v>
       </c>
       <c r="D225">
-        <v>0.54772062390883014</v>
+        <v>2.087356543190523</v>
       </c>
     </row>
     <row r="226">
       <c r="A226">
-        <v>0.4358016715900685</v>
+        <v>4.9407959413161692e-06</v>
       </c>
       <c r="B226">
-        <v>0.66476820669489101</v>
+        <v>0.67357065978415132</v>
       </c>
       <c r="C226">
-        <v>0.74180203743559492</v>
+        <v>0.7241235949629552</v>
       </c>
       <c r="D226">
-        <v>0.5380417665403292</v>
+        <v>2.0907114015261712</v>
       </c>
     </row>
     <row r="227">
       <c r="A227">
-        <v>0.43274146664875618</v>
+        <v>4.9084132313452724e-06</v>
       </c>
       <c r="B227">
-        <v>0.66267916422988704</v>
+        <v>0.6718243875554083</v>
       </c>
       <c r="C227">
-        <v>0.74346195353663413</v>
+        <v>0.7256266941119085</v>
       </c>
       <c r="D227">
-        <v>0.53747365412985715</v>
+        <v>2.0758132009622559</v>
       </c>
     </row>
     <row r="228">
       <c r="A228">
-        <v>0.43266514526915056</v>
+        <v>4.9975882379791614e-06</v>
       </c>
       <c r="B228">
-        <v>0.66296821118397697</v>
+        <v>0.6709515312124118</v>
       </c>
       <c r="C228">
-        <v>0.74308582549507896</v>
+        <v>0.72730729914927672</v>
       </c>
       <c r="D228">
-        <v>0.54942467713480014</v>
+        <v>1.9814413861234834</v>
       </c>
     </row>
     <row r="229">
       <c r="A229">
-        <v>0.43258053008942871</v>
+        <v>5.0008110297589353e-06</v>
       </c>
       <c r="B229">
-        <v>0.66210984119579219</v>
+        <v>0.6701749519501965</v>
       </c>
       <c r="C229">
-        <v>0.74404183036493809</v>
+        <v>0.72794199289784534</v>
       </c>
       <c r="D229">
-        <v>0.55200837475279785</v>
+        <v>1.997466189965091</v>
       </c>
     </row>
     <row r="230">
       <c r="A230">
-        <v>0.43283005710511196</v>
+        <v>5.105501408012994e-06</v>
       </c>
       <c r="B230">
-        <v>0.66222839232379438</v>
+        <v>0.67018733033799283</v>
       </c>
       <c r="C230">
-        <v>0.74396155122755125</v>
+        <v>0.72793035182171228</v>
       </c>
       <c r="D230">
-        <v>0.55573991572838022</v>
+        <v>1.9974323430539314</v>
       </c>
     </row>
     <row r="231">
       <c r="A231">
-        <v>0.4327880354378606</v>
+        <v>5.182774211212066e-06</v>
       </c>
       <c r="B231">
-        <v>0.66221667508722615</v>
+        <v>0.66972034855028173</v>
       </c>
       <c r="C231">
-        <v>0.74396548731828893</v>
+        <v>0.72854787409044697</v>
       </c>
       <c r="D231">
-        <v>0.57501893028538076</v>
+        <v>1.9723679571298502</v>
       </c>
     </row>
     <row r="232">
       <c r="A232">
-        <v>0.43093821967256085</v>
+        <v>5.2777408951879059e-06</v>
       </c>
       <c r="B232">
-        <v>0.66155826751260571</v>
+        <v>0.67017970482900013</v>
       </c>
       <c r="C232">
-        <v>0.7442566171422117</v>
+        <v>0.72811196472334305</v>
       </c>
       <c r="D232">
-        <v>0.59052817488898612</v>
+        <v>1.9414745280099241</v>
       </c>
     </row>
     <row r="233">
       <c r="A233">
-        <v>0.43000467716240254</v>
+        <v>5.4082361335300451e-06</v>
       </c>
       <c r="B233">
-        <v>0.65970880009695199</v>
+        <v>0.66750060885207729</v>
       </c>
       <c r="C233">
-        <v>0.74610866796471664</v>
+        <v>0.7307906835565473</v>
       </c>
       <c r="D233">
-        <v>0.59034333344517098</v>
+        <v>1.9402703095085887</v>
       </c>
     </row>
     <row r="234">
       <c r="A234">
-        <v>0.42971245375484157</v>
+        <v>5.4736726981720854e-06</v>
       </c>
       <c r="B234">
-        <v>0.65965536447054784</v>
+        <v>0.66754532564806746</v>
       </c>
       <c r="C234">
-        <v>0.74612029483019238</v>
+        <v>0.73070748943271913</v>
       </c>
       <c r="D234">
-        <v>0.6009212849467398</v>
+        <v>1.9397999498552516</v>
       </c>
     </row>
     <row r="235">
       <c r="A235">
-        <v>0.42959725897633294</v>
+        <v>5.5634764663150829e-06</v>
       </c>
       <c r="B235">
-        <v>0.65967303847948966</v>
+        <v>0.66655074141992277</v>
       </c>
       <c r="C235">
-        <v>0.74608485607499986</v>
+        <v>0.73214621238857325</v>
       </c>
       <c r="D235">
-        <v>0.61228410469852501</v>
+        <v>1.8816434260514163</v>
       </c>
     </row>
     <row r="236">
       <c r="A236">
-        <v>0.43104741279641168</v>
+        <v>5.5800173265833536e-06</v>
       </c>
       <c r="B236">
-        <v>0.65966377720177205</v>
+        <v>0.66619310414976318</v>
       </c>
       <c r="C236">
-        <v>0.74630270554967404</v>
+        <v>0.73233628554699326</v>
       </c>
       <c r="D236">
-        <v>0.62038794874922187</v>
+        <v>1.9068957472032002</v>
       </c>
     </row>
     <row r="237">
       <c r="A237">
-        <v>0.43056398707333032</v>
+        <v>5.6681731725525974e-06</v>
       </c>
       <c r="B237">
-        <v>0.65939155416385786</v>
+        <v>0.66597992551457574</v>
       </c>
       <c r="C237">
-        <v>0.74651266413666417</v>
+        <v>0.73250897020571326</v>
       </c>
       <c r="D237">
-        <v>0.6304223609454731</v>
+        <v>1.902934367945083</v>
       </c>
     </row>
     <row r="238">
       <c r="A238">
-        <v>0.43003466107039556</v>
+        <v>5.8180016472574131e-06</v>
       </c>
       <c r="B238">
-        <v>0.659169334568107</v>
+        <v>0.66551880617763726</v>
       </c>
       <c r="C238">
-        <v>0.74664896682269488</v>
+        <v>0.73307666320414799</v>
       </c>
       <c r="D238">
-        <v>0.63274116977509787</v>
+        <v>1.8783385174722094</v>
       </c>
     </row>
     <row r="239">
       <c r="A239">
-        <v>0.42898925624789835</v>
+        <v>5.8956631616561251e-06</v>
       </c>
       <c r="B239">
-        <v>0.65912508894054722</v>
+        <v>0.66625126614562946</v>
       </c>
       <c r="C239">
-        <v>0.74647347775415684</v>
+        <v>0.73232342727630872</v>
       </c>
       <c r="D239">
-        <v>0.66051226787326034</v>
+        <v>1.8627957754683053</v>
       </c>
     </row>
     <row r="240">
       <c r="A240">
-        <v>0.42914922750519047</v>
+        <v>6.0458966841131698e-06</v>
       </c>
       <c r="B240">
-        <v>0.65960754337825833</v>
+        <v>0.66696318476265137</v>
       </c>
       <c r="C240">
-        <v>0.74598680428920672</v>
+        <v>0.73160071926575498</v>
       </c>
       <c r="D240">
-        <v>0.67729879171849572</v>
+        <v>1.863728137408148</v>
       </c>
     </row>
     <row r="241">
       <c r="A241">
-        <v>0.42949012600009034</v>
+        <v>6.0794122870222481e-06</v>
       </c>
       <c r="B241">
-        <v>0.65831516315023075</v>
+        <v>0.66529028518629341</v>
       </c>
       <c r="C241">
-        <v>0.74733599042095367</v>
+        <v>0.73334382292391531</v>
       </c>
       <c r="D241">
-        <v>0.68465809998036686</v>
+        <v>1.8641335568802497</v>
       </c>
     </row>
     <row r="242">
       <c r="A242">
-        <v>0.43418844674430013</v>
+        <v>5.9267240688812404e-06</v>
       </c>
       <c r="B242">
-        <v>0.66010766782913011</v>
+        <v>0.66751323025109877</v>
       </c>
       <c r="C242">
-        <v>0.74605559563408153</v>
+        <v>0.73063216737560088</v>
       </c>
       <c r="D242">
-        <v>0.68954742552952464</v>
+        <v>1.9377978363731643</v>
       </c>
     </row>
     <row r="243">
       <c r="A243">
-        <v>0.43031368747041088</v>
+        <v>6.1674528540764855e-06</v>
       </c>
       <c r="B243">
-        <v>0.65733888455420253</v>
+        <v>0.66458555781959705</v>
       </c>
       <c r="C243">
-        <v>0.74835029794975039</v>
+        <v>0.73349310195368855</v>
       </c>
       <c r="D243">
-        <v>0.6983779646745284</v>
+        <v>1.899049532533639</v>
       </c>
     </row>
     <row r="244">
       <c r="A244">
-        <v>0.43032526889592959</v>
+        <v>6.2666711971254592e-06</v>
       </c>
       <c r="B244">
-        <v>0.65735120706072037</v>
+        <v>0.66464583502370467</v>
       </c>
       <c r="C244">
-        <v>0.74833942135567677</v>
+        <v>0.7334258375563919</v>
       </c>
       <c r="D244">
-        <v>0.70743385396275849</v>
+        <v>1.8982206555247323</v>
       </c>
     </row>
     <row r="245">
       <c r="A245">
-        <v>0.43167863716891097</v>
+        <v>6.3564162962348344e-06</v>
       </c>
       <c r="B245">
-        <v>0.65777109316062043</v>
+        <v>0.66475127441575976</v>
       </c>
       <c r="C245">
-        <v>0.74820984387953671</v>
+        <v>0.73326897187574724</v>
       </c>
       <c r="D245">
-        <v>0.71302838649990719</v>
+        <v>1.9203325486880467</v>
       </c>
     </row>
     <row r="246">
       <c r="A246">
-        <v>0.43149582154431176</v>
+        <v>6.5888720174639362e-06</v>
       </c>
       <c r="B246">
-        <v>0.65763297995164371</v>
+        <v>0.66455723228309227</v>
       </c>
       <c r="C246">
-        <v>0.74831749274948889</v>
+        <v>0.7334251243545522</v>
       </c>
       <c r="D246">
-        <v>0.73601402987568787</v>
+        <v>1.9190133783789092</v>
       </c>
     </row>
     <row r="247">
       <c r="A247">
-        <v>0.4320165900884706</v>
+        <v>6.7632520543273334e-06</v>
       </c>
       <c r="B247">
-        <v>0.65802878751139204</v>
+        <v>0.66473963158259941</v>
       </c>
       <c r="C247">
-        <v>0.74804666036812428</v>
+        <v>0.73336815974252989</v>
       </c>
       <c r="D247">
-        <v>0.74237763178237615</v>
+        <v>1.9182488524699015</v>
       </c>
     </row>
     <row r="248">
       <c r="A248">
-        <v>0.43176108984036787</v>
+        <v>6.958717390026384e-06</v>
       </c>
       <c r="B248">
-        <v>0.65780347550911511</v>
+        <v>0.66460441341030574</v>
       </c>
       <c r="C248">
-        <v>0.74820534764975077</v>
+        <v>0.73344795529830153</v>
       </c>
       <c r="D248">
-        <v>0.75826806764089949</v>
+        <v>1.9185276993745899</v>
       </c>
     </row>
     <row r="249">
       <c r="A249">
-        <v>0.43262345529960389</v>
+        <v>6.825131528820028e-06</v>
       </c>
       <c r="B249">
-        <v>0.65865482863412161</v>
+        <v>0.66620022114158317</v>
       </c>
       <c r="C249">
-        <v>0.74784116797467148</v>
+        <v>0.73145041909660446</v>
       </c>
       <c r="D249">
-        <v>0.76247332176271398</v>
+        <v>1.9773823374927453</v>
       </c>
     </row>
     <row r="250">
       <c r="A250">
-        <v>0.43120434689130899</v>
+        <v>6.8728429654833665e-06</v>
       </c>
       <c r="B250">
-        <v>0.65714499021174488</v>
+        <v>0.66403346379686479</v>
       </c>
       <c r="C250">
-        <v>0.74904573831554111</v>
+        <v>0.73362330803700559</v>
       </c>
       <c r="D250">
-        <v>0.77526441654151523</v>
+        <v>1.9423196599302379</v>
       </c>
     </row>
     <row r="251">
       <c r="A251">
-        <v>0.43130383244557757</v>
+        <v>7.0048449831881011e-06</v>
       </c>
       <c r="B251">
-        <v>0.65758075372432234</v>
+        <v>0.66392117907382331</v>
       </c>
       <c r="C251">
-        <v>0.74881275466658959</v>
+        <v>0.73377823409766463</v>
       </c>
       <c r="D251">
-        <v>0.79115151216002944</v>
+        <v>1.9475022154836577</v>
       </c>
     </row>
     <row r="252">
       <c r="A252">
-        <v>0.43084243559652224</v>
+        <v>7.2142409096687608e-06</v>
       </c>
       <c r="B252">
-        <v>0.65668740807433523</v>
+        <v>0.66356617782914284</v>
       </c>
       <c r="C252">
-        <v>0.74943768509517894</v>
+        <v>0.73392328042028421</v>
       </c>
       <c r="D252">
-        <v>0.80524629624488608</v>
+        <v>1.9468657438986425</v>
       </c>
     </row>
     <row r="253">
       <c r="A253">
-        <v>0.43145717213575407</v>
+        <v>7.3182806073113773e-06</v>
       </c>
       <c r="B253">
-        <v>0.65675760364887559</v>
+        <v>0.66405242736349712</v>
       </c>
       <c r="C253">
-        <v>0.74920363863122397</v>
+        <v>0.73325714649986007</v>
       </c>
       <c r="D253">
-        <v>0.82152615184491506</v>
+        <v>1.9519309162338105</v>
       </c>
     </row>
     <row r="254">
       <c r="A254">
-        <v>0.43227934464894768</v>
+        <v>7.4760741846134795e-06</v>
       </c>
       <c r="B254">
-        <v>0.65722995551747643</v>
+        <v>0.66459852881443804</v>
       </c>
       <c r="C254">
-        <v>0.74866147671116856</v>
+        <v>0.7326594725781469</v>
       </c>
       <c r="D254">
-        <v>0.83730461972496617</v>
+        <v>1.9490626171339871</v>
       </c>
     </row>
     <row r="255">
       <c r="A255">
-        <v>0.43308572535769285</v>
+        <v>7.6620465812775405e-06</v>
       </c>
       <c r="B255">
-        <v>0.65780818634309279</v>
+        <v>0.66489290969698356</v>
       </c>
       <c r="C255">
-        <v>0.74803014080198427</v>
+        <v>0.7326379435278183</v>
       </c>
       <c r="D255">
-        <v>0.8705789455915891</v>
+        <v>1.913966529222638</v>
       </c>
     </row>
     <row r="256">
       <c r="A256">
-        <v>0.43413629087164096</v>
+        <v>7.7726246847801471e-06</v>
       </c>
       <c r="B256">
-        <v>0.65873284251287179</v>
+        <v>0.6661176856874198</v>
       </c>
       <c r="C256">
-        <v>0.74704333038480564</v>
+        <v>0.73166381427509686</v>
       </c>
       <c r="D256">
-        <v>0.86832863323145237</v>
+        <v>1.8850639050354279</v>
       </c>
     </row>
     <row r="257">
       <c r="A257">
-        <v>0.43131396743274331</v>
+        <v>8.021238871049324e-06</v>
       </c>
       <c r="B257">
-        <v>0.65560487721499827</v>
+        <v>0.66447885302036958</v>
       </c>
       <c r="C257">
-        <v>0.75021979495310365</v>
+        <v>0.73275973037252262</v>
       </c>
       <c r="D257">
-        <v>0.89680722247429534</v>
+        <v>1.9354040845286522</v>
       </c>
     </row>
     <row r="258">
       <c r="A258">
-        <v>0.43062433049545185</v>
+        <v>8.1858853459022615e-06</v>
       </c>
       <c r="B258">
-        <v>0.6550390412416508</v>
+        <v>0.66396179941687816</v>
       </c>
       <c r="C258">
-        <v>0.75064220604985943</v>
+        <v>0.73323034270953502</v>
       </c>
       <c r="D258">
-        <v>0.90258086603473986</v>
+        <v>1.9248069635035012</v>
       </c>
     </row>
     <row r="259">
       <c r="A259">
-        <v>0.43068364680737947</v>
+        <v>8.3684038010667436e-06</v>
       </c>
       <c r="B259">
-        <v>0.65508422336719085</v>
+        <v>0.66394978554646622</v>
       </c>
       <c r="C259">
-        <v>0.75062360281962159</v>
+        <v>0.7332474376470739</v>
       </c>
       <c r="D259">
-        <v>0.92062586996983908</v>
+        <v>1.9215923213223824</v>
       </c>
     </row>
     <row r="260">
       <c r="A260">
-        <v>0.4304887745838375</v>
+        <v>8.5074538725391482e-06</v>
       </c>
       <c r="B260">
-        <v>0.65492393527896864</v>
+        <v>0.66405575750721868</v>
       </c>
       <c r="C260">
-        <v>0.7506905539007277</v>
+        <v>0.73307861207481884</v>
       </c>
       <c r="D260">
-        <v>0.93451677498927543</v>
+        <v>1.9195870869971763</v>
       </c>
     </row>
     <row r="261">
       <c r="A261">
-        <v>0.43051025929204945</v>
+        <v>8.7646461397325044e-06</v>
       </c>
       <c r="B261">
-        <v>0.6549833661298653</v>
+        <v>0.66437093956832483</v>
       </c>
       <c r="C261">
-        <v>0.75055123066930196</v>
+        <v>0.73268114018389052</v>
       </c>
       <c r="D261">
-        <v>0.9383931801220341</v>
+        <v>1.9213512525328826</v>
       </c>
     </row>
     <row r="262">
       <c r="A262">
-        <v>0.43072002462239195</v>
+        <v>8.9571058609213633e-06</v>
       </c>
       <c r="B262">
-        <v>0.65530516904068525</v>
+        <v>0.66487918784151967</v>
       </c>
       <c r="C262">
-        <v>0.75015042840449975</v>
+        <v>0.73206136108783926</v>
       </c>
       <c r="D262">
-        <v>0.96752185048457495</v>
+        <v>1.9245886319424845</v>
       </c>
     </row>
     <row r="263">
       <c r="A263">
-        <v>0.43058475049300771</v>
+        <v>9.0644977746947948e-06</v>
       </c>
       <c r="B263">
-        <v>0.65507307699503625</v>
+        <v>0.66478290038877241</v>
       </c>
       <c r="C263">
-        <v>0.75040413620520718</v>
+        <v>0.73230034779888697</v>
       </c>
       <c r="D263">
-        <v>0.98071783534741197</v>
+        <v>1.9079574968340012</v>
       </c>
     </row>
     <row r="264">
       <c r="A264">
-        <v>0.43081192490657921</v>
+        <v>9.4362475157900726e-06</v>
       </c>
       <c r="B264">
-        <v>0.65501374045178462</v>
+        <v>0.66470735479489251</v>
       </c>
       <c r="C264">
-        <v>0.75054759734707766</v>
+        <v>0.73235888433120255</v>
       </c>
       <c r="D264">
-        <v>1.0007593365784924</v>
+        <v>1.9120520475437854</v>
       </c>
     </row>
     <row r="265">
       <c r="A265">
-        <v>0.43074460141627069</v>
+        <v>9.742034464743438e-06</v>
       </c>
       <c r="B265">
-        <v>0.65498422357932806</v>
+        <v>0.66471217710714048</v>
       </c>
       <c r="C265">
-        <v>0.75056251616566128</v>
+        <v>0.73233479423995762</v>
       </c>
       <c r="D265">
-        <v>1.012881706402452</v>
+        <v>1.9112943466413834</v>
       </c>
     </row>
     <row r="266">
       <c r="A266">
-        <v>0.43112787108184958</v>
+        <v>1.0013965963451558e-05</v>
       </c>
       <c r="B266">
-        <v>0.6551419924548233</v>
+        <v>0.66477183309570476</v>
       </c>
       <c r="C266">
-        <v>0.75050151857740532</v>
+        <v>0.73227504397864307</v>
       </c>
       <c r="D266">
-        <v>1.0390204746845619</v>
+        <v>1.9145313937577573</v>
       </c>
     </row>
     <row r="267">
       <c r="A267">
-        <v>0.43045851969414539</v>
+        <v>1.0318464924669312e-05</v>
       </c>
       <c r="B267">
-        <v>0.65472300490024593</v>
+        <v>0.66457612004687694</v>
       </c>
       <c r="C267">
-        <v>0.75077208500238446</v>
+        <v>0.73236225386280329</v>
       </c>
       <c r="D267">
-        <v>1.0505495137670331</v>
+        <v>1.9117572352160481</v>
       </c>
     </row>
     <row r="268">
       <c r="A268">
-        <v>0.43057613466097888</v>
+        <v>1.1095886069617563e-05</v>
       </c>
       <c r="B268">
-        <v>0.65468030258602705</v>
+        <v>0.66429986675460617</v>
       </c>
       <c r="C268">
-        <v>0.75088097826635058</v>
+        <v>0.73273075487009232</v>
       </c>
       <c r="D268">
-        <v>1.0643882239033078</v>
+        <v>1.9098075041851856</v>
       </c>
     </row>
     <row r="269">
       <c r="A269">
-        <v>0.43129541463826199</v>
+        <v>1.1398313161366129e-05</v>
       </c>
       <c r="B269">
-        <v>0.65505102148888206</v>
+        <v>0.6646023168096602</v>
       </c>
       <c r="C269">
-        <v>0.75069801001736036</v>
+        <v>0.73256641840591175</v>
       </c>
       <c r="D269">
-        <v>1.0836545527067289</v>
+        <v>1.9130848433724239</v>
       </c>
     </row>
     <row r="270">
       <c r="A270">
-        <v>0.43282948595651177</v>
+        <v>1.1500453788226534e-05</v>
       </c>
       <c r="B270">
-        <v>0.65626315349136333</v>
+        <v>0.66528777087947344</v>
       </c>
       <c r="C270">
-        <v>0.74980933726159971</v>
+        <v>0.73181106580728583</v>
       </c>
       <c r="D270">
-        <v>1.069432615407794</v>
+        <v>1.9277570545581795</v>
       </c>
     </row>
     <row r="271">
       <c r="A271">
-        <v>0.43265259831667469</v>
+        <v>1.1704124705517997e-05</v>
       </c>
       <c r="B271">
-        <v>0.65609238127454361</v>
+        <v>0.66478042739002374</v>
       </c>
       <c r="C271">
-        <v>0.74994307141519445</v>
+        <v>0.73228296915458124</v>
       </c>
       <c r="D271">
-        <v>1.0871911525810387</v>
+        <v>1.9214152436027483</v>
       </c>
     </row>
     <row r="272">
       <c r="A272">
-        <v>0.43219380101786675</v>
+        <v>1.206700392006725e-05</v>
       </c>
       <c r="B272">
-        <v>0.65551353212216634</v>
+        <v>0.66457241105743514</v>
       </c>
       <c r="C272">
-        <v>0.75033917648043913</v>
+        <v>0.73236170220229024</v>
       </c>
       <c r="D272">
-        <v>1.0806240795549624</v>
+        <v>1.9191456428567135</v>
       </c>
     </row>
     <row r="273">
       <c r="A273">
-        <v>0.43237996206757034</v>
+        <v>1.2539670364383471e-05</v>
       </c>
       <c r="B273">
-        <v>0.65552537812859857</v>
+        <v>0.66430767005016023</v>
       </c>
       <c r="C273">
-        <v>0.75021638353013609</v>
+        <v>0.73278435866504577</v>
       </c>
       <c r="D273">
-        <v>1.1115824101995764</v>
+        <v>1.8912244022674902</v>
       </c>
     </row>
     <row r="274">
       <c r="A274">
-        <v>0.43302566739128179</v>
+        <v>1.3102827626211453e-05</v>
       </c>
       <c r="B274">
-        <v>0.65598275956746166</v>
+        <v>0.66532198886529414</v>
       </c>
       <c r="C274">
-        <v>0.74965635663894958</v>
+        <v>0.73177608555278661</v>
       </c>
       <c r="D274">
-        <v>1.1101112185935507</v>
+        <v>1.8834931087686906</v>
       </c>
     </row>
     <row r="275">
       <c r="A275">
-        <v>0.433001657952515</v>
+        <v>1.3323957737560062e-05</v>
       </c>
       <c r="B275">
-        <v>0.65596012020827854</v>
+        <v>0.66528650083276197</v>
       </c>
       <c r="C275">
-        <v>0.74968187634676775</v>
+        <v>0.73181444121991024</v>
       </c>
       <c r="D275">
-        <v>1.1429828227394052</v>
+        <v>1.8834327840553939</v>
       </c>
     </row>
     <row r="276">
       <c r="A276">
-        <v>0.43362850518317769</v>
+        <v>1.3790169099582051e-05</v>
       </c>
       <c r="B276">
-        <v>0.65695234658834267</v>
+        <v>0.66647992870517436</v>
       </c>
       <c r="C276">
-        <v>0.74847440696909318</v>
+        <v>0.73054076480222785</v>
       </c>
       <c r="D276">
-        <v>1.1647149070963769</v>
+        <v>1.8699023260982095</v>
       </c>
     </row>
     <row r="277">
       <c r="A277">
-        <v>0.43292838238855286</v>
+        <v>1.4269469063874553e-05</v>
       </c>
       <c r="B277">
-        <v>0.65606969397654979</v>
+        <v>0.66686765983807228</v>
       </c>
       <c r="C277">
-        <v>0.74932116983472385</v>
+        <v>0.73027390955102911</v>
       </c>
       <c r="D277">
-        <v>1.2033711779730263</v>
+        <v>1.8604141899079247</v>
       </c>
     </row>
     <row r="278">
       <c r="A278">
-        <v>0.43307035364449731</v>
+        <v>1.4637812792779461e-05</v>
       </c>
       <c r="B278">
-        <v>0.65423157109733698</v>
+        <v>0.66483396222306768</v>
       </c>
       <c r="C278">
-        <v>0.75126368092057172</v>
+        <v>0.73207209566203812</v>
       </c>
       <c r="D278">
-        <v>1.2105207477912381</v>
+        <v>1.8867154366980796</v>
       </c>
     </row>
     <row r="279">
       <c r="A279">
-        <v>0.43363596859038567</v>
+        <v>1.5065463252013605e-05</v>
       </c>
       <c r="B279">
-        <v>0.65459708777927283</v>
+        <v>0.66488518636784477</v>
       </c>
       <c r="C279">
-        <v>0.75097469314856091</v>
+        <v>0.73202613900654423</v>
       </c>
       <c r="D279">
-        <v>1.2208439623883092</v>
+        <v>1.8871919895581415</v>
       </c>
     </row>
     <row r="280">
       <c r="A280">
-        <v>0.43542085632250188</v>
+        <v>1.5335264812510578e-05</v>
       </c>
       <c r="B280">
-        <v>0.65577766214718414</v>
+        <v>0.66537480447323238</v>
       </c>
       <c r="C280">
-        <v>0.75008627784478221</v>
+        <v>0.73147405563179468</v>
       </c>
       <c r="D280">
-        <v>1.2493947819944602</v>
+        <v>1.8988990074773762</v>
       </c>
     </row>
     <row r="281">
       <c r="A281">
-        <v>0.43229056471783706</v>
+        <v>1.5814077780966402e-05</v>
       </c>
       <c r="B281">
-        <v>0.65320300588705116</v>
+        <v>0.66340963048142498</v>
       </c>
       <c r="C281">
-        <v>0.75210169009744754</v>
+        <v>0.73329328777258151</v>
       </c>
       <c r="D281">
-        <v>1.2501670741632038</v>
+        <v>1.8717700915697428</v>
       </c>
     </row>
     <row r="282">
       <c r="A282">
-        <v>0.43254041313355956</v>
+        <v>1.6312555804923057e-05</v>
       </c>
       <c r="B282">
-        <v>0.65356448478015261</v>
+        <v>0.66431216406671956</v>
       </c>
       <c r="C282">
-        <v>0.75168605834592594</v>
+        <v>0.73235517681824502</v>
       </c>
       <c r="D282">
-        <v>1.2921938199539162</v>
+        <v>1.8721184091639644</v>
       </c>
     </row>
     <row r="283">
       <c r="A283">
-        <v>0.43259034596194335</v>
+        <v>1.6983457505147173e-05</v>
       </c>
       <c r="B283">
-        <v>0.65364206413940495</v>
+        <v>0.66462098533017</v>
       </c>
       <c r="C283">
-        <v>0.75160635840646139</v>
+        <v>0.73207797728246449</v>
       </c>
       <c r="D283">
-        <v>1.3206621017693938</v>
+        <v>1.8678841396654287</v>
       </c>
     </row>
     <row r="284">
       <c r="A284">
-        <v>0.43260036685818015</v>
+        <v>1.7659510092274197e-05</v>
       </c>
       <c r="B284">
-        <v>0.65367509605639063</v>
+        <v>0.6645218096786023</v>
       </c>
       <c r="C284">
-        <v>0.75157181261126949</v>
+        <v>0.73239807380466404</v>
       </c>
       <c r="D284">
-        <v>1.3491925493671859</v>
+        <v>1.8435868724859665</v>
       </c>
     </row>
     <row r="285">
       <c r="A285">
-        <v>0.43254269182125971</v>
+        <v>1.7431593888780523e-05</v>
       </c>
       <c r="B285">
-        <v>0.65372581859802648</v>
+        <v>0.66481628891605227</v>
       </c>
       <c r="C285">
-        <v>0.7515049400525653</v>
+        <v>0.73214186643676515</v>
       </c>
       <c r="D285">
-        <v>1.3812572338763758</v>
+        <v>1.8376417257288908</v>
       </c>
     </row>
     <row r="286">
       <c r="A286">
-        <v>0.43218189398227219</v>
+        <v>1.79383671524405e-05</v>
       </c>
       <c r="B286">
-        <v>0.65387050658562962</v>
+        <v>0.66514336904409033</v>
       </c>
       <c r="C286">
-        <v>0.75128735928131063</v>
+        <v>0.73194680509136512</v>
       </c>
       <c r="D286">
-        <v>1.4044238058861664</v>
+        <v>1.8189252222721131</v>
       </c>
     </row>
     <row r="287">
       <c r="A287">
-        <v>0.43225412388890405</v>
+        <v>1.8802177640290113e-05</v>
       </c>
       <c r="B287">
-        <v>0.65375775850226425</v>
+        <v>0.66523441590584342</v>
       </c>
       <c r="C287">
-        <v>0.75141445722268307</v>
+        <v>0.73204618949120048</v>
       </c>
       <c r="D287">
-        <v>1.4400351603797814</v>
+        <v>1.8004628611151761</v>
       </c>
     </row>
     <row r="288">
       <c r="A288">
-        <v>0.43387649893026647</v>
+        <v>1.9252140665028231e-05</v>
       </c>
       <c r="B288">
-        <v>0.65359849000204906</v>
+        <v>0.66438047538186307</v>
       </c>
       <c r="C288">
-        <v>0.75177502587333445</v>
+        <v>0.73275173460097687</v>
       </c>
       <c r="D288">
-        <v>1.4719591091880604</v>
+        <v>1.8205356531403027</v>
       </c>
     </row>
     <row r="289">
       <c r="A289">
-        <v>0.43537671427626357</v>
+        <v>1.9612267414312869e-05</v>
       </c>
       <c r="B289">
-        <v>0.65451425944509345</v>
+        <v>0.66478861622953522</v>
       </c>
       <c r="C289">
-        <v>0.75105114361997671</v>
+        <v>0.73242421842834249</v>
       </c>
       <c r="D289">
-        <v>1.4696665715488075</v>
+        <v>1.8237208725780945</v>
       </c>
     </row>
     <row r="290">
       <c r="A290">
-        <v>0.43399233633023682</v>
+        <v>2.0092517969770018e-05</v>
       </c>
       <c r="B290">
-        <v>0.65356606910498349</v>
+        <v>0.66369894113370198</v>
       </c>
       <c r="C290">
-        <v>0.75179146744947567</v>
+        <v>0.73343757008090349</v>
       </c>
       <c r="D290">
-        <v>1.4870213556747891</v>
+        <v>1.8109127803653426</v>
       </c>
     </row>
     <row r="291">
       <c r="A291">
-        <v>0.43575290793928206</v>
+        <v>2.1243368061032722e-05</v>
       </c>
       <c r="B291">
-        <v>0.654202397780421</v>
+        <v>0.66488855021063109</v>
       </c>
       <c r="C291">
-        <v>0.75158515776736134</v>
+        <v>0.73180899465459026</v>
       </c>
       <c r="D291">
-        <v>1.5157156709612662</v>
+        <v>1.8662888457327818</v>
       </c>
     </row>
     <row r="292">
       <c r="A292">
-        <v>0.43130601512653977</v>
+        <v>2.2379794757419988e-05</v>
       </c>
       <c r="B292">
-        <v>0.65029216039052384</v>
+        <v>0.66140649774465099</v>
       </c>
       <c r="C292">
-        <v>0.75472919601135247</v>
+        <v>0.73508499837945662</v>
       </c>
       <c r="D292">
-        <v>1.5465662657097996</v>
+        <v>1.830646491249232</v>
       </c>
     </row>
     <row r="293">
       <c r="A293">
-        <v>0.43098583354179243</v>
+        <v>2.3193757006579607e-05</v>
       </c>
       <c r="B293">
-        <v>0.64991709285691546</v>
+        <v>0.66108746672418039</v>
       </c>
       <c r="C293">
-        <v>0.75520472065046307</v>
+        <v>0.73532665172315981</v>
       </c>
       <c r="D293">
-        <v>1.5672385968539013</v>
+        <v>1.8394999663526335</v>
       </c>
     </row>
     <row r="294">
       <c r="A294">
-        <v>0.43126833725512359</v>
+        <v>2.3882811333546912e-05</v>
       </c>
       <c r="B294">
-        <v>0.65016004359769508</v>
+        <v>0.66108804965472467</v>
       </c>
       <c r="C294">
-        <v>0.75505471130960877</v>
+        <v>0.73534663138064382</v>
       </c>
       <c r="D294">
-        <v>1.5921726423846247</v>
+        <v>1.8409947415066812</v>
       </c>
     </row>
     <row r="295">
       <c r="A295">
-        <v>0.4321690314126615</v>
+        <v>2.4608241644704828e-05</v>
       </c>
       <c r="B295">
-        <v>0.65105833205691077</v>
+        <v>0.66127235791969141</v>
       </c>
       <c r="C295">
-        <v>0.75446523853721614</v>
+        <v>0.73541049646668921</v>
       </c>
       <c r="D295">
-        <v>1.6193542572632289</v>
+        <v>1.8403754782947279</v>
       </c>
     </row>
     <row r="296">
       <c r="A296">
-        <v>0.43107304617792919</v>
+        <v>2.5546831503633189e-05</v>
       </c>
       <c r="B296">
-        <v>0.64982156080871079</v>
+        <v>0.66042519078832607</v>
       </c>
       <c r="C296">
-        <v>0.75540306410171065</v>
+        <v>0.73599761412244846</v>
       </c>
       <c r="D296">
-        <v>1.6313161888600112</v>
+        <v>1.8420871597028299</v>
       </c>
     </row>
     <row r="297">
       <c r="A297">
-        <v>0.43115931521198514</v>
+        <v>2.6323054532790283e-05</v>
       </c>
       <c r="B297">
-        <v>0.64973491359132274</v>
+        <v>0.66010916830768329</v>
       </c>
       <c r="C297">
-        <v>0.75539332258897962</v>
+        <v>0.73628953599617986</v>
       </c>
       <c r="D297">
-        <v>1.6686822739090099</v>
+        <v>1.8323746454424463</v>
       </c>
     </row>
     <row r="298">
       <c r="A298">
-        <v>0.43185388880618447</v>
+        <v>2.7602131748401239e-05</v>
       </c>
       <c r="B298">
-        <v>0.65005803419113672</v>
+        <v>0.6597472517284334</v>
       </c>
       <c r="C298">
-        <v>0.75491475808467257</v>
+        <v>0.73692702309590397</v>
       </c>
       <c r="D298">
-        <v>1.7031718250216117</v>
+        <v>1.791495387586165</v>
       </c>
     </row>
     <row r="299">
       <c r="A299">
-        <v>0.43262479643432517</v>
+        <v>2.8653780718693475e-05</v>
       </c>
       <c r="B299">
-        <v>0.65072831444381829</v>
+        <v>0.66089930446966716</v>
       </c>
       <c r="C299">
-        <v>0.7542359169310322</v>
+        <v>0.73583994514597273</v>
       </c>
       <c r="D299">
-        <v>1.7339936989258276</v>
+        <v>1.786385349729565</v>
       </c>
     </row>
     <row r="300">
       <c r="A300">
-        <v>0.431441270658943</v>
+        <v>3.0300042210612817e-05</v>
       </c>
       <c r="B300">
-        <v>0.6494217365557351</v>
+        <v>0.65899884019699173</v>
       </c>
       <c r="C300">
-        <v>0.75555756064728974</v>
+        <v>0.73776607606396061</v>
       </c>
       <c r="D300">
-        <v>1.7327428631227604</v>
+        <v>1.7841316126254316</v>
       </c>
     </row>
     <row r="301">
       <c r="A301">
-        <v>0.4305846160877736</v>
+        <v>3.1916974205257559e-05</v>
       </c>
       <c r="B301">
-        <v>0.64889159964600296</v>
+        <v>0.65752605250414831</v>
       </c>
       <c r="C301">
-        <v>0.75582751073886034</v>
+        <v>0.73940979963504283</v>
       </c>
       <c r="D301">
-        <v>1.8143202355525876</v>
+        <v>1.7414583245828594</v>
       </c>
     </row>
     <row r="302">
       <c r="A302">
-        <v>0.42982794559784182</v>
+        <v>3.496264298923928e-05</v>
       </c>
       <c r="B302">
-        <v>0.64768415970718851</v>
+        <v>0.65609159793544092</v>
       </c>
       <c r="C302">
-        <v>0.75708246147211211</v>
+        <v>0.74075347308827677</v>
       </c>
       <c r="D302">
-        <v>1.8414062181795348</v>
+        <v>1.7501260731365083</v>
       </c>
     </row>
     <row r="303">
       <c r="A303">
-        <v>0.4285536507404224</v>
+        <v>3.5836324337992648e-05</v>
       </c>
       <c r="B303">
-        <v>0.64684916707653961</v>
+        <v>0.65568508291408945</v>
       </c>
       <c r="C303">
-        <v>0.7576401231190546</v>
+        <v>0.74094935028268827</v>
       </c>
       <c r="D303">
-        <v>1.8174578401221293</v>
+        <v>1.7477793283484342</v>
       </c>
     </row>
     <row r="304">
       <c r="A304">
-        <v>0.42858711334290261</v>
+        <v>3.7379111061755071e-05</v>
       </c>
       <c r="B304">
-        <v>0.64694705635307548</v>
+        <v>0.65587569964570658</v>
       </c>
       <c r="C304">
-        <v>0.75753267864634788</v>
+        <v>0.74077966343905277</v>
       </c>
       <c r="D304">
-        <v>1.8670694811200537</v>
+        <v>1.7437540312450843</v>
       </c>
     </row>
     <row r="305">
       <c r="A305">
-        <v>0.42849958034498964</v>
+        <v>3.9069124656058487e-05</v>
       </c>
       <c r="B305">
-        <v>0.64720233128191773</v>
+        <v>0.65616797572308294</v>
       </c>
       <c r="C305">
-        <v>0.75722395951774524</v>
+        <v>0.74054375617074053</v>
       </c>
       <c r="D305">
-        <v>1.9016764293350659</v>
+        <v>1.7326937157352453</v>
       </c>
     </row>
     <row r="306">
       <c r="A306">
-        <v>0.42850665365055018</v>
+        <v>4.0247639544995097e-05</v>
       </c>
       <c r="B306">
-        <v>0.64677498712158343</v>
+        <v>0.6560752315505014</v>
       </c>
       <c r="C306">
-        <v>0.7576754829232738</v>
+        <v>0.74059750635214905</v>
       </c>
       <c r="D306">
-        <v>1.9066766849841013</v>
+        <v>1.7369481766916581</v>
       </c>
     </row>
     <row r="307">
       <c r="A307">
-        <v>0.42858902711278746</v>
+        <v>4.1702402725553414e-05</v>
       </c>
       <c r="B307">
-        <v>0.64680041791702825</v>
+        <v>0.65609566495676064</v>
       </c>
       <c r="C307">
-        <v>0.75766299263984083</v>
+        <v>0.74057591488784147</v>
       </c>
       <c r="D307">
-        <v>1.9429410264373668</v>
+        <v>1.7364564584010269</v>
       </c>
     </row>
     <row r="308">
       <c r="A308">
-        <v>0.42990494514383548</v>
+        <v>4.2667258531245582e-05</v>
       </c>
       <c r="B308">
-        <v>0.64711055702730869</v>
+        <v>0.65654840561102135</v>
       </c>
       <c r="C308">
-        <v>0.75755863061018514</v>
+        <v>0.73998172927947337</v>
       </c>
       <c r="D308">
-        <v>1.9357291757682966</v>
+        <v>1.7553415860015444</v>
       </c>
     </row>
     <row r="309">
       <c r="A309">
-        <v>0.43025017505547125</v>
+        <v>4.4265702203194237e-05</v>
       </c>
       <c r="B309">
-        <v>0.64733813360390124</v>
+        <v>0.65644708634553972</v>
       </c>
       <c r="C309">
-        <v>0.75738613083441098</v>
+        <v>0.74007959201614304</v>
       </c>
       <c r="D309">
-        <v>1.9683442417951329</v>
+        <v>1.7534632396681333</v>
       </c>
     </row>
     <row r="310">
       <c r="A310">
-        <v>0.42920070491562551</v>
+        <v>4.5477373020701152e-05</v>
       </c>
       <c r="B310">
-        <v>0.64663188455035414</v>
+        <v>0.65618726515387515</v>
       </c>
       <c r="C310">
-        <v>0.75788879507851048</v>
+        <v>0.74022072164555053</v>
       </c>
       <c r="D310">
-        <v>2.0135381965933794</v>
+        <v>1.7498303513343085</v>
       </c>
     </row>
     <row r="311">
       <c r="A311">
-        <v>0.4288310701895065</v>
+        <v>4.7467290332416865e-05</v>
       </c>
       <c r="B311">
-        <v>0.64674483942543193</v>
+        <v>0.65626158978696381</v>
       </c>
       <c r="C311">
-        <v>0.75761374175260254</v>
+        <v>0.74030031445355549</v>
       </c>
       <c r="D311">
-        <v>2.0523205362017984</v>
+        <v>1.722938612230446</v>
       </c>
     </row>
     <row r="312">
       <c r="A312">
-        <v>0.42791229337728848</v>
+        <v>4.8085657453616801e-05</v>
       </c>
       <c r="B312">
-        <v>0.64490368927773623</v>
+        <v>0.65527639610486221</v>
       </c>
       <c r="C312">
-        <v>0.75942387746784812</v>
+        <v>0.74097370520364758</v>
       </c>
       <c r="D312">
-        <v>2.0561046649441015</v>
+        <v>1.7476173194483027</v>
       </c>
     </row>
     <row r="313">
       <c r="A313">
-        <v>0.42751229196431662</v>
+        <v>4.9379165723916445e-05</v>
       </c>
       <c r="B313">
-        <v>0.64468826998769369</v>
+        <v>0.65510172950086254</v>
       </c>
       <c r="C313">
-        <v>0.75957006078558065</v>
+        <v>0.741122428974196</v>
       </c>
       <c r="D313">
-        <v>2.0925916143064547</v>
+        <v>1.7427127200073775</v>
       </c>
     </row>
     <row r="314">
       <c r="A314">
-        <v>0.42685829964754757</v>
+        <v>5.1390036364190014e-05</v>
       </c>
       <c r="B314">
-        <v>0.64449205591802738</v>
+        <v>0.65517668611673041</v>
       </c>
       <c r="C314">
-        <v>0.75962753610907918</v>
+        <v>0.74101764587926877</v>
       </c>
       <c r="D314">
-        <v>2.1185959160139385</v>
+        <v>1.734792195030145</v>
       </c>
     </row>
     <row r="315">
       <c r="A315">
-        <v>0.42687721059806849</v>
+        <v>5.3739454828109015e-05</v>
       </c>
       <c r="B315">
-        <v>0.64447912957380793</v>
+        <v>0.65508783704285056</v>
       </c>
       <c r="C315">
-        <v>0.75964569922433811</v>
+        <v>0.74131096333403224</v>
       </c>
       <c r="D315">
-        <v>2.1431403746712121</v>
+        <v>1.7140264737534094</v>
       </c>
     </row>
     <row r="316">
       <c r="A316">
-        <v>0.42644193904476357</v>
+        <v>5.5210607500501234e-05</v>
       </c>
       <c r="B316">
-        <v>0.64464265914545082</v>
+        <v>0.65566512016848311</v>
       </c>
       <c r="C316">
-        <v>0.75940409168281953</v>
+        <v>0.74085801721775735</v>
       </c>
       <c r="D316">
-        <v>2.1783504971334313</v>
+        <v>1.6990626382582308</v>
       </c>
     </row>
     <row r="317">
       <c r="A317">
-        <v>0.42623528712133152</v>
+        <v>5.6908018252804065e-05</v>
       </c>
       <c r="B317">
-        <v>0.64568007815774675</v>
+        <v>0.65768856230388462</v>
       </c>
       <c r="C317">
-        <v>0.7583449069159488</v>
+        <v>0.73888537568381152</v>
       </c>
       <c r="D317">
-        <v>2.1935374434466408</v>
+        <v>1.6967077367814838</v>
       </c>
     </row>
     <row r="318">
       <c r="A318">
-        <v>0.42669291140260918</v>
+        <v>5.7998152240780647e-05</v>
       </c>
       <c r="B318">
-        <v>0.64765150374704994</v>
+        <v>0.65975071928062357</v>
       </c>
       <c r="C318">
-        <v>0.7565070660661658</v>
+        <v>0.73727767294563251</v>
       </c>
       <c r="D318">
-        <v>2.2289524705286601</v>
+        <v>1.666704665893999</v>
       </c>
     </row>
     <row r="319">
       <c r="A319">
-        <v>0.42644113433850794</v>
+        <v>6.0137846479790081e-05</v>
       </c>
       <c r="B319">
-        <v>0.64466097443016146</v>
+        <v>0.65803243535109945</v>
       </c>
       <c r="C319">
-        <v>0.7592353084744643</v>
+        <v>0.73863851873012609</v>
       </c>
       <c r="D319">
-        <v>2.2032305854465033</v>
+        <v>1.6871904667359732</v>
       </c>
     </row>
     <row r="320">
       <c r="A320">
-        <v>0.42384424052212571</v>
+        <v>6.2841358139370038e-05</v>
       </c>
       <c r="B320">
-        <v>0.64448218934712453</v>
+        <v>0.65823216162493736</v>
       </c>
       <c r="C320">
-        <v>0.75927949700670871</v>
+        <v>0.73846589859130507</v>
       </c>
       <c r="D320">
-        <v>2.2790588901745181</v>
+        <v>1.6741273225847859</v>
       </c>
     </row>
     <row r="321">
       <c r="A321">
-        <v>0.42627426541139901</v>
+        <v>6.963876493070832e-05</v>
       </c>
       <c r="B321">
-        <v>0.64268688041317268</v>
+        <v>0.65560860829206113</v>
       </c>
       <c r="C321">
-        <v>0.76097718253025692</v>
+        <v>0.74098891578884962</v>
       </c>
       <c r="D321">
-        <v>2.2743601471450292</v>
+        <v>1.6769233731242301</v>
       </c>
     </row>
     <row r="322">
       <c r="A322">
-        <v>0.42384286515964098</v>
+        <v>7.2581190466659306e-05</v>
       </c>
       <c r="B322">
-        <v>0.64189632513064998</v>
+        <v>0.6532721597135368</v>
       </c>
       <c r="C322">
-        <v>0.76158509313393652</v>
+        <v>0.7435703210211545</v>
       </c>
       <c r="D322">
-        <v>2.3602919370087205</v>
+        <v>1.6287745292766351</v>
       </c>
     </row>
     <row r="323">
       <c r="A323">
-        <v>0.42127300067835738</v>
+        <v>7.4967797720738426e-05</v>
       </c>
       <c r="B323">
-        <v>0.64195413517157174</v>
+        <v>0.65370099942548776</v>
       </c>
       <c r="C323">
-        <v>0.76142649009311358</v>
+        <v>0.74331749034635397</v>
       </c>
       <c r="D323">
-        <v>2.4363832966334327</v>
+        <v>1.6064146434585622</v>
       </c>
     </row>
     <row r="324">
       <c r="A324">
-        <v>0.41981456728536892</v>
+        <v>7.8750255764368306e-05</v>
       </c>
       <c r="B324">
-        <v>0.64329364757901075</v>
+        <v>0.65585538168919788</v>
       </c>
       <c r="C324">
-        <v>0.76018908578931299</v>
+        <v>0.74129435951334854</v>
       </c>
       <c r="D324">
-        <v>2.4937483417830402</v>
+        <v>1.6044251579897884</v>
       </c>
     </row>
     <row r="325">
       <c r="A325">
-        <v>0.42079622611567263</v>
+        <v>8.1821447399183864e-05</v>
       </c>
       <c r="B325">
-        <v>0.64206531237662623</v>
+        <v>0.65530490192944546</v>
       </c>
       <c r="C325">
-        <v>0.76128898561785285</v>
+        <v>0.74172272986635324</v>
       </c>
       <c r="D325">
-        <v>2.5368936139504035</v>
+        <v>1.6117742378575044</v>
       </c>
     </row>
     <row r="326">
       <c r="A326">
-        <v>0.42196274333631539</v>
+        <v>8.4358233786765115e-05</v>
       </c>
       <c r="B326">
-        <v>0.64200171693187769</v>
+        <v>0.65533567607971199</v>
       </c>
       <c r="C326">
-        <v>0.7613666377886098</v>
+        <v>0.74168530942896482</v>
       </c>
       <c r="D326">
-        <v>2.543326861990109</v>
+        <v>1.6129797944879642</v>
       </c>
     </row>
     <row r="327">
       <c r="A327">
-        <v>0.41874416669711201</v>
+        <v>8.7668181671458775e-05</v>
       </c>
       <c r="B327">
-        <v>0.64175905858536941</v>
+        <v>0.65537796410958238</v>
       </c>
       <c r="C327">
-        <v>0.76151936510607121</v>
+        <v>0.74165114520743824</v>
       </c>
       <c r="D327">
-        <v>2.5823544620183001</v>
+        <v>1.6038089033137877</v>
       </c>
     </row>
     <row r="328">
       <c r="A328">
-        <v>0.4160862952920571</v>
+        <v>9.16987162766619e-05</v>
       </c>
       <c r="B328">
-        <v>0.64241645187712471</v>
+        <v>0.65648942951382094</v>
       </c>
       <c r="C328">
-        <v>0.76090769439121775</v>
+        <v>0.74057689954949124</v>
       </c>
       <c r="D328">
-        <v>2.7015955801350784</v>
+        <v>1.602096737965329</v>
       </c>
     </row>
     <row r="329">
       <c r="A329">
-        <v>0.41335447179521656</v>
+        <v>9.6460147353451796e-05</v>
       </c>
       <c r="B329">
-        <v>0.64371545449835021</v>
+        <v>0.65745574868071732</v>
       </c>
       <c r="C329">
-        <v>0.75975457505677868</v>
+        <v>0.73998809825245138</v>
       </c>
       <c r="D329">
-        <v>2.7597552789221389</v>
+        <v>1.5738110224474458</v>
       </c>
     </row>
     <row r="330">
       <c r="A330">
-        <v>0.41332488462911643</v>
+        <v>9.8173528635410264e-05</v>
       </c>
       <c r="B330">
-        <v>0.64379741814059832</v>
+        <v>0.65774699912450818</v>
       </c>
       <c r="C330">
-        <v>0.75968467094148595</v>
+        <v>0.73972877990366359</v>
       </c>
       <c r="D330">
-        <v>2.8448455093572873</v>
+        <v>1.5730027006252305</v>
       </c>
     </row>
     <row r="331">
       <c r="A331">
-        <v>0.41502788149077152</v>
+        <v>0.0001012521335822101</v>
       </c>
       <c r="B331">
-        <v>0.64349858549979666</v>
+        <v>0.65729207487961638</v>
       </c>
       <c r="C331">
-        <v>0.75994625561769369</v>
+        <v>0.74016738461657139</v>
       </c>
       <c r="D331">
-        <v>2.8226460740468733</v>
+        <v>1.5734370167033496</v>
       </c>
     </row>
     <row r="332">
       <c r="A332">
-        <v>0.41403444813524848</v>
+        <v>0.00010621454531325961</v>
       </c>
       <c r="B332">
-        <v>0.64354566908567101</v>
+        <v>0.65703913666802338</v>
       </c>
       <c r="C332">
-        <v>0.75990511164236696</v>
+        <v>0.74052726791607637</v>
       </c>
       <c r="D332">
-        <v>2.8831650722227531</v>
+        <v>1.560446893471948</v>
       </c>
     </row>
     <row r="333">
       <c r="A333">
-        <v>0.40912200446063829</v>
+        <v>0.00011015338832279375</v>
       </c>
       <c r="B333">
-        <v>0.64367558912410539</v>
+        <v>0.65715123399968811</v>
       </c>
       <c r="C333">
-        <v>0.75978951869780109</v>
+        <v>0.74056254537875199</v>
       </c>
       <c r="D333">
-        <v>2.9413539865393243</v>
+        <v>1.5431895338442085</v>
       </c>
     </row>
     <row r="334">
       <c r="A334">
-        <v>0.40938580039559147</v>
+        <v>0.27389951175120963</v>
       </c>
       <c r="B334">
-        <v>0.64368088664692469</v>
+        <v>0.65859473730653229</v>
       </c>
       <c r="C334">
-        <v>0.75978567137429009</v>
+        <v>0.7382000276203704</v>
       </c>
       <c r="D334">
-        <v>3.0097362093405109</v>
+        <v>1.5103114001802838</v>
       </c>
     </row>
     <row r="335">
       <c r="A335">
-        <v>0.40689781388304158</v>
+        <v>0.27045206574324665</v>
       </c>
       <c r="B335">
-        <v>0.64388010418285557</v>
+        <v>0.65885251678368373</v>
       </c>
       <c r="C335">
-        <v>0.75962147647000133</v>
+        <v>0.73799738619383837</v>
       </c>
       <c r="D335">
-        <v>3.0761138324116097</v>
+        <v>1.5078044787715874</v>
       </c>
     </row>
     <row r="336">
       <c r="A336">
-        <v>0.40660086201391821</v>
+        <v>0.27196804136063091</v>
       </c>
       <c r="B336">
-        <v>0.64395463197019054</v>
+        <v>0.65825254659097665</v>
       </c>
       <c r="C336">
-        <v>0.75955976144755977</v>
+        <v>0.7389413606957268</v>
       </c>
       <c r="D336">
-        <v>3.0955617472075669</v>
+        <v>1.4725583186755695</v>
       </c>
     </row>
     <row r="337">
       <c r="A337">
-        <v>0.40628852501794599</v>
+        <v>0.27108044918425267</v>
       </c>
       <c r="B337">
-        <v>0.64401202341910402</v>
+        <v>0.65834353833064363</v>
       </c>
       <c r="C337">
-        <v>0.75951296913249622</v>
+        <v>0.73896140712845493</v>
       </c>
       <c r="D337">
-        <v>3.1290405809639728</v>
+        <v>1.4635633310608749</v>
       </c>
     </row>
     <row r="338">
       <c r="A338">
-        <v>0.40286080857989703</v>
+        <v>0.26713596084042274</v>
       </c>
       <c r="B338">
-        <v>0.64408107113227486</v>
+        <v>0.65865495476628699</v>
       </c>
       <c r="C338">
-        <v>0.75946976382701537</v>
+        <v>0.73875370328561241</v>
       </c>
       <c r="D338">
-        <v>3.2036456401508904</v>
+        <v>1.4575366637575762</v>
       </c>
     </row>
     <row r="339">
       <c r="A339">
-        <v>0.39723525649395697</v>
+        <v>0.26213795770679271</v>
       </c>
       <c r="B339">
-        <v>0.64445864524228835</v>
+        <v>0.65901657957483628</v>
       </c>
       <c r="C339">
-        <v>0.75917740527665223</v>
+        <v>0.73865120157951036</v>
       </c>
       <c r="D339">
-        <v>3.2912092747247286</v>
+        <v>1.4389881920515728</v>
       </c>
     </row>
     <row r="340">
       <c r="A340">
-        <v>0.39126988910907395</v>
+        <v>0.25856915922817336</v>
       </c>
       <c r="B340">
-        <v>0.64529946714232878</v>
+        <v>0.65961902706777231</v>
       </c>
       <c r="C340">
-        <v>0.75850018891015769</v>
+        <v>0.73847088122645976</v>
       </c>
       <c r="D340">
-        <v>3.3227428920115103</v>
+        <v>1.4087426557079539</v>
       </c>
     </row>
     <row r="341">
       <c r="A341">
-        <v>0.38665987272606983</v>
+        <v>0.25302737415601073</v>
       </c>
       <c r="B341">
-        <v>0.64608981815091204</v>
+        <v>0.66071305618286291</v>
       </c>
       <c r="C341">
-        <v>0.75786430378914149</v>
+        <v>0.73759417684283968</v>
       </c>
       <c r="D341">
-        <v>3.3533610097700959</v>
+        <v>1.4018588149614102</v>
       </c>
     </row>
     <row r="342">
       <c r="A342">
-        <v>0.39811355023986461</v>
+        <v>0.25809047176608585</v>
       </c>
       <c r="B342">
-        <v>0.64468076863779822</v>
+        <v>0.66024817809729353</v>
       </c>
       <c r="C342">
-        <v>0.75895597670489567</v>
+        <v>0.73770931599491996</v>
       </c>
       <c r="D342">
-        <v>3.3255401294430369</v>
+        <v>1.4246374660961199</v>
       </c>
     </row>
     <row r="343">
       <c r="A343">
-        <v>0.41122733504424558</v>
+        <v>0.2570677960103982</v>
       </c>
       <c r="B343">
-        <v>0.64548159965738139</v>
+        <v>0.66105371324046658</v>
       </c>
       <c r="C343">
-        <v>0.75815399716405008</v>
+        <v>0.73670340678164936</v>
       </c>
       <c r="D343">
-        <v>3.3107346244301721</v>
+        <v>1.4484216943704877</v>
       </c>
     </row>
     <row r="344">
       <c r="A344">
-        <v>0.40677321457705884</v>
+        <v>0.25389088536435434</v>
       </c>
       <c r="B344">
-        <v>0.64476636099785134</v>
+        <v>0.65983389516685387</v>
       </c>
       <c r="C344">
-        <v>0.75879861907327584</v>
+        <v>0.738128039564655</v>
       </c>
       <c r="D344">
-        <v>3.3700169872365446</v>
+        <v>1.4211333454301645</v>
       </c>
     </row>
   </sheetData>
